--- a/pilas/mapa_parejas_acumulado.xlsx
+++ b/pilas/mapa_parejas_acumulado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apa/Dropbox/42/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F93A617-2659-3F41-A8DF-366DFF66A585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948D8C6-E9E4-4C09-A08C-5094735A7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>[403, 185, 148, 467, 213, 260, 497, 198, 215, 478, 332, 188, 477, 122, 307, 284, 243, 133, 210, 63, 236, 1, 286, 80, 79, 290, 4, 373, 29, 326, 154, 149, 134, 47, 410, 192, 486, 333, 341, 64, 494, 411, 294, 350, 381, 451, 105, 226, 305, 83, 176, 293, 264, 455, 404, 461, 292, 287, 201, 248, 318, 76, 48, 285, 349, 480, 496, 70, 255, 73, 491, 412, 357, 13, 336, 152, 394, 363, 484, 311, 306, 88, 46, 11, 327, 263, 177, 240, 151, 34, 367, 162, 202, 14, 130, 457, 89, 140, 303, 474, 17, 387, 170, 230, 238, 124, 492, 23, 15, 112, 55, 456, 41, 430, 182, 200, 12, 157, 272, 490, 57, 108, 228, 100, 121, 24, 324, 131, 391, 344, 67, 110, 42, 5, 301, 313, 446, 295, 126, 2, 266, 483, 417, 85, 335, 399, 30, 288, 214, 168, 99, 96, 414, 253, 278, 141, 366, 321, 346, 343, 86, 65, 153, 328, 347, 234, 137, 72, 50, 211, 308, 468, 138, 187, 207, 406, 374, 244, 377, 107, 413, 454, 227, 442, 111, 10, 135, 407, 420, 25, 195, 180, 289, 18, 174, 171, 393, 265, 245, 159, 340, 81, 235, 448, 173, 239, 21, 376, 416, 460, 423, 184, 178, 354, 206, 476, 358, 267, 431, 466, 383, 94, 304, 225, 425, 452, 370, 405, 445, 380, 252, 433, 269, 339, 386, 66, 459, 183, 487, 385, 49, 246, 20, 172, 369, 249, 75, 164, 322, 93, 158, 160, 302, 256, 118, 444, 331, 91, 128, 143, 348, 60, 16, 38, 258, 359, 166, 362, 262, 314, 495, 78, 283, 196, 428, 251, 102, 427, 229, 45, 378, 139, 58, 106, 129, 92, 127, 175, 9, 488, 232, 61, 470, 219, 310, 39, 3, 297, 395, 271, 439, 365, 422, 485, 443, 223, 95, 274, 101, 31, 400, 179, 415, 209, 27, 84, 82, 401, 315, 479, 489, 398, 247, 500, 197, 355, 69, 205, 163, 220, 298, 250, 281, 345, 216, 408, 421, 212, 43, 447, 259, 193, 337, 435, 317, 382, 53, 117, 33, 296, 40, 465, 279, 37, 54, 254, 98, 145, 475, 309, 473, 44, 218, 299, 19, 120, 51, 424, 462, 116, 449, 300, 74, 8, 97, 62, 147, 275, 368, 330, 257, 123, 481, 437, 150, 68, 104, 392, 132, 432, 190, 419, 181, 379, 231, 155, 119, 7, 499, 372, 291, 342, 353, 472, 463, 390, 352, 351, 273, 87, 450, 436, 35, 493, 222, 375, 270, 6, 56, 438, 109, 217, 199, 338, 189, 409, 36, 434, 316, 169, 312, 113, 441, 22, 389, 268, 261, 453, 418, 319, 77, 458, 224, 426, 323, 71, 115, 191, 356, 125, 440, 334, 282, 237, 320, 397, 203, 32, 396, 329, 280, 156, 186, 371, 167, 136, 194, 165, 103, 114, 384, 26, 498, 233, 471, 221, 325, 276, 429, 59, 364, 90, 146, 142, 402, 52, 361, 208, 469, 204, 388, 161, 277, 464, 144, 482, 242, 360, 241, 28]</t>
   </si>
@@ -423,13 +423,25 @@
   </si>
   <si>
     <t>[122, 117, 322, 265, 362, 340, 484, 170, 56, 124, 225, 134, 474, 478, 87, 126, 21, 212, 100, 369, 409, 51, 95, 176, 52, 132, 423, 449, 250, 334, 82, 341, 104, 328, 499, 293, 23, 339, 424, 361, 378, 172, 182, 385, 353, 191, 444, 359, 7, 441, 111, 335, 120, 203, 174, 221, 386, 175, 309, 439, 244, 137, 158, 357, 455, 128, 342, 388, 113, 136, 421, 446, 351, 465, 188, 12, 437, 200, 230, 239, 148, 327, 69, 275, 429, 475, 58, 15, 92, 133, 248, 436, 318, 60, 460, 43, 243, 376, 209, 311, 343, 366, 77, 413, 301, 68, 91, 497, 462, 46, 189, 294, 1, 114, 205, 141, 391, 89, 481, 29, 217, 201, 215, 435, 267, 5, 235, 42, 64, 333, 324, 154, 305, 274, 109, 204, 160, 144, 27, 39, 152, 54, 278, 255, 325, 140, 72, 78, 400, 473, 306, 500, 181, 420, 479, 135, 197, 331, 406, 44, 50, 399, 312, 167, 88, 48, 277, 419, 280, 242, 456, 470, 295, 22, 47, 195, 404, 37, 394, 70, 11, 368, 354, 138, 299, 207, 192, 431, 208, 426, 90, 146, 459, 219, 485, 185, 238, 418, 355, 123, 93, 464, 401, 347, 430, 458, 17, 371, 2, 129, 495, 155, 183, 346, 74, 393, 62, 408, 40, 448, 35, 210, 298, 350, 247, 45, 461, 364, 380, 292, 196, 365, 329, 246, 224, 194, 432, 367, 59, 75, 125, 94, 34, 304, 326, 71, 384, 229, 96, 166, 440, 273, 30, 310, 147, 272, 381, 397, 372, 193, 264, 490, 457, 53, 241, 112, 198, 302, 258, 107, 49, 151, 387, 496, 99, 445, 55, 344, 447, 492, 313, 412, 18, 288, 180, 9, 142, 297, 283, 159, 319, 168, 240, 184, 417, 245, 403, 374, 477, 466, 315, 139, 57, 199, 498, 330, 289, 268, 234, 232, 271, 261, 222, 115, 156, 314, 451, 13, 233, 253, 227, 84, 228, 317, 8, 145, 487, 108, 422, 396, 153, 402, 3, 16, 377, 395, 469, 237, 119, 407, 150, 81, 164, 486, 186, 31, 320, 171, 121, 450, 101, 226, 38, 97, 20, 202, 162, 26, 61, 373, 110, 83, 379, 4, 392, 149, 405, 251, 363, 398, 276, 252, 24, 442, 177, 254, 389, 211, 161, 19, 14, 269, 434, 86, 300, 360, 338, 105, 284, 383, 25, 308, 425, 106, 279, 213, 336, 375, 231, 467, 463, 163, 178, 358, 476, 76, 482, 118, 468, 281, 443, 256, 452, 206, 370, 6, 10, 348, 332, 323, 290, 187, 352, 321, 416, 287, 427, 296, 472, 438, 471, 488, 410, 131, 216, 286, 98, 116, 249, 66, 127, 214, 259, 65, 32, 270, 33, 179, 494, 73, 356, 493, 415, 218, 349, 480, 169, 236, 282, 79, 102, 489, 223, 285, 157, 263, 491, 257, 220, 36, 266, 41, 433, 382, 303, 453, 337, 63, 291, 103, 483, 67, 28, 190, 390, 130, 316, 143, 262, 454, 80, 173, 307, 411, 85, 428, 260, 345, 165, 414]</t>
+  </si>
+  <si>
+    <t>con dos</t>
+  </si>
+  <si>
+    <t>con una</t>
+  </si>
+  <si>
+    <t>con tres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +451,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,17 +480,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -782,18 +807,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:X119"/>
+  <dimension ref="B6:AA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.8203125" customWidth="1"/>
+    <col min="2" max="2" width="4.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.5">
+      <c r="Y6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.5">
+      <c r="D7" s="2">
+        <f>D8/MAX($B:$B)</f>
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:X7" si="0">E8/MAX($B:$B)</f>
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13761467889908258</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7522935779816515E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13761467889908258</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="0"/>
+        <v>5.5045871559633031E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4220183486238536E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11926605504587157</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="0"/>
+        <v>9.1743119266055051E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5871559633027525E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.3394495412844041E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11926605504587157</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14678899082568808</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>AVERAGE(D7:X7)</f>
+        <v>8.6063783311489728E-2</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>Y7*Y7</f>
+        <v>7.4069747978870578E-3</v>
+      </c>
+      <c r="AA7" s="5">
+        <f>Y7*Y7*Y7</f>
+        <v>6.374722739990172E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.5">
       <c r="D8">
         <f>COUNTIF(D$11:D1010,"&gt;=5500")</f>
         <v>8</v>
@@ -879,7 +1013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.5">
       <c r="D10" s="1" t="s">
         <v>126</v>
       </c>
@@ -944,7 +1078,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.5">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1015,7 +1149,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1086,7 +1220,7 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1157,7 +1291,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.5">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1228,7 +1362,7 @@
         <v>5089</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>5</v>
       </c>
@@ -1299,7 +1433,7 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>6</v>
       </c>
@@ -1370,7 +1504,7 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>7</v>
       </c>
@@ -1441,7 +1575,7 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>8</v>
       </c>
@@ -1512,7 +1646,7 @@
         <v>5089</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>9</v>
       </c>
@@ -1583,7 +1717,7 @@
         <v>5249</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B20">
         <v>10</v>
       </c>
@@ -1654,7 +1788,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B21">
         <v>11</v>
       </c>
@@ -1725,7 +1859,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B22">
         <v>12</v>
       </c>
@@ -1796,7 +1930,7 @@
         <v>5194</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B23">
         <v>13</v>
       </c>
@@ -1867,7 +2001,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B24">
         <v>14</v>
       </c>
@@ -1938,7 +2072,7 @@
         <v>5367</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B25">
         <v>15</v>
       </c>
@@ -2009,7 +2143,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B26">
         <v>16</v>
       </c>
@@ -2080,7 +2214,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B27">
         <v>17</v>
       </c>
@@ -2151,7 +2285,7 @@
         <v>5563</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B28">
         <v>18</v>
       </c>
@@ -2222,7 +2356,7 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B29">
         <v>19</v>
       </c>
@@ -2293,7 +2427,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B30">
         <v>20</v>
       </c>
@@ -2364,7 +2498,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B31">
         <v>21</v>
       </c>
@@ -2435,7 +2569,7 @@
         <v>5069</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B32">
         <v>22</v>
       </c>
@@ -2506,7 +2640,7 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B33">
         <v>23</v>
       </c>
@@ -2577,7 +2711,7 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B34">
         <v>24</v>
       </c>
@@ -2648,7 +2782,7 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B35">
         <v>25</v>
       </c>
@@ -2719,7 +2853,7 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B36">
         <v>26</v>
       </c>
@@ -2790,7 +2924,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B37">
         <v>27</v>
       </c>
@@ -2861,7 +2995,7 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B38">
         <v>28</v>
       </c>
@@ -2932,7 +3066,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B39">
         <v>29</v>
       </c>
@@ -3003,7 +3137,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B40">
         <v>30</v>
       </c>
@@ -3074,7 +3208,7 @@
         <v>4974</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B41">
         <v>31</v>
       </c>
@@ -3145,7 +3279,7 @@
         <v>5189</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B42">
         <v>32</v>
       </c>
@@ -3216,7 +3350,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B43">
         <v>33</v>
       </c>
@@ -3287,7 +3421,7 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B44">
         <v>34</v>
       </c>
@@ -3358,7 +3492,7 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B45">
         <v>35</v>
       </c>
@@ -3429,7 +3563,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B46">
         <v>36</v>
       </c>
@@ -3500,7 +3634,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B47">
         <v>37</v>
       </c>
@@ -3571,7 +3705,7 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B48">
         <v>38</v>
       </c>
@@ -3642,7 +3776,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B49">
         <v>39</v>
       </c>
@@ -3713,7 +3847,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B50">
         <v>40</v>
       </c>
@@ -3784,7 +3918,7 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B51">
         <v>41</v>
       </c>
@@ -3855,7 +3989,7 @@
         <v>5297</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B52">
         <v>42</v>
       </c>
@@ -3926,7 +4060,7 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B53">
         <v>43</v>
       </c>
@@ -3997,7 +4131,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B54">
         <v>44</v>
       </c>
@@ -4068,7 +4202,7 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B55">
         <v>45</v>
       </c>
@@ -4139,7 +4273,7 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B56">
         <v>46</v>
       </c>
@@ -4210,7 +4344,7 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B57">
         <v>47</v>
       </c>
@@ -4281,7 +4415,7 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B58">
         <v>48</v>
       </c>
@@ -4352,7 +4486,7 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B59">
         <v>49</v>
       </c>
@@ -4423,7 +4557,7 @@
         <v>5496</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B60">
         <v>50</v>
       </c>
@@ -4494,7 +4628,7 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B61">
         <v>51</v>
       </c>
@@ -4565,7 +4699,7 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B62">
         <v>52</v>
       </c>
@@ -4636,7 +4770,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B63">
         <v>53</v>
       </c>
@@ -4707,7 +4841,7 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B64">
         <v>54</v>
       </c>
@@ -4778,7 +4912,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B65">
         <v>55</v>
       </c>
@@ -4849,7 +4983,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B66">
         <v>56</v>
       </c>
@@ -4920,7 +5054,7 @@
         <v>4984</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B67">
         <v>57</v>
       </c>
@@ -4991,7 +5125,7 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B68">
         <v>58</v>
       </c>
@@ -5062,7 +5196,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B69">
         <v>59</v>
       </c>
@@ -5133,7 +5267,7 @@
         <v>5361</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B70">
         <v>60</v>
       </c>
@@ -5204,7 +5338,7 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B71">
         <v>61</v>
       </c>
@@ -5275,7 +5409,7 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B72">
         <v>62</v>
       </c>
@@ -5346,7 +5480,7 @@
         <v>5226</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B73">
         <v>63</v>
       </c>
@@ -5417,7 +5551,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B74">
         <v>64</v>
       </c>
@@ -5488,7 +5622,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B75">
         <v>65</v>
       </c>
@@ -5559,7 +5693,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B76">
         <v>66</v>
       </c>
@@ -5630,7 +5764,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B77">
         <v>67</v>
       </c>
@@ -5701,7 +5835,7 @@
         <v>5379</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B78">
         <v>68</v>
       </c>
@@ -5772,7 +5906,7 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B79">
         <v>69</v>
       </c>
@@ -5843,7 +5977,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B80">
         <v>70</v>
       </c>
@@ -5914,7 +6048,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B81">
         <v>71</v>
       </c>
@@ -5985,7 +6119,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B82">
         <v>72</v>
       </c>
@@ -6056,7 +6190,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B83">
         <v>73</v>
       </c>
@@ -6127,7 +6261,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B84">
         <v>74</v>
       </c>
@@ -6198,7 +6332,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B85">
         <v>75</v>
       </c>
@@ -6269,7 +6403,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B86">
         <v>76</v>
       </c>
@@ -6340,7 +6474,7 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B87">
         <v>77</v>
       </c>
@@ -6411,7 +6545,7 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B88">
         <v>78</v>
       </c>
@@ -6482,7 +6616,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B89">
         <v>79</v>
       </c>
@@ -6553,7 +6687,7 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B90">
         <v>80</v>
       </c>
@@ -6624,7 +6758,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B91">
         <v>81</v>
       </c>
@@ -6695,7 +6829,7 @@
         <v>5185</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B92">
         <v>82</v>
       </c>
@@ -6766,7 +6900,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B93">
         <v>83</v>
       </c>
@@ -6837,7 +6971,7 @@
         <v>5144</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B94">
         <v>84</v>
       </c>
@@ -6908,7 +7042,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B95">
         <v>85</v>
       </c>
@@ -6979,7 +7113,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B96">
         <v>86</v>
       </c>
@@ -7050,7 +7184,7 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B97">
         <v>87</v>
       </c>
@@ -7121,7 +7255,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B98">
         <v>88</v>
       </c>
@@ -7192,7 +7326,7 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B99">
         <v>89</v>
       </c>
@@ -7263,7 +7397,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B100">
         <v>90</v>
       </c>
@@ -7334,7 +7468,7 @@
         <v>5284</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B101">
         <v>91</v>
       </c>
@@ -7405,7 +7539,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B102">
         <v>92</v>
       </c>
@@ -7476,7 +7610,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B103">
         <v>93</v>
       </c>
@@ -7547,7 +7681,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B104">
         <v>94</v>
       </c>
@@ -7618,7 +7752,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B105">
         <v>95</v>
       </c>
@@ -7689,7 +7823,7 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B106">
         <v>96</v>
       </c>
@@ -7760,7 +7894,7 @@
         <v>5359</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B107">
         <v>97</v>
       </c>
@@ -7831,7 +7965,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B108">
         <v>98</v>
       </c>
@@ -7902,7 +8036,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B109">
         <v>99</v>
       </c>
@@ -7973,7 +8107,7 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B110">
         <v>100</v>
       </c>
@@ -8044,7 +8178,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B111">
         <v>101</v>
       </c>
@@ -8115,7 +8249,7 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B112">
         <v>102</v>
       </c>
@@ -8186,7 +8320,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B113">
         <v>103</v>
       </c>
@@ -8257,7 +8391,7 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B114">
         <v>104</v>
       </c>
@@ -8328,7 +8462,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B115">
         <v>105</v>
       </c>
@@ -8399,7 +8533,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B116">
         <v>106</v>
       </c>
@@ -8470,7 +8604,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B117">
         <v>107</v>
       </c>
@@ -8541,7 +8675,7 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B118">
         <v>108</v>
       </c>
@@ -8612,7 +8746,7 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B119">
         <v>109</v>
       </c>

--- a/pilas/mapa_parejas_acumulado.xlsx
+++ b/pilas/mapa_parejas_acumulado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4948D8C6-E9E4-4C09-A08C-5094735A7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D77BA-B27D-4794-8CD6-FCA21182E181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>[403, 185, 148, 467, 213, 260, 497, 198, 215, 478, 332, 188, 477, 122, 307, 284, 243, 133, 210, 63, 236, 1, 286, 80, 79, 290, 4, 373, 29, 326, 154, 149, 134, 47, 410, 192, 486, 333, 341, 64, 494, 411, 294, 350, 381, 451, 105, 226, 305, 83, 176, 293, 264, 455, 404, 461, 292, 287, 201, 248, 318, 76, 48, 285, 349, 480, 496, 70, 255, 73, 491, 412, 357, 13, 336, 152, 394, 363, 484, 311, 306, 88, 46, 11, 327, 263, 177, 240, 151, 34, 367, 162, 202, 14, 130, 457, 89, 140, 303, 474, 17, 387, 170, 230, 238, 124, 492, 23, 15, 112, 55, 456, 41, 430, 182, 200, 12, 157, 272, 490, 57, 108, 228, 100, 121, 24, 324, 131, 391, 344, 67, 110, 42, 5, 301, 313, 446, 295, 126, 2, 266, 483, 417, 85, 335, 399, 30, 288, 214, 168, 99, 96, 414, 253, 278, 141, 366, 321, 346, 343, 86, 65, 153, 328, 347, 234, 137, 72, 50, 211, 308, 468, 138, 187, 207, 406, 374, 244, 377, 107, 413, 454, 227, 442, 111, 10, 135, 407, 420, 25, 195, 180, 289, 18, 174, 171, 393, 265, 245, 159, 340, 81, 235, 448, 173, 239, 21, 376, 416, 460, 423, 184, 178, 354, 206, 476, 358, 267, 431, 466, 383, 94, 304, 225, 425, 452, 370, 405, 445, 380, 252, 433, 269, 339, 386, 66, 459, 183, 487, 385, 49, 246, 20, 172, 369, 249, 75, 164, 322, 93, 158, 160, 302, 256, 118, 444, 331, 91, 128, 143, 348, 60, 16, 38, 258, 359, 166, 362, 262, 314, 495, 78, 283, 196, 428, 251, 102, 427, 229, 45, 378, 139, 58, 106, 129, 92, 127, 175, 9, 488, 232, 61, 470, 219, 310, 39, 3, 297, 395, 271, 439, 365, 422, 485, 443, 223, 95, 274, 101, 31, 400, 179, 415, 209, 27, 84, 82, 401, 315, 479, 489, 398, 247, 500, 197, 355, 69, 205, 163, 220, 298, 250, 281, 345, 216, 408, 421, 212, 43, 447, 259, 193, 337, 435, 317, 382, 53, 117, 33, 296, 40, 465, 279, 37, 54, 254, 98, 145, 475, 309, 473, 44, 218, 299, 19, 120, 51, 424, 462, 116, 449, 300, 74, 8, 97, 62, 147, 275, 368, 330, 257, 123, 481, 437, 150, 68, 104, 392, 132, 432, 190, 419, 181, 379, 231, 155, 119, 7, 499, 372, 291, 342, 353, 472, 463, 390, 352, 351, 273, 87, 450, 436, 35, 493, 222, 375, 270, 6, 56, 438, 109, 217, 199, 338, 189, 409, 36, 434, 316, 169, 312, 113, 441, 22, 389, 268, 261, 453, 418, 319, 77, 458, 224, 426, 323, 71, 115, 191, 356, 125, 440, 334, 282, 237, 320, 397, 203, 32, 396, 329, 280, 156, 186, 371, 167, 136, 194, 165, 103, 114, 384, 26, 498, 233, 471, 221, 325, 276, 429, 59, 364, 90, 146, 142, 402, 52, 361, 208, 469, 204, 388, 161, 277, 464, 144, 482, 242, 360, 241, 28]</t>
   </si>
@@ -432,6 +432,306 @@
   </si>
   <si>
     <t>con tres</t>
+  </si>
+  <si>
+    <t>[46, 494, 296, 34, 232, 489, 385, 19, 341, 277, 242, 140, 286, 383, 274, 328, 171, 390, 360, 308, 473, 418, 133, 257, 454, 172, 372, 3, 463, 290, 358, 119, 491, 486, 178, 28, 378, 88, 200, 417, 90, 81, 116, 182, 165, 135, 191, 156, 11, 199, 215, 482, 74, 151, 45, 324, 24, 337, 174, 229, 230, 363, 440, 252, 425, 105, 468, 98, 114, 275, 62, 145, 405, 343, 53, 282, 258, 120, 429, 483, 449, 475, 106, 268, 111, 433, 25, 327, 448, 58, 70, 142, 384, 179, 107, 427, 180, 247, 121, 289, 63, 163, 185, 259, 470, 260, 181, 10, 251, 431, 9, 364, 451, 21, 426, 355, 129, 455, 240, 310, 294, 227, 359, 100, 241, 192, 91, 112, 143, 33, 198, 335, 319, 278, 312, 307, 313, 353, 437, 40, 235, 216, 223, 392, 155, 497, 391, 65, 424, 12, 14, 323, 196, 395, 92, 52, 388, 210, 403, 102, 139, 300, 87, 314, 41, 1, 77, 443, 61, 108, 84, 254, 303, 57, 131, 189, 362, 5, 253, 2, 368, 351, 204, 301, 276, 397, 369, 93, 164, 94, 236, 168, 207, 27, 26, 467, 265, 466, 20, 345, 218, 423, 141, 320, 187, 480, 42, 279, 492, 188, 6, 495, 270, 269, 169, 330, 342, 287, 291, 147, 167, 464, 122, 444, 273, 208, 348, 386, 394, 500, 447, 476, 237, 295, 7, 498, 250, 461, 217, 138, 350, 39, 206, 406, 159, 484, 450, 338, 231, 370, 267, 306, 195, 243, 398, 220, 399, 95, 413, 422, 137, 387, 125, 441, 445, 318, 404, 435, 339, 79, 68, 244, 56, 203, 354, 316, 412, 85, 490, 157, 336, 43, 326, 118, 283, 22, 430, 352, 205, 86, 322, 380, 331, 36, 332, 99, 30, 293, 416, 371, 176, 64, 225, 103, 75, 271, 161, 361, 31, 432, 411, 51, 421, 439, 333, 136, 186, 438, 285, 329, 47, 80, 334, 459, 221, 298, 325, 284, 59, 213, 23, 456, 134, 249, 153, 460, 175, 219, 347, 162, 238, 499, 54, 8, 148, 32, 382, 401, 48, 4, 375, 407, 29, 344, 487, 493, 446, 396, 436, 357, 71, 60, 465, 109, 365, 72, 321, 266, 317, 245, 479, 471, 309, 292, 299, 453, 414, 478, 469, 472, 452, 410, 170, 104, 144, 349, 89, 38, 496, 18, 457, 128, 97, 366, 256, 311, 302, 66, 402, 226, 481, 82, 67, 288, 183, 477, 115, 212, 272, 130, 44, 211, 55, 315, 214, 73, 462, 420, 346, 146, 262, 160, 76, 222, 389, 173, 356, 149, 234, 69, 194, 373, 209, 202, 154, 113, 96, 264, 193, 50, 379, 474, 442, 190, 177, 150, 280, 376, 255, 377, 374, 35, 408, 83, 166, 261, 415, 37, 13, 197, 49, 281, 15, 409, 393, 132, 123, 78, 101, 340, 224, 126, 184, 158, 17, 297, 304, 246, 16, 400, 233, 419, 127, 428, 434, 124, 110, 381, 117, 152, 248, 239, 485, 458, 488, 201, 305, 228, 263, 367]</t>
+  </si>
+  <si>
+    <t>[357, 358, 33, 100, 404, 284, 138, 439, 41, 38, 52, 27, 112, 231, 184, 400, 222, 114, 208, 390, 351, 37, 368, 101, 478, 141, 482, 76, 26, 5, 216, 475, 35, 224, 1, 137, 176, 81, 127, 189, 129, 146, 354, 495, 57, 154, 209, 355, 454, 310, 367, 360, 88, 149, 195, 239, 249, 65, 356, 74, 263, 422, 271, 182, 349, 477, 383, 256, 408, 325, 53, 113, 56, 92, 262, 341, 229, 304, 117, 303, 212, 163, 443, 429, 66, 19, 91, 385, 218, 473, 313, 206, 466, 309, 496, 386, 420, 397, 87, 411, 469, 8, 314, 70, 381, 326, 448, 132, 255, 24, 432, 409, 378, 407, 13, 118, 78, 257, 180, 417, 268, 359, 373, 145, 181, 136, 500, 77, 328, 476, 279, 311, 211, 324, 161, 172, 250, 210, 413, 139, 342, 59, 25, 436, 403, 456, 319, 384, 416, 485, 321, 46, 226, 51, 233, 430, 3, 174, 283, 395, 277, 80, 237, 338, 474, 165, 252, 365, 50, 219, 122, 140, 340, 232, 441, 248, 491, 58, 393, 107, 375, 260, 247, 133, 333, 481, 131, 447, 130, 98, 67, 251, 362, 134, 34, 110, 94, 191, 431, 322, 461, 392, 398, 228, 125, 105, 242, 276, 128, 278, 54, 369, 157, 465, 30, 352, 327, 48, 298, 69, 116, 287, 29, 455, 453, 215, 462, 119, 187, 275, 173, 108, 437, 307, 406, 345, 85, 72, 86, 244, 220, 207, 158, 155, 323, 427, 167, 464, 194, 490, 20, 153, 343, 337, 16, 449, 440, 238, 89, 144, 159, 423, 185, 10, 227, 372, 95, 301, 175, 193, 40, 484, 374, 171, 258, 344, 418, 186, 265, 170, 64, 266, 183, 269, 75, 267, 60, 486, 179, 121, 225, 47, 288, 39, 49, 452, 308, 84, 388, 361, 61, 442, 245, 274, 6, 312, 204, 115, 97, 364, 294, 280, 376, 235, 412, 401, 150, 43, 295, 169, 205, 23, 380, 293, 479, 111, 14, 2, 4, 377, 104, 234, 196, 93, 120, 259, 450, 168, 45, 82, 68, 353, 17, 83, 348, 9, 243, 458, 90, 494, 123, 445, 143, 270, 405, 151, 424, 99, 460, 493, 28, 202, 230, 467, 246, 468, 315, 410, 103, 201, 291, 305, 199, 281, 330, 296, 435, 366, 273, 394, 497, 18, 391, 178, 156, 370, 73, 290, 264, 240, 198, 162, 44, 487, 387, 177, 339, 297, 488, 55, 63, 213, 492, 459, 32, 379, 147, 318, 166, 389, 12, 332, 71, 223, 433, 446, 363, 396, 317, 261, 426, 164, 160, 203, 152, 438, 425, 472, 402, 11, 221, 421, 463, 382, 336, 302, 329, 451, 188, 192, 335, 415, 200, 285, 42, 142, 214, 480, 371, 148, 109, 306, 299, 241, 62, 7, 320, 498, 300, 282, 470, 286, 499, 428, 22, 471, 236, 254, 197, 15, 347, 414, 96, 135, 253, 124, 316, 489, 399, 217, 419, 334, 350, 31, 346, 457, 444, 289, 102, 292, 106, 272, 331, 190, 21, 483, 79, 36, 126, 434]</t>
+  </si>
+  <si>
+    <t>[167, 207, 473, 452, 355, 229, 442, 47, 301, 110, 343, 220, 78, 462, 331, 44, 53, 33, 250, 210, 156, 273, 290, 255, 168, 317, 136, 268, 488, 75, 140, 394, 113, 141, 29, 199, 142, 458, 171, 260, 264, 232, 86, 58, 316, 495, 307, 289, 52, 92, 89, 384, 287, 226, 208, 480, 129, 310, 31, 433, 192, 201, 244, 400, 122, 381, 457, 374, 42, 359, 172, 348, 79, 314, 240, 277, 32, 117, 88, 318, 212, 191, 417, 139, 294, 406, 225, 408, 280, 69, 218, 169, 179, 395, 211, 484, 435, 152, 104, 153, 231, 428, 366, 50, 59, 440, 217, 285, 124, 35, 177, 367, 487, 281, 203, 351, 87, 64, 334, 459, 97, 85, 349, 275, 24, 368, 350, 439, 441, 258, 73, 270, 165, 299, 182, 485, 99, 431, 230, 184, 178, 63, 170, 27, 54, 160, 18, 161, 482, 419, 222, 65, 190, 147, 276, 353, 284, 311, 450, 16, 344, 21, 328, 131, 463, 209, 95, 7, 286, 41, 405, 28, 236, 449, 312, 296, 219, 197, 407, 175, 425, 327, 271, 245, 20, 45, 388, 298, 186, 96, 335, 109, 483, 116, 83, 437, 144, 474, 402, 466, 451, 234, 447, 453, 159, 157, 196, 193, 176, 397, 126, 416, 446, 354, 135, 82, 188, 26, 239, 77, 448, 358, 11, 377, 444, 475, 465, 342, 380, 410, 332, 262, 51, 94, 500, 180, 330, 470, 103, 467, 282, 293, 49, 291, 340, 118, 194, 438, 235, 90, 323, 461, 324, 389, 155, 464, 181, 91, 101, 292, 489, 363, 494, 337, 313, 341, 233, 375, 251, 383, 499, 254, 472, 23, 241, 319, 266, 379, 46, 382, 43, 71, 322, 336, 300, 166, 320, 493, 478, 213, 223, 418, 339, 67, 100, 216, 61, 393, 70, 107, 321, 372, 360, 259, 434, 25, 424, 14, 154, 249, 338, 295, 72, 297, 84, 274, 130, 68, 123, 486, 143, 3, 17, 479, 30, 398, 288, 420, 378, 346, 12, 55, 242, 149, 373, 198, 256, 195, 413, 415, 15, 315, 370, 187, 8, 333, 454, 490, 432, 481, 386, 162, 253, 263, 120, 396, 183, 158, 356, 248, 357, 151, 404, 34, 243, 174, 456, 362, 48, 37, 185, 429, 497, 303, 200, 62, 304, 369, 13, 125, 399, 272, 119, 426, 371, 469, 443, 265, 150, 309, 347, 252, 376, 148, 108, 390, 496, 257, 421, 173, 57, 247, 214, 102, 36, 133, 66, 278, 491, 93, 283, 10, 361, 403, 106, 430, 411, 492, 401, 414, 145, 202, 498, 305, 423, 76, 427, 137, 238, 391, 228, 127, 279, 409, 81, 269, 56, 204, 308, 306, 246, 392, 111, 98, 2, 352, 477, 302, 329, 385, 121, 112, 215, 412, 205, 115, 445, 325, 436, 6, 387, 261, 345, 267, 206, 134, 146, 5, 132, 80, 468, 4, 163, 326, 237, 40, 114, 128, 164, 471, 476, 38, 19, 105, 364, 227, 422, 224, 138, 455, 221, 60, 189, 22, 460, 9, 39, 1, 74, 365]</t>
+  </si>
+  <si>
+    <t>[280, 184, 96, 379, 391, 19, 446, 499, 122, 352, 383, 115, 386, 272, 104, 415, 425, 397, 431, 284, 500, 410, 77, 429, 458, 16, 232, 377, 249, 243, 168, 314, 198, 101, 69, 328, 36, 393, 372, 108, 213, 233, 56, 12, 197, 248, 483, 338, 375, 43, 28, 34, 117, 408, 460, 405, 64, 194, 369, 480, 204, 128, 363, 496, 414, 238, 357, 26, 166, 486, 292, 340, 290, 145, 67, 144, 258, 136, 46, 262, 418, 401, 276, 151, 102, 134, 29, 450, 239, 39, 289, 279, 71, 126, 482, 437, 188, 402, 353, 143, 9, 146, 485, 277, 302, 455, 270, 177, 409, 489, 8, 186, 323, 367, 17, 205, 11, 84, 193, 406, 178, 220, 130, 156, 358, 155, 247, 324, 373, 57, 42, 421, 219, 317, 214, 438, 382, 81, 33, 31, 183, 226, 200, 321, 419, 63, 109, 422, 461, 230, 330, 111, 274, 351, 6, 106, 488, 175, 443, 227, 50, 218, 7, 88, 164, 252, 10, 359, 395, 21, 394, 48, 206, 492, 275, 251, 253, 484, 476, 271, 335, 320, 444, 291, 347, 18, 466, 49, 261, 112, 454, 339, 471, 133, 228, 298, 325, 172, 365, 412, 390, 13, 224, 149, 413, 343, 107, 76, 103, 453, 477, 299, 430, 99, 27, 80, 294, 241, 116, 176, 37, 313, 308, 287, 5, 381, 244, 217, 22, 40, 336, 44, 95, 475, 61, 120, 266, 263, 38, 2, 32, 456, 447, 159, 215, 240, 1, 163, 478, 201, 100, 350, 345, 131, 288, 187, 66, 495, 257, 259, 310, 465, 428, 368, 169, 242, 493, 138, 315, 319, 236, 356, 296, 423, 286, 435, 388, 89, 162, 72, 94, 469, 55, 434, 374, 269, 439, 181, 311, 54, 389, 293, 62, 47, 170, 135, 498, 125, 147, 327, 82, 53, 282, 165, 316, 354, 20, 123, 202, 97, 334, 185, 283, 158, 463, 3, 229, 361, 79, 51, 234, 14, 78, 113, 211, 416, 337, 150, 267, 59, 110, 246, 58, 380, 86, 467, 132, 479, 52, 295, 468, 457, 68, 441, 333, 196, 160, 346, 344, 452, 490, 137, 491, 301, 4, 451, 182, 464, 254, 60, 273, 75, 433, 25, 212, 459, 398, 23, 207, 472, 210, 312, 41, 322, 370, 400, 494, 326, 364, 199, 349, 445, 360, 161, 487, 154, 105, 203, 192, 140, 462, 119, 92, 342, 341, 432, 191, 222, 256, 121, 399, 285, 225, 30, 190, 318, 65, 264, 497, 91, 426, 74, 85, 174, 348, 250, 281, 93, 189, 98, 355, 231, 420, 392, 90, 332, 300, 473, 142, 371, 223, 417, 305, 378, 139, 35, 173, 237, 387, 245, 167, 195, 384, 45, 307, 127, 24, 470, 376, 427, 124, 157, 255, 396, 306, 265, 70, 436, 404, 303, 331, 114, 424, 474, 148, 442, 309, 304, 481, 171, 362, 153, 73, 129, 448, 15, 118, 385, 297, 411, 403, 449, 278, 208, 235, 216, 366, 179, 221, 268, 141, 329, 83, 407, 440, 260, 87, 152, 180, 209]</t>
+  </si>
+  <si>
+    <t>[409, 136, 269, 126, 209, 162, 26, 241, 193, 78, 326, 359, 98, 345, 170, 446, 496, 360, 44, 240, 479, 391, 402, 308, 228, 10, 226, 40, 264, 89, 498, 364, 93, 361, 370, 369, 331, 464, 247, 476, 187, 385, 304, 337, 107, 420, 421, 153, 33, 440, 95, 59, 64, 83, 488, 282, 207, 470, 131, 79, 222, 82, 257, 73, 255, 216, 493, 460, 324, 221, 314, 266, 491, 449, 438, 293, 161, 262, 260, 91, 61, 190, 201, 350, 318, 426, 281, 287, 166, 299, 158, 14, 380, 143, 333, 384, 283, 150, 249, 180, 155, 256, 41, 90, 37, 242, 303, 2, 338, 109, 465, 250, 127, 436, 34, 114, 357, 419, 192, 36, 473, 217, 390, 330, 425, 49, 129, 15, 20, 375, 342, 365, 261, 320, 382, 172, 54, 21, 321, 85, 132, 117, 223, 57, 457, 19, 467, 202, 284, 325, 139, 272, 428, 371, 248, 279, 13, 165, 416, 186, 171, 67, 422, 231, 69, 92, 18, 362, 220, 435, 233, 448, 298, 339, 43, 462, 483, 443, 102, 388, 145, 500, 31, 270, 206, 163, 100, 414, 182, 268, 103, 176, 411, 246, 204, 111, 395, 97, 211, 101, 52, 458, 265, 27, 271, 164, 194, 84, 441, 63, 423, 58, 199, 208, 378, 452, 472, 276, 23, 42, 134, 75, 328, 296, 74, 119, 7, 297, 147, 389, 417, 453, 156, 185, 499, 133, 490, 252, 4, 374, 198, 253, 29, 447, 212, 9, 130, 469, 213, 56, 290, 275, 35, 1, 8, 429, 200, 383, 219, 30, 309, 401, 278, 144, 415, 245, 267, 11, 442, 122, 94, 307, 140, 173, 151, 105, 347, 112, 485, 466, 396, 379, 410, 232, 343, 189, 405, 407, 285, 348, 181, 413, 254, 427, 168, 115, 39, 480, 214, 68, 148, 366, 376, 346, 341, 243, 408, 418, 332, 203, 210, 478, 154, 487, 205, 486, 188, 25, 412, 137, 169, 46, 174, 215, 87, 444, 62, 251, 377, 459, 495, 227, 70, 196, 55, 22, 349, 484, 300, 191, 229, 335, 291, 184, 167, 66, 316, 16, 468, 104, 399, 6, 475, 474, 178, 387, 263, 288, 336, 280, 273, 451, 353, 234, 152, 157, 72, 394, 80, 367, 403, 230, 454, 334, 258, 124, 5, 86, 65, 302, 373, 317, 81, 71, 305, 313, 397, 183, 118, 149, 393, 434, 28, 386, 292, 218, 312, 237, 239, 113, 344, 38, 439, 322, 301, 310, 175, 494, 319, 482, 195, 368, 329, 445, 123, 121, 294, 179, 142, 76, 463, 311, 424, 197, 363, 110, 32, 238, 392, 48, 47, 492, 24, 224, 53, 236, 340, 356, 481, 430, 259, 277, 106, 355, 477, 177, 431, 159, 456, 381, 160, 404, 50, 17, 45, 99, 77, 244, 146, 471, 88, 327, 120, 286, 235, 135, 450, 116, 489, 351, 352, 225, 51, 358, 108, 274, 398, 372, 12, 306, 461, 437, 315, 128, 432, 497, 125, 433, 295, 96, 289, 138, 400, 406, 60, 3, 323, 455, 141, 354]</t>
+  </si>
+  <si>
+    <t>[252, 396, 76, 24, 295, 128, 285, 490, 377, 230, 369, 253, 227, 437, 150, 201, 68, 221, 8, 164, 115, 237, 491, 439, 418, 36, 21, 90, 121, 198, 334, 424, 33, 153, 411, 181, 433, 187, 307, 113, 188, 101, 301, 484, 267, 496, 368, 286, 9, 218, 141, 269, 426, 455, 318, 215, 48, 388, 262, 241, 258, 92, 475, 233, 360, 151, 135, 97, 81, 371, 379, 65, 240, 472, 213, 199, 384, 124, 495, 171, 58, 13, 483, 362, 425, 144, 31, 326, 178, 281, 375, 470, 51, 136, 500, 325, 98, 346, 465, 421, 239, 457, 453, 405, 486, 476, 469, 107, 15, 126, 380, 25, 79, 489, 401, 152, 292, 266, 264, 18, 43, 313, 494, 86, 478, 93, 59, 399, 52, 365, 260, 389, 408, 272, 40, 420, 414, 335, 317, 196, 363, 289, 148, 53, 359, 180, 403, 398, 409, 110, 212, 294, 268, 417, 56, 41, 432, 394, 47, 271, 309, 28, 374, 442, 324, 458, 385, 179, 226, 337, 168, 276, 383, 312, 60, 119, 256, 155, 300, 163, 146, 323, 169, 140, 261, 412, 202, 112, 329, 497, 194, 12, 308, 315, 447, 77, 387, 35, 57, 88, 332, 454, 306, 304, 372, 430, 441, 378, 161, 452, 123, 450, 16, 461, 182, 147, 190, 191, 314, 354, 428, 34, 103, 395, 158, 479, 189, 492, 462, 251, 2, 165, 217, 480, 228, 443, 406, 89, 210, 305, 429, 176, 232, 167, 327, 321, 477, 26, 229, 397, 349, 117, 122, 467, 99, 352, 100, 265, 338, 206, 91, 27, 333, 435, 366, 10, 361, 293, 451, 116, 390, 159, 370, 67, 348, 62, 66, 393, 344, 200, 44, 72, 466, 149, 330, 316, 207, 402, 446, 449, 154, 339, 404, 75, 203, 238, 296, 250, 246, 263, 137, 223, 29, 311, 351, 105, 350, 234, 186, 249, 231, 46, 143, 367, 156, 336, 38, 96, 37, 288, 85, 78, 30, 245, 373, 195, 55, 290, 166, 114, 4, 244, 284, 127, 340, 220, 302, 74, 423, 71, 287, 438, 353, 415, 94, 160, 3, 185, 14, 464, 499, 283, 345, 347, 130, 422, 392, 118, 157, 355, 440, 134, 282, 17, 382, 49, 129, 19, 173, 342, 493, 20, 247, 54, 274, 82, 133, 5, 343, 331, 205, 448, 183, 208, 273, 184, 216, 222, 175, 444, 139, 170, 45, 391, 211, 142, 108, 172, 473, 485, 357, 84, 468, 111, 322, 482, 474, 279, 225, 299, 358, 209, 427, 138, 356, 132, 386, 456, 381, 364, 95, 162, 298, 193, 498, 297, 192, 471, 109, 257, 434, 6, 248, 80, 488, 1, 487, 204, 104, 303, 102, 319, 197, 214, 259, 177, 22, 42, 291, 419, 106, 376, 83, 70, 275, 7, 413, 460, 73, 410, 277, 328, 407, 23, 431, 87, 254, 436, 255, 64, 280, 320, 235, 416, 310, 278, 459, 341, 11, 50, 481, 125, 224, 243, 236, 63, 131, 400, 69, 270, 39, 219, 120, 145, 61, 463, 445, 174, 32, 242]</t>
+  </si>
+  <si>
+    <t>[291, 183, 445, 246, 288, 164, 276, 432, 340, 227, 27, 356, 427, 307, 66, 414, 234, 281, 447, 43, 112, 483, 495, 36, 25, 50, 277, 452, 440, 10, 38, 188, 478, 476, 345, 413, 371, 110, 273, 215, 109, 380, 372, 29, 297, 218, 79, 292, 122, 217, 497, 375, 182, 373, 398, 44, 84, 146, 361, 113, 386, 155, 302, 102, 272, 314, 53, 8, 177, 114, 201, 21, 240, 316, 256, 100, 260, 490, 241, 295, 144, 275, 396, 247, 328, 347, 73, 47, 142, 338, 402, 468, 175, 52, 221, 441, 3, 312, 230, 216, 458, 318, 262, 145, 477, 19, 409, 382, 346, 420, 157, 197, 430, 362, 397, 289, 310, 103, 131, 403, 425, 225, 290, 369, 387, 120, 5, 487, 462, 461, 404, 424, 104, 460, 408, 185, 180, 391, 214, 249, 267, 407, 470, 4, 493, 331, 471, 411, 18, 442, 296, 127, 250, 252, 500, 87, 42, 378, 41, 274, 139, 264, 298, 327, 235, 65, 77, 334, 336, 332, 315, 220, 78, 192, 91, 118, 205, 54, 271, 466, 167, 311, 37, 124, 202, 467, 401, 309, 76, 365, 69, 494, 187, 23, 95, 263, 317, 34, 428, 343, 68, 193, 238, 394, 299, 24, 283, 484, 2, 473, 377, 133, 85, 111, 453, 341, 393, 56, 186, 49, 152, 28, 419, 9, 135, 306, 229, 148, 17, 379, 439, 82, 489, 81, 301, 268, 245, 51, 143, 422, 20, 426, 116, 475, 141, 45, 147, 89, 204, 330, 451, 360, 359, 130, 199, 179, 129, 433, 358, 206, 173, 106, 101, 154, 236, 349, 93, 75, 319, 474, 121, 228, 431, 324, 123, 239, 285, 406, 251, 22, 463, 304, 491, 119, 399, 353, 322, 170, 184, 384, 348, 469, 293, 57, 436, 74, 13, 132, 61, 15, 248, 499, 59, 40, 448, 357, 374, 255, 30, 259, 181, 261, 191, 270, 437, 388, 355, 172, 189, 137, 99, 333, 410, 258, 488, 472, 88, 435, 344, 80, 90, 417, 134, 138, 243, 209, 313, 286, 165, 161, 303, 158, 354, 168, 108, 213, 392, 383, 323, 242, 253, 498, 415, 231, 282, 405, 94, 223, 326, 450, 429, 39, 385, 278, 456, 125, 117, 92, 195, 140, 128, 232, 449, 482, 211, 257, 153, 325, 26, 35, 294, 174, 400, 265, 14, 446, 421, 444, 443, 366, 329, 67, 485, 339, 171, 254, 389, 70, 368, 176, 269, 151, 178, 210, 97, 390, 266, 115, 62, 300, 342, 464, 279, 412, 418, 200, 194, 71, 457, 416, 208, 166, 320, 136, 60, 58, 31, 7, 492, 196, 46, 350, 48, 465, 287, 207, 335, 454, 486, 363, 160, 237, 381, 98, 11, 219, 224, 496, 159, 364, 481, 376, 434, 126, 32, 6, 83, 284, 63, 367, 105, 55, 169, 190, 479, 72, 64, 212, 163, 222, 96, 455, 12, 16, 244, 198, 149, 233, 370, 280, 203, 352, 308, 107, 337, 395, 162, 423, 321, 150, 438, 459, 351, 33, 480, 1, 86, 226, 305, 156]</t>
+  </si>
+  <si>
+    <t>[315, 71, 445, 114, 245, 129, 348, 113, 81, 87, 420, 115, 179, 16, 355, 318, 357, 202, 171, 55, 268, 333, 444, 74, 105, 119, 193, 418, 427, 341, 471, 142, 8, 174, 448, 414, 328, 132, 339, 60, 466, 449, 474, 290, 370, 140, 431, 154, 117, 351, 292, 298, 304, 367, 118, 345, 62, 76, 375, 34, 460, 170, 39, 391, 382, 63, 285, 30, 453, 438, 98, 452, 65, 149, 259, 61, 437, 467, 475, 465, 397, 288, 380, 89, 205, 22, 166, 93, 469, 4, 84, 136, 186, 377, 265, 38, 35, 430, 446, 343, 17, 219, 416, 454, 124, 122, 3, 491, 43, 274, 13, 443, 421, 385, 447, 424, 291, 242, 481, 199, 279, 11, 325, 307, 364, 450, 187, 107, 18, 284, 476, 344, 163, 21, 49, 151, 252, 323, 354, 456, 176, 210, 214, 435, 272, 459, 31, 488, 53, 383, 470, 67, 224, 148, 337, 275, 88, 289, 365, 7, 360, 90, 240, 407, 243, 232, 335, 270, 230, 386, 116, 400, 209, 256, 70, 78, 277, 86, 263, 9, 313, 423, 462, 316, 368, 106, 373, 334, 432, 204, 10, 54, 28, 347, 217, 127, 47, 330, 6, 255, 57, 169, 399, 381, 83, 300, 406, 41, 264, 485, 233, 487, 138, 133, 77, 144, 404, 321, 220, 109, 457, 206, 131, 480, 464, 356, 191, 241, 463, 479, 141, 372, 231, 225, 309, 112, 64, 312, 25, 208, 500, 79, 429, 489, 128, 472, 227, 15, 338, 126, 44, 238, 478, 178, 425, 181, 32, 477, 261, 267, 189, 455, 195, 247, 492, 331, 99, 306, 297, 496, 14, 234, 190, 497, 273, 12, 36, 322, 302, 483, 177, 486, 182, 157, 262, 494, 422, 56, 192, 161, 26, 352, 50, 184, 253, 301, 37, 371, 295, 91, 417, 293, 468, 410, 440, 409, 20, 405, 484, 287, 212, 59, 211, 388, 282, 5, 42, 324, 155, 281, 27, 266, 2, 137, 51, 101, 239, 361, 102, 80, 72, 384, 332, 495, 329, 310, 308, 180, 120, 278, 19, 201, 346, 350, 246, 147, 216, 23, 40, 363, 362, 68, 159, 146, 396, 185, 271, 75, 52, 490, 108, 296, 223, 218, 260, 336, 369, 441, 280, 183, 428, 213, 173, 379, 58, 97, 123, 269, 258, 413, 48, 493, 229, 194, 45, 221, 359, 158, 237, 134, 196, 353, 433, 395, 73, 251, 162, 203, 419, 164, 387, 46, 402, 434, 311, 92, 235, 398, 436, 207, 412, 392, 145, 29, 167, 442, 226, 378, 299, 499, 403, 111, 66, 94, 143, 283, 228, 482, 198, 104, 172, 95, 150, 69, 401, 188, 408, 461, 426, 415, 451, 156, 85, 130, 153, 389, 250, 374, 82, 327, 121, 135, 175, 160, 110, 303, 376, 286, 358, 197, 33, 320, 340, 222, 349, 294, 168, 96, 458, 103, 411, 314, 257, 236, 125, 305, 366, 394, 249, 317, 244, 100, 342, 165, 215, 1, 254, 390, 248, 498, 24, 393, 326, 152, 139, 439, 200, 319, 473, 276]</t>
+  </si>
+  <si>
+    <t>[50, 379, 304, 31, 385, 104, 159, 476, 64, 134, 234, 14, 353, 436, 406, 124, 499, 420, 325, 189, 279, 54, 360, 465, 438, 1, 246, 312, 62, 43, 356, 86, 243, 402, 293, 381, 188, 336, 179, 68, 162, 492, 434, 155, 28, 371, 248, 324, 44, 24, 393, 259, 469, 160, 110, 35, 199, 345, 262, 228, 194, 47, 116, 85, 142, 266, 459, 144, 347, 344, 287, 119, 354, 52, 380, 349, 388, 193, 120, 29, 445, 26, 295, 268, 427, 215, 111, 408, 7, 200, 112, 66, 361, 172, 20, 105, 283, 45, 206, 77, 210, 449, 471, 377, 236, 372, 473, 174, 456, 475, 137, 432, 240, 113, 197, 156, 468, 237, 431, 376, 205, 245, 485, 100, 8, 247, 451, 18, 386, 169, 278, 296, 493, 178, 92, 81, 362, 166, 417, 84, 36, 331, 239, 409, 39, 484, 70, 327, 27, 225, 400, 191, 403, 73, 115, 59, 186, 261, 440, 422, 89, 472, 80, 133, 224, 22, 321, 201, 63, 498, 214, 254, 301, 30, 41, 369, 274, 128, 481, 343, 227, 5, 270, 202, 250, 401, 429, 439, 226, 433, 161, 242, 150, 87, 132, 33, 149, 88, 223, 271, 185, 474, 152, 253, 25, 17, 16, 496, 464, 91, 146, 284, 334, 311, 97, 6, 107, 419, 424, 158, 453, 127, 289, 208, 93, 129, 255, 466, 328, 61, 416, 490, 368, 461, 316, 238, 497, 457, 412, 2, 60, 290, 397, 252, 395, 218, 34, 167, 384, 391, 74, 256, 37, 269, 314, 117, 140, 322, 125, 355, 318, 98, 306, 276, 145, 500, 217, 163, 307, 75, 15, 430, 488, 411, 19, 136, 109, 138, 478, 3, 275, 123, 222, 399, 131, 308, 370, 340, 209, 106, 442, 405, 382, 489, 235, 118, 291, 157, 40, 423, 76, 9, 300, 170, 494, 147, 94, 282, 394, 241, 443, 398, 477, 297, 460, 487, 390, 67, 414, 56, 95, 82, 348, 173, 326, 309, 139, 292, 23, 329, 51, 122, 437, 204, 363, 264, 126, 335, 320, 141, 288, 425, 378, 404, 267, 467, 96, 392, 450, 365, 49, 294, 396, 272, 452, 257, 102, 48, 285, 182, 101, 441, 413, 258, 168, 366, 233, 203, 184, 21, 231, 192, 286, 374, 342, 99, 313, 359, 357, 323, 198, 315, 389, 491, 407, 303, 352, 454, 12, 338, 213, 350, 265, 305, 195, 221, 180, 455, 190, 458, 13, 387, 135, 153, 319, 42, 11, 415, 462, 121, 114, 263, 317, 483, 57, 181, 298, 130, 364, 53, 463, 187, 346, 171, 164, 207, 299, 479, 351, 480, 83, 428, 337, 482, 341, 470, 373, 310, 220, 426, 78, 330, 367, 249, 196, 58, 69, 71, 10, 72, 183, 79, 151, 339, 230, 229, 410, 148, 90, 435, 277, 212, 418, 486, 154, 176, 143, 332, 65, 219, 302, 216, 251, 175, 55, 108, 4, 447, 177, 333, 273, 448, 358, 421, 38, 375, 281, 495, 444, 46, 232, 165, 211, 32, 260, 280, 244, 446, 103, 383]</t>
+  </si>
+  <si>
+    <t>[235, 365, 221, 219, 447, 176, 48, 120, 444, 419, 49, 362, 371, 174, 350, 222, 495, 353, 16, 403, 369, 160, 489, 76, 238, 275, 402, 70, 347, 469, 240, 98, 199, 56, 314, 42, 201, 487, 462, 68, 20, 38, 220, 208, 273, 117, 375, 327, 253, 297, 209, 36, 217, 75, 317, 401, 280, 379, 431, 288, 422, 405, 66, 140, 264, 79, 13, 411, 313, 150, 332, 202, 114, 105, 82, 394, 244, 423, 131, 147, 29, 357, 138, 374, 137, 415, 132, 304, 397, 3, 161, 471, 134, 451, 259, 228, 370, 295, 148, 128, 178, 33, 99, 300, 21, 237, 323, 173, 177, 197, 53, 293, 159, 463, 224, 410, 90, 491, 409, 382, 78, 223, 100, 266, 455, 318, 485, 8, 276, 6, 461, 408, 88, 9, 111, 144, 330, 477, 354, 472, 190, 381, 458, 386, 168, 195, 60, 2, 274, 438, 104, 442, 1, 121, 467, 162, 483, 103, 102, 203, 367, 189, 328, 37, 230, 432, 62, 18, 325, 200, 215, 282, 69, 366, 183, 192, 416, 380, 157, 87, 83, 12, 306, 392, 263, 116, 396, 389, 165, 123, 243, 289, 407, 281, 430, 81, 334, 361, 384, 277, 22, 453, 385, 146, 25, 420, 86, 39, 496, 421, 413, 115, 119, 257, 414, 61, 129, 127, 473, 449, 45, 479, 500, 27, 232, 246, 34, 270, 308, 193, 498, 267, 234, 24, 155, 216, 142, 284, 97, 268, 486, 23, 186, 322, 358, 184, 169, 59, 324, 427, 452, 247, 194, 94, 417, 255, 291, 292, 188, 4, 283, 499, 307, 51, 32, 43, 326, 393, 299, 65, 77, 35, 156, 113, 211, 355, 339, 256, 54, 47, 488, 229, 320, 206, 470, 250, 391, 92, 383, 214, 57, 443, 205, 80, 64, 312, 26, 476, 448, 404, 494, 298, 164, 181, 433, 336, 335, 84, 260, 440, 303, 125, 227, 166, 340, 435, 204, 218, 464, 198, 474, 439, 145, 136, 497, 302, 338, 252, 50, 239, 112, 170, 460, 133, 287, 493, 296, 388, 139, 58, 428, 14, 351, 44, 152, 95, 11, 406, 149, 272, 122, 418, 187, 269, 107, 163, 55, 93, 96, 352, 333, 356, 492, 180, 305, 446, 285, 110, 279, 454, 445, 459, 236, 154, 182, 434, 130, 368, 364, 456, 450, 242, 376, 124, 207, 249, 387, 466, 342, 248, 329, 31, 28, 85, 175, 17, 426, 429, 360, 52, 179, 7, 400, 331, 321, 153, 359, 41, 212, 71, 290, 172, 143, 309, 158, 151, 74, 118, 241, 254, 398, 196, 343, 319, 167, 344, 261, 316, 310, 372, 457, 346, 378, 213, 231, 46, 294, 436, 481, 5, 363, 185, 425, 191, 225, 301, 67, 258, 377, 286, 19, 210, 490, 141, 341, 424, 10, 348, 265, 278, 395, 226, 337, 63, 480, 465, 171, 390, 475, 245, 106, 262, 126, 233, 482, 101, 271, 349, 91, 468, 135, 478, 89, 73, 40, 412, 373, 109, 15, 399, 251, 315, 311, 30, 441, 484, 108, 345, 437, 72]</t>
+  </si>
+  <si>
+    <t>[107, 314, 235, 482, 263, 360, 339, 114, 308, 239, 457, 84, 215, 249, 127, 134, 354, 321, 423, 407, 497, 202, 87, 415, 480, 483, 118, 278, 177, 112, 165, 119, 253, 443, 428, 489, 340, 16, 115, 317, 276, 282, 383, 38, 86, 228, 463, 161, 380, 30, 59, 416, 257, 63, 88, 298, 110, 346, 374, 287, 300, 411, 392, 461, 437, 37, 9, 104, 382, 142, 8, 199, 74, 49, 325, 438, 424, 347, 117, 409, 227, 345, 342, 319, 192, 108, 328, 5, 188, 234, 274, 69, 261, 350, 349, 67, 180, 316, 367, 68, 283, 379, 356, 98, 426, 260, 296, 212, 138, 264, 73, 246, 323, 327, 77, 390, 269, 241, 398, 365, 313, 466, 371, 163, 455, 364, 178, 85, 83, 385, 200, 262, 494, 495, 370, 70, 488, 297, 386, 405, 217, 268, 125, 196, 472, 224, 477, 42, 462, 397, 113, 34, 358, 89, 197, 55, 402, 75, 444, 412, 471, 348, 406, 499, 120, 322, 171, 95, 193, 210, 395, 14, 35, 245, 201, 173, 394, 50, 275, 41, 176, 290, 310, 343, 333, 222, 420, 255, 439, 335, 221, 170, 451, 464, 105, 93, 23, 435, 44, 357, 433, 332, 15, 254, 473, 36, 3, 417, 168, 43, 109, 207, 162, 179, 64, 453, 71, 492, 486, 312, 375, 186, 159, 369, 103, 216, 146, 191, 206, 388, 351, 92, 135, 469, 183, 181, 337, 237, 301, 381, 460, 99, 384, 116, 12, 28, 288, 387, 80, 238, 213, 244, 271, 272, 54, 53, 372, 430, 400, 449, 182, 24, 470, 295, 56, 208, 440, 304, 404, 153, 79, 100, 143, 97, 344, 446, 425, 231, 320, 158, 211, 155, 458, 76, 277, 32, 126, 315, 456, 149, 185, 203, 441, 299, 490, 220, 11, 205, 279, 226, 373, 195, 172, 230, 389, 189, 447, 21, 265, 427, 256, 27, 353, 476, 101, 465, 302, 131, 82, 2, 330, 144, 341, 4, 329, 498, 305, 359, 124, 223, 209, 51, 190, 487, 479, 232, 60, 218, 133, 258, 334, 467, 259, 164, 286, 309, 236, 445, 20, 47, 121, 377, 160, 62, 303, 52, 225, 72, 18, 448, 363, 45, 285, 229, 219, 123, 204, 157, 280, 362, 187, 242, 243, 326, 10, 493, 273, 484, 413, 194, 152, 318, 331, 156, 240, 141, 132, 391, 31, 94, 336, 33, 410, 284, 184, 450, 419, 291, 1, 422, 154, 233, 401, 294, 175, 251, 128, 352, 46, 130, 6, 137, 434, 289, 58, 13, 151, 403, 338, 376, 29, 500, 307, 267, 91, 442, 57, 61, 65, 355, 140, 248, 106, 136, 432, 22, 7, 378, 306, 474, 90, 25, 454, 431, 122, 26, 414, 452, 396, 366, 39, 214, 198, 281, 270, 266, 293, 78, 311, 292, 96, 48, 147, 247, 40, 81, 429, 418, 361, 167, 169, 150, 19, 145, 166, 252, 17, 148, 393, 111, 468, 481, 368, 66, 491, 129, 459, 399, 436, 478, 496, 174, 485, 250, 475, 421, 324, 102, 408, 139]</t>
+  </si>
+  <si>
+    <t>[190, 388, 396, 219, 128, 133, 418, 299, 76, 499, 451, 430, 58, 335, 279, 62, 488, 494, 26, 77, 407, 162, 222, 221, 266, 87, 42, 50, 51, 485, 117, 416, 471, 150, 72, 6, 281, 83, 443, 101, 379, 316, 425, 105, 375, 131, 65, 383, 413, 64, 143, 90, 363, 300, 108, 252, 498, 126, 473, 469, 231, 61, 453, 145, 333, 448, 100, 184, 194, 95, 304, 315, 243, 227, 364, 16, 157, 198, 111, 210, 360, 256, 465, 182, 400, 352, 308, 197, 468, 395, 372, 381, 195, 79, 176, 94, 288, 472, 301, 36, 255, 287, 268, 13, 85, 153, 10, 382, 31, 460, 313, 175, 185, 391, 250, 285, 457, 337, 196, 449, 366, 327, 56, 455, 249, 242, 96, 30, 491, 159, 445, 34, 171, 237, 361, 257, 246, 492, 484, 419, 373, 406, 328, 7, 500, 384, 410, 224, 49, 393, 217, 371, 432, 52, 409, 345, 173, 230, 148, 415, 437, 431, 434, 212, 474, 461, 342, 399, 463, 403, 398, 405, 486, 427, 483, 146, 40, 46, 110, 362, 350, 69, 17, 248, 359, 370, 55, 102, 311, 347, 54, 114, 235, 341, 241, 9, 312, 188, 302, 202, 137, 265, 44, 325, 412, 497, 172, 187, 334, 82, 24, 385, 323, 368, 440, 258, 292, 356, 464, 170, 158, 156, 14, 135, 37, 496, 121, 33, 191, 80, 205, 142, 404, 401, 15, 204, 141, 245, 23, 120, 286, 81, 238, 232, 116, 477, 107, 20, 2, 456, 106, 329, 239, 261, 275, 355, 174, 186, 470, 22, 307, 74, 479, 206, 276, 147, 295, 319, 378, 11, 35, 132, 139, 353, 351, 377, 387, 446, 25, 303, 127, 259, 66, 326, 84, 297, 86, 154, 68, 306, 417, 47, 263, 330, 478, 214, 181, 344, 236, 129, 5, 163, 48, 426, 75, 271, 331, 151, 317, 467, 262, 260, 89, 289, 45, 130, 183, 439, 240, 134, 340, 374, 164, 39, 402, 160, 193, 490, 386, 346, 19, 161, 318, 421, 397, 441, 452, 225, 367, 71, 233, 169, 57, 8, 4, 177, 125, 458, 480, 411, 78, 481, 122, 254, 165, 278, 180, 115, 18, 216, 293, 207, 93, 223, 273, 99, 140, 349, 267, 144, 199, 200, 112, 189, 348, 476, 280, 438, 12, 324, 365, 296, 283, 408, 447, 92, 270, 1, 376, 291, 290, 428, 98, 209, 251, 358, 149, 59, 192, 119, 211, 380, 152, 104, 482, 234, 442, 389, 70, 338, 123, 43, 103, 244, 138, 41, 429, 274, 228, 309, 422, 208, 218, 201, 269, 343, 424, 354, 435, 118, 220, 179, 178, 462, 53, 166, 247, 320, 27, 436, 124, 450, 475, 487, 495, 322, 369, 414, 88, 305, 394, 32, 136, 332, 203, 321, 420, 168, 109, 113, 155, 28, 444, 310, 454, 336, 493, 357, 29, 466, 67, 459, 489, 390, 3, 21, 314, 97, 282, 264, 298, 392, 167, 38, 423, 60, 272, 294, 63, 226, 91, 73, 229, 277, 215, 213, 284, 339, 433, 253]</t>
+  </si>
+  <si>
+    <t>[401, 59, 467, 297, 445, 310, 149, 91, 334, 52, 400, 88, 369, 353, 233, 491, 104, 479, 93, 159, 50, 9, 390, 92, 476, 451, 213, 312, 354, 411, 463, 324, 47, 260, 194, 115, 375, 461, 393, 171, 258, 216, 185, 28, 223, 118, 289, 249, 394, 102, 373, 230, 272, 192, 1, 29, 248, 157, 363, 311, 380, 474, 178, 188, 418, 69, 152, 197, 218, 183, 20, 500, 21, 350, 409, 263, 86, 148, 438, 379, 298, 257, 191, 431, 405, 478, 304, 72, 370, 364, 499, 42, 39, 480, 215, 425, 301, 63, 151, 205, 481, 181, 328, 455, 282, 199, 470, 388, 4, 337, 277, 189, 296, 321, 105, 221, 6, 15, 278, 161, 287, 226, 94, 203, 484, 54, 204, 168, 95, 419, 162, 18, 49, 193, 244, 391, 101, 111, 44, 279, 385, 447, 169, 13, 99, 126, 416, 219, 305, 330, 434, 386, 238, 265, 74, 246, 123, 462, 84, 38, 142, 495, 232, 98, 17, 153, 396, 27, 485, 327, 136, 127, 302, 164, 355, 252, 117, 2, 483, 155, 202, 19, 313, 316, 262, 239, 456, 34, 332, 40, 271, 429, 107, 138, 65, 356, 489, 367, 177, 150, 23, 449, 274, 58, 67, 290, 236, 48, 172, 397, 166, 453, 415, 276, 82, 31, 163, 307, 399, 132, 241, 145, 408, 141, 140, 488, 280, 472, 154, 345, 317, 338, 125, 129, 299, 359, 62, 285, 26, 264, 85, 156, 450, 293, 430, 444, 261, 143, 384, 477, 57, 333, 208, 458, 251, 113, 437, 35, 209, 421, 112, 377, 176, 25, 392, 7, 360, 137, 114, 56, 342, 473, 225, 182, 120, 424, 229, 30, 465, 227, 14, 381, 323, 336, 292, 245, 100, 122, 97, 179, 139, 398, 352, 376, 206, 210, 269, 306, 5, 329, 75, 36, 3, 471, 61, 294, 228, 303, 341, 326, 459, 186, 8, 235, 466, 358, 128, 378, 464, 76, 158, 250, 214, 284, 116, 482, 133, 267, 135, 130, 288, 46, 371, 343, 427, 247, 395, 357, 308, 103, 318, 170, 315, 320, 147, 37, 87, 412, 79, 410, 286, 339, 331, 441, 270, 53, 492, 368, 70, 237, 420, 110, 60, 403, 347, 452, 187, 259, 417, 300, 487, 175, 362, 468, 165, 124, 361, 436, 11, 134, 90, 78, 83, 446, 372, 490, 387, 413, 207, 200, 146, 32, 220, 423, 309, 12, 22, 45, 439, 389, 167, 174, 109, 240, 281, 33, 108, 494, 374, 498, 106, 80, 442, 382, 211, 402, 217, 344, 71, 243, 497, 457, 469, 349, 253, 131, 496, 268, 406, 273, 10, 407, 365, 24, 291, 283, 234, 173, 295, 351, 414, 428, 460, 319, 443, 383, 201, 454, 81, 433, 41, 89, 242, 440, 55, 348, 486, 96, 493, 314, 51, 196, 255, 404, 184, 325, 448, 73, 475, 64, 256, 119, 335, 435, 266, 198, 43, 68, 366, 195, 16, 254, 275, 144, 121, 77, 231, 340, 160, 224, 422, 346, 190, 66, 322, 432, 180, 212, 426, 222]</t>
+  </si>
+  <si>
+    <t>[445, 125, 148, 40, 342, 480, 222, 117, 238, 255, 421, 170, 319, 172, 246, 338, 242, 263, 75, 433, 322, 7, 339, 38, 250, 334, 97, 202, 389, 207, 462, 30, 119, 155, 454, 273, 94, 227, 444, 387, 124, 414, 453, 230, 299, 407, 70, 357, 28, 78, 314, 303, 256, 329, 182, 159, 375, 145, 22, 459, 110, 93, 45, 239, 171, 448, 41, 248, 262, 373, 39, 270, 361, 192, 333, 165, 72, 388, 83, 14, 258, 234, 208, 213, 129, 335, 378, 168, 482, 90, 315, 167, 210, 253, 383, 415, 128, 32, 340, 79, 56, 291, 386, 494, 133, 461, 365, 163, 353, 328, 323, 390, 324, 5, 123, 420, 401, 166, 158, 425, 302, 350, 102, 139, 134, 223, 380, 288, 147, 360, 19, 381, 498, 473, 203, 309, 442, 54, 432, 236, 392, 289, 10, 132, 307, 219, 106, 187, 86, 184, 183, 233, 206, 372, 283, 348, 245, 274, 406, 193, 368, 48, 443, 260, 118, 478, 244, 408, 363, 80, 434, 195, 486, 249, 332, 196, 17, 114, 61, 308, 99, 131, 92, 135, 215, 26, 423, 405, 337, 144, 471, 188, 122, 198, 12, 345, 499, 447, 264, 336, 100, 46, 465, 428, 91, 214, 297, 310, 483, 173, 47, 359, 181, 369, 194, 103, 1, 285, 44, 89, 346, 366, 325, 261, 199, 489, 451, 488, 185, 34, 431, 403, 21, 50, 479, 362, 43, 394, 265, 385, 351, 312, 149, 212, 367, 272, 153, 136, 259, 211, 2, 450, 23, 397, 49, 105, 395, 36, 18, 137, 3, 286, 226, 487, 37, 254, 484, 349, 446, 267, 235, 458, 31, 252, 278, 377, 88, 440, 66, 57, 240, 229, 410, 164, 463, 384, 85, 64, 376, 169, 154, 343, 243, 284, 276, 87, 76, 69, 186, 220, 469, 9, 109, 81, 481, 53, 108, 402, 281, 298, 152, 51, 470, 266, 311, 216, 27, 416, 201, 491, 24, 217, 427, 413, 140, 466, 205, 6, 456, 121, 379, 305, 426, 382, 59, 65, 295, 42, 430, 436, 189, 218, 399, 241, 200, 411, 35, 287, 475, 116, 151, 143, 301, 435, 177, 318, 107, 493, 327, 175, 16, 179, 142, 127, 73, 500, 113, 161, 396, 439, 146, 282, 13, 52, 472, 224, 316, 455, 321, 464, 358, 492, 29, 341, 438, 130, 474, 364, 391, 176, 347, 180, 209, 371, 33, 4, 55, 82, 422, 95, 191, 313, 162, 277, 257, 497, 279, 190, 197, 126, 418, 417, 62, 476, 174, 468, 231, 452, 490, 320, 292, 441, 460, 370, 58, 101, 138, 419, 296, 374, 326, 437, 178, 251, 67, 84, 412, 150, 115, 25, 424, 275, 20, 477, 429, 8, 104, 400, 300, 74, 409, 467, 221, 331, 449, 496, 71, 268, 290, 160, 271, 120, 68, 111, 204, 280, 304, 96, 156, 228, 495, 352, 77, 404, 232, 330, 63, 60, 457, 306, 485, 247, 355, 141, 393, 356, 157, 269, 15, 11, 344, 237, 112, 317, 293, 98, 225, 354, 398, 294]</t>
+  </si>
+  <si>
+    <t>[47, 296, 38, 155, 461, 59, 280, 454, 494, 350, 495, 325, 473, 485, 129, 357, 371, 472, 177, 16, 193, 57, 374, 26, 462, 10, 409, 404, 213, 25, 414, 217, 254, 340, 430, 247, 27, 30, 228, 412, 456, 117, 396, 331, 118, 309, 438, 231, 469, 353, 239, 55, 319, 235, 70, 289, 252, 151, 463, 421, 420, 102, 431, 134, 489, 34, 121, 174, 405, 387, 158, 482, 12, 383, 67, 263, 434, 278, 327, 423, 471, 328, 394, 345, 40, 122, 73, 293, 429, 6, 446, 113, 95, 419, 104, 46, 283, 318, 308, 97, 442, 364, 493, 275, 56, 89, 153, 367, 474, 253, 413, 424, 156, 453, 370, 9, 480, 84, 403, 311, 176, 136, 465, 28, 72, 71, 292, 385, 478, 90, 285, 206, 333, 31, 60, 264, 45, 379, 303, 336, 133, 267, 49, 163, 124, 58, 468, 484, 377, 78, 8, 417, 82, 258, 210, 24, 346, 475, 460, 330, 219, 216, 268, 240, 42, 381, 467, 123, 448, 98, 274, 470, 183, 290, 492, 418, 479, 168, 366, 416, 388, 142, 175, 411, 259, 108, 291, 301, 116, 202, 312, 392, 326, 437, 443, 483, 316, 338, 4, 225, 85, 488, 61, 79, 233, 244, 428, 294, 203, 139, 103, 265, 249, 179, 286, 76, 189, 93, 120, 310, 201, 157, 29, 498, 500, 317, 204, 161, 341, 321, 270, 432, 111, 214, 352, 188, 344, 223, 246, 276, 33, 64, 171, 234, 100, 106, 205, 200, 88, 334, 450, 196, 355, 21, 181, 415, 452, 36, 236, 105, 185, 32, 7, 227, 269, 65, 401, 372, 362, 83, 365, 299, 499, 138, 324, 75, 222, 99, 266, 68, 251, 224, 272, 13, 11, 54, 298, 94, 349, 37, 447, 399, 313, 445, 130, 143, 390, 343, 348, 101, 306, 391, 107, 397, 35, 186, 435, 250, 77, 329, 141, 19, 369, 262, 53, 22, 69, 74, 114, 44, 375, 354, 260, 197, 451, 491, 172, 497, 255, 215, 109, 358, 427, 128, 304, 167, 408, 2, 361, 335, 320, 66, 137, 402, 23, 140, 195, 18, 487, 194, 218, 242, 360, 162, 302, 221, 436, 127, 287, 131, 351, 237, 14, 342, 449, 3, 39, 398, 322, 91, 422, 384, 457, 220, 119, 115, 481, 207, 393, 368, 159, 135, 125, 273, 80, 51, 281, 192, 458, 284, 17, 152, 1, 5, 165, 271, 297, 426, 226, 373, 20, 441, 288, 180, 490, 410, 459, 198, 232, 50, 464, 257, 132, 323, 380, 81, 439, 496, 92, 145, 339, 230, 466, 147, 315, 406, 444, 407, 52, 191, 279, 164, 433, 62, 337, 486, 332, 170, 169, 245, 208, 212, 190, 305, 199, 48, 376, 282, 400, 112, 277, 209, 173, 126, 96, 261, 110, 359, 256, 382, 166, 144, 43, 184, 389, 455, 15, 187, 149, 386, 241, 314, 87, 295, 440, 178, 229, 307, 356, 182, 300, 41, 378, 154, 243, 248, 148, 477, 238, 86, 395, 211, 425, 476, 150, 347, 63, 363, 146, 160]</t>
+  </si>
+  <si>
+    <t>[25, 271, 108, 138, 52, 38, 180, 481, 119, 165, 377, 13, 32, 190, 372, 426, 275, 35, 488, 46, 461, 343, 497, 76, 136, 413, 415, 486, 177, 310, 81, 163, 402, 142, 41, 221, 238, 155, 300, 438, 218, 468, 174, 104, 85, 455, 45, 53, 64, 401, 179, 353, 91, 51, 82, 327, 189, 27, 117, 391, 55, 182, 16, 446, 272, 77, 69, 153, 205, 347, 107, 422, 369, 37, 66, 406, 478, 288, 224, 345, 434, 137, 29, 21, 239, 1, 480, 378, 128, 17, 418, 259, 228, 379, 133, 201, 158, 280, 162, 323, 121, 237, 178, 303, 209, 227, 183, 232, 370, 80, 309, 268, 467, 453, 350, 47, 299, 192, 452, 485, 492, 150, 54, 419, 331, 116, 425, 132, 123, 359, 135, 456, 464, 195, 269, 351, 384, 496, 11, 411, 285, 216, 75, 281, 2, 197, 287, 326, 382, 154, 92, 98, 249, 211, 9, 217, 308, 500, 157, 90, 423, 78, 261, 338, 115, 284, 332, 442, 62, 487, 207, 495, 336, 395, 171, 346, 199, 19, 491, 317, 433, 167, 373, 313, 399, 206, 389, 282, 394, 319, 305, 407, 294, 164, 460, 194, 252, 354, 200, 241, 235, 330, 447, 386, 49, 95, 42, 219, 318, 307, 427, 93, 333, 417, 187, 462, 105, 387, 321, 240, 381, 334, 144, 316, 363, 139, 14, 24, 493, 365, 86, 489, 267, 473, 277, 429, 214, 451, 364, 175, 71, 458, 349, 114, 337, 126, 210, 260, 356, 457, 87, 289, 229, 339, 244, 188, 469, 437, 301, 466, 176, 159, 254, 390, 68, 366, 414, 122, 65, 322, 344, 329, 169, 444, 304, 443, 6, 109, 420, 245, 375, 39, 247, 236, 361, 368, 283, 295, 5, 56, 113, 428, 251, 360, 396, 483, 186, 290, 430, 148, 296, 146, 472, 30, 58, 441, 215, 498, 140, 256, 324, 60, 40, 477, 15, 298, 270, 371, 100, 110, 479, 328, 400, 405, 262, 67, 31, 463, 79, 97, 431, 432, 297, 172, 315, 435, 83, 203, 398, 125, 3, 7, 112, 320, 131, 291, 388, 213, 160, 257, 367, 448, 342, 490, 74, 410, 193, 50, 355, 306, 127, 59, 89, 84, 23, 168, 278, 292, 263, 470, 196, 223, 265, 166, 43, 380, 273, 44, 134, 73, 222, 274, 403, 424, 63, 258, 141, 494, 352, 8, 376, 102, 412, 231, 161, 106, 202, 266, 393, 416, 70, 276, 499, 421, 72, 170, 149, 4, 173, 358, 151, 26, 279, 145, 408, 450, 312, 436, 397, 255, 459, 20, 208, 185, 18, 357, 111, 198, 341, 230, 325, 440, 392, 286, 242, 234, 348, 454, 34, 340, 476, 36, 57, 404, 147, 250, 335, 409, 204, 120, 225, 152, 484, 181, 12, 191, 226, 445, 475, 124, 246, 471, 482, 362, 385, 33, 253, 99, 293, 130, 383, 103, 88, 96, 10, 233, 156, 220, 143, 314, 212, 474, 184, 439, 94, 248, 129, 22, 302, 374, 264, 101, 243, 28, 311, 449, 465, 48, 61, 118]</t>
+  </si>
+  <si>
+    <t>[456, 480, 310, 374, 297, 444, 147, 170, 251, 195, 261, 272, 300, 199, 358, 46, 245, 210, 240, 262, 401, 239, 15, 238, 42, 152, 159, 127, 158, 474, 77, 18, 348, 215, 30, 350, 446, 426, 32, 338, 126, 428, 61, 490, 166, 57, 63, 282, 466, 292, 498, 140, 26, 112, 495, 151, 45, 1, 116, 436, 463, 492, 364, 59, 176, 234, 129, 193, 106, 39, 313, 194, 260, 422, 412, 92, 333, 138, 368, 469, 392, 339, 73, 319, 222, 52, 393, 280, 204, 229, 472, 118, 381, 328, 130, 274, 354, 411, 279, 163, 476, 438, 231, 246, 172, 21, 470, 336, 418, 62, 361, 276, 33, 114, 448, 409, 293, 323, 318, 432, 25, 41, 330, 23, 220, 455, 8, 284, 40, 398, 31, 78, 162, 197, 404, 249, 232, 91, 264, 225, 51, 454, 378, 7, 38, 296, 119, 189, 408, 66, 48, 314, 312, 278, 81, 208, 302, 54, 376, 259, 471, 60, 473, 415, 484, 155, 479, 13, 290, 289, 244, 394, 477, 285, 298, 94, 390, 281, 439, 164, 2, 207, 192, 283, 124, 360, 198, 143, 369, 85, 286, 447, 29, 50, 416, 265, 35, 465, 203, 175, 3, 494, 89, 370, 419, 461, 443, 346, 188, 252, 400, 125, 105, 311, 101, 349, 67, 65, 359, 95, 11, 184, 74, 355, 493, 403, 468, 485, 449, 16, 165, 433, 14, 423, 177, 334, 44, 326, 223, 58, 104, 365, 211, 263, 12, 144, 149, 329, 43, 156, 424, 445, 243, 5, 442, 174, 213, 304, 186, 271, 367, 294, 84, 377, 309, 475, 366, 128, 206, 269, 270, 324, 306, 56, 347, 115, 191, 491, 168, 373, 179, 255, 451, 383, 406, 99, 72, 173, 178, 352, 141, 257, 27, 209, 68, 382, 431, 120, 335, 122, 148, 321, 434, 430, 487, 351, 200, 137, 90, 226, 288, 242, 325, 457, 202, 320, 145, 437, 142, 187, 87, 146, 88, 344, 316, 407, 386, 49, 425, 109, 452, 216, 380, 219, 237, 37, 247, 305, 69, 397, 134, 93, 218, 113, 132, 402, 440, 341, 153, 372, 496, 121, 235, 86, 384, 389, 161, 250, 9, 224, 236, 453, 201, 80, 103, 396, 22, 110, 214, 459, 500, 441, 96, 76, 353, 482, 98, 6, 181, 123, 53, 499, 489, 385, 327, 241, 154, 182, 268, 478, 287, 356, 47, 212, 391, 24, 97, 414, 413, 108, 405, 117, 427, 248, 340, 169, 331, 70, 435, 4, 410, 160, 266, 315, 399, 34, 100, 450, 421, 217, 83, 387, 233, 196, 28, 267, 82, 417, 256, 190, 467, 167, 221, 253, 486, 301, 429, 71, 150, 291, 464, 308, 488, 379, 462, 258, 343, 133, 458, 460, 277, 10, 107, 317, 230, 322, 64, 273, 171, 17, 295, 357, 185, 136, 183, 299, 180, 135, 131, 481, 362, 420, 254, 375, 139, 205, 79, 395, 371, 332, 227, 111, 102, 157, 342, 36, 20, 75, 363, 497, 55, 345, 483, 19, 388, 303, 307, 228, 337, 275]</t>
+  </si>
+  <si>
+    <t>[144, 189, 20, 340, 327, 323, 354, 315, 30, 304, 108, 47, 258, 404, 497, 428, 358, 330, 391, 388, 238, 280, 123, 202, 236, 437, 53, 416, 432, 118, 111, 3, 153, 398, 209, 115, 393, 462, 8, 390, 65, 425, 345, 230, 59, 237, 235, 219, 473, 2, 155, 481, 470, 31, 181, 159, 112, 151, 496, 76, 362, 81, 32, 249, 143, 110, 272, 431, 387, 211, 253, 328, 206, 105, 208, 461, 241, 75, 226, 51, 6, 205, 270, 440, 351, 22, 417, 319, 498, 44, 245, 171, 455, 162, 177, 193, 264, 477, 339, 444, 200, 273, 146, 344, 79, 303, 184, 352, 80, 312, 411, 418, 400, 69, 261, 21, 56, 74, 157, 356, 11, 260, 158, 338, 14, 210, 97, 407, 60, 379, 429, 168, 403, 458, 301, 396, 94, 34, 257, 10, 336, 306, 372, 61, 29, 453, 5, 87, 91, 224, 36, 472, 377, 456, 395, 500, 215, 291, 386, 124, 447, 119, 134, 196, 329, 154, 302, 442, 192, 252, 488, 389, 228, 347, 435, 139, 92, 142, 48, 95, 12, 465, 366, 410, 399, 222, 341, 309, 459, 255, 495, 89, 271, 350, 484, 42, 468, 67, 96, 423, 136, 170, 161, 38, 491, 126, 246, 380, 15, 359, 412, 464, 335, 279, 376, 434, 276, 469, 229, 39, 217, 364, 77, 100, 85, 401, 269, 392, 394, 443, 426, 409, 72, 40, 27, 382, 19, 449, 486, 150, 421, 290, 58, 13, 283, 265, 452, 152, 43, 446, 454, 24, 240, 242, 218, 483, 267, 176, 326, 480, 355, 137, 493, 365, 445, 268, 101, 405, 234, 66, 282, 378, 415, 104, 275, 482, 381, 499, 489, 308, 169, 397, 485, 84, 178, 25, 494, 357, 221, 250, 487, 349, 371, 141, 322, 300, 369, 436, 363, 293, 130, 33, 451, 7, 292, 348, 430, 212, 4, 324, 294, 413, 227, 478, 186, 52, 183, 41, 216, 35, 232, 90, 424, 121, 83, 62, 316, 406, 313, 17, 163, 106, 88, 305, 332, 262, 337, 199, 174, 213, 28, 179, 476, 160, 214, 172, 287, 132, 281, 467, 384, 190, 23, 402, 156, 310, 50, 187, 422, 342, 373, 204, 370, 113, 188, 220, 247, 284, 103, 195, 441, 427, 368, 145, 259, 185, 334, 54, 63, 197, 299, 148, 9, 73, 64, 147, 331, 149, 408, 175, 198, 135, 166, 102, 361, 385, 201, 78, 263, 45, 131, 194, 164, 466, 122, 457, 298, 419, 16, 107, 120, 46, 286, 460, 98, 128, 49, 297, 239, 203, 448, 191, 420, 307, 471, 433, 86, 109, 439, 254, 243, 296, 438, 223, 383, 114, 475, 207, 274, 182, 127, 173, 360, 180, 225, 165, 68, 285, 320, 490, 231, 26, 140, 57, 138, 248, 1, 325, 125, 71, 321, 367, 244, 474, 233, 70, 278, 314, 479, 450, 99, 55, 167, 375, 414, 374, 295, 133, 288, 266, 277, 289, 18, 116, 129, 93, 463, 318, 117, 353, 82, 492, 37, 256, 333, 311, 317, 251, 343, 346]</t>
+  </si>
+  <si>
+    <t>[318, 203, 307, 108, 330, 61, 385, 45, 272, 130, 264, 117, 228, 238, 208, 59, 479, 231, 30, 148, 216, 152, 440, 84, 375, 55, 270, 417, 223, 427, 296, 262, 94, 141, 289, 304, 294, 226, 457, 65, 349, 164, 229, 241, 444, 283, 27, 22, 35, 114, 350, 339, 275, 16, 407, 172, 328, 90, 404, 106, 382, 121, 120, 205, 426, 410, 190, 5, 437, 2, 389, 159, 332, 377, 383, 392, 137, 492, 420, 168, 47, 19, 340, 189, 211, 487, 46, 225, 220, 344, 280, 423, 391, 197, 367, 68, 23, 97, 416, 87, 128, 92, 177, 459, 193, 67, 165, 478, 278, 365, 406, 38, 50, 133, 337, 132, 115, 156, 21, 163, 126, 198, 314, 464, 187, 7, 489, 483, 160, 267, 150, 401, 354, 430, 305, 454, 276, 371, 357, 125, 424, 200, 496, 372, 124, 285, 157, 341, 136, 485, 29, 390, 356, 235, 442, 149, 74, 138, 263, 291, 42, 486, 116, 127, 105, 463, 44, 181, 355, 215, 52, 233, 364, 346, 467, 217, 3, 460, 56, 250, 261, 499, 89, 320, 393, 113, 40, 63, 194, 43, 99, 64, 471, 468, 353, 422, 443, 498, 432, 435, 288, 466, 394, 86, 321, 224, 82, 93, 169, 497, 81, 458, 258, 347, 66, 119, 170, 396, 14, 452, 146, 32, 8, 277, 363, 345, 331, 325, 188, 167, 446, 101, 129, 221, 227, 91, 143, 151, 196, 10, 286, 428, 207, 85, 441, 244, 490, 13, 260, 287, 313, 398, 361, 409, 317, 192, 11, 83, 31, 78, 142, 39, 279, 338, 297, 322, 62, 253, 433, 145, 425, 376, 71, 475, 175, 472, 147, 100, 273, 122, 453, 134, 53, 384, 352, 360, 500, 135, 298, 306, 434, 259, 362, 374, 439, 88, 408, 324, 493, 405, 461, 239, 282, 386, 335, 213, 95, 387, 237, 462, 413, 358, 274, 491, 308, 144, 295, 473, 230, 139, 248, 448, 18, 465, 131, 174, 327, 58, 72, 162, 210, 178, 251, 429, 256, 455, 480, 191, 201, 418, 183, 107, 484, 204, 1, 26, 470, 206, 268, 28, 9, 252, 184, 312, 315, 395, 255, 445, 388, 266, 495, 245, 54, 112, 368, 73, 290, 334, 359, 60, 299, 381, 155, 153, 269, 57, 456, 98, 310, 247, 171, 77, 234, 41, 36, 326, 179, 158, 474, 70, 402, 24, 415, 69, 370, 20, 249, 257, 76, 411, 232, 48, 212, 316, 451, 79, 421, 476, 366, 293, 301, 222, 15, 373, 265, 284, 4, 447, 96, 173, 450, 378, 311, 49, 333, 25, 379, 80, 219, 482, 180, 243, 6, 110, 202, 186, 412, 431, 351, 195, 182, 399, 104, 488, 34, 185, 111, 343, 436, 161, 369, 140, 51, 481, 438, 449, 209, 300, 419, 494, 403, 246, 400, 319, 469, 302, 123, 199, 214, 303, 240, 397, 218, 33, 154, 271, 176, 292, 477, 281, 102, 309, 348, 17, 254, 342, 380, 336, 75, 103, 242, 414, 12, 109, 323, 236, 329, 118, 166, 37]</t>
+  </si>
+  <si>
+    <t>[348, 425, 247, 248, 55, 447, 226, 24, 403, 287, 196, 389, 100, 245, 9, 40, 493, 19, 412, 25, 343, 11, 73, 33, 222, 8, 484, 173, 197, 379, 121, 420, 39, 275, 421, 41, 170, 135, 399, 383, 98, 253, 233, 43, 322, 330, 261, 291, 471, 155, 470, 215, 205, 473, 362, 280, 1, 119, 234, 183, 351, 186, 51, 213, 125, 306, 152, 405, 201, 400, 475, 283, 321, 349, 333, 167, 140, 485, 129, 346, 492, 326, 402, 10, 27, 126, 296, 288, 131, 67, 335, 171, 397, 312, 434, 136, 159, 408, 4, 369, 297, 452, 235, 392, 305, 365, 69, 5, 38, 132, 411, 448, 144, 88, 179, 367, 285, 480, 137, 32, 103, 453, 255, 489, 374, 191, 128, 267, 198, 57, 372, 455, 281, 260, 271, 52, 289, 375, 494, 175, 97, 318, 436, 433, 223, 302, 303, 353, 150, 427, 409, 12, 114, 112, 458, 29, 130, 276, 401, 46, 102, 101, 2, 339, 250, 127, 106, 417, 217, 499, 476, 483, 361, 6, 164, 490, 304, 116, 394, 466, 202, 228, 58, 440, 263, 156, 491, 87, 210, 178, 109, 467, 28, 350, 320, 462, 203, 190, 404, 310, 92, 478, 53, 82, 93, 277, 311, 123, 324, 23, 272, 398, 31, 387, 370, 161, 212, 172, 432, 221, 431, 426, 71, 120, 363, 337, 329, 254, 282, 368, 319, 385, 415, 360, 181, 358, 64, 479, 17, 419, 182, 187, 258, 334, 117, 262, 366, 158, 237, 59, 229, 460, 259, 457, 86, 141, 26, 18, 416, 192, 42, 95, 194, 211, 180, 3, 264, 274, 487, 124, 294, 299, 314, 301, 122, 76, 336, 464, 407, 111, 347, 309, 66, 163, 422, 90, 36, 338, 151, 268, 149, 220, 382, 84, 68, 439, 70, 423, 308, 298, 157, 246, 354, 145, 60, 80, 413, 356, 342, 16, 488, 138, 393, 30, 242, 189, 443, 359, 139, 364, 207, 340, 384, 105, 184, 500, 328, 47, 459, 37, 390, 371, 48, 78, 188, 113, 154, 376, 270, 14, 199, 463, 134, 381, 451, 284, 418, 286, 292, 160, 325, 224, 219, 204, 77, 454, 251, 300, 352, 142, 110, 395, 449, 469, 238, 497, 72, 166, 104, 94, 81, 209, 293, 378, 373, 380, 468, 474, 61, 165, 410, 177, 481, 341, 269, 35, 355, 214, 477, 91, 118, 437, 435, 45, 386, 174, 231, 107, 313, 239, 450, 22, 331, 143, 7, 256, 227, 75, 169, 79, 279, 83, 54, 495, 461, 428, 265, 168, 232, 456, 257, 206, 445, 241, 266, 414, 388, 391, 307, 185, 332, 148, 15, 252, 424, 357, 396, 244, 162, 327, 176, 133, 200, 430, 249, 345, 429, 438, 446, 99, 85, 195, 243, 240, 62, 193, 316, 208, 49, 465, 13, 295, 96, 56, 315, 230, 273, 486, 496, 115, 344, 65, 482, 236, 147, 89, 216, 498, 74, 377, 218, 21, 44, 153, 146, 63, 441, 442, 472, 108, 20, 278, 444, 50, 323, 406, 290, 317, 225, 34]</t>
+  </si>
+  <si>
+    <t>[194, 26, 398, 329, 178, 480, 356, 301, 289, 432, 389, 3, 360, 375, 171, 105, 295, 354, 476, 108, 59, 485, 283, 213, 107, 38, 159, 158, 32, 135, 125, 394, 429, 229, 263, 122, 330, 414, 294, 198, 64, 21, 258, 290, 133, 435, 416, 132, 235, 119, 85, 475, 278, 390, 349, 52, 131, 39, 352, 323, 47, 116, 320, 472, 87, 387, 288, 74, 109, 217, 162, 388, 478, 179, 376, 444, 351, 114, 37, 33, 95, 120, 70, 11, 409, 129, 134, 18, 307, 315, 342, 469, 118, 221, 337, 368, 339, 130, 411, 212, 345, 226, 90, 488, 350, 214, 296, 231, 14, 413, 412, 94, 259, 146, 224, 250, 28, 202, 420, 23, 421, 208, 293, 147, 2, 98, 79, 318, 239, 299, 333, 309, 325, 145, 236, 422, 126, 203, 22, 141, 207, 417, 479, 473, 406, 397, 443, 242, 189, 340, 17, 253, 150, 271, 310, 88, 439, 55, 40, 378, 35, 45, 244, 101, 196, 425, 102, 31, 499, 218, 431, 262, 304, 428, 81, 280, 6, 164, 451, 385, 195, 274, 89, 228, 197, 344, 83, 380, 267, 103, 369, 155, 124, 12, 348, 361, 96, 166, 78, 165, 371, 27, 187, 175, 487, 144, 477, 433, 58, 426, 257, 112, 232, 30, 446, 128, 445, 41, 185, 251, 273, 408, 492, 209, 8, 43, 326, 227, 343, 73, 53, 10, 482, 418, 60, 305, 219, 61, 241, 491, 157, 56, 465, 495, 183, 180, 500, 264, 161, 494, 237, 393, 328, 106, 275, 91, 152, 314, 138, 4, 29, 453, 86, 201, 438, 341, 430, 347, 82, 184, 440, 44, 415, 303, 248, 268, 261, 493, 9, 490, 24, 71, 466, 49, 381, 117, 260, 489, 470, 400, 181, 174, 316, 34, 66, 306, 136, 324, 182, 115, 441, 424, 332, 151, 238, 245, 373, 172, 391, 153, 370, 220, 464, 254, 57, 170, 448, 210, 5, 405, 110, 256, 177, 281, 230, 395, 336, 319, 427, 455, 223, 123, 148, 54, 46, 404, 423, 363, 365, 104, 249, 252, 99, 292, 137, 240, 279, 67, 298, 173, 399, 84, 386, 497, 163, 284, 192, 460, 222, 188, 247, 69, 255, 287, 484, 285, 366, 467, 359, 142, 461, 48, 383, 312, 334, 204, 291, 384, 206, 374, 335, 302, 76, 486, 215, 75, 270, 65, 190, 50, 392, 19, 311, 234, 42, 176, 358, 92, 377, 1, 442, 127, 434, 272, 331, 199, 313, 353, 276, 25, 139, 266, 481, 322, 156, 346, 211, 321, 496, 483, 149, 160, 205, 100, 77, 401, 186, 233, 16, 36, 452, 282, 300, 140, 317, 297, 447, 51, 93, 459, 72, 362, 379, 402, 457, 225, 419, 327, 403, 80, 169, 308, 13, 468, 200, 216, 269, 498, 437, 243, 62, 15, 474, 68, 367, 63, 265, 286, 450, 121, 456, 357, 246, 382, 20, 154, 355, 167, 143, 97, 111, 364, 471, 462, 193, 168, 458, 410, 454, 277, 436, 407, 372, 449, 463, 338, 191, 7, 113, 396]</t>
+  </si>
+  <si>
+    <t>[67, 205, 440, 344, 171, 317, 244, 262, 475, 476, 225, 178, 75, 72, 81, 341, 160, 8, 102, 226, 373, 208, 372, 261, 140, 457, 85, 23, 369, 445, 188, 158, 103, 212, 221, 340, 435, 180, 397, 79, 281, 35, 121, 142, 6, 313, 15, 325, 22, 393, 77, 461, 314, 264, 333, 245, 143, 177, 134, 118, 156, 398, 293, 250, 311, 258, 268, 385, 239, 327, 68, 426, 374, 322, 21, 480, 386, 138, 291, 295, 63, 381, 417, 86, 99, 404, 296, 187, 474, 189, 146, 96, 198, 235, 345, 490, 113, 133, 272, 444, 334, 193, 123, 360, 179, 396, 26, 183, 89, 217, 357, 168, 157, 209, 243, 82, 109, 218, 412, 161, 303, 59, 52, 257, 446, 413, 275, 206, 9, 136, 276, 33, 437, 308, 234, 132, 61, 93, 57, 485, 54, 433, 465, 390, 482, 499, 319, 100, 463, 220, 346, 492, 66, 184, 163, 379, 149, 424, 356, 472, 414, 36, 95, 237, 274, 256, 92, 104, 434, 153, 155, 64, 232, 10, 459, 460, 483, 51, 284, 230, 152, 297, 420, 14, 98, 462, 320, 282, 249, 377, 115, 478, 229, 321, 331, 186, 469, 467, 251, 438, 452, 84, 44, 481, 169, 174, 298, 215, 254, 495, 111, 13, 382, 351, 119, 447, 88, 383, 56, 394, 222, 55, 312, 124, 31, 231, 69, 473, 191, 498, 49, 101, 497, 349, 172, 166, 451, 122, 108, 361, 443, 20, 165, 479, 200, 195, 202, 330, 365, 144, 185, 407, 90, 266, 477, 181, 350, 306, 197, 150, 395, 58, 353, 318, 219, 7, 131, 164, 391, 203, 41, 176, 211, 442, 329, 120, 16, 425, 428, 411, 486, 260, 253, 40, 246, 62, 248, 500, 278, 76, 38, 290, 270, 439, 45, 233, 494, 192, 371, 496, 431, 470, 430, 464, 127, 252, 37, 400, 375, 408, 227, 280, 25, 456, 129, 97, 126, 466, 110, 355, 302, 137, 223, 94, 265, 207, 292, 410, 167, 378, 488, 29, 448, 338, 4, 3, 228, 50, 269, 159, 17, 288, 315, 151, 364, 71, 339, 194, 294, 342, 19, 112, 388, 300, 328, 348, 458, 242, 370, 453, 335, 267, 135, 421, 384, 46, 402, 271, 359, 387, 406, 289, 316, 216, 28, 18, 2, 199, 403, 170, 240, 210, 128, 326, 263, 286, 489, 343, 53, 277, 147, 145, 73, 429, 352, 182, 175, 213, 74, 399, 389, 471, 32, 47, 299, 418, 415, 305, 87, 307, 285, 201, 332, 154, 11, 236, 196, 484, 24, 60, 309, 405, 367, 368, 422, 279, 273, 409, 354, 27, 114, 493, 204, 12, 190, 347, 487, 436, 70, 304, 247, 107, 91, 1, 427, 116, 5, 301, 392, 454, 173, 287, 283, 323, 162, 83, 310, 423, 78, 324, 224, 362, 80, 105, 491, 259, 106, 48, 117, 34, 42, 30, 401, 449, 65, 358, 148, 336, 432, 468, 238, 366, 125, 43, 455, 214, 139, 419, 255, 141, 376, 130, 39, 450, 337, 241, 380, 441, 363, 416]</t>
+  </si>
+  <si>
+    <t>[444, 216, 361, 351, 301, 436, 356, 64, 190, 79, 131, 71, 303, 182, 145, 225, 143, 62, 138, 1, 234, 316, 183, 247, 200, 22, 454, 282, 348, 169, 326, 331, 160, 44, 411, 146, 189, 417, 370, 198, 284, 177, 82, 32, 242, 387, 43, 67, 489, 419, 474, 36, 432, 414, 266, 305, 275, 492, 202, 178, 364, 366, 277, 262, 215, 471, 116, 48, 219, 455, 324, 194, 168, 424, 94, 125, 59, 40, 78, 240, 392, 317, 176, 104, 2, 99, 479, 13, 98, 7, 306, 477, 442, 33, 276, 175, 465, 15, 245, 287, 133, 237, 159, 267, 421, 63, 283, 203, 228, 379, 130, 404, 408, 14, 268, 12, 144, 373, 6, 416, 192, 346, 496, 51, 426, 29, 229, 263, 193, 383, 251, 397, 321, 249, 438, 124, 86, 34, 191, 95, 453, 422, 260, 161, 210, 253, 368, 429, 74, 165, 153, 339, 352, 332, 344, 208, 270, 102, 308, 446, 448, 441, 289, 359, 315, 299, 378, 50, 87, 118, 233, 400, 109, 271, 60, 68, 338, 235, 88, 222, 9, 132, 105, 76, 390, 395, 223, 488, 163, 486, 325, 69, 119, 57, 112, 462, 483, 20, 10, 430, 103, 248, 334, 456, 111, 113, 337, 457, 224, 167, 381, 423, 300, 134, 49, 115, 440, 451, 372, 412, 309, 149, 27, 156, 243, 349, 18, 402, 139, 313, 255, 490, 188, 319, 406, 353, 265, 350, 17, 410, 371, 46, 37, 157, 213, 292, 96, 186, 445, 365, 420, 90, 357, 396, 459, 475, 107, 70, 343, 73, 304, 206, 25, 129, 147, 108, 377, 140, 101, 468, 298, 294, 376, 464, 226, 478, 217, 128, 484, 345, 367, 100, 355, 310, 407, 239, 72, 293, 358, 329, 19, 286, 264, 382, 461, 476, 21, 389, 141, 238, 469, 42, 443, 135, 494, 199, 201, 227, 166, 38, 120, 205, 312, 53, 493, 269, 47, 244, 204, 174, 179, 171, 394, 211, 495, 449, 291, 84, 333, 307, 220, 427, 252, 398, 117, 374, 212, 481, 137, 85, 24, 385, 52, 91, 5, 256, 181, 458, 401, 173, 3, 106, 274, 413, 415, 261, 209, 452, 196, 197, 273, 11, 55, 433, 480, 218, 259, 467, 97, 158, 500, 380, 318, 297, 295, 75, 66, 127, 354, 114, 485, 170, 23, 54, 122, 360, 279, 214, 241, 89, 435, 35, 369, 341, 39, 150, 409, 92, 470, 466, 172, 4, 61, 460, 16, 236, 285, 347, 164, 290, 45, 336, 311, 482, 393, 8, 180, 246, 26, 155, 418, 123, 281, 272, 254, 258, 403, 142, 280, 152, 58, 151, 187, 232, 425, 388, 335, 56, 195, 491, 320, 322, 391, 340, 77, 434, 207, 231, 230, 450, 250, 121, 342, 437, 80, 302, 126, 288, 487, 30, 136, 41, 447, 439, 431, 473, 110, 463, 257, 323, 405, 362, 499, 162, 83, 148, 497, 81, 314, 428, 154, 386, 185, 221, 328, 93, 327, 375, 184, 65, 472, 363, 498, 31, 278, 296, 399, 330, 28, 384]</t>
+  </si>
+  <si>
+    <t>[59, 119, 442, 433, 267, 327, 52, 320, 143, 10, 30, 436, 178, 50, 319, 453, 415, 1, 285, 81, 481, 231, 227, 384, 251, 377, 106, 343, 372, 226, 27, 277, 215, 322, 329, 149, 206, 69, 460, 477, 15, 107, 203, 47, 427, 145, 357, 68, 396, 489, 306, 202, 405, 308, 313, 21, 328, 170, 110, 12, 151, 138, 242, 380, 302, 228, 104, 362, 430, 239, 237, 221, 279, 66, 345, 28, 462, 431, 96, 361, 238, 171, 318, 109, 456, 165, 389, 192, 276, 182, 137, 295, 414, 387, 406, 131, 312, 266, 205, 338, 223, 398, 255, 235, 43, 275, 368, 288, 124, 29, 88, 438, 258, 399, 412, 439, 394, 324, 359, 158, 409, 167, 374, 373, 142, 51, 449, 356, 79, 360, 371, 193, 463, 347, 163, 351, 311, 303, 111, 61, 74, 222, 92, 22, 103, 425, 293, 37, 53, 278, 183, 468, 82, 196, 180, 265, 64, 471, 310, 172, 340, 300, 393, 105, 212, 490, 252, 121, 17, 386, 349, 126, 476, 189, 486, 144, 133, 413, 423, 80, 281, 153, 484, 379, 41, 236, 62, 348, 150, 272, 395, 207, 382, 260, 432, 247, 174, 204, 294, 60, 157, 67, 385, 57, 434, 445, 487, 441, 58, 499, 335, 146, 173, 292, 71, 87, 250, 455, 287, 416, 392, 217, 492, 219, 402, 497, 240, 467, 307, 496, 282, 465, 46, 123, 114, 199, 500, 91, 332, 454, 185, 132, 331, 122, 286, 253, 187, 11, 186, 136, 44, 498, 241, 309, 38, 98, 315, 410, 90, 364, 134, 381, 383, 342, 290, 485, 450, 291, 100, 280, 472, 128, 346, 13, 269, 443, 333, 154, 73, 482, 336, 404, 316, 32, 446, 102, 7, 397, 274, 355, 289, 76, 232, 26, 55, 84, 369, 14, 39, 220, 94, 70, 97, 478, 169, 86, 211, 459, 323, 440, 437, 156, 297, 401, 283, 248, 181, 299, 254, 3, 140, 5, 115, 63, 466, 444, 195, 8, 326, 117, 400, 296, 390, 271, 210, 339, 9, 224, 408, 33, 36, 99, 447, 89, 85, 365, 234, 78, 321, 188, 56, 344, 233, 95, 353, 201, 120, 422, 470, 40, 244, 139, 190, 256, 243, 257, 213, 424, 141, 493, 129, 168, 421, 469, 388, 341, 179, 301, 363, 135, 45, 418, 31, 162, 334, 352, 77, 488, 225, 48, 218, 354, 148, 176, 112, 457, 259, 229, 155, 448, 429, 6, 474, 160, 245, 83, 4, 152, 147, 391, 194, 411, 230, 54, 184, 473, 270, 209, 376, 419, 461, 480, 19, 161, 175, 42, 264, 127, 261, 262, 249, 191, 75, 263, 494, 475, 305, 273, 216, 350, 200, 464, 366, 2, 116, 101, 246, 177, 130, 35, 358, 420, 108, 214, 23, 403, 18, 458, 378, 268, 113, 198, 159, 304, 483, 317, 451, 118, 325, 435, 34, 72, 164, 298, 25, 370, 24, 125, 367, 495, 314, 49, 16, 20, 330, 166, 491, 417, 208, 197, 428, 375, 284, 426, 93, 452, 407, 65, 479, 337]</t>
+  </si>
+  <si>
+    <t>[148, 314, 274, 141, 382, 374, 444, 484, 261, 497, 57, 71, 213, 240, 160, 258, 354, 276, 107, 20, 205, 486, 159, 209, 230, 17, 324, 380, 353, 351, 373, 132, 136, 179, 471, 387, 94, 87, 92, 296, 298, 229, 24, 110, 6, 130, 150, 481, 418, 480, 358, 469, 4, 198, 292, 235, 312, 21, 15, 415, 123, 127, 193, 400, 220, 69, 216, 277, 115, 9, 479, 154, 221, 313, 1, 391, 184, 458, 40, 366, 405, 134, 33, 244, 56, 360, 401, 259, 53, 492, 212, 308, 300, 455, 412, 167, 239, 156, 447, 498, 390, 104, 54, 297, 165, 215, 30, 227, 42, 218, 273, 433, 233, 182, 307, 67, 26, 345, 349, 272, 280, 255, 226, 214, 121, 155, 58, 369, 278, 86, 434, 318, 158, 238, 83, 210, 472, 449, 384, 34, 476, 224, 196, 102, 460, 38, 266, 55, 441, 465, 363, 147, 303, 491, 399, 442, 448, 283, 268, 483, 143, 10, 187, 72, 407, 206, 291, 207, 3, 428, 14, 73, 406, 325, 169, 422, 88, 393, 119, 402, 409, 285, 211, 309, 287, 333, 408, 435, 385, 462, 335, 125, 16, 260, 279, 337, 176, 485, 77, 201, 493, 301, 217, 490, 282, 43, 450, 488, 78, 464, 225, 62, 133, 395, 180, 343, 294, 454, 321, 413, 197, 270, 116, 336, 90, 461, 59, 96, 252, 251, 192, 243, 265, 342, 249, 344, 232, 253, 68, 466, 474, 467, 228, 404, 311, 394, 367, 208, 114, 183, 327, 29, 117, 52, 304, 28, 339, 247, 386, 188, 98, 389, 350, 84, 378, 246, 101, 430, 74, 392, 468, 190, 153, 174, 236, 8, 410, 19, 439, 328, 175, 331, 310, 44, 31, 191, 135, 250, 478, 202, 475, 97, 323, 142, 7, 204, 170, 432, 166, 219, 346, 352, 164, 284, 482, 81, 60, 269, 438, 161, 168, 361, 348, 100, 271, 199, 459, 75, 248, 364, 495, 419, 329, 2, 420, 131, 80, 65, 51, 152, 145, 500, 25, 109, 319, 494, 139, 322, 429, 47, 499, 338, 122, 95, 289, 375, 157, 263, 371, 151, 396, 126, 27, 177, 237, 113, 286, 36, 112, 195, 12, 414, 463, 398, 146, 426, 326, 163, 149, 49, 451, 222, 431, 362, 288, 138, 317, 128, 39, 129, 32, 76, 64, 13, 290, 320, 256, 118, 178, 423, 411, 403, 111, 376, 35, 445, 453, 470, 365, 424, 379, 417, 372, 496, 487, 231, 425, 140, 162, 281, 108, 171, 421, 234, 103, 334, 22, 172, 275, 124, 355, 18, 63, 11, 173, 416, 397, 295, 440, 48, 443, 302, 452, 347, 99, 120, 46, 189, 332, 93, 368, 181, 357, 66, 446, 257, 356, 105, 377, 489, 245, 340, 457, 330, 61, 456, 5, 144, 85, 23, 137, 305, 37, 388, 194, 91, 200, 264, 359, 41, 267, 203, 370, 241, 79, 70, 436, 437, 299, 50, 106, 341, 383, 427, 82, 316, 254, 293, 473, 223, 262, 185, 242, 89, 315, 306, 186, 381, 45, 477]</t>
+  </si>
+  <si>
+    <t>[361, 177, 71, 363, 410, 338, 390, 215, 122, 386, 157, 355, 205, 50, 174, 60, 133, 46, 493, 406, 164, 17, 464, 140, 449, 471, 483, 419, 491, 402, 142, 48, 39, 435, 423, 308, 69, 49, 259, 427, 391, 147, 165, 409, 249, 18, 261, 298, 155, 58, 196, 443, 377, 341, 192, 12, 250, 179, 334, 373, 220, 287, 397, 494, 212, 451, 188, 437, 456, 107, 61, 414, 331, 403, 442, 365, 289, 74, 28, 440, 375, 189, 316, 156, 492, 161, 474, 119, 382, 67, 433, 458, 395, 151, 105, 19, 370, 201, 366, 11, 8, 90, 226, 55, 229, 392, 420, 380, 294, 206, 98, 223, 432, 197, 173, 210, 302, 296, 79, 436, 282, 300, 336, 42, 379, 84, 154, 30, 1, 485, 477, 275, 413, 291, 372, 496, 383, 276, 364, 120, 278, 193, 148, 59, 143, 353, 374, 452, 309, 254, 221, 185, 89, 190, 168, 159, 81, 153, 238, 116, 473, 91, 44, 394, 441, 434, 337, 200, 311, 160, 351, 342, 260, 476, 57, 328, 41, 128, 343, 448, 248, 214, 317, 404, 393, 136, 411, 3, 387, 101, 167, 62, 218, 51, 272, 37, 498, 178, 274, 488, 320, 209, 204, 109, 349, 217, 171, 124, 162, 75, 356, 27, 310, 339, 445, 306, 31, 325, 407, 453, 315, 106, 243, 470, 222, 357, 184, 228, 417, 208, 314, 454, 131, 180, 378, 422, 401, 241, 480, 138, 115, 54, 10, 32, 36, 77, 430, 123, 85, 312, 23, 468, 285, 25, 421, 467, 176, 125, 396, 354, 9, 369, 450, 307, 262, 358, 129, 118, 426, 15, 224, 446, 146, 56, 319, 73, 408, 169, 108, 191, 244, 135, 460, 318, 499, 323, 34, 487, 299, 163, 281, 187, 112, 166, 121, 186, 236, 239, 110, 82, 40, 64, 428, 230, 425, 280, 195, 256, 253, 86, 150, 233, 202, 68, 455, 207, 92, 438, 227, 72, 371, 352, 134, 345, 213, 45, 465, 273, 251, 481, 384, 469, 33, 255, 399, 269, 5, 203, 360, 47, 65, 70, 333, 400, 270, 264, 258, 284, 292, 95, 88, 447, 14, 237, 240, 321, 279, 290, 322, 231, 415, 126, 246, 242, 114, 405, 7, 490, 104, 277, 495, 424, 102, 172, 181, 489, 16, 439, 457, 245, 347, 271, 111, 478, 497, 303, 313, 38, 130, 99, 500, 257, 482, 301, 83, 182, 194, 293, 141, 2, 362, 225, 127, 100, 265, 152, 472, 175, 144, 463, 234, 93, 76, 268, 132, 170, 235, 52, 199, 486, 139, 149, 429, 20, 35, 418, 29, 219, 53, 216, 332, 22, 388, 326, 461, 96, 97, 21, 117, 359, 263, 288, 266, 346, 158, 412, 63, 385, 389, 6, 324, 416, 381, 87, 198, 305, 330, 78, 350, 113, 398, 304, 103, 329, 267, 4, 297, 335, 211, 283, 462, 232, 26, 247, 183, 295, 431, 145, 376, 24, 286, 43, 344, 484, 66, 252, 94, 479, 459, 367, 13, 475, 137, 327, 444, 368, 340, 348, 466, 80]</t>
+  </si>
+  <si>
+    <t>[190, 71, 80, 486, 102, 336, 74, 285, 15, 60, 342, 163, 57, 449, 459, 254, 26, 314, 393, 20, 124, 374, 304, 453, 41, 433, 18, 359, 313, 154, 69, 221, 335, 473, 59, 322, 262, 253, 155, 223, 37, 326, 120, 270, 490, 491, 421, 251, 411, 141, 178, 88, 70, 246, 444, 243, 157, 104, 63, 213, 395, 385, 94, 441, 133, 73, 474, 142, 392, 100, 53, 187, 497, 407, 103, 476, 51, 99, 147, 168, 68, 263, 396, 274, 295, 273, 488, 308, 136, 42, 75, 229, 97, 122, 403, 151, 471, 372, 127, 460, 328, 299, 477, 334, 445, 413, 40, 345, 134, 135, 130, 309, 470, 310, 210, 349, 105, 195, 348, 231, 186, 139, 419, 121, 261, 366, 426, 119, 1, 278, 64, 430, 16, 65, 93, 83, 114, 281, 423, 164, 76, 318, 330, 13, 276, 390, 462, 172, 202, 77, 418, 72, 46, 45, 442, 232, 171, 149, 346, 268, 406, 496, 117, 8, 209, 193, 344, 482, 461, 10, 150, 22, 399, 220, 386, 293, 361, 410, 199, 48, 182, 189, 227, 217, 495, 288, 87, 354, 427, 235, 92, 107, 437, 179, 211, 236, 365, 417, 494, 364, 338, 422, 86, 378, 118, 248, 38, 54, 337, 302, 5, 96, 52, 241, 111, 2, 250, 35, 271, 321, 115, 177, 480, 331, 161, 82, 311, 222, 408, 425, 483, 14, 456, 446, 327, 383, 201, 129, 292, 500, 66, 240, 226, 414, 351, 58, 343, 101, 340, 339, 440, 450, 170, 234, 176, 394, 415, 498, 323, 305, 350, 468, 347, 485, 381, 487, 85, 431, 84, 370, 436, 360, 380, 300, 128, 12, 145, 204, 237, 61, 166, 258, 24, 173, 358, 255, 260, 259, 55, 27, 405, 239, 376, 289, 31, 357, 267, 301, 352, 356, 47, 466, 249, 469, 219, 443, 373, 332, 438, 409, 109, 32, 257, 455, 215, 159, 196, 197, 116, 62, 316, 144, 298, 205, 188, 266, 206, 174, 218, 264, 463, 320, 282, 175, 329, 228, 19, 212, 148, 286, 252, 169, 283, 479, 432, 277, 439, 30, 23, 416, 333, 367, 424, 33, 214, 50, 21, 389, 341, 184, 447, 207, 362, 153, 132, 44, 478, 382, 95, 7, 481, 384, 265, 391, 112, 191, 138, 388, 353, 315, 434, 143, 452, 165, 6, 275, 435, 146, 454, 160, 29, 325, 11, 43, 110, 272, 371, 3, 137, 140, 467, 303, 368, 203, 290, 465, 420, 312, 208, 247, 158, 244, 448, 91, 400, 183, 113, 123, 180, 402, 307, 152, 28, 230, 306, 287, 67, 125, 17, 108, 79, 489, 284, 49, 355, 472, 492, 200, 397, 89, 90, 484, 398, 412, 291, 9, 379, 324, 224, 98, 319, 238, 377, 493, 192, 126, 256, 317, 464, 269, 404, 245, 475, 457, 181, 280, 131, 198, 499, 294, 428, 242, 216, 78, 363, 156, 36, 39, 4, 458, 387, 429, 296, 34, 81, 369, 225, 401, 451, 162, 233, 279, 297, 25, 106, 194, 375, 56, 167, 185]</t>
+  </si>
+  <si>
+    <t>[286, 378, 148, 103, 477, 143, 438, 97, 324, 107, 236, 314, 272, 18, 426, 456, 262, 134, 248, 220, 475, 52, 399, 292, 448, 444, 439, 279, 168, 288, 64, 284, 205, 400, 498, 166, 461, 161, 222, 339, 454, 165, 158, 434, 112, 296, 36, 219, 447, 25, 196, 141, 4, 241, 317, 467, 392, 318, 277, 348, 110, 459, 70, 309, 496, 430, 100, 126, 239, 308, 74, 10, 449, 35, 59, 291, 393, 340, 333, 19, 62, 201, 336, 310, 406, 460, 307, 27, 12, 95, 366, 160, 455, 206, 491, 418, 443, 3, 273, 176, 171, 315, 68, 391, 226, 303, 198, 94, 385, 283, 218, 244, 162, 93, 341, 493, 99, 228, 306, 101, 221, 481, 302, 412, 472, 2, 468, 450, 278, 379, 290, 79, 76, 24, 387, 476, 119, 442, 316, 390, 287, 69, 210, 73, 245, 47, 159, 490, 345, 415, 428, 243, 92, 357, 21, 409, 323, 261, 421, 453, 299, 58, 327, 251, 77, 367, 174, 154, 43, 424, 142, 120, 147, 464, 282, 230, 285, 264, 370, 84, 368, 189, 51, 140, 139, 486, 466, 382, 56, 132, 164, 372, 11, 445, 494, 238, 207, 178, 104, 155, 270, 190, 358, 184, 216, 265, 135, 269, 298, 149, 384, 203, 133, 250, 395, 180, 98, 63, 427, 30, 186, 247, 194, 34, 249, 91, 130, 187, 258, 471, 420, 44, 31, 85, 7, 229, 65, 116, 294, 483, 15, 114, 398, 465, 240, 437, 227, 499, 232, 41, 129, 81, 322, 80, 29, 487, 297, 452, 169, 26, 362, 473, 188, 276, 319, 432, 271, 208, 300, 301, 199, 252, 331, 105, 410, 45, 381, 42, 40, 274, 416, 305, 55, 118, 436, 67, 255, 144, 117, 497, 479, 268, 371, 389, 394, 235, 39, 365, 329, 404, 233, 195, 106, 435, 328, 332, 388, 304, 373, 360, 211, 281, 136, 242, 156, 407, 376, 71, 259, 402, 380, 5, 414, 280, 6, 170, 267, 403, 9, 16, 185, 66, 484, 197, 343, 202, 146, 125, 351, 293, 234, 408, 375, 46, 355, 411, 422, 224, 330, 83, 489, 113, 338, 122, 111, 396, 352, 495, 474, 57, 397, 61, 138, 86, 231, 326, 82, 429, 167, 193, 425, 131, 214, 1, 215, 359, 152, 145, 173, 87, 488, 8, 500, 470, 225, 377, 246, 433, 17, 463, 32, 223, 33, 354, 275, 349, 124, 20, 480, 342, 109, 108, 485, 163, 361, 462, 423, 335, 75, 325, 482, 446, 263, 405, 204, 172, 37, 374, 457, 266, 22, 191, 127, 478, 48, 96, 38, 137, 344, 237, 451, 363, 72, 253, 28, 417, 151, 123, 383, 413, 321, 347, 49, 458, 102, 469, 90, 312, 23, 334, 386, 60, 260, 295, 364, 192, 209, 441, 401, 150, 88, 337, 419, 89, 179, 177, 369, 53, 78, 440, 346, 289, 431, 181, 311, 320, 50, 183, 217, 54, 350, 115, 153, 254, 256, 175, 356, 212, 200, 182, 492, 257, 13, 121, 157, 14, 128, 353, 313, 213]</t>
+  </si>
+  <si>
+    <t>[325, 44, 105, 269, 122, 497, 363, 70, 351, 81, 380, 127, 163, 419, 8, 474, 77, 183, 166, 453, 485, 331, 146, 167, 407, 88, 4, 237, 121, 490, 450, 232, 165, 179, 339, 147, 254, 388, 376, 352, 243, 57, 45, 415, 71, 177, 164, 224, 359, 303, 192, 364, 466, 268, 425, 230, 491, 392, 320, 193, 279, 360, 43, 317, 24, 440, 443, 460, 21, 278, 496, 475, 47, 94, 495, 228, 181, 227, 215, 2, 120, 59, 79, 93, 171, 342, 410, 329, 102, 16, 327, 126, 255, 53, 390, 140, 387, 52, 266, 498, 319, 429, 480, 211, 310, 291, 306, 37, 391, 309, 157, 273, 238, 235, 184, 205, 155, 172, 214, 114, 40, 142, 41, 335, 399, 35, 78, 175, 169, 199, 23, 151, 115, 233, 60, 33, 404, 318, 239, 19, 282, 270, 426, 294, 221, 417, 271, 500, 435, 49, 338, 213, 433, 383, 208, 95, 370, 188, 182, 162, 97, 143, 336, 324, 287, 462, 467, 74, 296, 368, 398, 367, 297, 445, 290, 333, 112, 385, 245, 365, 225, 411, 101, 357, 465, 247, 493, 186, 258, 347, 473, 170, 109, 249, 492, 26, 55, 281, 344, 253, 152, 34, 442, 12, 90, 326, 25, 372, 1, 204, 476, 133, 337, 65, 194, 198, 356, 246, 454, 362, 38, 267, 48, 499, 18, 275, 381, 312, 416, 145, 420, 5, 58, 209, 72, 117, 280, 13, 134, 400, 295, 219, 358, 330, 174, 73, 234, 448, 432, 486, 29, 423, 104, 323, 89, 369, 103, 406, 451, 14, 54, 226, 471, 349, 402, 196, 314, 190, 262, 244, 217, 220, 250, 106, 96, 32, 110, 438, 189, 384, 36, 371, 201, 229, 91, 353, 242, 257, 63, 293, 132, 348, 276, 459, 394, 128, 277, 123, 46, 401, 477, 464, 413, 27, 340, 483, 422, 272, 84, 168, 22, 130, 457, 479, 446, 456, 366, 30, 107, 377, 374, 334, 412, 431, 482, 100, 218, 305, 222, 378, 144, 3, 42, 203, 138, 341, 487, 405, 108, 66, 283, 159, 481, 178, 20, 251, 472, 236, 434, 83, 85, 321, 286, 216, 386, 156, 98, 292, 397, 195, 99, 361, 86, 9, 354, 92, 82, 191, 11, 300, 50, 61, 382, 76, 478, 111, 141, 125, 113, 430, 131, 449, 176, 274, 252, 298, 241, 389, 75, 494, 316, 200, 345, 124, 379, 259, 185, 488, 439, 154, 17, 137, 469, 308, 461, 28, 248, 332, 160, 149, 424, 56, 173, 212, 441, 375, 31, 452, 64, 458, 285, 15, 299, 414, 256, 148, 261, 373, 161, 265, 302, 436, 301, 231, 263, 355, 119, 180, 7, 322, 437, 315, 284, 311, 393, 264, 489, 207, 395, 210, 10, 116, 39, 129, 87, 427, 444, 197, 69, 136, 153, 150, 187, 158, 139, 118, 260, 202, 428, 408, 409, 307, 304, 447, 206, 403, 62, 350, 343, 328, 470, 313, 468, 80, 455, 421, 396, 418, 51, 68, 484, 223, 135, 289, 346, 240, 288, 463, 67, 6]</t>
+  </si>
+  <si>
+    <t>[186, 182, 168, 37, 78, 284, 75, 366, 456, 337, 104, 126, 309, 282, 12, 130, 449, 300, 128, 299, 235, 236, 326, 9, 473, 204, 110, 387, 144, 197, 336, 303, 277, 125, 67, 87, 412, 447, 240, 318, 194, 84, 273, 91, 207, 242, 364, 445, 314, 329, 15, 346, 83, 389, 256, 327, 121, 169, 179, 301, 174, 143, 161, 296, 414, 361, 405, 491, 281, 28, 401, 263, 96, 63, 238, 350, 372, 79, 425, 193, 124, 431, 108, 57, 475, 293, 92, 89, 428, 290, 52, 88, 460, 122, 94, 106, 192, 17, 444, 429, 333, 2, 229, 248, 250, 427, 172, 423, 396, 334, 51, 287, 482, 218, 253, 342, 493, 71, 177, 386, 292, 450, 474, 251, 36, 61, 155, 440, 496, 455, 421, 70, 85, 127, 417, 129, 324, 375, 252, 219, 461, 113, 170, 310, 258, 224, 374, 185, 485, 147, 483, 393, 98, 413, 480, 64, 80, 209, 347, 19, 183, 146, 203, 313, 97, 38, 448, 408, 44, 32, 195, 497, 267, 27, 319, 149, 458, 307, 234, 398, 255, 211, 379, 220, 217, 134, 202, 436, 34, 115, 141, 402, 383, 467, 138, 410, 5, 489, 77, 40, 212, 117, 142, 39, 345, 26, 328, 340, 331, 378, 484, 159, 471, 451, 465, 397, 208, 150, 227, 30, 272, 118, 275, 213, 477, 111, 385, 69, 7, 311, 295, 62, 339, 453, 82, 362, 163, 21, 112, 442, 166, 266, 432, 254, 494, 343, 382, 289, 358, 348, 469, 244, 268, 188, 210, 325, 330, 262, 41, 23, 247, 322, 479, 360, 165, 338, 495, 101, 430, 415, 259, 470, 46, 317, 278, 384, 294, 4, 298, 424, 304, 349, 48, 29, 365, 454, 341, 65, 354, 93, 488, 437, 100, 123, 241, 136, 164, 42, 399, 316, 353, 105, 351, 297, 116, 47, 466, 175, 279, 359, 419, 137, 103, 196, 231, 283, 406, 381, 223, 230, 31, 464, 33, 305, 154, 145, 24, 291, 418, 201, 285, 246, 56, 35, 367, 274, 180, 391, 499, 152, 25, 245, 55, 404, 302, 66, 187, 102, 109, 377, 233, 54, 158, 280, 237, 20, 441, 16, 481, 148, 81, 18, 226, 261, 6, 74, 153, 457, 472, 239, 140, 173, 452, 265, 490, 264, 369, 394, 162, 468, 407, 363, 191, 332, 368, 486, 13, 356, 390, 176, 86, 72, 156, 487, 411, 438, 446, 357, 184, 99, 60, 189, 10, 315, 462, 269, 53, 171, 95, 380, 376, 59, 120, 214, 344, 409, 222, 434, 388, 426, 45, 198, 215, 8, 1, 270, 422, 371, 160, 463, 216, 403, 498, 76, 260, 288, 11, 271, 205, 249, 73, 200, 257, 320, 435, 132, 190, 228, 221, 395, 500, 392, 370, 306, 478, 416, 131, 321, 133, 206, 323, 14, 114, 22, 181, 312, 276, 355, 43, 420, 373, 308, 492, 243, 167, 476, 400, 443, 199, 225, 135, 49, 151, 157, 459, 3, 178, 139, 119, 352, 50, 286, 335, 68, 107, 232, 90, 433, 58, 439]</t>
+  </si>
+  <si>
+    <t>[80, 484, 310, 447, 209, 188, 439, 236, 269, 20, 88, 89, 475, 333, 173, 331, 274, 95, 317, 362, 189, 167, 296, 307, 422, 492, 342, 358, 135, 456, 108, 290, 465, 36, 480, 214, 60, 265, 115, 22, 45, 429, 347, 326, 460, 32, 61, 129, 289, 139, 112, 239, 270, 71, 17, 375, 62, 104, 102, 25, 231, 219, 436, 194, 27, 246, 126, 365, 151, 233, 489, 494, 449, 267, 66, 91, 457, 6, 63, 140, 199, 419, 171, 407, 322, 29, 134, 410, 33, 203, 345, 298, 398, 306, 378, 474, 424, 392, 313, 190, 56, 399, 69, 384, 184, 458, 204, 84, 138, 120, 131, 283, 493, 145, 172, 389, 7, 125, 339, 382, 58, 355, 68, 427, 491, 452, 284, 103, 312, 19, 12, 497, 271, 328, 442, 158, 221, 191, 193, 376, 180, 149, 43, 379, 273, 245, 15, 417, 41, 177, 433, 321, 117, 451, 280, 400, 464, 418, 240, 143, 82, 183, 1, 170, 496, 123, 248, 164, 163, 340, 300, 359, 28, 57, 441, 161, 160, 414, 281, 130, 230, 415, 212, 114, 244, 90, 288, 227, 363, 162, 176, 341, 111, 119, 14, 157, 206, 485, 65, 476, 324, 486, 315, 50, 308, 293, 302, 49, 153, 226, 468, 5, 78, 31, 369, 272, 208, 404, 44, 75, 87, 434, 282, 76, 256, 197, 182, 168, 387, 100, 156, 142, 285, 223, 34, 96, 463, 459, 201, 287, 93, 21, 309, 437, 98, 175, 9, 258, 481, 26, 435, 380, 425, 133, 416, 148, 487, 412, 303, 319, 254, 443, 146, 499, 454, 132, 368, 395, 397, 262, 106, 373, 483, 169, 109, 278, 467, 314, 110, 222, 73, 4, 178, 251, 174, 53, 371, 268, 374, 198, 186, 431, 235, 381, 202, 336, 10, 99, 275, 477, 165, 450, 72, 179, 297, 461, 166, 47, 249, 294, 401, 327, 478, 364, 495, 83, 150, 353, 67, 304, 187, 318, 147, 64, 207, 403, 2, 263, 116, 335, 440, 243, 325, 229, 411, 250, 295, 24, 241, 388, 35, 257, 323, 473, 372, 346, 137, 127, 70, 386, 11, 237, 488, 316, 255, 413, 479, 472, 361, 242, 85, 118, 92, 220, 438, 367, 370, 299, 107, 210, 426, 305, 232, 51, 218, 351, 377, 260, 344, 356, 279, 195, 136, 121, 37, 338, 211, 445, 159, 216, 215, 349, 329, 337, 354, 86, 498, 350, 101, 18, 352, 105, 205, 54, 238, 124, 348, 343, 490, 334, 455, 420, 48, 385, 423, 292, 74, 360, 301, 430, 185, 332, 405, 154, 500, 390, 234, 394, 448, 79, 261, 366, 113, 38, 383, 97, 444, 8, 59, 252, 402, 432, 52, 446, 462, 46, 196, 276, 42, 94, 141, 77, 122, 482, 3, 470, 225, 291, 228, 247, 13, 266, 23, 16, 152, 144, 200, 428, 286, 393, 406, 259, 39, 224, 469, 277, 253, 30, 81, 330, 421, 320, 155, 128, 409, 55, 311, 391, 213, 181, 357, 217, 466, 264, 192, 453, 40, 408, 396, 471]</t>
+  </si>
+  <si>
+    <t>[411, 311, 37, 196, 314, 17, 13, 25, 48, 172, 341, 419, 176, 298, 320, 426, 105, 393, 381, 27, 120, 350, 382, 62, 498, 90, 270, 166, 282, 453, 434, 210, 180, 109, 125, 489, 333, 389, 265, 376, 396, 307, 400, 124, 157, 242, 433, 69, 436, 46, 349, 478, 76, 438, 497, 30, 416, 45, 375, 405, 154, 205, 292, 351, 75, 185, 8, 16, 77, 116, 230, 245, 368, 101, 31, 86, 153, 140, 323, 345, 387, 367, 19, 255, 250, 6, 67, 203, 326, 220, 159, 299, 54, 123, 329, 224, 449, 55, 50, 130, 147, 169, 374, 483, 137, 287, 239, 496, 432, 452, 290, 243, 14, 289, 208, 34, 278, 257, 83, 206, 21, 271, 237, 20, 132, 284, 89, 79, 74, 221, 360, 481, 403, 410, 52, 211, 355, 352, 348, 148, 97, 262, 10, 240, 306, 492, 313, 330, 450, 402, 422, 88, 362, 471, 194, 339, 129, 233, 80, 365, 472, 312, 36, 202, 366, 385, 189, 356, 155, 70, 96, 222, 390, 164, 401, 188, 321, 186, 383, 302, 358, 144, 418, 476, 421, 104, 495, 184, 343, 252, 475, 458, 337, 459, 143, 57, 181, 207, 2, 354, 35, 168, 111, 423, 24, 430, 136, 167, 305, 258, 43, 480, 357, 121, 227, 131, 170, 9, 119, 26, 33, 112, 241, 23, 461, 92, 213, 451, 152, 98, 201, 15, 115, 219, 84, 40, 1, 261, 71, 38, 446, 72, 335, 11, 223, 455, 293, 212, 317, 266, 117, 229, 398, 322, 106, 128, 12, 162, 491, 51, 500, 58, 437, 214, 244, 68, 395, 334, 99, 49, 494, 145, 441, 445, 173, 108, 216, 199, 100, 5, 39, 370, 359, 371, 204, 283, 126, 420, 110, 87, 60, 133, 301, 485, 484, 319, 165, 318, 95, 378, 264, 285, 18, 47, 324, 443, 344, 141, 142, 327, 275, 102, 78, 424, 226, 309, 64, 249, 94, 127, 303, 386, 114, 191, 200, 44, 464, 288, 392, 470, 91, 118, 377, 28, 160, 183, 272, 456, 215, 225, 304, 231, 279, 388, 149, 29, 53, 466, 384, 316, 107, 135, 467, 236, 429, 65, 22, 103, 294, 347, 56, 413, 267, 409, 447, 3, 415, 122, 7, 4, 61, 156, 281, 364, 192, 479, 187, 238, 81, 474, 442, 431, 138, 280, 369, 198, 457, 488, 247, 268, 158, 338, 248, 486, 171, 277, 254, 336, 66, 63, 174, 331, 328, 193, 473, 468, 460, 246, 397, 260, 234, 463, 197, 499, 465, 232, 439, 444, 161, 428, 256, 440, 325, 454, 493, 228, 295, 490, 209, 251, 417, 175, 182, 487, 308, 163, 195, 477, 346, 361, 373, 178, 253, 269, 235, 407, 448, 372, 274, 179, 32, 353, 42, 380, 296, 412, 414, 435, 177, 340, 469, 482, 41, 379, 218, 425, 399, 300, 363, 134, 427, 391, 59, 151, 315, 263, 332, 190, 291, 342, 259, 404, 93, 73, 139, 276, 150, 408, 462, 113, 85, 273, 217, 394, 82, 146, 286, 310, 297, 406]</t>
+  </si>
+  <si>
+    <t>[27, 194, 7, 342, 217, 404, 489, 255, 168, 457, 133, 38, 345, 12, 381, 89, 398, 143, 492, 408, 118, 175, 219, 158, 37, 20, 184, 149, 376, 347, 46, 167, 146, 319, 166, 113, 163, 21, 402, 432, 159, 481, 177, 72, 233, 295, 55, 99, 346, 81, 389, 248, 341, 78, 378, 61, 13, 31, 104, 183, 245, 267, 499, 377, 30, 249, 154, 169, 363, 179, 310, 171, 164, 44, 349, 498, 67, 465, 215, 111, 336, 71, 18, 436, 390, 141, 261, 491, 124, 343, 74, 293, 438, 475, 232, 230, 196, 212, 369, 259, 107, 385, 415, 223, 464, 397, 52, 17, 425, 135, 350, 496, 355, 83, 95, 370, 379, 39, 403, 208, 421, 291, 401, 87, 238, 98, 387, 451, 356, 162, 221, 172, 105, 207, 400, 282, 362, 406, 251, 442, 3, 125, 11, 101, 237, 50, 455, 213, 6, 76, 382, 360, 497, 469, 437, 395, 366, 272, 427, 131, 224, 266, 199, 200, 281, 309, 253, 144, 495, 204, 222, 53, 236, 431, 426, 77, 414, 112, 110, 275, 324, 467, 197, 278, 450, 156, 478, 88, 277, 250, 190, 91, 353, 1, 241, 170, 294, 122, 206, 394, 487, 308, 470, 315, 423, 435, 211, 290, 92, 299, 279, 243, 286, 66, 265, 284, 393, 220, 84, 392, 132, 47, 424, 373, 367, 417, 68, 41, 192, 195, 453, 198, 337, 418, 145, 314, 283, 209, 151, 51, 325, 180, 257, 359, 287, 152, 103, 109, 106, 305, 94, 454, 311, 374, 407, 358, 391, 466, 134, 80, 300, 247, 239, 22, 357, 338, 64, 16, 329, 488, 386, 419, 371, 45, 182, 372, 56, 203, 216, 35, 416, 476, 375, 412, 364, 330, 234, 23, 117, 210, 69, 331, 150, 29, 218, 263, 484, 178, 54, 136, 486, 500, 264, 26, 474, 90, 186, 34, 280, 85, 79, 246, 344, 494, 348, 352, 49, 458, 429, 482, 228, 463, 93, 320, 271, 148, 119, 258, 193, 361, 485, 380, 147, 191, 75, 205, 114, 269, 244, 274, 189, 439, 302, 160, 323, 268, 443, 339, 138, 434, 483, 420, 388, 235, 155, 24, 340, 82, 42, 36, 5, 97, 96, 479, 202, 176, 490, 153, 422, 262, 130, 326, 256, 447, 65, 121, 452, 86, 32, 449, 173, 181, 459, 354, 334, 446, 273, 115, 4, 473, 128, 2, 445, 428, 63, 441, 313, 226, 289, 440, 43, 62, 480, 129, 399, 303, 157, 456, 312, 227, 48, 58, 187, 14, 188, 462, 165, 116, 493, 33, 296, 201, 139, 333, 242, 9, 252, 332, 140, 304, 100, 60, 322, 270, 254, 8, 108, 137, 307, 28, 225, 472, 368, 73, 59, 120, 40, 327, 328, 142, 126, 102, 410, 384, 383, 229, 214, 288, 477, 174, 70, 396, 461, 405, 460, 444, 468, 161, 351, 15, 57, 297, 316, 433, 123, 409, 317, 411, 231, 292, 285, 240, 25, 413, 19, 335, 306, 10, 321, 448, 260, 430, 301, 318, 185, 276, 471, 365, 127, 298]</t>
+  </si>
+  <si>
+    <t>[29, 480, 48, 109, 106, 436, 209, 372, 129, 180, 135, 310, 247, 497, 464, 224, 323, 465, 461, 185, 146, 281, 28, 38, 152, 392, 99, 435, 115, 34, 492, 286, 190, 100, 370, 330, 263, 210, 66, 81, 278, 88, 171, 444, 46, 290, 18, 125, 432, 189, 487, 43, 98, 288, 134, 74, 252, 154, 260, 293, 116, 93, 5, 193, 177, 107, 414, 197, 457, 441, 153, 311, 2, 346, 289, 173, 442, 258, 12, 478, 410, 217, 454, 128, 236, 242, 167, 243, 459, 83, 388, 488, 30, 112, 155, 418, 368, 395, 183, 212, 65, 256, 36, 250, 227, 420, 204, 387, 121, 353, 245, 471, 11, 493, 102, 70, 195, 94, 304, 23, 47, 284, 207, 64, 378, 156, 463, 170, 342, 357, 6, 401, 228, 75, 220, 229, 296, 337, 434, 329, 113, 33, 108, 467, 19, 376, 267, 104, 136, 71, 398, 186, 486, 142, 322, 191, 364, 63, 105, 234, 262, 400, 169, 440, 476, 150, 408, 312, 275, 297, 386, 103, 199, 21, 22, 373, 306, 214, 292, 165, 358, 452, 141, 266, 148, 49, 37, 80, 294, 396, 494, 469, 25, 362, 205, 455, 244, 394, 499, 431, 85, 145, 421, 320, 139, 69, 413, 334, 423, 101, 473, 122, 232, 188, 379, 438, 202, 316, 40, 397, 14, 407, 95, 176, 50, 447, 341, 449, 270, 61, 68, 9, 181, 157, 140, 325, 268, 119, 355, 78, 490, 489, 174, 110, 151, 3, 264, 402, 439, 219, 496, 261, 76, 203, 380, 248, 198, 369, 138, 300, 491, 301, 42, 143, 437, 331, 7, 338, 196, 416, 317, 298, 404, 182, 179, 458, 365, 415, 303, 82, 233, 59, 351, 127, 8, 271, 335, 419, 307, 225, 211, 277, 427, 332, 309, 166, 51, 27, 344, 321, 249, 314, 133, 24, 111, 86, 390, 62, 283, 215, 483, 417, 164, 481, 55, 279, 187, 124, 20, 58, 118, 430, 216, 123, 221, 477, 291, 359, 144, 226, 443, 460, 172, 253, 39, 302, 393, 350, 285, 60, 445, 79, 16, 72, 399, 409, 326, 468, 158, 280, 276, 114, 425, 406, 147, 257, 89, 391, 1, 130, 194, 274, 424, 319, 126, 238, 403, 495, 385, 218, 448, 345, 340, 475, 273, 35, 235, 26, 77, 336, 500, 347, 299, 32, 451, 57, 131, 446, 371, 429, 272, 255, 479, 265, 231, 348, 313, 470, 246, 13, 356, 161, 54, 453, 17, 31, 41, 474, 324, 269, 213, 484, 498, 132, 450, 184, 383, 52, 259, 178, 45, 10, 53, 305, 90, 91, 67, 412, 120, 433, 168, 240, 84, 482, 352, 201, 222, 137, 308, 428, 375, 159, 254, 426, 4, 162, 363, 349, 327, 97, 366, 230, 367, 56, 96, 237, 251, 360, 411, 354, 384, 175, 466, 422, 282, 318, 223, 389, 462, 87, 328, 206, 472, 381, 295, 456, 160, 485, 208, 149, 163, 333, 377, 315, 361, 374, 192, 239, 73, 343, 92, 241, 339, 117, 287, 15, 405, 200, 44, 382]</t>
+  </si>
+  <si>
+    <t>[268, 344, 491, 489, 456, 164, 348, 35, 162, 213, 350, 435, 172, 92, 244, 405, 114, 48, 340, 312, 417, 78, 201, 398, 500, 429, 214, 272, 179, 230, 396, 339, 401, 380, 259, 161, 377, 416, 460, 316, 210, 319, 280, 247, 284, 80, 65, 89, 410, 194, 493, 58, 464, 445, 105, 42, 399, 470, 254, 412, 153, 119, 370, 149, 451, 430, 154, 437, 281, 206, 366, 452, 108, 77, 311, 32, 454, 330, 278, 461, 24, 384, 67, 40, 372, 76, 160, 145, 371, 265, 95, 86, 208, 186, 264, 169, 397, 415, 16, 238, 218, 132, 432, 315, 249, 94, 96, 288, 362, 165, 31, 327, 428, 115, 467, 196, 28, 167, 373, 413, 274, 141, 455, 469, 418, 322, 474, 181, 368, 243, 365, 215, 47, 146, 338, 462, 176, 190, 351, 7, 299, 337, 68, 234, 221, 125, 494, 446, 124, 22, 120, 468, 251, 8, 318, 421, 130, 369, 403, 442, 118, 41, 23, 253, 64, 87, 121, 138, 83, 29, 499, 20, 219, 475, 180, 197, 356, 211, 296, 323, 441, 187, 127, 359, 84, 336, 324, 363, 422, 33, 326, 19, 44, 128, 85, 49, 453, 202, 292, 103, 116, 183, 212, 111, 171, 158, 358, 275, 423, 427, 52, 317, 1, 192, 414, 142, 81, 298, 237, 424, 17, 3, 345, 170, 13, 333, 15, 117, 488, 308, 492, 431, 294, 309, 73, 393, 289, 36, 352, 113, 136, 269, 457, 381, 195, 425, 98, 357, 440, 101, 447, 27, 25, 486, 295, 233, 392, 385, 225, 477, 122, 50, 355, 341, 205, 490, 18, 159, 235, 376, 51, 466, 285, 483, 379, 406, 30, 484, 220, 203, 104, 184, 449, 297, 91, 97, 217, 228, 107, 112, 306, 287, 263, 11, 458, 232, 476, 59, 26, 443, 39, 126, 480, 56, 301, 394, 55, 10, 175, 207, 63, 479, 250, 61, 110, 216, 388, 60, 471, 258, 450, 303, 382, 9, 189, 463, 174, 391, 420, 134, 389, 386, 374, 400, 133, 178, 408, 255, 279, 157, 224, 182, 21, 135, 54, 433, 140, 93, 223, 193, 482, 354, 411, 256, 173, 166, 270, 497, 277, 79, 325, 150, 163, 402, 439, 472, 2, 198, 283, 478, 82, 335, 290, 257, 246, 360, 5, 364, 334, 45, 353, 240, 487, 436, 152, 291, 139, 310, 66, 151, 4, 53, 46, 459, 261, 496, 168, 75, 438, 148, 74, 222, 321, 367, 155, 262, 242, 6, 271, 43, 131, 331, 349, 229, 404, 144, 305, 320, 307, 137, 361, 231, 390, 273, 204, 69, 260, 57, 282, 226, 241, 248, 304, 343, 199, 286, 409, 71, 302, 465, 88, 129, 37, 332, 266, 485, 227, 378, 328, 90, 495, 100, 72, 314, 14, 276, 473, 185, 252, 329, 300, 245, 143, 481, 102, 347, 407, 106, 62, 444, 38, 498, 395, 267, 209, 191, 70, 109, 156, 346, 387, 419, 448, 375, 147, 123, 99, 383, 200, 426, 188, 239, 236, 293, 177, 313, 342, 12, 34, 434]</t>
+  </si>
+  <si>
+    <t>[218, 120, 413, 190, 484, 41, 182, 467, 338, 205, 279, 342, 398, 144, 76, 399, 375, 372, 54, 85, 474, 9, 239, 202, 124, 470, 224, 421, 261, 308, 351, 191, 240, 245, 497, 381, 101, 385, 493, 163, 186, 378, 446, 315, 129, 417, 134, 142, 425, 478, 178, 19, 196, 158, 345, 123, 238, 359, 115, 64, 99, 433, 284, 171, 389, 153, 305, 174, 392, 314, 382, 192, 423, 167, 451, 488, 204, 416, 189, 270, 29, 384, 447, 364, 436, 370, 495, 489, 363, 272, 3, 80, 31, 448, 486, 108, 92, 463, 79, 368, 477, 67, 18, 283, 38, 241, 311, 88, 371, 86, 2, 1, 496, 231, 420, 106, 84, 83, 458, 264, 333, 434, 198, 468, 75, 49, 281, 366, 7, 445, 119, 269, 337, 259, 429, 394, 326, 113, 432, 61, 440, 150, 33, 112, 59, 154, 298, 452, 91, 114, 50, 152, 291, 210, 5, 336, 296, 349, 105, 175, 170, 121, 214, 285, 310, 379, 58, 146, 133, 321, 183, 243, 462, 157, 411, 361, 242, 376, 294, 104, 169, 267, 145, 481, 139, 494, 316, 14, 179, 180, 329, 422, 36, 143, 340, 63, 365, 380, 369, 273, 280, 219, 8, 485, 177, 439, 22, 208, 230, 43, 212, 401, 131, 348, 461, 400, 209, 96, 431, 69, 13, 318, 51, 17, 90, 48, 200, 256, 185, 237, 480, 30, 117, 156, 4, 424, 404, 132, 62, 302, 441, 6, 97, 293, 397, 211, 188, 438, 387, 476, 324, 147, 45, 236, 72, 111, 390, 148, 20, 173, 103, 194, 35, 216, 46, 187, 325, 277, 347, 419, 407, 278, 306, 165, 40, 137, 70, 500, 23, 168, 383, 276, 352, 42, 215, 155, 418, 89, 201, 197, 396, 159, 415, 428, 232, 247, 358, 248, 25, 449, 286, 388, 391, 377, 246, 235, 57, 453, 287, 304, 282, 360, 469, 39, 475, 292, 118, 263, 327, 15, 454, 465, 444, 268, 250, 386, 499, 490, 408, 77, 274, 498, 491, 339, 430, 87, 332, 300, 426, 343, 102, 203, 330, 466, 253, 220, 472, 138, 207, 262, 460, 47, 344, 213, 95, 24, 410, 193, 221, 234, 435, 122, 244, 16, 176, 206, 116, 10, 228, 313, 109, 455, 11, 110, 172, 81, 320, 317, 457, 162, 125, 65, 301, 233, 100, 312, 265, 12, 82, 328, 161, 140, 257, 335, 78, 56, 331, 227, 406, 275, 107, 482, 254, 222, 299, 307, 135, 464, 126, 151, 60, 52, 450, 309, 164, 73, 341, 403, 44, 53, 362, 128, 487, 66, 473, 74, 21, 37, 181, 356, 357, 427, 414, 290, 32, 271, 303, 199, 71, 251, 136, 319, 68, 252, 373, 459, 94, 412, 471, 249, 166, 160, 98, 395, 479, 34, 402, 149, 492, 184, 393, 405, 346, 258, 437, 266, 322, 127, 442, 28, 367, 355, 141, 195, 55, 409, 26, 93, 223, 443, 217, 456, 225, 374, 130, 354, 483, 229, 289, 255, 323, 295, 334, 353, 260, 288, 297, 226, 350, 27]</t>
+  </si>
+  <si>
+    <t>[24, 142, 109, 393, 141, 440, 177, 253, 185, 266, 52, 229, 258, 175, 394, 344, 315, 500, 309, 294, 29, 166, 18, 35, 337, 415, 273, 163, 47, 310, 302, 276, 132, 168, 370, 108, 431, 424, 470, 306, 227, 263, 245, 439, 364, 16, 107, 386, 130, 347, 250, 236, 81, 427, 408, 289, 373, 124, 280, 187, 164, 120, 216, 49, 156, 419, 398, 113, 459, 3, 203, 191, 110, 471, 10, 158, 413, 349, 353, 411, 320, 494, 174, 365, 296, 194, 374, 476, 485, 382, 395, 272, 299, 433, 112, 100, 400, 490, 472, 41, 25, 13, 213, 463, 12, 329, 271, 421, 388, 75, 43, 5, 441, 134, 85, 56, 196, 64, 58, 230, 240, 20, 456, 292, 499, 446, 121, 416, 378, 157, 172, 243, 182, 95, 160, 352, 330, 73, 235, 371, 66, 169, 61, 224, 430, 226, 237, 83, 215, 305, 351, 300, 445, 67, 261, 282, 429, 97, 286, 498, 51, 275, 335, 223, 214, 437, 284, 401, 101, 399, 247, 209, 396, 452, 249, 195, 36, 165, 383, 204, 102, 103, 46, 74, 30, 78, 144, 129, 192, 84, 346, 222, 179, 262, 57, 88, 147, 99, 318, 39, 219, 167, 497, 342, 357, 225, 486, 231, 96, 155, 118, 173, 274, 479, 87, 65, 376, 90, 465, 265, 23, 135, 233, 473, 80, 298, 251, 366, 146, 148, 392, 19, 385, 86, 488, 438, 278, 317, 474, 152, 117, 238, 22, 72, 363, 122, 361, 53, 9, 331, 70, 248, 252, 277, 422, 339, 484, 79, 137, 131, 111, 257, 423, 426, 281, 154, 232, 359, 128, 293, 341, 404, 82, 314, 153, 390, 412, 384, 403, 478, 379, 417, 283, 338, 170, 321, 33, 220, 442, 436, 21, 449, 221, 477, 332, 201, 425, 119, 54, 176, 246, 358, 217, 244, 287, 44, 377, 106, 495, 7, 295, 93, 360, 60, 139, 466, 123, 288, 210, 94, 206, 92, 259, 180, 340, 207, 301, 186, 8, 308, 2, 327, 114, 356, 483, 162, 188, 27, 328, 199, 171, 45, 4, 406, 420, 375, 458, 208, 254, 125, 42, 138, 193, 239, 307, 6, 407, 183, 241, 348, 190, 218, 457, 405, 444, 367, 372, 267, 333, 455, 242, 387, 435, 389, 159, 198, 149, 212, 37, 482, 189, 380, 410, 334, 297, 355, 368, 492, 469, 202, 91, 414, 450, 268, 434, 15, 143, 303, 211, 409, 489, 319, 260, 264, 468, 50, 350, 228, 34, 454, 285, 104, 161, 89, 311, 354, 126, 62, 115, 312, 71, 316, 116, 197, 461, 391, 31, 343, 26, 11, 345, 136, 77, 151, 290, 234, 467, 255, 59, 76, 205, 323, 269, 1, 480, 428, 32, 140, 17, 324, 481, 127, 487, 105, 402, 475, 336, 448, 133, 447, 270, 28, 326, 460, 69, 464, 462, 38, 322, 279, 48, 150, 496, 184, 453, 313, 304, 451, 369, 55, 181, 98, 397, 443, 40, 14, 68, 491, 145, 291, 63, 178, 256, 362, 325, 432, 493, 418, 381, 200]</t>
+  </si>
+  <si>
+    <t>[267, 2, 269, 348, 240, 90, 193, 183, 369, 342, 211, 24, 412, 433, 354, 437, 333, 364, 336, 361, 120, 393, 401, 41, 134, 43, 163, 10, 338, 317, 51, 99, 227, 428, 178, 176, 247, 476, 296, 239, 488, 485, 52, 153, 241, 185, 62, 142, 225, 415, 473, 177, 484, 140, 382, 159, 224, 454, 373, 357, 122, 410, 80, 36, 131, 328, 427, 422, 310, 83, 331, 431, 416, 19, 184, 319, 286, 276, 45, 465, 313, 20, 291, 48, 344, 210, 57, 79, 394, 366, 392, 63, 256, 71, 74, 360, 381, 65, 298, 499, 324, 72, 337, 40, 223, 53, 375, 44, 200, 114, 126, 68, 426, 143, 440, 391, 270, 312, 21, 217, 245, 293, 93, 219, 411, 147, 202, 77, 253, 214, 168, 278, 322, 151, 173, 349, 88, 389, 84, 273, 243, 334, 25, 492, 42, 152, 85, 268, 189, 300, 47, 255, 287, 50, 418, 59, 238, 493, 315, 23, 458, 128, 430, 203, 242, 407, 467, 209, 197, 413, 174, 314, 96, 380, 182, 494, 61, 480, 290, 260, 353, 105, 434, 285, 141, 297, 435, 470, 345, 106, 246, 205, 64, 417, 145, 236, 15, 343, 378, 376, 18, 165, 190, 266, 102, 254, 117, 135, 89, 11, 367, 414, 395, 4, 259, 469, 452, 228, 500, 271, 478, 161, 139, 281, 108, 33, 138, 346, 116, 181, 403, 218, 86, 277, 13, 70, 483, 304, 171, 404, 215, 384, 409, 262, 155, 118, 26, 100, 339, 398, 162, 479, 195, 221, 148, 447, 6, 305, 248, 172, 169, 252, 459, 326, 352, 371, 129, 132, 463, 284, 191, 231, 226, 201, 490, 39, 58, 355, 306, 323, 204, 379, 460, 377, 424, 442, 320, 329, 362, 54, 274, 261, 359, 425, 307, 340, 97, 250, 3, 115, 383, 280, 123, 327, 438, 316, 489, 244, 194, 103, 8, 237, 466, 46, 22, 30, 275, 157, 180, 216, 303, 229, 408, 439, 66, 332, 482, 347, 31, 335, 196, 294, 75, 448, 456, 12, 498, 37, 113, 289, 429, 461, 164, 481, 432, 17, 121, 230, 372, 365, 112, 309, 445, 212, 16, 109, 55, 308, 318, 67, 127, 234, 283, 487, 160, 386, 444, 213, 397, 325, 406, 78, 119, 198, 104, 27, 9, 496, 299, 263, 98, 73, 301, 69, 350, 167, 385, 363, 124, 7, 258, 446, 206, 282, 436, 125, 130, 292, 468, 388, 28, 443, 257, 158, 453, 186, 233, 1, 5, 455, 251, 166, 81, 192, 188, 399, 207, 175, 222, 474, 279, 321, 111, 491, 272, 264, 351, 390, 451, 49, 144, 441, 170, 146, 288, 35, 497, 179, 208, 477, 420, 405, 76, 232, 92, 464, 101, 462, 341, 220, 475, 330, 249, 302, 295, 450, 356, 82, 421, 56, 199, 14, 472, 136, 374, 396, 419, 95, 32, 91, 235, 107, 423, 486, 150, 265, 133, 402, 311, 137, 60, 457, 156, 370, 187, 387, 400, 38, 368, 29, 358, 449, 110, 495, 34, 87, 94, 471, 149, 154]</t>
+  </si>
+  <si>
+    <t>[261, 374, 416, 428, 53, 221, 111, 354, 172, 245, 492, 202, 292, 15, 36, 239, 470, 199, 115, 211, 177, 210, 151, 450, 382, 431, 54, 480, 386, 327, 234, 243, 180, 351, 320, 144, 355, 73, 473, 255, 23, 61, 35, 182, 344, 442, 67, 94, 334, 401, 317, 443, 116, 414, 316, 453, 260, 412, 150, 324, 287, 110, 250, 329, 49, 457, 56, 264, 321, 266, 29, 286, 395, 187, 394, 48, 393, 24, 43, 379, 491, 16, 268, 26, 79, 244, 55, 125, 166, 122, 11, 290, 274, 128, 383, 204, 481, 403, 343, 467, 220, 400, 337, 345, 191, 47, 294, 52, 215, 42, 143, 14, 426, 251, 497, 120, 381, 396, 86, 285, 295, 323, 283, 335, 299, 159, 296, 12, 399, 270, 348, 217, 145, 194, 390, 275, 339, 213, 186, 365, 305, 3, 461, 349, 303, 236, 241, 425, 76, 235, 475, 392, 6, 88, 458, 112, 471, 184, 449, 313, 75, 95, 314, 212, 439, 89, 300, 228, 410, 366, 155, 254, 138, 444, 373, 201, 92, 249, 346, 409, 342, 179, 271, 478, 85, 185, 498, 406, 472, 99, 192, 123, 107, 237, 193, 499, 229, 468, 311, 466, 131, 362, 302, 68, 438, 51, 203, 80, 363, 84, 310, 28, 218, 57, 441, 157, 30, 328, 358, 34, 58, 474, 64, 405, 200, 422, 9, 238, 1, 253, 487, 459, 231, 352, 105, 309, 319, 205, 486, 397, 279, 326, 146, 420, 21, 421, 219, 278, 156, 347, 140, 484, 388, 46, 465, 40, 364, 464, 207, 297, 66, 332, 368, 460, 456, 148, 173, 357, 418, 106, 70, 308, 277, 137, 13, 276, 485, 118, 147, 101, 490, 325, 181, 152, 291, 333, 265, 117, 340, 289, 463, 190, 161, 307, 132, 331, 407, 298, 153, 353, 130, 495, 413, 378, 171, 90, 197, 380, 97, 195, 214, 312, 124, 174, 284, 170, 359, 142, 494, 141, 367, 82, 419, 376, 222, 188, 493, 341, 91, 121, 240, 31, 83, 206, 242, 488, 119, 256, 377, 103, 98, 304, 424, 247, 455, 267, 226, 59, 100, 411, 230, 154, 10, 430, 7, 315, 500, 113, 445, 477, 102, 402, 62, 19, 408, 448, 209, 169, 50, 8, 263, 479, 293, 423, 38, 301, 273, 32, 269, 417, 451, 440, 25, 93, 469, 165, 96, 232, 5, 361, 139, 72, 41, 160, 306, 33, 432, 360, 436, 338, 129, 126, 163, 164, 175, 272, 433, 482, 246, 462, 387, 370, 114, 356, 189, 398, 60, 71, 434, 280, 252, 168, 4, 87, 248, 158, 429, 20, 282, 489, 78, 372, 385, 415, 149, 233, 369, 389, 127, 435, 133, 208, 69, 483, 223, 384, 259, 178, 371, 330, 318, 176, 45, 447, 162, 257, 322, 281, 476, 198, 258, 391, 375, 437, 183, 167, 77, 404, 108, 454, 104, 496, 350, 427, 39, 17, 135, 136, 27, 288, 262, 225, 2, 216, 18, 446, 196, 44, 134, 336, 65, 37, 227, 81, 109, 63, 452, 74, 224, 22]</t>
+  </si>
+  <si>
+    <t>[441, 29, 178, 237, 442, 255, 241, 147, 154, 485, 388, 188, 3, 59, 348, 162, 331, 124, 273, 211, 319, 22, 385, 151, 222, 406, 250, 161, 4, 232, 101, 116, 27, 390, 376, 467, 75, 459, 209, 399, 306, 309, 125, 114, 292, 387, 344, 169, 111, 40, 352, 67, 436, 17, 412, 227, 53, 12, 314, 464, 83, 274, 451, 410, 446, 235, 34, 112, 88, 457, 494, 327, 145, 401, 322, 483, 239, 418, 57, 372, 49, 244, 422, 118, 146, 30, 409, 382, 39, 259, 230, 224, 415, 46, 308, 236, 28, 107, 16, 184, 444, 290, 86, 456, 182, 180, 226, 104, 312, 366, 403, 313, 479, 480, 329, 192, 2, 443, 77, 32, 262, 37, 260, 269, 106, 252, 248, 137, 333, 231, 127, 54, 11, 437, 323, 36, 108, 193, 492, 84, 474, 298, 229, 99, 201, 374, 174, 301, 160, 69, 307, 421, 21, 210, 128, 413, 76, 461, 109, 469, 425, 304, 373, 97, 356, 190, 320, 325, 258, 216, 468, 206, 135, 357, 416, 438, 165, 277, 272, 148, 194, 310, 398, 405, 493, 189, 358, 213, 18, 87, 296, 140, 432, 377, 119, 264, 330, 433, 24, 261, 414, 170, 395, 284, 351, 177, 247, 328, 392, 321, 191, 293, 263, 332, 435, 484, 350, 132, 370, 51, 439, 233, 7, 268, 102, 55, 19, 315, 245, 129, 364, 466, 491, 220, 378, 208, 380, 295, 500, 434, 63, 33, 267, 78, 471, 65, 179, 10, 167, 265, 276, 463, 240, 44, 136, 45, 278, 379, 381, 73, 361, 134, 186, 158, 168, 120, 496, 408, 81, 487, 85, 9, 324, 203, 431, 486, 283, 152, 411, 155, 123, 341, 35, 144, 430, 223, 163, 212, 23, 91, 359, 462, 346, 38, 275, 171, 294, 246, 495, 197, 345, 257, 52, 61, 394, 407, 249, 94, 371, 337, 156, 498, 288, 138, 68, 476, 360, 427, 70, 207, 150, 472, 343, 187, 488, 205, 80, 383, 95, 419, 130, 93, 13, 340, 499, 64, 100, 455, 460, 14, 303, 271, 365, 282, 153, 417, 79, 270, 225, 25, 423, 175, 181, 98, 281, 311, 404, 393, 115, 89, 465, 300, 72, 355, 251, 318, 489, 316, 198, 347, 470, 105, 126, 60, 317, 121, 482, 243, 238, 458, 400, 490, 342, 389, 218, 159, 384, 445, 221, 253, 82, 133, 141, 334, 234, 475, 478, 426, 143, 367, 5, 391, 280, 473, 202, 424, 58, 90, 369, 497, 26, 349, 339, 375, 62, 196, 354, 157, 43, 353, 92, 31, 48, 42, 66, 195, 215, 363, 289, 397, 199, 287, 6, 242, 297, 56, 286, 362, 266, 71, 214, 279, 139, 448, 50, 449, 428, 117, 149, 15, 420, 256, 326, 336, 386, 204, 396, 447, 477, 338, 299, 142, 285, 172, 219, 20, 335, 302, 217, 8, 110, 453, 176, 452, 291, 440, 41, 173, 183, 228, 200, 131, 254, 305, 166, 429, 74, 1, 47, 454, 481, 402, 368, 122, 164, 96, 450, 113, 103, 185]</t>
+  </si>
+  <si>
+    <t>[107, 486, 497, 252, 399, 266, 263, 150, 35, 258, 97, 184, 132, 330, 401, 316, 115, 385, 179, 5, 77, 421, 98, 143, 250, 377, 152, 106, 176, 485, 135, 139, 180, 122, 459, 64, 33, 353, 282, 456, 220, 183, 487, 110, 294, 229, 201, 237, 204, 387, 177, 467, 327, 433, 341, 73, 455, 81, 46, 308, 38, 449, 291, 398, 25, 158, 360, 43, 6, 276, 473, 367, 181, 50, 58, 369, 61, 345, 451, 384, 346, 468, 358, 347, 391, 364, 371, 242, 17, 225, 113, 448, 275, 285, 155, 134, 234, 438, 361, 131, 42, 329, 488, 85, 82, 254, 388, 249, 251, 446, 389, 213, 460, 267, 45, 264, 162, 356, 149, 173, 218, 304, 112, 481, 400, 222, 374, 24, 186, 241, 68, 91, 93, 498, 89, 19, 117, 167, 197, 55, 80, 37, 87, 270, 151, 336, 14, 278, 265, 462, 257, 390, 299, 454, 2, 159, 59, 215, 187, 34, 492, 396, 200, 221, 335, 365, 245, 383, 429, 232, 483, 461, 325, 323, 477, 464, 495, 314, 450, 259, 337, 39, 499, 442, 189, 301, 194, 78, 426, 286, 408, 402, 47, 88, 368, 138, 440, 406, 193, 21, 29, 125, 332, 494, 163, 248, 121, 123, 328, 366, 338, 437, 109, 52, 20, 414, 386, 53, 196, 172, 475, 207, 136, 273, 18, 382, 287, 260, 240, 72, 269, 453, 130, 373, 32, 8, 239, 83, 411, 246, 49, 352, 111, 416, 211, 348, 343, 297, 277, 120, 344, 324, 236, 185, 10, 235, 153, 105, 415, 434, 322, 255, 452, 227, 292, 376, 490, 470, 62, 392, 60, 482, 165, 174, 12, 71, 233, 422, 290, 309, 168, 3, 226, 7, 253, 428, 148, 313, 425, 198, 65, 311, 458, 230, 190, 75, 306, 378, 188, 11, 379, 326, 140, 465, 355, 303, 15, 116, 100, 228, 169, 96, 16, 354, 23, 435, 476, 478, 118, 350, 375, 27, 472, 463, 381, 69, 280, 489, 57, 41, 357, 424, 333, 457, 203, 195, 99, 26, 219, 95, 484, 284, 76, 272, 30, 307, 84, 108, 359, 48, 298, 223, 334, 410, 160, 436, 394, 142, 164, 380, 342, 1, 166, 317, 293, 417, 28, 372, 124, 119, 302, 202, 496, 271, 56, 191, 238, 4, 445, 243, 206, 171, 397, 217, 403, 315, 363, 205, 409, 256, 31, 212, 175, 412, 74, 362, 192, 128, 320, 500, 40, 418, 427, 156, 94, 141, 283, 70, 224, 182, 66, 471, 443, 340, 321, 447, 103, 469, 102, 474, 51, 331, 339, 441, 370, 161, 63, 395, 129, 480, 244, 214, 178, 305, 439, 262, 444, 431, 144, 423, 430, 67, 9, 86, 199, 137, 79, 231, 22, 351, 208, 154, 92, 318, 210, 274, 319, 104, 36, 310, 279, 145, 312, 209, 300, 420, 432, 349, 419, 479, 404, 281, 146, 491, 405, 268, 170, 247, 216, 90, 126, 296, 44, 493, 466, 295, 147, 54, 13, 288, 127, 413, 157, 114, 133, 289, 101, 261, 393, 407]</t>
+  </si>
+  <si>
+    <t>[494, 291, 402, 425, 468, 224, 95, 160, 220, 9, 199, 36, 340, 176, 139, 47, 323, 406, 294, 128, 423, 421, 296, 405, 486, 354, 493, 67, 115, 53, 138, 299, 194, 231, 215, 40, 446, 75, 20, 482, 282, 461, 185, 345, 66, 471, 427, 435, 60, 4, 350, 168, 208, 331, 135, 145, 100, 35, 490, 6, 84, 192, 273, 476, 285, 375, 236, 114, 306, 412, 442, 255, 30, 183, 121, 38, 86, 408, 239, 358, 366, 125, 261, 50, 188, 80, 122, 159, 202, 120, 293, 141, 485, 416, 457, 249, 289, 374, 400, 108, 1, 287, 496, 438, 55, 355, 221, 371, 403, 447, 71, 110, 136, 470, 300, 10, 2, 399, 334, 481, 418, 156, 212, 467, 28, 278, 214, 251, 372, 445, 415, 284, 458, 195, 112, 245, 430, 257, 479, 315, 465, 64, 68, 472, 348, 111, 5, 460, 161, 45, 181, 286, 152, 256, 459, 146, 456, 443, 388, 448, 410, 59, 39, 22, 483, 52, 206, 320, 389, 344, 491, 196, 322, 154, 497, 338, 42, 235, 428, 15, 218, 19, 41, 341, 393, 292, 237, 342, 271, 395, 464, 267, 433, 63, 349, 243, 370, 210, 203, 500, 304, 295, 384, 401, 376, 169, 230, 316, 102, 379, 392, 279, 317, 70, 346, 454, 404, 258, 88, 383, 155, 288, 37, 380, 492, 466, 265, 31, 99, 3, 475, 77, 387, 200, 332, 182, 211, 69, 439, 241, 23, 226, 43, 207, 106, 234, 250, 14, 432, 223, 228, 12, 197, 105, 118, 272, 56, 441, 189, 330, 229, 34, 216, 184, 335, 222, 324, 170, 397, 450, 382, 171, 85, 57, 83, 51, 413, 269, 275, 353, 247, 318, 240, 17, 244, 381, 172, 32, 174, 488, 276, 132, 144, 217, 193, 246, 336, 431, 143, 307, 440, 396, 328, 90, 140, 426, 359, 480, 29, 290, 266, 97, 54, 58, 409, 262, 109, 190, 82, 72, 254, 79, 414, 129, 238, 327, 308, 394, 263, 436, 365, 417, 151, 434, 107, 463, 46, 91, 378, 386, 8, 173, 116, 205, 390, 24, 165, 277, 297, 264, 407, 219, 357, 260, 158, 27, 16, 333, 281, 319, 201, 368, 377, 259, 419, 103, 473, 248, 367, 351, 119, 337, 452, 462, 74, 489, 134, 62, 253, 398, 313, 93, 363, 478, 204, 150, 364, 26, 362, 113, 124, 187, 167, 157, 127, 130, 477, 133, 123, 232, 437, 49, 175, 469, 149, 343, 487, 13, 147, 209, 339, 87, 92, 48, 449, 191, 444, 329, 373, 274, 44, 225, 198, 361, 186, 11, 495, 325, 7, 499, 89, 213, 305, 142, 104, 424, 451, 233, 96, 153, 455, 309, 385, 360, 314, 498, 65, 411, 162, 131, 180, 268, 453, 78, 178, 18, 163, 270, 474, 283, 356, 21, 252, 148, 33, 298, 94, 227, 101, 164, 420, 25, 242, 166, 391, 302, 429, 73, 422, 369, 98, 347, 321, 179, 61, 81, 137, 301, 280, 126, 303, 312, 484, 311, 310, 76, 352, 177, 117, 326]</t>
+  </si>
+  <si>
+    <t>[320, 284, 42, 58, 444, 51, 417, 10, 25, 104, 356, 494, 200, 6, 281, 422, 132, 193, 473, 468, 433, 230, 208, 124, 216, 471, 348, 247, 74, 288, 386, 323, 148, 179, 300, 493, 357, 260, 498, 9, 343, 455, 12, 381, 256, 161, 454, 372, 240, 111, 375, 270, 122, 254, 110, 368, 44, 60, 478, 218, 472, 241, 171, 490, 181, 126, 191, 382, 49, 186, 275, 489, 214, 196, 411, 159, 436, 353, 374, 11, 165, 146, 326, 30, 467, 439, 499, 394, 164, 315, 496, 362, 452, 387, 403, 131, 269, 446, 459, 210, 299, 400, 133, 112, 413, 192, 445, 412, 291, 253, 306, 121, 280, 305, 297, 232, 134, 477, 168, 147, 406, 137, 4, 308, 106, 66, 93, 263, 408, 24, 355, 293, 276, 19, 169, 226, 465, 206, 338, 152, 87, 358, 266, 405, 350, 252, 336, 109, 50, 359, 160, 61, 395, 464, 246, 194, 318, 114, 287, 328, 390, 352, 99, 116, 27, 128, 224, 314, 286, 393, 331, 365, 351, 491, 250, 88, 453, 399, 222, 416, 158, 475, 441, 294, 76, 85, 476, 145, 451, 59, 461, 325, 205, 484, 212, 495, 334, 22, 237, 120, 295, 279, 183, 391, 335, 376, 182, 316, 138, 342, 319, 303, 389, 497, 377, 363, 207, 339, 65, 177, 94, 369, 115, 82, 349, 213, 127, 219, 488, 373, 28, 46, 479, 195, 360, 283, 289, 45, 41, 201, 47, 33, 366, 233, 380, 466, 83, 2, 257, 423, 443, 307, 190, 462, 69, 262, 29, 135, 113, 17, 142, 31, 70, 26, 407, 483, 322, 238, 56, 55, 344, 235, 13, 298, 8, 176, 15, 251, 7, 77, 35, 310, 337, 90, 419, 75, 170, 435, 410, 202, 71, 97, 404, 68, 16, 157, 98, 450, 332, 285, 304, 428, 474, 448, 92, 174, 361, 38, 401, 221, 67, 172, 37, 447, 341, 324, 239, 345, 72, 53, 384, 265, 79, 420, 118, 119, 388, 470, 271, 198, 500, 102, 278, 302, 167, 277, 228, 14, 153, 309, 396, 438, 312, 481, 103, 463, 482, 54, 245, 292, 487, 236, 100, 18, 301, 415, 217, 255, 259, 424, 166, 458, 107, 317, 223, 215, 272, 268, 34, 21, 81, 105, 364, 264, 274, 139, 156, 163, 460, 23, 398, 367, 234, 40, 184, 267, 244, 425, 39, 209, 313, 329, 492, 243, 64, 225, 86, 199, 48, 296, 327, 397, 371, 197, 89, 130, 185, 211, 173, 43, 248, 125, 242, 63, 78, 282, 117, 437, 442, 101, 321, 409, 96, 129, 20, 385, 379, 220, 392, 354, 330, 1, 162, 123, 188, 95, 486, 370, 261, 141, 249, 154, 229, 80, 32, 189, 378, 457, 421, 150, 434, 431, 346, 175, 333, 227, 440, 62, 432, 290, 485, 187, 311, 178, 155, 347, 108, 449, 5, 402, 84, 480, 429, 57, 151, 3, 143, 469, 136, 456, 204, 383, 91, 144, 140, 258, 414, 52, 149, 273, 180, 426, 340, 73, 231, 36, 418, 430, 427, 203]</t>
+  </si>
+  <si>
+    <t>[474, 32, 187, 430, 91, 201, 74, 258, 463, 288, 363, 88, 276, 165, 59, 348, 226, 215, 230, 428, 326, 119, 423, 456, 154, 243, 271, 162, 361, 307, 213, 284, 331, 33, 43, 314, 85, 449, 447, 461, 133, 147, 440, 437, 295, 19, 54, 179, 407, 51, 308, 414, 346, 279, 169, 34, 332, 188, 177, 211, 429, 327, 252, 476, 143, 376, 175, 89, 466, 79, 233, 93, 66, 197, 151, 280, 127, 57, 23, 317, 58, 75, 260, 48, 417, 99, 393, 228, 137, 311, 206, 471, 305, 72, 83, 277, 189, 300, 117, 356, 178, 70, 234, 444, 299, 174, 208, 283, 404, 340, 104, 484, 82, 134, 352, 77, 221, 242, 1, 250, 56, 459, 490, 438, 481, 497, 448, 199, 118, 195, 296, 297, 470, 454, 373, 460, 71, 441, 142, 92, 325, 173, 473, 382, 12, 486, 388, 465, 316, 102, 163, 328, 281, 45, 168, 264, 394, 420, 237, 320, 347, 156, 240, 498, 247, 222, 46, 176, 259, 381, 353, 191, 293, 31, 65, 157, 324, 274, 81, 451, 385, 130, 217, 114, 349, 49, 468, 409, 268, 401, 425, 350, 333, 262, 445, 367, 386, 323, 251, 246, 312, 384, 7, 378, 436, 462, 418, 345, 390, 412, 223, 319, 315, 29, 397, 55, 493, 205, 267, 181, 14, 150, 61, 254, 330, 203, 285, 272, 433, 18, 370, 183, 15, 196, 171, 140, 224, 198, 270, 492, 2, 364, 309, 73, 120, 139, 443, 37, 145, 41, 482, 78, 129, 377, 488, 42, 192, 112, 255, 167, 214, 450, 5, 351, 86, 400, 116, 442, 415, 98, 16, 431, 8, 180, 190, 358, 241, 4, 496, 239, 355, 160, 402, 286, 182, 432, 329, 80, 392, 235, 184, 105, 365, 410, 238, 202, 97, 159, 379, 455, 144, 395, 110, 227, 478, 248, 469, 141, 253, 219, 306, 166, 232, 115, 146, 269, 291, 225, 216, 372, 477, 375, 302, 28, 76, 111, 164, 64, 341, 480, 439, 368, 60, 339, 17, 200, 435, 266, 135, 360, 185, 100, 500, 63, 421, 294, 67, 335, 138, 334, 103, 475, 282, 30, 457, 69, 275, 47, 229, 416, 452, 491, 153, 94, 342, 124, 374, 106, 313, 290, 155, 369, 170, 122, 11, 121, 108, 194, 53, 236, 387, 354, 136, 303, 411, 123, 207, 383, 107, 10, 336, 24, 87, 483, 292, 467, 464, 27, 172, 9, 362, 161, 396, 426, 109, 148, 424, 3, 310, 263, 20, 220, 472, 257, 125, 158, 344, 193, 22, 318, 209, 413, 419, 152, 90, 458, 427, 204, 96, 287, 422, 322, 113, 186, 149, 210, 389, 50, 487, 398, 434, 359, 244, 406, 13, 245, 479, 405, 62, 366, 95, 489, 399, 132, 357, 101, 39, 35, 40, 21, 408, 499, 371, 265, 128, 26, 495, 321, 380, 256, 261, 298, 403, 6, 131, 52, 212, 446, 36, 84, 301, 25, 337, 68, 453, 218, 249, 38, 44, 304, 126, 278, 485, 343, 273, 391, 231, 494, 338, 289]</t>
+  </si>
+  <si>
+    <t>[12, 191, 288, 469, 481, 467, 341, 3, 149, 477, 212, 463, 210, 51, 133, 77, 109, 253, 442, 118, 137, 110, 345, 452, 13, 459, 306, 44, 246, 363, 264, 276, 294, 482, 471, 195, 403, 38, 500, 418, 317, 318, 196, 377, 43, 129, 393, 142, 194, 107, 307, 444, 67, 319, 380, 225, 220, 184, 84, 391, 426, 366, 56, 248, 106, 27, 153, 88, 50, 252, 486, 36, 37, 266, 456, 449, 277, 127, 298, 265, 235, 152, 295, 325, 234, 465, 323, 58, 146, 217, 491, 496, 218, 438, 200, 322, 22, 461, 464, 198, 497, 400, 209, 203, 398, 473, 16, 237, 10, 312, 352, 139, 143, 462, 244, 447, 460, 455, 338, 359, 273, 389, 100, 267, 185, 457, 434, 229, 242, 150, 440, 232, 112, 151, 63, 49, 164, 85, 394, 228, 102, 92, 213, 368, 251, 144, 314, 192, 293, 169, 2, 290, 413, 8, 439, 287, 255, 275, 498, 46, 178, 79, 81, 343, 384, 339, 158, 396, 165, 123, 259, 472, 374, 493, 18, 189, 348, 173, 170, 450, 72, 238, 39, 134, 190, 362, 357, 268, 375, 230, 83, 354, 292, 93, 453, 201, 177, 15, 311, 28, 17, 70, 215, 113, 159, 64, 285, 422, 340, 105, 87, 98, 320, 349, 305, 342, 383, 321, 485, 399, 99, 284, 430, 162, 42, 308, 120, 80, 82, 378, 397, 48, 432, 492, 495, 424, 390, 126, 279, 388, 172, 360, 221, 94, 451, 376, 324, 174, 433, 337, 188, 373, 417, 7, 19, 74, 421, 346, 71, 197, 302, 297, 222, 236, 161, 385, 202, 59, 25, 111, 356, 347, 233, 431, 132, 274, 429, 35, 478, 443, 30, 370, 247, 168, 479, 336, 97, 171, 269, 145, 425, 119, 69, 254, 499, 66, 206, 135, 205, 351, 47, 130, 23, 31, 446, 32, 379, 45, 223, 199, 263, 86, 333, 291, 211, 369, 103, 405, 296, 226, 331, 240, 441, 416, 166, 155, 329, 62, 257, 122, 108, 476, 407, 183, 131, 76, 167, 260, 140, 364, 115, 179, 245, 371, 301, 147, 90, 243, 412, 57, 420, 54, 53, 358, 55, 487, 262, 261, 9, 330, 286, 207, 315, 282, 91, 214, 271, 20, 355, 34, 304, 427, 454, 414, 480, 117, 6, 410, 121, 14, 436, 40, 65, 128, 332, 5, 448, 327, 175, 61, 392, 475, 458, 136, 402, 300, 154, 21, 52, 344, 278, 387, 216, 415, 114, 68, 445, 490, 138, 181, 227, 219, 326, 156, 466, 335, 258, 241, 270, 193, 73, 75, 104, 29, 404, 289, 406, 489, 60, 468, 299, 24, 372, 303, 157, 141, 401, 367, 204, 231, 95, 488, 101, 350, 239, 116, 353, 208, 124, 423, 224, 249, 89, 313, 310, 494, 163, 187, 382, 96, 250, 428, 272, 309, 280, 78, 409, 386, 11, 381, 365, 316, 41, 182, 1, 186, 180, 408, 281, 256, 160, 148, 470, 474, 437, 33, 328, 125, 419, 483, 26, 484, 395, 4, 435, 176, 411, 283, 361, 334]</t>
+  </si>
+  <si>
+    <t>[134, 237, 95, 9, 413, 39, 439, 416, 219, 198, 472, 93, 415, 52, 404, 36, 170, 270, 187, 51, 421, 254, 432, 340, 342, 288, 304, 8, 67, 202, 398, 145, 71, 311, 226, 27, 406, 223, 148, 327, 41, 470, 24, 116, 137, 211, 240, 296, 456, 242, 364, 348, 248, 168, 332, 260, 120, 344, 143, 292, 274, 186, 236, 286, 70, 47, 113, 103, 303, 218, 295, 496, 453, 252, 92, 262, 316, 476, 117, 408, 118, 86, 420, 199, 267, 458, 441, 360, 115, 437, 14, 395, 457, 428, 368, 331, 433, 241, 261, 328, 80, 28, 174, 63, 435, 425, 235, 209, 481, 384, 43, 281, 269, 6, 500, 66, 127, 158, 392, 302, 201, 361, 478, 341, 263, 59, 44, 176, 357, 491, 431, 440, 246, 239, 407, 354, 385, 133, 10, 84, 30, 337, 13, 180, 452, 363, 125, 291, 325, 268, 96, 414, 493, 233, 477, 42, 210, 367, 214, 38, 82, 33, 227, 347, 85, 87, 339, 57, 362, 473, 336, 379, 221, 169, 173, 275, 141, 359, 255, 494, 486, 299, 386, 375, 177, 119, 232, 112, 371, 253, 204, 164, 380, 377, 324, 32, 278, 409, 353, 46, 230, 460, 62, 193, 449, 482, 314, 185, 430, 244, 400, 150, 346, 162, 272, 290, 104, 40, 499, 471, 139, 98, 181, 257, 83, 389, 114, 1, 250, 301, 212, 208, 101, 72, 343, 16, 165, 192, 188, 256, 56, 492, 394, 178, 265, 99, 306, 326, 90, 259, 11, 305, 427, 462, 372, 159, 79, 37, 126, 17, 34, 411, 189, 105, 497, 264, 378, 319, 194, 424, 128, 474, 69, 215, 147, 220, 333, 410, 335, 35, 289, 167, 58, 130, 23, 190, 109, 191, 490, 334, 217, 464, 461, 106, 467, 224, 4, 397, 228, 480, 247, 100, 402, 161, 60, 318, 285, 5, 383, 108, 231, 94, 22, 234, 283, 157, 323, 381, 426, 374, 284, 423, 276, 7, 182, 29, 222, 390, 68, 216, 156, 171, 448, 450, 399, 149, 351, 418, 49, 298, 229, 197, 131, 282, 3, 31, 129, 445, 297, 172, 97, 138, 238, 322, 330, 391, 200, 396, 444, 163, 442, 366, 451, 207, 412, 266, 65, 25, 153, 203, 243, 75, 132, 498, 18, 195, 401, 468, 308, 152, 393, 479, 466, 300, 110, 144, 352, 78, 422, 102, 76, 74, 206, 136, 447, 287, 121, 15, 388, 166, 405, 419, 345, 160, 369, 124, 321, 315, 434, 376, 358, 175, 387, 455, 438, 465, 53, 155, 205, 279, 403, 313, 111, 309, 26, 487, 320, 349, 463, 179, 495, 273, 213, 429, 2, 454, 151, 225, 64, 317, 436, 89, 48, 488, 54, 196, 443, 249, 122, 135, 73, 107, 140, 312, 489, 307, 485, 21, 475, 12, 19, 184, 77, 258, 251, 338, 280, 446, 356, 484, 277, 294, 329, 20, 417, 459, 271, 469, 310, 293, 183, 245, 382, 154, 483, 55, 365, 142, 61, 91, 45, 81, 355, 50, 350, 373, 146, 370, 123, 88]</t>
+  </si>
+  <si>
+    <t>[245, 61, 193, 296, 192, 381, 43, 476, 443, 107, 158, 491, 370, 179, 153, 294, 214, 239, 240, 470, 400, 102, 414, 396, 464, 98, 351, 279, 119, 258, 344, 143, 326, 125, 330, 181, 33, 500, 112, 106, 478, 236, 113, 69, 261, 307, 110, 194, 280, 227, 371, 97, 416, 246, 346, 383, 49, 215, 495, 471, 122, 209, 277, 442, 188, 197, 56, 13, 149, 349, 135, 238, 126, 367, 186, 356, 223, 222, 138, 429, 368, 127, 407, 255, 345, 253, 124, 62, 201, 263, 11, 211, 4, 334, 147, 66, 241, 289, 413, 321, 316, 41, 488, 445, 70, 226, 380, 315, 206, 465, 438, 311, 378, 331, 47, 494, 136, 134, 55, 145, 176, 38, 244, 105, 6, 444, 24, 436, 180, 67, 271, 440, 200, 448, 475, 17, 29, 453, 99, 161, 497, 9, 299, 198, 451, 171, 101, 85, 178, 229, 73, 156, 446, 257, 256, 231, 137, 391, 202, 91, 281, 415, 458, 68, 350, 225, 151, 264, 297, 37, 327, 469, 46, 219, 377, 375, 498, 428, 468, 358, 439, 463, 175, 162, 339, 94, 121, 385, 52, 412, 89, 7, 336, 332, 250, 305, 254, 359, 389, 53, 74, 402, 341, 328, 57, 364, 109, 365, 146, 142, 166, 196, 480, 157, 76, 75, 8, 338, 144, 132, 298, 426, 247, 207, 163, 449, 452, 54, 392, 411, 268, 433, 216, 418, 404, 14, 324, 190, 431, 232, 213, 425, 295, 185, 160, 467, 108, 484, 329, 191, 466, 141, 310, 373, 274, 88, 479, 36, 114, 87, 304, 461, 343, 77, 270, 96, 104, 406, 457, 325, 120, 39, 312, 485, 447, 303, 362, 111, 386, 128, 218, 79, 140, 133, 266, 10, 435, 15, 314, 348, 233, 82, 84, 221, 320, 81, 308, 335, 486, 189, 382, 474, 208, 489, 374, 50, 30, 210, 152, 116, 242, 123, 490, 302, 184, 265, 487, 34, 313, 403, 390, 352, 423, 405, 337, 481, 243, 430, 347, 168, 317, 90, 422, 354, 12, 267, 273, 398, 187, 376, 22, 284, 42, 217, 318, 262, 499, 306, 288, 203, 71, 95, 170, 183, 20, 269, 150, 369, 248, 353, 493, 228, 27, 86, 154, 164, 93, 131, 434, 59, 388, 129, 251, 32, 283, 48, 83, 287, 169, 387, 300, 482, 496, 155, 363, 18, 92, 172, 159, 399, 230, 309, 410, 379, 419, 65, 167, 427, 139, 16, 424, 322, 40, 249, 473, 456, 237, 460, 340, 397, 437, 45, 409, 462, 483, 455, 477, 420, 459, 148, 23, 5, 115, 286, 19, 323, 195, 394, 25, 1, 165, 118, 293, 26, 272, 301, 117, 492, 417, 58, 291, 3, 28, 360, 290, 103, 393, 63, 174, 441, 401, 78, 384, 292, 80, 472, 35, 395, 234, 51, 366, 31, 199, 421, 342, 64, 100, 450, 177, 259, 372, 235, 260, 182, 285, 21, 333, 60, 355, 357, 275, 220, 212, 224, 204, 72, 2, 130, 44, 252, 282, 278, 205, 454, 361, 432, 408, 319, 276, 173]</t>
+  </si>
+  <si>
+    <t>[224, 35, 492, 170, 205, 309, 59, 85, 148, 397, 210, 239, 146, 122, 165, 110, 191, 414, 11, 430, 211, 75, 459, 95, 102, 466, 452, 392, 427, 51, 199, 163, 413, 19, 269, 379, 415, 171, 227, 488, 467, 445, 34, 470, 443, 251, 236, 72, 118, 158, 133, 177, 328, 270, 212, 300, 79, 446, 347, 320, 76, 380, 373, 77, 29, 298, 10, 454, 411, 252, 339, 26, 140, 208, 58, 237, 144, 389, 331, 84, 312, 223, 233, 112, 200, 280, 295, 307, 48, 115, 221, 4, 303, 354, 194, 187, 78, 431, 500, 1, 98, 358, 70, 120, 52, 33, 288, 151, 338, 350, 342, 336, 428, 258, 480, 97, 104, 266, 409, 418, 154, 318, 180, 419, 306, 398, 135, 138, 497, 490, 153, 66, 367, 401, 47, 476, 296, 250, 383, 302, 456, 361, 275, 240, 117, 127, 386, 147, 69, 294, 49, 499, 448, 372, 209, 86, 420, 27, 108, 130, 64, 285, 426, 63, 201, 365, 30, 129, 111, 157, 218, 450, 424, 334, 74, 68, 18, 65, 281, 481, 230, 123, 131, 463, 487, 176, 260, 161, 54, 322, 155, 387, 474, 272, 422, 175, 421, 113, 255, 335, 89, 416, 293, 150, 429, 231, 195, 222, 229, 141, 7, 381, 286, 228, 377, 216, 340, 479, 174, 173, 410, 407, 257, 473, 99, 13, 279, 186, 238, 254, 206, 81, 152, 491, 394, 93, 337, 2, 267, 360, 6, 116, 399, 12, 5, 88, 169, 402, 341, 330, 166, 493, 42, 105, 385, 435, 395, 305, 3, 55, 346, 438, 371, 310, 396, 434, 289, 327, 283, 39, 384, 304, 436, 292, 469, 437, 249, 461, 247, 278, 311, 197, 299, 96, 265, 248, 393, 15, 363, 477, 61, 22, 92, 368, 20, 355, 324, 217, 498, 207, 408, 366, 226, 319, 440, 182, 192, 121, 243, 282, 87, 263, 198, 308, 132, 45, 36, 356, 458, 41, 71, 439, 203, 145, 442, 139, 73, 28, 16, 62, 471, 362, 495, 32, 57, 38, 261, 274, 425, 378, 406, 134, 244, 276, 284, 245, 297, 190, 107, 464, 125, 404, 53, 432, 290, 259, 204, 460, 82, 449, 44, 482, 496, 50, 246, 317, 101, 486, 160, 56, 103, 220, 31, 390, 465, 167, 417, 444, 451, 375, 277, 326, 106, 388, 468, 271, 37, 453, 196, 264, 412, 349, 352, 46, 193, 489, 329, 189, 291, 159, 164, 315, 256, 25, 156, 213, 472, 253, 273, 143, 369, 235, 214, 181, 185, 136, 137, 241, 433, 234, 83, 24, 114, 183, 168, 405, 17, 455, 91, 321, 344, 219, 314, 60, 14, 126, 242, 268, 332, 478, 21, 313, 90, 172, 179, 403, 484, 287, 316, 128, 483, 119, 376, 8, 149, 94, 323, 391, 353, 188, 423, 40, 184, 301, 441, 43, 178, 202, 109, 357, 232, 100, 462, 215, 9, 494, 333, 364, 124, 80, 325, 359, 262, 351, 162, 370, 374, 348, 485, 345, 23, 225, 142, 67, 343, 382, 447, 400, 457, 475]</t>
+  </si>
+  <si>
+    <t>[149, 294, 322, 368, 236, 277, 38, 144, 178, 263, 343, 53, 327, 456, 290, 3, 460, 130, 442, 492, 411, 474, 224, 331, 196, 166, 459, 250, 217, 360, 446, 141, 310, 271, 351, 128, 45, 448, 228, 292, 357, 253, 466, 482, 366, 120, 356, 241, 220, 318, 24, 78, 101, 301, 44, 13, 52, 417, 468, 303, 490, 34, 234, 193, 462, 23, 170, 377, 119, 297, 458, 348, 472, 265, 365, 346, 264, 164, 190, 389, 261, 205, 168, 8, 317, 65, 332, 108, 319, 418, 498, 49, 191, 379, 485, 127, 413, 187, 325, 50, 77, 142, 54, 219, 100, 204, 435, 97, 212, 341, 140, 349, 136, 27, 449, 20, 143, 138, 409, 85, 487, 286, 35, 445, 455, 69, 440, 465, 255, 106, 381, 276, 172, 426, 373, 86, 273, 118, 347, 467, 206, 391, 208, 478, 402, 112, 428, 80, 198, 73, 99, 433, 31, 57, 438, 328, 344, 192, 392, 75, 66, 131, 266, 47, 96, 320, 361, 422, 249, 239, 489, 92, 372, 51, 308, 232, 477, 18, 154, 60, 454, 481, 123, 262, 186, 316, 436, 42, 70, 353, 150, 39, 2, 68, 176, 471, 329, 230, 121, 500, 420, 309, 397, 104, 161, 173, 281, 163, 125, 479, 102, 374, 457, 201, 16, 403, 398, 431, 469, 152, 214, 251, 393, 407, 451, 72, 338, 375, 416, 94, 311, 10, 37, 137, 14, 25, 188, 87, 110, 342, 32, 279, 364, 359, 337, 444, 312, 184, 270, 384, 242, 117, 62, 174, 133, 22, 107, 488, 300, 132, 9, 314, 399, 425, 21, 414, 189, 305, 267, 259, 111, 388, 116, 28, 12, 369, 177, 244, 81, 390, 209, 383, 385, 334, 48, 434, 159, 17, 63, 229, 155, 345, 26, 245, 432, 226, 355, 439, 223, 453, 58, 404, 30, 483, 43, 410, 415, 88, 408, 91, 202, 103, 486, 285, 324, 288, 295, 289, 275, 139, 171, 367, 135, 260, 452, 496, 180, 497, 333, 323, 362, 283, 363, 222, 197, 298, 29, 151, 7, 124, 4, 412, 386, 315, 371, 59, 429, 216, 307, 19, 499, 165, 299, 463, 199, 84, 67, 98, 153, 237, 134, 115, 340, 146, 181, 268, 200, 64, 71, 493, 278, 370, 207, 252, 213, 287, 90, 400, 248, 321, 280, 235, 225, 240, 82, 380, 231, 427, 194, 476, 218, 167, 352, 382, 306, 475, 437, 33, 447, 350, 148, 282, 269, 105, 401, 274, 461, 480, 41, 441, 195, 158, 46, 113, 423, 473, 210, 74, 61, 147, 430, 419, 182, 55, 83, 484, 243, 89, 443, 145, 56, 354, 15, 326, 424, 464, 114, 185, 95, 376, 378, 495, 179, 256, 175, 406, 129, 396, 1, 93, 246, 6, 76, 284, 339, 257, 491, 421, 247, 335, 291, 336, 169, 387, 296, 450, 394, 79, 258, 238, 126, 358, 211, 254, 109, 203, 221, 470, 162, 302, 156, 272, 36, 313, 160, 40, 405, 5, 330, 304, 183, 293, 494, 11, 233, 215, 227, 122, 395, 157]</t>
+  </si>
+  <si>
+    <t>[17, 236, 346, 365, 228, 103, 488, 474, 70, 23, 371, 268, 467, 61, 289, 444, 418, 139, 377, 10, 220, 137, 306, 118, 120, 390, 69, 381, 318, 374, 329, 143, 338, 335, 431, 312, 180, 301, 360, 42, 255, 333, 147, 94, 495, 207, 363, 151, 80, 307, 144, 191, 319, 325, 437, 133, 299, 35, 287, 146, 362, 162, 187, 281, 153, 89, 87, 465, 409, 388, 450, 43, 77, 369, 227, 500, 141, 257, 317, 95, 99, 415, 300, 138, 149, 342, 140, 320, 142, 277, 480, 12, 477, 446, 278, 211, 378, 293, 71, 161, 274, 54, 107, 176, 53, 109, 290, 46, 152, 392, 407, 165, 164, 396, 247, 280, 443, 259, 472, 326, 72, 201, 31, 361, 466, 29, 64, 92, 106, 275, 253, 427, 163, 22, 262, 190, 457, 350, 271, 402, 279, 384, 58, 395, 482, 489, 248, 206, 439, 286, 496, 282, 394, 416, 493, 6, 30, 435, 16, 405, 455, 169, 19, 380, 339, 364, 59, 224, 230, 442, 45, 292, 397, 232, 383, 330, 86, 368, 135, 265, 264, 356, 372, 428, 331, 357, 218, 243, 217, 130, 110, 324, 91, 449, 334, 65, 235, 420, 93, 117, 105, 261, 445, 463, 62, 498, 88, 212, 315, 479, 231, 379, 459, 183, 13, 327, 3, 386, 240, 67, 222, 250, 359, 398, 303, 134, 245, 332, 38, 470, 154, 494, 438, 4, 129, 25, 181, 47, 344, 68, 175, 414, 20, 373, 40, 57, 51, 267, 9, 37, 401, 448, 104, 96, 400, 499, 358, 32, 223, 340, 75, 469, 399, 349, 316, 156, 100, 242, 484, 184, 210, 200, 426, 114, 36, 404, 202, 85, 441, 283, 355, 203, 221, 209, 158, 249, 288, 389, 145, 8, 21, 314, 473, 171, 460, 122, 26, 119, 108, 115, 403, 451, 273, 366, 14, 24, 244, 172, 113, 15, 266, 97, 177, 458, 492, 411, 196, 354, 497, 166, 157, 198, 33, 124, 308, 367, 490, 214, 270, 430, 101, 188, 199, 294, 7, 305, 44, 204, 252, 296, 391, 375, 436, 423, 226, 225, 186, 348, 179, 487, 78, 155, 260, 241, 60, 170, 341, 452, 195, 328, 111, 347, 393, 246, 178, 422, 433, 125, 258, 382, 28, 185, 205, 73, 254, 208, 302, 284, 128, 76, 63, 486, 370, 471, 41, 417, 272, 413, 351, 419, 2, 406, 34, 229, 131, 462, 215, 456, 98, 168, 233, 238, 66, 159, 79, 239, 454, 476, 50, 408, 83, 461, 429, 263, 421, 276, 148, 39, 483, 322, 189, 410, 160, 337, 425, 90, 376, 182, 126, 475, 310, 485, 27, 309, 123, 295, 323, 167, 74, 440, 343, 102, 48, 136, 116, 112, 55, 481, 464, 478, 219, 1, 5, 468, 385, 127, 56, 321, 52, 216, 491, 81, 121, 197, 434, 192, 453, 353, 11, 237, 18, 251, 269, 412, 311, 424, 213, 345, 285, 352, 132, 256, 84, 234, 82, 174, 49, 291, 447, 387, 173, 432, 150, 313, 297, 193, 304, 194, 336, 298]</t>
+  </si>
+  <si>
+    <t>[413, 151, 487, 234, 230, 45, 311, 368, 438, 7, 261, 483, 289, 247, 252, 329, 60, 396, 334, 47, 121, 412, 186, 70, 467, 147, 73, 139, 278, 72, 415, 237, 74, 109, 96, 66, 382, 194, 85, 162, 229, 50, 358, 330, 81, 424, 231, 499, 137, 263, 123, 318, 33, 216, 71, 308, 337, 136, 388, 296, 163, 300, 218, 472, 224, 301, 180, 409, 452, 478, 4, 209, 10, 292, 146, 25, 217, 492, 393, 2, 313, 63, 287, 297, 352, 442, 205, 172, 444, 454, 219, 131, 165, 294, 91, 35, 374, 361, 30, 203, 464, 340, 171, 166, 201, 491, 185, 429, 110, 62, 383, 500, 134, 77, 86, 423, 76, 455, 142, 433, 168, 450, 28, 68, 108, 104, 191, 354, 392, 298, 475, 245, 157, 281, 211, 386, 418, 390, 371, 83, 195, 421, 327, 24, 111, 19, 120, 266, 331, 93, 425, 196, 473, 184, 249, 494, 212, 363, 385, 347, 470, 451, 78, 432, 291, 406, 199, 460, 32, 213, 116, 399, 408, 322, 325, 339, 221, 156, 407, 419, 55, 336, 480, 268, 58, 158, 320, 335, 18, 112, 369, 255, 489, 214, 69, 155, 189, 183, 65, 17, 175, 365, 482, 295, 271, 328, 149, 153, 236, 192, 48, 98, 16, 226, 341, 105, 22, 174, 113, 26, 319, 59, 417, 302, 366, 227, 15, 31, 177, 52, 144, 481, 38, 14, 314, 11, 387, 152, 333, 36, 310, 39, 27, 250, 405, 200, 351, 150, 241, 167, 3, 61, 416, 1, 316, 488, 283, 258, 426, 220, 422, 274, 299, 324, 498, 323, 282, 453, 496, 21, 102, 100, 115, 88, 270, 277, 469, 497, 342, 326, 355, 493, 404, 449, 397, 372, 414, 430, 197, 360, 456, 370, 349, 350, 223, 447, 315, 303, 101, 176, 41, 202, 427, 161, 253, 401, 343, 384, 441, 338, 376, 122, 173, 92, 243, 458, 495, 57, 246, 256, 228, 106, 257, 187, 359, 103, 8, 411, 353, 436, 75, 428, 395, 148, 290, 42, 379, 204, 367, 6, 375, 244, 251, 208, 280, 389, 51, 9, 457, 225, 37, 265, 468, 240, 344, 5, 293, 182, 124, 235, 222, 128, 67, 248, 130, 56, 206, 238, 284, 380, 443, 87, 94, 357, 160, 459, 169, 40, 135, 435, 114, 119, 170, 90, 53, 304, 306, 138, 273, 272, 490, 448, 260, 394, 400, 159, 346, 279, 479, 132, 82, 381, 378, 127, 445, 179, 403, 364, 377, 420, 107, 410, 484, 474, 264, 79, 44, 140, 12, 286, 477, 437, 348, 133, 233, 373, 118, 446, 181, 267, 345, 471, 332, 198, 190, 89, 126, 49, 269, 125, 439, 486, 164, 398, 141, 210, 95, 466, 178, 97, 259, 305, 188, 254, 46, 362, 402, 129, 43, 434, 84, 145, 440, 154, 356, 463, 262, 462, 80, 99, 29, 461, 117, 321, 312, 485, 20, 431, 307, 54, 13, 391, 309, 465, 317, 34, 207, 476, 215, 242, 232, 276, 239, 285, 23, 288, 275, 64, 143, 193]</t>
+  </si>
+  <si>
+    <t>[247, 213, 276, 104, 463, 132, 130, 1, 171, 30, 298, 150, 422, 334, 45, 234, 352, 299, 364, 84, 160, 297, 191, 490, 110, 263, 178, 419, 351, 240, 29, 475, 32, 218, 497, 82, 173, 135, 353, 335, 467, 134, 141, 404, 362, 3, 189, 464, 279, 49, 194, 59, 142, 140, 232, 281, 246, 76, 386, 339, 112, 479, 304, 319, 389, 50, 128, 294, 154, 83, 102, 152, 455, 428, 98, 175, 264, 293, 269, 462, 124, 376, 355, 413, 200, 291, 438, 25, 440, 26, 235, 371, 176, 305, 143, 163, 54, 237, 330, 459, 44, 308, 287, 472, 62, 207, 312, 420, 196, 449, 121, 42, 260, 292, 342, 357, 167, 317, 416, 170, 336, 169, 136, 495, 426, 47, 482, 148, 454, 108, 114, 28, 33, 256, 466, 390, 261, 60, 36, 296, 415, 222, 71, 273, 332, 224, 215, 309, 4, 394, 470, 177, 159, 146, 90, 433, 400, 12, 367, 197, 153, 313, 252, 451, 354, 492, 156, 324, 51, 385, 278, 488, 129, 494, 405, 268, 484, 244, 427, 67, 254, 155, 236, 380, 267, 216, 10, 7, 399, 5, 2, 435, 14, 6, 411, 179, 86, 363, 274, 289, 63, 187, 356, 53, 344, 491, 310, 61, 192, 195, 231, 448, 145, 78, 393, 366, 186, 458, 481, 46, 457, 92, 239, 375, 144, 429, 88, 93, 424, 326, 348, 202, 409, 151, 417, 229, 453, 227, 372, 343, 249, 125, 437, 138, 34, 418, 439, 75, 328, 193, 302, 183, 245, 500, 24, 35, 133, 19, 105, 113, 225, 434, 94, 164, 11, 395, 101, 345, 315, 120, 373, 122, 444, 295, 283, 22, 165, 377, 327, 43, 442, 414, 333, 286, 56, 85, 480, 284, 219, 306, 205, 303, 323, 18, 97, 320, 452, 370, 285, 126, 158, 388, 447, 80, 111, 139, 79, 31, 13, 203, 109, 81, 277, 217, 311, 166, 265, 349, 185, 365, 456, 290, 37, 432, 425, 337, 211, 157, 27, 66, 212, 243, 347, 91, 118, 301, 346, 99, 198, 272, 241, 255, 397, 9, 131, 16, 48, 271, 221, 106, 38, 408, 23, 368, 473, 100, 70, 184, 465, 64, 318, 331, 387, 137, 402, 251, 476, 96, 474, 220, 391, 421, 307, 180, 493, 238, 149, 384, 214, 161, 21, 107, 431, 382, 230, 338, 115, 412, 423, 72, 162, 250, 378, 392, 383, 181, 248, 210, 358, 443, 361, 204, 341, 17, 275, 280, 259, 445, 314, 95, 359, 242, 68, 65, 498, 485, 329, 381, 321, 40, 379, 147, 258, 188, 116, 15, 223, 172, 436, 322, 406, 55, 58, 350, 89, 446, 69, 73, 461, 450, 460, 206, 257, 201, 489, 340, 52, 325, 20, 469, 282, 174, 398, 360, 270, 468, 477, 119, 499, 288, 471, 487, 103, 209, 8, 478, 300, 226, 374, 496, 401, 117, 410, 87, 228, 168, 127, 74, 190, 262, 41, 253, 430, 441, 316, 396, 486, 266, 77, 199, 123, 483, 403, 57, 39, 369, 208, 407, 233, 182]</t>
+  </si>
+  <si>
+    <t>[128, 88, 55, 429, 187, 215, 237, 45, 35, 386, 83, 496, 400, 255, 158, 51, 485, 239, 129, 482, 69, 362, 478, 389, 327, 459, 8, 309, 193, 271, 325, 289, 442, 266, 279, 103, 500, 315, 268, 334, 267, 221, 428, 473, 424, 449, 302, 361, 260, 93, 181, 273, 277, 492, 281, 463, 9, 7, 105, 393, 450, 130, 209, 248, 394, 326, 370, 385, 138, 378, 310, 13, 342, 102, 365, 497, 244, 436, 299, 186, 73, 21, 98, 490, 213, 337, 383, 373, 430, 317, 163, 387, 173, 143, 298, 192, 180, 336, 120, 404, 155, 294, 32, 71, 274, 469, 33, 152, 398, 460, 12, 132, 359, 76, 270, 50, 210, 175, 44, 190, 422, 179, 117, 414, 476, 17, 452, 311, 356, 97, 222, 403, 451, 194, 89, 328, 23, 184, 323, 154, 360, 303, 305, 425, 227, 287, 165, 371, 81, 145, 199, 182, 48, 330, 427, 251, 183, 318, 206, 191, 85, 282, 136, 219, 352, 283, 483, 39, 253, 226, 345, 419, 216, 491, 114, 111, 495, 269, 140, 412, 142, 264, 408, 198, 24, 27, 1, 472, 119, 241, 401, 60, 42, 390, 438, 466, 75, 20, 18, 456, 139, 53, 201, 382, 313, 399, 402, 188, 95, 480, 481, 292, 457, 437, 84, 124, 148, 106, 146, 6, 94, 174, 104, 344, 141, 475, 200, 133, 377, 297, 349, 52, 149, 67, 301, 144, 431, 440, 247, 65, 125, 405, 444, 233, 72, 366, 4, 348, 87, 461, 169, 464, 488, 166, 417, 151, 499, 329, 262, 59, 116, 416, 421, 37, 391, 47, 257, 368, 275, 236, 77, 197, 131, 36, 322, 57, 228, 462, 290, 246, 176, 254, 304, 170, 433, 156, 10, 375, 204, 240, 306, 54, 276, 319, 15, 486, 489, 245, 498, 232, 295, 367, 212, 235, 308, 258, 358, 238, 230, 320, 242, 316, 447, 178, 177, 25, 243, 392, 374, 16, 234, 479, 41, 465, 79, 435, 196, 38, 127, 353, 22, 454, 406, 341, 223, 126, 455, 380, 413, 439, 78, 445, 202, 46, 168, 207, 474, 388, 157, 134, 423, 14, 96, 487, 43, 172, 293, 307, 354, 220, 100, 426, 432, 453, 61, 296, 167, 2, 286, 40, 217, 396, 137, 121, 340, 364, 3, 195, 211, 470, 395, 11, 272, 99, 92, 189, 30, 82, 135, 339, 203, 338, 185, 109, 112, 161, 122, 321, 250, 34, 343, 231, 115, 56, 291, 86, 63, 467, 493, 74, 411, 208, 118, 363, 224, 225, 70, 369, 415, 107, 49, 418, 58, 477, 484, 29, 68, 265, 261, 205, 448, 218, 332, 147, 324, 376, 28, 381, 164, 108, 384, 26, 171, 160, 300, 90, 284, 347, 62, 5, 64, 434, 372, 110, 263, 80, 397, 285, 357, 256, 91, 162, 229, 471, 333, 379, 458, 331, 280, 66, 494, 159, 446, 123, 350, 153, 288, 314, 407, 101, 31, 346, 443, 355, 335, 252, 410, 214, 420, 259, 468, 441, 150, 113, 351, 409, 249, 312, 19, 278]</t>
+  </si>
+  <si>
+    <t>[494, 367, 343, 337, 421, 156, 92, 87, 177, 385, 453, 278, 45, 461, 485, 262, 117, 478, 96, 309, 219, 55, 448, 246, 13, 451, 11, 125, 24, 49, 266, 42, 201, 158, 371, 433, 293, 291, 5, 330, 311, 202, 418, 118, 133, 210, 62, 333, 457, 406, 229, 111, 462, 65, 447, 363, 242, 167, 182, 430, 100, 356, 407, 455, 325, 151, 189, 469, 193, 222, 498, 472, 50, 369, 159, 378, 236, 143, 56, 495, 464, 355, 90, 154, 477, 228, 339, 21, 465, 39, 116, 14, 175, 318, 33, 285, 234, 396, 352, 397, 108, 354, 304, 142, 258, 4, 427, 107, 436, 289, 146, 16, 25, 286, 444, 249, 466, 314, 134, 83, 351, 30, 277, 131, 155, 362, 250, 253, 157, 101, 349, 22, 176, 284, 212, 376, 223, 480, 144, 17, 295, 74, 409, 206, 271, 213, 307, 243, 388, 374, 85, 196, 360, 372, 279, 263, 238, 328, 317, 185, 109, 273, 130, 483, 183, 341, 443, 460, 40, 327, 345, 46, 194, 129, 265, 231, 70, 233, 312, 438, 120, 344, 113, 375, 161, 467, 323, 43, 12, 145, 497, 27, 346, 334, 171, 452, 383, 205, 218, 72, 308, 214, 37, 135, 209, 347, 64, 78, 365, 493, 413, 411, 470, 282, 160, 404, 35, 197, 170, 463, 79, 275, 174, 288, 434, 393, 240, 257, 241, 426, 10, 321, 220, 414, 166, 361, 391, 103, 475, 141, 239, 338, 36, 272, 232, 93, 350, 34, 20, 44, 208, 340, 456, 53, 269, 298, 245, 274, 188, 97, 94, 148, 204, 88, 186, 1, 244, 248, 112, 259, 3, 230, 150, 211, 132, 261, 382, 437, 106, 283, 60, 287, 459, 114, 322, 405, 390, 173, 168, 297, 268, 63, 121, 226, 179, 215, 54, 124, 181, 402, 316, 99, 23, 394, 292, 270, 366, 98, 252, 439, 198, 445, 336, 357, 147, 91, 488, 152, 84, 484, 71, 313, 471, 19, 395, 305, 320, 41, 419, 80, 7, 353, 479, 51, 324, 310, 417, 76, 28, 26, 126, 410, 224, 435, 425, 442, 200, 449, 420, 247, 329, 380, 335, 384, 165, 137, 400, 192, 217, 476, 303, 221, 32, 9, 180, 15, 66, 294, 138, 408, 69, 392, 216, 446, 68, 164, 52, 386, 429, 102, 255, 290, 89, 195, 73, 86, 370, 169, 61, 280, 403, 450, 454, 199, 6, 237, 342, 368, 256, 67, 468, 489, 184, 422, 431, 364, 38, 153, 331, 123, 122, 490, 319, 31, 441, 264, 332, 128, 162, 58, 398, 267, 359, 401, 149, 299, 8, 348, 2, 301, 57, 139, 203, 387, 81, 428, 492, 496, 281, 136, 276, 306, 358, 458, 225, 187, 29, 207, 75, 377, 389, 423, 59, 412, 163, 115, 473, 432, 251, 18, 399, 82, 77, 260, 296, 481, 373, 326, 172, 302, 315, 416, 104, 95, 415, 499, 119, 110, 48, 487, 127, 486, 254, 105, 191, 47, 235, 491, 227, 379, 381, 300, 440, 474, 424, 140, 482, 178, 500, 190]</t>
+  </si>
+  <si>
+    <t>[165, 246, 275, 317, 47, 350, 60, 169, 95, 20, 466, 183, 414, 5, 136, 248, 481, 296, 109, 70, 451, 143, 176, 110, 152, 75, 46, 17, 424, 202, 218, 81, 353, 43, 396, 372, 469, 326, 496, 458, 409, 339, 229, 284, 300, 56, 154, 405, 271, 190, 459, 382, 411, 338, 356, 335, 270, 211, 371, 92, 269, 368, 484, 297, 23, 171, 490, 354, 44, 447, 452, 495, 238, 493, 220, 403, 31, 255, 245, 256, 391, 249, 125, 82, 53, 347, 341, 497, 304, 222, 334, 499, 100, 29, 407, 1, 34, 212, 283, 477, 450, 278, 22, 166, 313, 221, 422, 120, 233, 186, 464, 404, 168, 90, 101, 124, 417, 449, 76, 380, 299, 332, 35, 393, 127, 77, 208, 331, 386, 48, 375, 214, 99, 179, 362, 37, 430, 305, 445, 418, 285, 259, 478, 262, 253, 129, 74, 280, 258, 200, 14, 112, 472, 301, 24, 337, 118, 188, 88, 434, 59, 187, 185, 2, 126, 40, 306, 213, 457, 431, 379, 15, 163, 224, 181, 170, 349, 329, 330, 498, 87, 468, 28, 89, 254, 52, 234, 219, 30, 381, 206, 420, 114, 174, 13, 273, 133, 483, 178, 16, 473, 113, 437, 68, 189, 128, 456, 461, 333, 147, 11, 321, 243, 373, 139, 18, 446, 228, 54, 201, 291, 227, 103, 440, 363, 486, 279, 63, 225, 240, 365, 351, 55, 435, 130, 328, 198, 175, 480, 266, 164, 137, 33, 384, 429, 432, 474, 402, 57, 6, 294, 439, 106, 346, 93, 167, 369, 281, 132, 111, 177, 399, 85, 144, 323, 209, 389, 66, 460, 454, 162, 476, 277, 39, 216, 150, 355, 155, 61, 398, 160, 45, 479, 289, 172, 421, 151, 308, 73, 97, 25, 392, 252, 272, 107, 443, 312, 358, 205, 427, 265, 348, 425, 494, 444, 441, 370, 148, 376, 51, 260, 343, 426, 158, 316, 96, 80, 86, 27, 105, 69, 250, 102, 242, 131, 203, 173, 138, 83, 65, 264, 467, 385, 336, 492, 42, 4, 344, 287, 487, 121, 428, 261, 388, 436, 8, 180, 244, 191, 394, 475, 292, 247, 32, 50, 267, 38, 366, 194, 357, 9, 276, 104, 157, 286, 197, 455, 210, 91, 489, 223, 319, 232, 195, 64, 342, 320, 237, 49, 491, 290, 79, 408, 226, 315, 288, 84, 423, 303, 134, 470, 295, 325, 108, 307, 374, 141, 327, 433, 465, 412, 463, 257, 62, 196, 184, 453, 485, 123, 488, 149, 378, 215, 135, 400, 231, 235, 263, 314, 21, 309, 94, 416, 345, 322, 71, 72, 390, 10, 12, 482, 117, 26, 360, 395, 207, 401, 438, 193, 115, 122, 156, 367, 361, 251, 78, 236, 36, 310, 406, 448, 241, 500, 415, 442, 340, 410, 161, 302, 142, 116, 387, 377, 324, 182, 293, 145, 204, 282, 140, 7, 471, 159, 352, 298, 413, 419, 19, 359, 364, 217, 146, 383, 58, 119, 268, 239, 3, 192, 230, 199, 153, 41, 318, 462, 311, 274, 397, 67, 98]</t>
+  </si>
+  <si>
+    <t>[456, 276, 347, 446, 272, 403, 366, 374, 147, 31, 218, 184, 409, 291, 158, 11, 355, 333, 472, 121, 160, 240, 492, 211, 65, 340, 96, 245, 418, 117, 232, 280, 371, 341, 400, 57, 20, 228, 289, 56, 310, 404, 8, 106, 16, 177, 483, 251, 499, 33, 167, 277, 322, 428, 406, 143, 155, 102, 417, 84, 27, 187, 255, 484, 433, 383, 269, 186, 7, 46, 244, 24, 295, 194, 225, 248, 300, 345, 435, 54, 25, 60, 314, 237, 330, 231, 233, 411, 381, 189, 22, 362, 64, 306, 313, 498, 122, 466, 192, 59, 18, 163, 431, 127, 392, 81, 68, 97, 358, 286, 449, 464, 247, 14, 476, 373, 180, 196, 323, 451, 86, 204, 162, 199, 478, 38, 69, 246, 145, 375, 477, 462, 10, 385, 361, 463, 99, 491, 304, 338, 332, 234, 436, 201, 396, 250, 379, 475, 395, 182, 83, 110, 249, 92, 292, 100, 343, 326, 350, 293, 382, 161, 120, 494, 222, 80, 349, 413, 2, 153, 459, 321, 380, 73, 389, 72, 58, 40, 416, 32, 49, 157, 152, 75, 471, 134, 486, 52, 432, 316, 168, 114, 82, 402, 128, 427, 112, 154, 256, 430, 408, 215, 284, 368, 113, 88, 328, 136, 1, 359, 239, 202, 181, 273, 412, 282, 156, 500, 5, 327, 140, 118, 274, 50, 360, 149, 439, 448, 414, 302, 37, 173, 71, 119, 266, 229, 443, 279, 429, 111, 370, 263, 301, 257, 261, 3, 104, 190, 242, 79, 207, 307, 303, 288, 407, 488, 329, 53, 185, 208, 188, 254, 378, 458, 209, 438, 445, 17, 473, 410, 29, 275, 44, 318, 200, 115, 131, 397, 165, 235, 294, 123, 495, 426, 267, 444, 230, 39, 45, 95, 391, 148, 224, 174, 278, 67, 489, 258, 77, 219, 36, 337, 42, 141, 9, 144, 271, 461, 28, 299, 394, 129, 311, 369, 243, 342, 325, 346, 238, 493, 171, 23, 296, 34, 151, 474, 425, 264, 105, 367, 309, 116, 203, 270, 197, 226, 348, 217, 420, 253, 210, 356, 35, 390, 241, 398, 354, 175, 312, 352, 487, 480, 221, 424, 344, 384, 130, 85, 405, 423, 259, 376, 109, 437, 265, 193, 205, 87, 206, 421, 454, 447, 469, 164, 26, 66, 353, 43, 455, 336, 103, 415, 19, 442, 61, 308, 135, 159, 324, 320, 6, 357, 465, 220, 297, 252, 63, 457, 70, 319, 89, 108, 41, 317, 334, 166, 386, 137, 195, 47, 139, 132, 172, 150, 497, 227, 138, 440, 91, 74, 422, 212, 98, 55, 281, 21, 452, 169, 51, 453, 450, 124, 290, 214, 331, 78, 315, 496, 365, 198, 287, 183, 460, 351, 377, 479, 236, 335, 399, 93, 262, 419, 387, 388, 101, 125, 15, 48, 283, 213, 339, 485, 12, 76, 107, 305, 223, 133, 364, 298, 178, 268, 191, 470, 30, 62, 146, 372, 90, 260, 285, 393, 434, 4, 468, 216, 441, 94, 126, 363, 467, 179, 481, 13, 170, 482, 176, 401, 490, 142]</t>
+  </si>
+  <si>
+    <t>[90, 493, 474, 61, 301, 201, 15, 23, 490, 408, 29, 5, 230, 35, 428, 136, 410, 342, 418, 152, 151, 229, 316, 286, 107, 456, 149, 385, 377, 282, 114, 95, 262, 11, 162, 163, 188, 170, 20, 160, 80, 420, 317, 458, 202, 482, 319, 416, 475, 448, 227, 63, 57, 233, 220, 50, 325, 305, 348, 362, 135, 241, 405, 271, 92, 293, 191, 84, 184, 182, 399, 350, 366, 409, 396, 375, 411, 477, 235, 381, 121, 113, 414, 318, 132, 48, 461, 486, 333, 102, 39, 496, 352, 334, 194, 93, 398, 36, 28, 473, 489, 117, 164, 258, 18, 42, 311, 41, 211, 133, 85, 248, 376, 295, 214, 103, 415, 345, 216, 176, 215, 303, 206, 156, 447, 378, 402, 438, 166, 105, 460, 419, 53, 67, 494, 267, 373, 498, 277, 217, 43, 236, 183, 106, 204, 296, 73, 386, 101, 10, 44, 158, 96, 300, 228, 124, 464, 397, 309, 210, 364, 328, 197, 224, 234, 45, 284, 147, 181, 129, 292, 429, 212, 278, 78, 326, 173, 320, 138, 31, 254, 298, 218, 24, 338, 148, 190, 290, 130, 74, 343, 139, 110, 395, 454, 12, 274, 17, 310, 287, 153, 329, 100, 432, 27, 424, 56, 356, 62, 2, 383, 237, 351, 387, 431, 266, 272, 435, 16, 21, 280, 231, 285, 238, 363, 9, 137, 371, 208, 146, 441, 497, 3, 32, 265, 382, 245, 198, 427, 49, 47, 390, 358, 270, 118, 445, 142, 145, 120, 324, 226, 69, 312, 123, 37, 361, 425, 374, 389, 246, 242, 276, 406, 370, 471, 83, 483, 444, 52, 125, 72, 297, 244, 13, 372, 59, 111, 281, 205, 463, 359, 335, 457, 7, 451, 369, 22, 413, 75, 433, 331, 167, 421, 384, 388, 88, 426, 40, 283, 279, 442, 480, 481, 476, 443, 209, 257, 126, 223, 368, 119, 174, 407, 436, 392, 171, 459, 79, 422, 452, 469, 256, 275, 155, 330, 178, 221, 232, 172, 291, 99, 200, 306, 327, 354, 144, 404, 391, 60, 450, 322, 346, 453, 116, 127, 203, 247, 439, 264, 168, 487, 82, 499, 434, 455, 4, 340, 81, 394, 46, 187, 349, 259, 222, 253, 446, 307, 77, 26, 14, 466, 462, 64, 336, 304, 412, 337, 249, 66, 269, 355, 91, 104, 115, 219, 430, 199, 367, 71, 51, 195, 302, 478, 68, 488, 353, 380, 38, 225, 379, 239, 472, 193, 192, 240, 294, 289, 165, 500, 169, 154, 143, 109, 357, 437, 467, 393, 423, 150, 54, 341, 299, 252, 87, 243, 161, 417, 108, 94, 255, 360, 159, 314, 177, 495, 134, 321, 273, 491, 175, 261, 315, 268, 112, 180, 479, 98, 19, 263, 313, 55, 8, 34, 196, 484, 492, 33, 70, 485, 251, 449, 6, 65, 189, 128, 186, 213, 179, 207, 157, 86, 401, 30, 185, 344, 260, 76, 25, 141, 347, 332, 403, 122, 308, 400, 288, 97, 140, 58, 470, 250, 323, 468, 1, 440, 339, 89, 131, 465, 365]</t>
+  </si>
+  <si>
+    <t>[211, 280, 347, 454, 329, 241, 373, 287, 369, 54, 264, 113, 148, 355, 270, 38, 463, 260, 12, 429, 295, 92, 10, 477, 81, 466, 497, 363, 24, 474, 27, 481, 284, 281, 367, 96, 214, 194, 237, 182, 310, 315, 291, 320, 9, 115, 153, 381, 415, 447, 235, 122, 387, 283, 422, 88, 121, 428, 356, 101, 358, 476, 346, 59, 359, 184, 18, 127, 175, 385, 87, 140, 61, 149, 251, 471, 345, 238, 400, 123, 401, 100, 318, 391, 458, 46, 339, 125, 490, 258, 364, 437, 325, 496, 21, 225, 52, 316, 296, 262, 35, 486, 350, 14, 230, 331, 192, 48, 301, 169, 330, 489, 394, 256, 200, 464, 255, 228, 327, 107, 460, 298, 66, 444, 117, 47, 212, 253, 80, 103, 146, 492, 286, 457, 226, 246, 494, 231, 470, 215, 440, 487, 432, 199, 2, 106, 293, 404, 26, 275, 28, 409, 68, 441, 308, 388, 77, 196, 50, 159, 57, 500, 395, 44, 179, 33, 482, 317, 382, 478, 254, 303, 163, 360, 398, 370, 23, 324, 392, 142, 378, 419, 74, 203, 32, 99, 67, 279, 376, 239, 173, 147, 368, 191, 362, 145, 240, 218, 312, 412, 155, 29, 334, 491, 309, 386, 90, 17, 150, 442, 294, 30, 438, 181, 19, 423, 257, 448, 443, 272, 204, 108, 217, 102, 271, 462, 157, 126, 95, 5, 135, 162, 282, 244, 233, 319, 267, 299, 152, 51, 421, 120, 129, 445, 111, 58, 274, 15, 118, 305, 224, 425, 285, 139, 210, 484, 467, 268, 469, 335, 396, 245, 446, 185, 198, 277, 219, 247, 160, 132, 353, 190, 209, 84, 449, 323, 406, 104, 365, 326, 278, 70, 292, 456, 348, 63, 380, 354, 60, 172, 333, 468, 227, 252, 234, 49, 344, 371, 483, 243, 97, 178, 109, 498, 263, 390, 465, 137, 170, 495, 213, 128, 65, 168, 229, 11, 379, 236, 130, 414, 45, 431, 82, 366, 430, 479, 328, 85, 361, 43, 62, 3, 42, 485, 193, 321, 183, 410, 151, 249, 8, 34, 186, 455, 461, 4, 288, 16, 40, 250, 7, 300, 439, 451, 167, 273, 248, 1, 436, 220, 266, 86, 426, 403, 131, 171, 302, 434, 384, 314, 89, 276, 453, 352, 206, 313, 338, 174, 22, 493, 143, 119, 332, 31, 156, 83, 383, 136, 393, 144, 221, 180, 304, 374, 473, 435, 418, 413, 112, 205, 306, 377, 197, 37, 488, 208, 420, 232, 41, 290, 405, 265, 375, 307, 289, 480, 341, 472, 165, 407, 158, 408, 416, 189, 93, 349, 72, 114, 98, 105, 342, 69, 222, 176, 71, 372, 141, 154, 261, 13, 76, 6, 36, 202, 340, 79, 397, 161, 417, 75, 475, 91, 25, 427, 195, 133, 116, 336, 450, 269, 351, 94, 110, 56, 297, 216, 311, 452, 259, 499, 55, 73, 39, 134, 411, 207, 20, 343, 188, 459, 402, 337, 399, 177, 78, 53, 64, 124, 164, 433, 322, 223, 389, 166, 187, 138, 201, 242, 357, 424]</t>
+  </si>
+  <si>
+    <t>[178, 26, 220, 192, 454, 82, 193, 10, 254, 133, 344, 292, 183, 58, 270, 207, 125, 71, 188, 212, 485, 59, 76, 234, 311, 389, 185, 142, 228, 378, 22, 458, 303, 309, 42, 343, 132, 388, 452, 428, 329, 460, 80, 255, 375, 397, 195, 107, 12, 249, 28, 404, 432, 128, 498, 487, 431, 102, 471, 54, 217, 437, 251, 92, 402, 320, 293, 357, 392, 244, 130, 268, 60, 444, 496, 278, 261, 298, 434, 99, 381, 149, 497, 361, 116, 408, 468, 491, 152, 210, 14, 15, 138, 291, 203, 222, 112, 184, 38, 20, 173, 49, 78, 398, 382, 191, 283, 362, 354, 121, 216, 277, 124, 232, 339, 483, 24, 245, 33, 95, 307, 310, 70, 17, 237, 313, 37, 85, 46, 299, 484, 79, 400, 430, 433, 436, 276, 414, 442, 19, 36, 135, 488, 380, 151, 440, 223, 366, 284, 257, 89, 264, 478, 171, 194, 438, 411, 186, 352, 336, 65, 227, 145, 412, 174, 490, 415, 166, 422, 214, 425, 306, 50, 285, 73, 187, 27, 462, 83, 122, 417, 347, 480, 103, 84, 319, 300, 308, 115, 420, 367, 453, 208, 369, 459, 297, 333, 147, 7, 439, 393, 136, 305, 31, 370, 427, 294, 230, 351, 199, 21, 51, 470, 164, 295, 242, 241, 395, 371, 154, 304, 44, 475, 219, 198, 492, 23, 29, 206, 248, 104, 379, 447, 364, 155, 349, 90, 332, 127, 394, 457, 341, 218, 405, 239, 140, 81, 182, 30, 469, 446, 424, 190, 407, 386, 486, 169, 229, 383, 396, 204, 74, 279, 390, 479, 167, 131, 196, 161, 163, 143, 62, 500, 360, 325, 88, 493, 441, 93, 175, 323, 340, 409, 129, 327, 213, 94, 225, 148, 9, 363, 77, 157, 134, 314, 342, 176, 384, 231, 117, 419, 238, 321, 162, 348, 372, 334, 110, 205, 5, 63, 137, 350, 373, 3, 8, 75, 365, 177, 160, 2, 226, 34, 317, 391, 153, 181, 271, 141, 281, 296, 413, 57, 247, 118, 243, 146, 172, 139, 168, 224, 252, 494, 105, 377, 448, 156, 416, 272, 326, 435, 179, 202, 290, 159, 256, 421, 86, 25, 150, 337, 399, 495, 48, 482, 215, 41, 45, 197, 269, 40, 376, 461, 302, 289, 451, 338, 96, 473, 6, 263, 429, 66, 100, 64, 165, 474, 345, 312, 403, 32, 39, 250, 315, 68, 449, 209, 282, 180, 331, 418, 16, 4, 464, 374, 108, 287, 67, 426, 53, 13, 273, 69, 262, 318, 455, 356, 236, 114, 423, 286, 101, 316, 233, 98, 330, 97, 11, 18, 200, 359, 368, 301, 463, 443, 265, 288, 267, 489, 221, 120, 266, 465, 385, 91, 499, 476, 55, 346, 158, 211, 144, 87, 355, 410, 406, 61, 259, 235, 328, 467, 466, 113, 111, 126, 72, 253, 56, 260, 450, 119, 123, 353, 43, 275, 274, 246, 472, 240, 280, 456, 109, 401, 1, 47, 52, 335, 258, 481, 322, 358, 170, 35, 201, 445, 106, 189, 477, 324, 387]</t>
+  </si>
+  <si>
+    <t>[280, 308, 44, 448, 387, 441, 118, 258, 286, 242, 232, 100, 235, 222, 4, 420, 472, 108, 273, 310, 271, 169, 282, 377, 484, 148, 342, 152, 375, 343, 370, 362, 2, 117, 305, 69, 223, 237, 442, 86, 494, 75, 212, 364, 369, 98, 281, 249, 481, 357, 469, 188, 221, 358, 402, 167, 10, 464, 256, 127, 266, 233, 307, 179, 498, 406, 135, 143, 433, 138, 202, 311, 283, 493, 407, 171, 145, 90, 279, 328, 70, 491, 332, 153, 72, 359, 187, 383, 262, 346, 450, 240, 414, 67, 298, 92, 234, 275, 303, 20, 225, 60, 12, 331, 477, 101, 13, 254, 142, 27, 428, 455, 21, 76, 115, 247, 296, 355, 453, 443, 32, 74, 104, 33, 476, 73, 45, 151, 28, 329, 113, 215, 82, 149, 198, 40, 423, 489, 119, 53, 312, 403, 290, 220, 209, 48, 180, 454, 292, 112, 41, 196, 301, 124, 288, 463, 321, 393, 248, 385, 320, 47, 431, 229, 388, 131, 244, 3, 427, 382, 354, 259, 183, 471, 205, 83, 417, 109, 340, 93, 114, 460, 136, 488, 31, 95, 182, 285, 299, 413, 102, 16, 199, 25, 372, 373, 227, 480, 193, 116, 11, 165, 56, 200, 191, 132, 84, 64, 349, 302, 261, 485, 404, 23, 230, 467, 126, 190, 24, 439, 330, 394, 224, 483, 319, 30, 154, 419, 347, 482, 327, 468, 219, 15, 391, 80, 367, 52, 297, 306, 51, 378, 360, 164, 440, 371, 409, 207, 155, 478, 123, 159, 173, 214, 294, 445, 430, 337, 59, 277, 345, 130, 57, 168, 486, 317, 269, 103, 185, 257, 186, 436, 462, 265, 141, 416, 89, 379, 401, 120, 344, 326, 246, 386, 147, 452, 495, 396, 8, 217, 366, 356, 323, 363, 434, 146, 9, 267, 192, 1, 160, 398, 268, 181, 304, 278, 231, 241, 210, 79, 335, 36, 457, 239, 162, 178, 336, 253, 194, 284, 110, 490, 140, 157, 339, 195, 228, 425, 313, 111, 211, 203, 177, 19, 325, 435, 29, 353, 144, 446, 475, 236, 58, 429, 412, 432, 218, 338, 365, 374, 496, 125, 213, 54, 500, 465, 39, 499, 408, 315, 350, 410, 438, 264, 65, 314, 293, 38, 255, 35, 348, 26, 461, 251, 418, 376, 175, 107, 174, 134, 458, 381, 137, 163, 71, 389, 243, 456, 291, 380, 128, 55, 470, 289, 361, 392, 270, 14, 61, 96, 492, 473, 449, 333, 399, 238, 208, 81, 62, 99, 37, 158, 43, 22, 466, 88, 487, 405, 447, 63, 172, 316, 17, 5, 7, 334, 46, 274, 300, 161, 250, 260, 451, 216, 78, 150, 166, 341, 424, 204, 49, 77, 397, 139, 426, 352, 206, 276, 91, 318, 85, 122, 437, 415, 474, 176, 66, 18, 368, 42, 422, 351, 121, 309, 94, 324, 400, 156, 390, 197, 459, 245, 287, 6, 479, 184, 395, 50, 252, 129, 322, 68, 384, 497, 34, 189, 170, 106, 97, 201, 105, 133, 87, 226, 411, 295, 444, 263, 272, 421]</t>
+  </si>
+  <si>
+    <t>[357, 342, 257, 486, 462, 147, 12, 348, 227, 323, 218, 236, 63, 31, 335, 308, 378, 191, 171, 390, 184, 472, 57, 198, 346, 368, 371, 15, 319, 73, 215, 330, 24, 399, 474, 287, 83, 431, 2, 26, 338, 226, 442, 224, 16, 289, 467, 60, 423, 145, 292, 316, 310, 404, 322, 129, 385, 275, 169, 387, 381, 65, 386, 204, 429, 435, 481, 235, 3, 49, 304, 70, 216, 466, 138, 102, 261, 41, 1, 123, 299, 35, 82, 142, 321, 416, 178, 340, 94, 438, 302, 56, 7, 403, 461, 205, 457, 311, 140, 360, 34, 329, 353, 160, 48, 296, 157, 55, 324, 477, 183, 448, 459, 487, 115, 274, 279, 113, 354, 210, 444, 434, 106, 76, 358, 300, 195, 79, 339, 366, 19, 58, 54, 262, 177, 120, 290, 163, 447, 272, 415, 4, 25, 488, 367, 492, 112, 273, 64, 277, 392, 479, 485, 298, 362, 88, 130, 397, 256, 363, 53, 436, 331, 315, 408, 246, 84, 499, 498, 325, 500, 155, 288, 174, 441, 341, 36, 59, 6, 43, 154, 251, 317, 181, 451, 96, 62, 267, 493, 87, 161, 263, 134, 282, 430, 71, 176, 388, 271, 51, 309, 213, 471, 206, 74, 240, 44, 496, 391, 469, 463, 153, 225, 253, 352, 149, 458, 61, 402, 259, 454, 478, 39, 250, 489, 211, 52, 190, 291, 229, 168, 401, 372, 343, 355, 374, 67, 268, 75, 312, 77, 422, 111, 233, 483, 40, 200, 452, 418, 86, 393, 491, 305, 14, 455, 194, 5, 209, 409, 278, 222, 186, 105, 237, 47, 239, 377, 285, 320, 188, 193, 306, 228, 345, 196, 212, 424, 370, 361, 301, 17, 50, 364, 101, 81, 269, 394, 100, 284, 427, 336, 89, 152, 164, 219, 124, 365, 380, 217, 10, 207, 264, 99, 197, 446, 293, 280, 139, 18, 66, 172, 9, 118, 114, 439, 437, 258, 497, 22, 379, 108, 307, 182, 104, 231, 175, 180, 383, 334, 148, 95, 270, 400, 333, 46, 165, 470, 127, 419, 203, 122, 445, 103, 166, 453, 494, 414, 294, 420, 460, 37, 432, 318, 480, 132, 332, 151, 91, 373, 395, 359, 490, 125, 350, 208, 202, 476, 473, 456, 407, 398, 495, 21, 159, 260, 349, 382, 27, 158, 426, 297, 156, 107, 38, 42, 109, 92, 347, 85, 327, 244, 110, 313, 376, 234, 32, 303, 337, 369, 192, 245, 252, 428, 449, 389, 20, 326, 8, 185, 384, 173, 121, 276, 30, 265, 80, 214, 241, 450, 440, 23, 425, 281, 344, 295, 411, 68, 136, 146, 117, 421, 116, 150, 248, 417, 254, 221, 412, 187, 137, 162, 396, 465, 29, 243, 93, 283, 126, 433, 249, 13, 255, 405, 98, 28, 78, 482, 135, 410, 464, 375, 97, 242, 90, 223, 201, 286, 119, 406, 133, 247, 144, 468, 189, 131, 314, 128, 230, 443, 413, 167, 351, 328, 170, 179, 143, 232, 220, 238, 266, 199, 356, 475, 11, 33, 69, 484, 141, 45, 72]</t>
+  </si>
+  <si>
+    <t>[150, 170, 97, 62, 450, 51, 499, 352, 53, 212, 55, 164, 287, 235, 415, 321, 71, 315, 60, 16, 3, 31, 303, 378, 306, 377, 459, 492, 491, 220, 436, 309, 465, 262, 67, 114, 442, 182, 336, 440, 278, 85, 331, 186, 148, 93, 263, 298, 39, 426, 102, 474, 253, 221, 267, 395, 40, 74, 487, 116, 112, 100, 447, 13, 339, 241, 200, 91, 118, 337, 380, 427, 394, 75, 240, 142, 417, 125, 430, 387, 184, 163, 301, 407, 202, 431, 232, 33, 312, 356, 419, 256, 482, 113, 78, 73, 411, 132, 341, 115, 136, 251, 214, 439, 168, 310, 484, 192, 183, 215, 371, 317, 29, 216, 111, 133, 147, 374, 225, 175, 191, 219, 72, 134, 140, 476, 203, 32, 135, 444, 90, 323, 286, 128, 233, 362, 129, 413, 329, 468, 451, 364, 84, 201, 52, 294, 445, 79, 470, 224, 199, 99, 223, 15, 423, 277, 344, 385, 269, 314, 12, 211, 230, 497, 375, 167, 237, 144, 382, 458, 471, 475, 304, 120, 326, 397, 70, 290, 178, 229, 392, 127, 399, 141, 180, 360, 293, 204, 268, 19, 260, 481, 172, 151, 179, 165, 448, 282, 43, 396, 313, 81, 334, 280, 4, 82, 473, 61, 234, 351, 346, 242, 250, 210, 123, 485, 456, 153, 284, 359, 87, 119, 292, 94, 63, 302, 92, 462, 103, 461, 305, 453, 176, 296, 36, 389, 345, 386, 433, 320, 401, 466, 472, 156, 478, 373, 281, 271, 25, 438, 108, 1, 196, 76, 174, 425, 110, 243, 454, 307, 405, 428, 28, 18, 349, 17, 155, 402, 48, 273, 332, 357, 11, 159, 467, 325, 101, 369, 335, 469, 289, 330, 181, 8, 379, 391, 162, 265, 252, 213, 131, 366, 275, 226, 272, 190, 495, 248, 348, 421, 342, 27, 218, 157, 488, 195, 246, 57, 297, 227, 279, 376, 107, 66, 146, 355, 283, 446, 137, 47, 245, 244, 161, 249, 169, 56, 437, 247, 143, 422, 14, 239, 64, 45, 424, 384, 429, 257, 276, 104, 26, 34, 130, 197, 264, 50, 498, 388, 231, 98, 198, 154, 205, 404, 254, 65, 354, 434, 42, 109, 365, 496, 228, 477, 285, 145, 400, 479, 457, 316, 420, 121, 410, 9, 208, 187, 299, 238, 270, 2, 288, 311, 494, 149, 266, 333, 441, 185, 152, 10, 80, 177, 340, 414, 86, 105, 358, 83, 139, 406, 432, 363, 308, 259, 41, 322, 44, 343, 258, 209, 291, 383, 126, 22, 46, 35, 361, 490, 274, 455, 158, 347, 89, 398, 367, 318, 368, 452, 124, 68, 77, 38, 390, 418, 59, 408, 435, 443, 480, 96, 222, 486, 160, 88, 194, 20, 117, 381, 30, 188, 189, 206, 69, 173, 49, 403, 393, 23, 416, 106, 500, 138, 350, 295, 193, 412, 328, 58, 372, 327, 7, 319, 300, 493, 483, 207, 217, 449, 171, 463, 24, 261, 464, 489, 409, 460, 21, 338, 353, 5, 236, 255, 6, 95, 166, 37, 324, 370, 54, 122]</t>
+  </si>
+  <si>
+    <t>[272, 120, 232, 164, 213, 112, 482, 416, 5, 192, 212, 30, 436, 471, 254, 268, 323, 481, 326, 156, 184, 290, 188, 414, 117, 90, 286, 82, 279, 448, 383, 319, 346, 141, 462, 8, 358, 136, 328, 177, 273, 264, 165, 335, 380, 81, 230, 70, 465, 257, 370, 125, 278, 100, 454, 210, 365, 65, 175, 20, 467, 463, 408, 92, 166, 490, 233, 198, 102, 274, 443, 470, 305, 483, 113, 19, 34, 180, 341, 372, 312, 428, 267, 424, 134, 203, 256, 352, 266, 376, 422, 235, 284, 199, 208, 496, 56, 147, 94, 476, 170, 309, 108, 344, 434, 451, 249, 324, 429, 234, 84, 62, 333, 218, 10, 442, 185, 262, 297, 438, 320, 171, 190, 201, 221, 105, 403, 23, 321, 206, 51, 388, 68, 183, 143, 270, 450, 238, 500, 1, 381, 106, 385, 132, 124, 419, 36, 28, 308, 291, 27, 261, 135, 360, 189, 307, 395, 368, 73, 83, 369, 22, 168, 398, 402, 418, 355, 71, 46, 432, 115, 4, 44, 111, 259, 420, 72, 119, 140, 367, 421, 15, 373, 24, 313, 405, 280, 396, 88, 260, 426, 276, 289, 161, 237, 33, 446, 77, 174, 348, 91, 80, 412, 128, 89, 350, 413, 11, 144, 293, 480, 181, 499, 66, 314, 459, 371, 60, 197, 32, 364, 269, 474, 491, 14, 200, 468, 492, 464, 107, 353, 214, 67, 159, 445, 437, 126, 196, 440, 202, 275, 59, 356, 57, 329, 417, 96, 282, 114, 146, 224, 253, 302, 401, 404, 236, 45, 154, 433, 75, 379, 207, 243, 390, 12, 345, 245, 359, 354, 122, 139, 425, 205, 152, 151, 317, 226, 231, 9, 374, 87, 331, 40, 217, 127, 38, 58, 209, 394, 228, 240, 179, 487, 362, 227, 74, 318, 337, 229, 195, 6, 101, 222, 194, 85, 399, 31, 53, 498, 63, 137, 283, 484, 130, 155, 300, 216, 76, 178, 336, 172, 406, 343, 277, 363, 7, 423, 247, 42, 494, 342, 452, 303, 410, 339, 296, 2, 285, 220, 244, 444, 298, 219, 187, 41, 176, 427, 457, 301, 382, 393, 160, 493, 54, 17, 299, 157, 211, 169, 255, 191, 361, 69, 400, 104, 48, 378, 456, 315, 306, 3, 472, 351, 386, 153, 478, 37, 322, 466, 449, 479, 430, 488, 391, 316, 225, 52, 98, 439, 138, 241, 357, 288, 13, 55, 158, 49, 150, 441, 475, 349, 447, 43, 281, 64, 497, 61, 411, 29, 162, 338, 239, 258, 330, 248, 173, 142, 39, 129, 455, 366, 473, 311, 495, 252, 340, 304, 251, 47, 242, 116, 477, 163, 182, 397, 415, 392, 204, 21, 389, 458, 263, 409, 99, 435, 86, 26, 453, 145, 460, 25, 223, 325, 407, 148, 167, 294, 186, 327, 79, 486, 461, 310, 271, 375, 121, 97, 431, 332, 93, 469, 16, 131, 149, 110, 334, 78, 384, 109, 118, 292, 193, 103, 387, 250, 215, 133, 95, 35, 377, 265, 295, 485, 50, 123, 347, 489, 287, 18, 246]</t>
+  </si>
+  <si>
+    <t>[476, 250, 36, 168, 174, 261, 417, 447, 136, 440, 124, 64, 423, 313, 274, 342, 493, 51, 92, 215, 314, 85, 498, 488, 407, 265, 122, 311, 315, 145, 408, 82, 487, 371, 207, 121, 151, 222, 306, 461, 52, 361, 436, 87, 455, 131, 62, 413, 240, 28, 118, 270, 404, 202, 140, 301, 206, 434, 298, 352, 165, 264, 433, 415, 426, 211, 438, 135, 347, 365, 148, 10, 335, 164, 318, 31, 162, 29, 244, 231, 402, 464, 299, 271, 192, 114, 2, 489, 254, 70, 398, 169, 391, 302, 119, 363, 416, 260, 143, 277, 123, 32, 431, 226, 307, 59, 388, 379, 490, 39, 341, 158, 103, 3, 329, 160, 47, 235, 48, 40, 345, 245, 182, 125, 484, 138, 471, 422, 134, 144, 137, 233, 236, 432, 390, 486, 243, 467, 20, 18, 218, 102, 378, 108, 355, 428, 45, 317, 279, 195, 330, 139, 180, 376, 225, 384, 9, 161, 308, 8, 427, 4, 469, 380, 401, 360, 287, 350, 482, 58, 304, 320, 1, 368, 357, 290, 258, 249, 120, 437, 406, 133, 387, 242, 444, 435, 286, 90, 56, 389, 67, 255, 356, 229, 208, 309, 41, 71, 457, 289, 278, 198, 46, 405, 442, 337, 81, 339, 99, 109, 97, 500, 189, 203, 441, 343, 364, 411, 273, 127, 83, 167, 410, 283, 354, 17, 285, 281, 414, 288, 394, 295, 263, 353, 217, 247, 292, 214, 445, 156, 458, 448, 472, 89, 494, 210, 142, 237, 14, 72, 186, 393, 474, 403, 194, 170, 439, 456, 213, 7, 316, 446, 23, 110, 191, 475, 177, 239, 200, 323, 348, 37, 157, 492, 224, 132, 159, 465, 332, 397, 322, 372, 53, 420, 324, 154, 325, 462, 107, 477, 429, 227, 152, 74, 425, 111, 73, 266, 366, 61, 392, 88, 367, 228, 24, 399, 187, 21, 282, 86, 101, 155, 412, 257, 300, 54, 27, 15, 340, 262, 499, 163, 328, 11, 293, 362, 175, 221, 95, 383, 128, 197, 43, 495, 105, 129, 491, 296, 33, 346, 331, 460, 470, 209, 112, 459, 80, 375, 76, 395, 259, 212, 100, 77, 374, 377, 204, 338, 419, 370, 369, 60, 13, 269, 454, 291, 452, 84, 334, 386, 91, 256, 79, 344, 409, 251, 253, 303, 188, 196, 98, 284, 450, 30, 421, 5, 272, 6, 481, 267, 34, 418, 26, 443, 485, 50, 216, 333, 219, 246, 113, 359, 326, 319, 69, 19, 230, 479, 181, 171, 238, 373, 38, 424, 294, 130, 75, 480, 468, 35, 466, 351, 117, 184, 185, 234, 430, 65, 220, 496, 312, 275, 55, 451, 94, 193, 16, 463, 63, 93, 42, 201, 66, 173, 104, 305, 241, 44, 12, 453, 483, 22, 382, 252, 349, 358, 68, 321, 149, 336, 276, 232, 473, 248, 223, 153, 172, 199, 78, 176, 106, 141, 166, 96, 25, 280, 146, 400, 381, 183, 190, 178, 449, 49, 478, 147, 150, 297, 385, 205, 179, 327, 116, 57, 497, 126, 396, 310, 115, 268]</t>
+  </si>
+  <si>
+    <t>[272, 166, 357, 215, 139, 229, 372, 316, 218, 456, 431, 423, 398, 254, 156, 439, 179, 195, 77, 133, 74, 319, 436, 9, 418, 352, 344, 11, 183, 386, 302, 470, 291, 255, 434, 160, 374, 360, 100, 181, 114, 466, 463, 87, 204, 155, 349, 41, 238, 46, 163, 101, 268, 358, 454, 285, 72, 147, 158, 422, 187, 112, 16, 282, 63, 311, 234, 118, 137, 440, 53, 134, 295, 73, 120, 223, 165, 172, 48, 75, 427, 314, 232, 306, 365, 326, 136, 494, 240, 474, 495, 461, 125, 394, 213, 216, 413, 412, 123, 315, 61, 264, 214, 442, 490, 78, 169, 228, 245, 221, 479, 247, 30, 105, 153, 265, 455, 472, 325, 246, 95, 131, 146, 351, 480, 417, 397, 97, 22, 286, 359, 341, 478, 251, 469, 260, 429, 452, 296, 50, 366, 482, 219, 401, 481, 317, 396, 14, 362, 28, 353, 83, 47, 438, 395, 92, 375, 411, 253, 318, 121, 127, 347, 207, 383, 224, 379, 143, 6, 261, 8, 210, 178, 82, 293, 106, 141, 327, 433, 381, 142, 468, 40, 21, 500, 380, 194, 369, 159, 196, 208, 175, 128, 430, 486, 119, 294, 184, 58, 449, 373, 102, 281, 329, 15, 287, 419, 230, 333, 201, 190, 89, 191, 66, 96, 98, 259, 115, 107, 189, 237, 289, 335, 140, 363, 65, 205, 308, 354, 322, 90, 424, 151, 68, 193, 402, 180, 288, 182, 450, 29, 487, 391, 464, 235, 171, 4, 2, 185, 197, 460, 389, 473, 279, 408, 499, 20, 173, 489, 138, 323, 266, 243, 406, 202, 387, 93, 484, 385, 299, 164, 79, 103, 340, 56, 43, 31, 445, 241, 451, 225, 337, 390, 104, 280, 298, 236, 462, 267, 81, 361, 331, 188, 177, 199, 27, 176, 249, 420, 206, 346, 64, 226, 86, 435, 150, 211, 425, 37, 200, 416, 338, 432, 49, 67, 324, 99, 19, 278, 39, 421, 475, 186, 174, 297, 24, 220, 54, 10, 161, 485, 467, 80, 410, 12, 17, 113, 88, 309, 108, 496, 392, 350, 38, 488, 132, 44, 168, 443, 233, 491, 1, 355, 393, 252, 336, 388, 148, 59, 170, 42, 70, 91, 457, 304, 126, 310, 212, 192, 399, 497, 414, 292, 342, 262, 34, 400, 275, 284, 334, 483, 239, 476, 149, 458, 448, 258, 441, 222, 376, 437, 320, 444, 248, 25, 371, 378, 330, 110, 459, 415, 493, 242, 35, 269, 217, 290, 60, 71, 465, 382, 477, 109, 332, 356, 32, 364, 453, 62, 124, 94, 5, 339, 446, 122, 250, 274, 321, 51, 377, 305, 23, 273, 227, 198, 157, 370, 498, 13, 256, 18, 144, 409, 45, 203, 135, 57, 36, 343, 130, 257, 307, 117, 69, 312, 52, 154, 167, 263, 283, 209, 7, 301, 300, 76, 404, 447, 403, 271, 84, 152, 129, 85, 55, 145, 368, 428, 384, 3, 26, 244, 348, 367, 111, 276, 162, 277, 426, 116, 270, 405, 313, 345, 492, 231, 328, 303, 471, 33, 407]</t>
+  </si>
+  <si>
+    <t>[434, 385, 52, 22, 473, 81, 173, 217, 277, 406, 236, 316, 451, 143, 303, 20, 158, 40, 424, 229, 130, 204, 175, 19, 18, 50, 499, 443, 54, 192, 184, 274, 237, 73, 386, 209, 120, 364, 453, 124, 8, 149, 245, 61, 262, 29, 477, 83, 441, 185, 96, 39, 230, 481, 28, 281, 269, 326, 270, 144, 112, 134, 110, 391, 170, 57, 440, 376, 148, 183, 387, 121, 69, 7, 30, 188, 404, 366, 232, 487, 287, 368, 288, 200, 125, 159, 420, 372, 198, 141, 457, 12, 33, 208, 182, 273, 282, 67, 389, 252, 343, 234, 266, 341, 44, 304, 392, 131, 118, 325, 247, 253, 429, 104, 347, 5, 92, 370, 407, 51, 295, 255, 119, 218, 168, 205, 84, 213, 458, 199, 97, 479, 498, 460, 301, 331, 42, 272, 48, 56, 224, 381, 318, 137, 197, 398, 315, 64, 23, 216, 490, 305, 482, 428, 416, 337, 246, 296, 58, 390, 350, 322, 311, 310, 446, 115, 13, 108, 291, 333, 88, 227, 210, 38, 176, 178, 402, 379, 206, 226, 338, 70, 68, 106, 76, 320, 314, 169, 47, 357, 327, 151, 352, 409, 139, 400, 3, 101, 319, 235, 123, 60, 65, 324, 43, 146, 403, 312, 476, 430, 265, 250, 46, 478, 279, 140, 242, 220, 297, 276, 348, 72, 293, 17, 34, 133, 45, 147, 395, 165, 100, 345, 113, 354, 294, 488, 432, 329, 358, 399, 167, 77, 444, 24, 340, 55, 26, 492, 228, 231, 258, 116, 397, 321, 215, 82, 289, 233, 433, 180, 10, 374, 27, 298, 382, 161, 79, 497, 41, 142, 35, 309, 355, 14, 195, 353, 222, 171, 95, 239, 472, 135, 334, 463, 99, 211, 9, 483, 438, 475, 153, 66, 373, 102, 494, 190, 493, 98, 500, 466, 413, 496, 486, 267, 317, 335, 256, 330, 367, 126, 415, 447, 474, 221, 111, 223, 454, 323, 371, 468, 480, 336, 122, 365, 259, 25, 280, 412, 302, 485, 248, 306, 156, 15, 411, 49, 401, 238, 359, 410, 201, 456, 4, 328, 136, 181, 225, 162, 31, 360, 286, 462, 470, 89, 191, 260, 129, 271, 377, 471, 414, 63, 300, 109, 419, 283, 16, 214, 369, 196, 6, 103, 449, 145, 132, 187, 59, 263, 448, 85, 154, 417, 307, 90, 439, 32, 349, 94, 459, 186, 393, 261, 240, 152, 362, 491, 423, 264, 254, 465, 164, 53, 172, 332, 275, 450, 75, 163, 408, 356, 278, 455, 484, 442, 431, 378, 290, 445, 107, 155, 464, 351, 36, 452, 418, 1, 207, 91, 86, 396, 150, 380, 93, 339, 117, 189, 383, 177, 193, 467, 114, 11, 495, 313, 344, 80, 2, 74, 174, 426, 363, 241, 469, 489, 375, 62, 179, 292, 157, 394, 78, 421, 212, 346, 166, 299, 203, 435, 105, 437, 436, 243, 138, 384, 244, 388, 160, 202, 284, 405, 21, 427, 37, 87, 422, 361, 425, 194, 219, 128, 308, 71, 257, 251, 249, 342, 127, 268, 461, 285]</t>
+  </si>
+  <si>
+    <t>[392, 383, 389, 291, 349, 113, 257, 211, 44, 157, 181, 52, 248, 279, 7, 77, 63, 213, 472, 336, 387, 224, 159, 221, 124, 85, 429, 199, 442, 319, 259, 271, 385, 93, 131, 468, 227, 25, 355, 420, 4, 200, 351, 329, 91, 361, 11, 149, 16, 452, 202, 499, 141, 487, 461, 174, 144, 228, 219, 225, 335, 292, 66, 253, 426, 148, 75, 301, 142, 342, 191, 84, 212, 348, 34, 204, 70, 353, 35, 208, 391, 120, 440, 103, 283, 76, 135, 482, 444, 193, 457, 58, 107, 364, 312, 255, 285, 346, 378, 376, 216, 337, 195, 177, 15, 273, 458, 236, 29, 229, 298, 493, 404, 475, 305, 87, 282, 222, 45, 371, 360, 43, 384, 9, 363, 433, 431, 289, 478, 165, 31, 266, 303, 423, 474, 128, 206, 422, 464, 470, 484, 67, 163, 418, 311, 108, 275, 250, 347, 294, 50, 324, 333, 447, 187, 98, 402, 316, 217, 160, 117, 473, 310, 215, 59, 476, 60, 365, 102, 172, 90, 249, 252, 290, 313, 326, 296, 256, 68, 233, 411, 497, 331, 62, 114, 309, 366, 223, 2, 445, 178, 439, 416, 356, 419, 40, 372, 121, 278, 99, 421, 284, 51, 20, 33, 307, 448, 443, 408, 6, 436, 315, 463, 111, 13, 496, 288, 100, 394, 145, 432, 498, 47, 483, 78, 56, 304, 89, 272, 188, 424, 362, 189, 161, 80, 116, 48, 341, 246, 323, 154, 239, 8, 297, 338, 390, 270, 413, 276, 153, 196, 373, 158, 486, 317, 343, 37, 466, 53, 130, 479, 12, 450, 455, 230, 173, 494, 143, 10, 437, 267, 127, 357, 214, 277, 299, 491, 49, 453, 340, 451, 232, 354, 182, 5, 293, 318, 61, 415, 176, 261, 449, 169, 286, 381, 243, 263, 322, 300, 417, 471, 287, 123, 244, 405, 126, 94, 55, 281, 218, 456, 220, 92, 314, 168, 207, 137, 240, 3, 71, 380, 388, 24, 203, 30, 115, 280, 492, 462, 407, 186, 398, 133, 369, 295, 46, 251, 262, 166, 26, 57, 146, 150, 82, 119, 438, 109, 129, 269, 164, 179, 152, 192, 28, 138, 406, 409, 237, 242, 396, 86, 247, 125, 352, 17, 64, 328, 18, 32, 136, 412, 459, 434, 184, 134, 122, 88, 65, 460, 54, 21, 235, 156, 430, 306, 428, 481, 480, 101, 112, 400, 321, 469, 171, 368, 386, 467, 334, 22, 72, 39, 489, 495, 147, 170, 241, 155, 500, 344, 231, 139, 198, 302, 258, 73, 81, 399, 27, 308, 106, 96, 320, 118, 325, 167, 490, 410, 210, 132, 330, 477, 382, 201, 446, 36, 19, 265, 403, 332, 350, 183, 358, 374, 38, 245, 345, 238, 175, 427, 441, 465, 97, 327, 190, 74, 370, 375, 359, 264, 260, 379, 268, 205, 162, 110, 104, 393, 339, 151, 414, 41, 397, 454, 377, 485, 105, 140, 185, 395, 488, 14, 95, 234, 69, 209, 274, 194, 367, 180, 1, 435, 254, 23, 401, 197, 425, 42, 79, 226, 83]</t>
+  </si>
+  <si>
+    <t>[258, 90, 313, 351, 146, 191, 108, 446, 182, 89, 111, 297, 74, 431, 107, 310, 372, 323, 139, 459, 281, 174, 329, 388, 322, 495, 72, 164, 437, 250, 358, 352, 498, 55, 68, 59, 210, 296, 447, 472, 28, 161, 373, 11, 159, 156, 118, 41, 332, 387, 445, 203, 344, 163, 315, 465, 262, 166, 394, 240, 413, 123, 197, 110, 8, 487, 400, 117, 397, 48, 277, 12, 359, 324, 395, 186, 306, 52, 82, 23, 326, 119, 469, 270, 171, 173, 51, 275, 291, 184, 145, 369, 243, 234, 284, 149, 20, 488, 271, 442, 408, 499, 226, 131, 167, 198, 383, 43, 109, 276, 320, 490, 75, 3, 88, 346, 341, 348, 379, 479, 389, 13, 27, 367, 308, 402, 9, 366, 236, 70, 122, 255, 54, 158, 477, 204, 38, 216, 354, 259, 361, 443, 305, 136, 253, 249, 62, 265, 460, 390, 179, 102, 433, 473, 137, 476, 436, 325, 31, 53, 153, 260, 298, 493, 237, 384, 220, 391, 221, 130, 368, 455, 419, 190, 209, 211, 423, 175, 428, 36, 303, 162, 4, 160, 87, 103, 274, 398, 309, 267, 195, 194, 135, 193, 254, 157, 319, 225, 497, 482, 212, 202, 474, 30, 336, 356, 371, 480, 494, 47, 496, 241, 273, 98, 405, 468, 470, 247, 81, 132, 268, 32, 106, 16, 406, 380, 214, 434, 429, 475, 421, 56, 458, 105, 208, 205, 42, 360, 370, 235, 343, 133, 245, 481, 424, 113, 418, 129, 489, 299, 19, 363, 192, 261, 294, 49, 293, 17, 126, 427, 99, 120, 7, 6, 321, 201, 333, 440, 457, 93, 29, 79, 337, 189, 124, 85, 301, 57, 152, 385, 213, 338, 330, 411, 399, 46, 353, 302, 252, 340, 314, 331, 151, 69, 283, 441, 96, 104, 150, 491, 65, 223, 451, 251, 37, 112, 21, 448, 365, 248, 439, 67, 263, 232, 286, 224, 256, 155, 143, 207, 22, 84, 393, 290, 77, 484, 169, 280, 187, 362, 272, 170, 92, 335, 462, 449, 412, 148, 364, 307, 382, 435, 285, 25, 222, 461, 242, 414, 327, 378, 58, 128, 33, 215, 318, 218, 15, 60, 292, 35, 334, 452, 401, 444, 453, 10, 450, 185, 376, 426, 304, 71, 172, 40, 125, 375, 430, 381, 18, 121, 231, 80, 140, 392, 404, 328, 350, 39, 278, 357, 471, 144, 500, 342, 165, 138, 180, 466, 227, 396, 228, 264, 464, 279, 238, 288, 83, 177, 287, 403, 26, 91, 115, 409, 142, 316, 339, 196, 1, 183, 257, 438, 416, 147, 289, 127, 345, 420, 45, 239, 181, 347, 61, 5, 269, 233, 206, 73, 295, 467, 300, 478, 246, 483, 266, 311, 141, 2, 454, 154, 176, 432, 134, 94, 188, 64, 229, 34, 312, 199, 282, 349, 116, 463, 101, 24, 230, 14, 244, 425, 63, 66, 78, 485, 415, 417, 178, 377, 200, 95, 456, 97, 76, 86, 317, 44, 386, 168, 410, 355, 422, 217, 492, 374, 100, 486, 50, 219, 114, 407]</t>
+  </si>
+  <si>
+    <t>[66, 294, 134, 223, 45, 445, 58, 13, 351, 389, 188, 306, 365, 110, 90, 354, 305, 137, 324, 411, 5, 320, 7, 202, 128, 2, 410, 364, 247, 183, 194, 302, 313, 157, 15, 335, 310, 165, 283, 356, 143, 200, 370, 70, 104, 472, 435, 347, 481, 289, 173, 39, 267, 57, 469, 276, 249, 133, 148, 227, 447, 163, 20, 231, 251, 400, 121, 93, 132, 362, 260, 141, 423, 425, 393, 37, 322, 353, 27, 429, 85, 355, 471, 204, 52, 122, 243, 439, 381, 158, 118, 240, 475, 316, 89, 22, 68, 486, 285, 105, 342, 333, 120, 418, 234, 284, 460, 407, 16, 167, 369, 459, 67, 213, 32, 402, 419, 298, 102, 404, 82, 170, 172, 48, 272, 448, 124, 477, 359, 103, 341, 375, 41, 221, 416, 142, 330, 182, 73, 80, 11, 314, 463, 17, 242, 340, 261, 396, 343, 424, 113, 350, 499, 151, 405, 63, 3, 466, 91, 123, 252, 453, 237, 280, 273, 64, 179, 374, 474, 114, 219, 465, 296, 144, 139, 455, 288, 195, 450, 473, 339, 203, 10, 44, 49, 488, 187, 60, 478, 168, 12, 216, 480, 14, 265, 84, 186, 83, 256, 358, 303, 422, 301, 75, 421, 414, 440, 255, 275, 437, 432, 433, 329, 449, 246, 485, 116, 493, 371, 95, 235, 87, 241, 169, 309, 461, 467, 268, 176, 376, 1, 457, 38, 111, 317, 415, 366, 185, 262, 391, 127, 140, 214, 464, 42, 500, 403, 107, 50, 395, 135, 23, 215, 209, 360, 86, 307, 208, 470, 413, 78, 451, 33, 300, 162, 108, 443, 152, 99, 19, 34, 489, 483, 258, 4, 40, 336, 290, 254, 361, 253, 46, 380, 331, 266, 492, 297, 401, 277, 318, 164, 153, 25, 378, 178, 279, 21, 321, 319, 29, 332, 138, 468, 406, 245, 224, 384, 205, 177, 117, 257, 18, 281, 299, 115, 131, 430, 264, 197, 377, 494, 146, 444, 155, 129, 363, 484, 357, 323, 69, 218, 232, 292, 201, 312, 28, 225, 452, 62, 334, 100, 259, 386, 311, 315, 295, 434, 154, 101, 408, 229, 397, 210, 325, 160, 372, 94, 8, 180, 77, 190, 348, 53, 184, 244, 392, 383, 228, 54, 30, 150, 192, 308, 373, 193, 417, 36, 326, 156, 181, 428, 147, 125, 166, 6, 81, 491, 490, 217, 390, 119, 286, 230, 304, 287, 191, 367, 97, 399, 198, 248, 161, 65, 238, 149, 35, 327, 446, 250, 61, 328, 199, 436, 211, 72, 412, 74, 31, 385, 109, 206, 495, 88, 98, 207, 76, 233, 420, 344, 498, 226, 56, 337, 438, 126, 9, 456, 379, 263, 145, 482, 346, 442, 458, 352, 47, 171, 398, 79, 479, 220, 282, 487, 130, 426, 196, 71, 174, 222, 338, 431, 270, 59, 92, 441, 106, 293, 291, 236, 43, 51, 212, 382, 497, 462, 112, 454, 26, 476, 387, 175, 394, 345, 409, 189, 278, 159, 349, 96, 427, 239, 368, 24, 55, 388, 496, 136, 269, 271, 274]</t>
+  </si>
+  <si>
+    <t>[258, 364, 41, 495, 159, 140, 358, 183, 409, 243, 188, 388, 241, 368, 212, 26, 216, 480, 234, 471, 164, 3, 198, 384, 10, 485, 311, 420, 406, 425, 142, 21, 126, 401, 492, 58, 429, 7, 427, 250, 220, 118, 228, 11, 286, 153, 88, 226, 306, 209, 285, 239, 13, 173, 343, 68, 61, 454, 90, 2, 391, 130, 187, 23, 37, 9, 273, 158, 32, 476, 148, 470, 38, 76, 120, 84, 163, 280, 201, 229, 496, 48, 410, 254, 150, 281, 433, 200, 300, 125, 264, 381, 430, 299, 27, 383, 432, 330, 89, 325, 407, 419, 412, 73, 122, 74, 111, 121, 28, 474, 59, 217, 246, 51, 355, 101, 5, 60, 261, 139, 204, 147, 333, 81, 275, 296, 400, 16, 309, 80, 256, 25, 156, 4, 253, 127, 238, 112, 293, 447, 386, 462, 405, 402, 162, 438, 392, 369, 316, 297, 397, 437, 95, 195, 490, 213, 268, 75, 290, 221, 274, 295, 267, 493, 235, 167, 251, 166, 240, 418, 484, 428, 271, 446, 482, 322, 151, 208, 202, 351, 276, 185, 350, 119, 191, 18, 136, 36, 227, 93, 257, 194, 215, 441, 371, 444, 434, 284, 487, 197, 463, 302, 20, 64, 424, 353, 152, 105, 34, 408, 134, 230, 456, 298, 477, 263, 157, 294, 445, 247, 45, 218, 193, 223, 103, 421, 211, 128, 70, 141, 233, 315, 132, 174, 457, 115, 459, 387, 96, 354, 189, 308, 49, 196, 390, 117, 312, 291, 500, 411, 43, 393, 317, 395, 345, 494, 72, 57, 107, 352, 186, 372, 422, 181, 67, 414, 245, 102, 104, 435, 466, 199, 149, 380, 79, 370, 255, 460, 374, 52, 269, 481, 305, 224, 259, 113, 63, 382, 360, 349, 464, 394, 94, 404, 340, 417, 403, 385, 161, 452, 498, 248, 192, 169, 342, 236, 329, 14, 338, 398, 278, 319, 56, 270, 137, 86, 440, 54, 426, 389, 489, 362, 171, 110, 170, 314, 123, 366, 376, 114, 100, 359, 458, 222, 42, 50, 168, 62, 331, 356, 22, 30, 252, 219, 154, 165, 66, 279, 178, 321, 1, 467, 288, 396, 320, 348, 367, 324, 334, 87, 83, 180, 363, 46, 436, 443, 69, 265, 423, 53, 205, 413, 450, 478, 97, 344, 336, 373, 488, 232, 289, 244, 260, 249, 8, 479, 473, 310, 303, 179, 17, 138, 313, 172, 65, 497, 451, 282, 357, 339, 416, 431, 160, 203, 145, 129, 31, 337, 307, 341, 109, 231, 327, 323, 439, 292, 262, 6, 442, 82, 175, 133, 214, 379, 242, 375, 415, 225, 135, 210, 461, 99, 155, 318, 39, 266, 108, 272, 335, 12, 55, 486, 47, 146, 499, 207, 35, 106, 277, 98, 469, 206, 361, 449, 283, 326, 124, 131, 33, 190, 475, 143, 24, 91, 346, 44, 71, 19, 365, 29, 176, 92, 472, 483, 40, 15, 116, 332, 465, 177, 491, 77, 182, 328, 347, 184, 301, 399, 468, 85, 78, 144, 304, 287, 377, 455, 448, 378, 453, 237]</t>
+  </si>
+  <si>
+    <t>[427, 17, 187, 278, 443, 476, 73, 21, 35, 79, 378, 194, 223, 363, 208, 263, 228, 4, 8, 287, 465, 340, 5, 271, 188, 106, 156, 456, 94, 39, 7, 293, 9, 234, 348, 103, 190, 38, 330, 471, 224, 126, 219, 145, 216, 331, 277, 493, 162, 231, 252, 222, 75, 290, 368, 88, 424, 464, 461, 318, 164, 304, 19, 489, 295, 115, 322, 442, 80, 261, 217, 89, 310, 235, 351, 71, 12, 307, 13, 492, 324, 66, 130, 191, 193, 211, 240, 477, 63, 499, 171, 258, 169, 125, 244, 95, 344, 319, 149, 405, 248, 40, 59, 155, 180, 386, 274, 206, 259, 189, 370, 114, 364, 127, 316, 70, 226, 270, 200, 336, 292, 55, 332, 254, 239, 242, 429, 111, 300, 401, 403, 183, 496, 137, 371, 158, 455, 29, 447, 11, 144, 458, 358, 181, 433, 30, 286, 380, 367, 64, 60, 484, 121, 350, 230, 100, 480, 320, 233, 168, 61, 34, 400, 76, 345, 388, 97, 362, 151, 422, 78, 448, 421, 449, 45, 486, 202, 160, 241, 74, 105, 84, 415, 82, 272, 214, 65, 50, 176, 490, 497, 481, 108, 375, 232, 212, 487, 376, 500, 374, 335, 266, 92, 474, 257, 432, 343, 117, 255, 152, 24, 132, 396, 279, 426, 107, 284, 51, 317, 483, 120, 338, 54, 462, 339, 369, 494, 138, 229, 195, 1, 28, 452, 305, 122, 453, 466, 236, 43, 393, 87, 381, 392, 48, 175, 197, 416, 46, 308, 418, 210, 53, 146, 382, 173, 260, 360, 355, 420, 186, 419, 131, 154, 136, 267, 357, 150, 147, 359, 221, 341, 450, 204, 406, 185, 142, 253, 215, 27, 128, 143, 170, 119, 468, 85, 148, 196, 209, 399, 326, 372, 417, 104, 457, 129, 26, 365, 469, 394, 207, 407, 10, 81, 412, 337, 3, 44, 141, 22, 472, 459, 478, 163, 161, 269, 353, 14, 135, 291, 352, 124, 349, 495, 77, 199, 218, 112, 56, 451, 296, 373, 479, 288, 435, 58, 166, 282, 167, 485, 251, 72, 404, 328, 470, 203, 23, 314, 454, 438, 213, 6, 123, 302, 306, 441, 408, 445, 387, 281, 366, 2, 179, 437, 96, 153, 313, 361, 285, 265, 488, 398, 423, 329, 273, 134, 140, 297, 83, 491, 262, 67, 18, 15, 347, 225, 475, 467, 57, 439, 354, 113, 446, 397, 434, 342, 62, 245, 177, 201, 101, 182, 323, 31, 414, 109, 298, 315, 178, 395, 389, 327, 205, 356, 391, 172, 321, 410, 42, 325, 377, 86, 68, 133, 246, 431, 430, 428, 280, 436, 264, 192, 220, 444, 110, 250, 174, 93, 383, 25, 402, 268, 256, 36, 184, 91, 425, 198, 32, 440, 276, 16, 333, 98, 33, 227, 47, 41, 385, 390, 409, 463, 157, 498, 311, 238, 52, 139, 116, 294, 20, 312, 413, 482, 247, 289, 473, 90, 237, 243, 460, 384, 275, 303, 379, 102, 301, 411, 99, 283, 159, 37, 165, 309, 334, 118, 49, 69, 249, 299, 346]</t>
+  </si>
+  <si>
+    <t>[318, 237, 347, 118, 41, 258, 299, 458, 79, 432, 406, 176, 442, 66, 452, 285, 272, 350, 10, 261, 365, 36, 430, 361, 33, 44, 220, 376, 362, 174, 166, 267, 209, 205, 251, 8, 291, 492, 418, 484, 446, 107, 164, 194, 371, 287, 391, 252, 76, 242, 281, 308, 151, 384, 415, 104, 460, 302, 453, 340, 246, 304, 236, 301, 113, 138, 170, 2, 262, 426, 152, 439, 399, 416, 51, 149, 75, 363, 100, 58, 70, 319, 414, 358, 497, 295, 434, 77, 171, 105, 410, 210, 136, 187, 225, 269, 448, 412, 15, 241, 61, 490, 48, 69, 127, 122, 55, 455, 52, 214, 203, 169, 135, 433, 409, 196, 429, 290, 72, 102, 478, 355, 234, 193, 45, 390, 65, 329, 168, 188, 359, 271, 161, 403, 392, 249, 144, 133, 383, 192, 84, 404, 335, 280, 413, 259, 235, 427, 485, 85, 314, 92, 199, 424, 344, 326, 49, 173, 294, 298, 374, 60, 396, 74, 185, 201, 354, 31, 493, 380, 9, 337, 239, 477, 316, 230, 228, 481, 186, 300, 428, 153, 67, 137, 26, 419, 243, 327, 284, 35, 421, 386, 59, 86, 191, 437, 207, 142, 221, 197, 250, 306, 83, 483, 200, 126, 353, 54, 218, 489, 411, 330, 445, 172, 436, 96, 40, 401, 278, 1, 180, 276, 480, 90, 156, 315, 57, 121, 368, 461, 227, 155, 175, 479, 303, 217, 296, 14, 112, 373, 496, 397, 444, 53, 206, 488, 204, 297, 23, 13, 408, 43, 292, 431, 34, 78, 231, 378, 257, 357, 470, 254, 260, 111, 324, 313, 343, 465, 87, 469, 338, 266, 499, 7, 159, 356, 145, 282, 38, 263, 182, 109, 94, 37, 307, 93, 238, 56, 148, 394, 158, 123, 139, 388, 240, 165, 265, 28, 395, 366, 451, 50, 5, 130, 247, 422, 143, 101, 134, 288, 339, 438, 157, 486, 476, 167, 400, 39, 223, 184, 420, 208, 360, 464, 46, 106, 471, 459, 97, 64, 377, 190, 198, 454, 177, 293, 348, 325, 498, 398, 81, 467, 125, 345, 181, 321, 82, 4, 463, 128, 62, 447, 245, 449, 120, 423, 248, 474, 435, 253, 349, 216, 132, 311, 351, 32, 482, 88, 140, 178, 256, 317, 179, 364, 27, 22, 332, 468, 283, 322, 116, 20, 63, 162, 333, 473, 29, 117, 352, 402, 16, 387, 500, 466, 389, 328, 147, 491, 226, 17, 475, 393, 495, 450, 114, 103, 310, 305, 195, 275, 30, 154, 150, 277, 341, 24, 21, 370, 233, 381, 6, 68, 457, 141, 189, 456, 405, 320, 73, 215, 441, 160, 95, 372, 367, 244, 385, 110, 12, 440, 211, 80, 279, 375, 264, 11, 382, 346, 124, 183, 224, 213, 99, 286, 342, 274, 108, 309, 369, 47, 334, 462, 42, 163, 229, 115, 472, 119, 98, 331, 71, 131, 202, 19, 494, 289, 219, 379, 91, 89, 232, 425, 146, 417, 3, 212, 443, 222, 270, 18, 273, 312, 25, 268, 407, 336, 323, 129, 487, 255]</t>
+  </si>
+  <si>
+    <t>[40, 479, 413, 456, 439, 280, 360, 491, 113, 198, 75, 255, 192, 434, 426, 194, 186, 212, 340, 264, 272, 276, 410, 69, 97, 260, 214, 169, 162, 167, 52, 57, 116, 129, 281, 127, 286, 313, 498, 296, 176, 378, 213, 387, 268, 244, 338, 141, 353, 363, 416, 394, 105, 11, 14, 261, 375, 155, 344, 294, 400, 251, 429, 403, 258, 351, 352, 184, 172, 17, 380, 58, 48, 90, 46, 497, 209, 245, 154, 325, 279, 150, 124, 39, 406, 421, 495, 55, 461, 492, 28, 376, 45, 226, 18, 446, 299, 234, 61, 263, 458, 372, 42, 418, 332, 267, 220, 158, 271, 473, 181, 493, 262, 106, 130, 433, 96, 320, 19, 306, 86, 144, 395, 227, 148, 486, 241, 171, 49, 92, 80, 374, 350, 62, 355, 364, 278, 38, 476, 111, 259, 22, 208, 256, 291, 81, 73, 265, 371, 407, 123, 422, 489, 224, 135, 37, 87, 315, 168, 102, 2, 143, 174, 88, 161, 32, 122, 282, 324, 490, 196, 95, 444, 311, 71, 381, 361, 239, 409, 468, 322, 445, 454, 177, 12, 25, 120, 336, 326, 199, 451, 252, 72, 20, 287, 142, 348, 383, 215, 179, 466, 330, 356, 101, 411, 354, 166, 94, 8, 358, 397, 170, 131, 316, 465, 108, 151, 29, 345, 346, 223, 303, 182, 298, 222, 438, 16, 441, 337, 190, 483, 349, 31, 417, 47, 342, 121, 488, 30, 230, 187, 292, 430, 204, 65, 15, 404, 390, 369, 216, 159, 419, 89, 160, 405, 125, 481, 228, 455, 24, 329, 107, 246, 452, 359, 53, 236, 310, 254, 44, 235, 85, 76, 317, 471, 225, 217, 195, 480, 98, 200, 54, 128, 74, 207, 309, 273, 77, 3, 396, 60, 295, 414, 156, 202, 147, 453, 301, 78, 115, 450, 269, 496, 408, 218, 283, 250, 238, 327, 70, 447, 323, 293, 137, 331, 437, 23, 274, 35, 463, 475, 136, 494, 478, 211, 79, 362, 339, 36, 114, 470, 103, 300, 138, 423, 43, 13, 119, 288, 334, 464, 401, 366, 321, 178, 443, 41, 436, 304, 432, 180, 314, 449, 385, 191, 275, 157, 146, 388, 240, 415, 398, 205, 163, 379, 377, 357, 285, 221, 56, 82, 368, 487, 153, 460, 343, 201, 392, 126, 257, 4, 9, 469, 399, 10, 253, 149, 99, 152, 59, 247, 435, 203, 66, 232, 367, 365, 68, 308, 370, 132, 100, 112, 386, 51, 474, 118, 134, 7, 428, 189, 104, 26, 459, 145, 290, 188, 477, 185, 335, 248, 391, 462, 297, 485, 420, 333, 412, 231, 1, 341, 93, 50, 425, 117, 307, 402, 289, 63, 243, 206, 233, 33, 499, 319, 237, 173, 270, 193, 312, 347, 109, 83, 440, 139, 389, 448, 431, 5, 219, 140, 165, 427, 284, 302, 467, 318, 424, 6, 384, 67, 164, 382, 266, 183, 305, 110, 277, 133, 500, 242, 328, 34, 249, 373, 484, 64, 472, 21, 210, 91, 84, 197, 229, 482, 457, 175, 442, 393, 27]</t>
+  </si>
+  <si>
+    <t>[392, 334, 274, 170, 424, 422, 56, 464, 260, 379, 172, 378, 180, 109, 327, 371, 211, 221, 480, 436, 332, 330, 138, 356, 79, 4, 466, 40, 178, 118, 231, 255, 193, 199, 37, 10, 58, 389, 32, 87, 428, 181, 91, 75, 299, 262, 429, 220, 185, 225, 120, 328, 478, 106, 288, 382, 279, 89, 301, 151, 270, 380, 440, 377, 137, 14, 105, 499, 482, 224, 188, 99, 306, 104, 93, 143, 155, 219, 496, 396, 488, 65, 404, 358, 497, 469, 257, 287, 325, 196, 251, 348, 163, 439, 313, 62, 131, 293, 122, 261, 78, 150, 285, 116, 342, 6, 477, 9, 123, 80, 83, 212, 414, 372, 487, 242, 132, 458, 230, 218, 388, 110, 144, 339, 454, 366, 189, 323, 169, 107, 457, 44, 277, 253, 350, 214, 346, 111, 435, 2, 153, 77, 321, 400, 235, 100, 416, 305, 195, 324, 197, 367, 386, 443, 179, 246, 307, 461, 467, 254, 207, 55, 278, 318, 311, 165, 349, 186, 465, 419, 210, 162, 289, 417, 12, 86, 354, 491, 226, 63, 175, 227, 84, 43, 57, 401, 373, 412, 148, 240, 51, 284, 71, 3, 1, 157, 161, 304, 125, 35, 206, 421, 223, 359, 81, 437, 471, 149, 192, 33, 364, 177, 493, 30, 191, 310, 395, 97, 456, 232, 36, 174, 108, 166, 407, 187, 269, 49, 5, 268, 54, 130, 8, 64, 365, 21, 408, 265, 425, 385, 451, 336, 363, 357, 384, 20, 298, 112, 450, 239, 96, 453, 117, 308, 19, 92, 154, 209, 74, 98, 340, 468, 459, 320, 15, 411, 403, 41, 438, 18, 13, 283, 24, 126, 139, 335, 360, 167, 194, 375, 474, 314, 134, 492, 76, 60, 114, 448, 72, 237, 344, 290, 236, 152, 213, 39, 286, 217, 258, 22, 26, 481, 315, 361, 146, 208, 61, 16, 234, 345, 119, 45, 390, 103, 113, 271, 329, 326, 115, 42, 341, 405, 27, 133, 462, 228, 203, 490, 489, 176, 50, 479, 370, 205, 312, 95, 164, 398, 291, 383, 182, 281, 121, 486, 418, 173, 485, 355, 263, 38, 31, 90, 374, 243, 351, 200, 399, 483, 68, 415, 295, 347, 238, 264, 434, 204, 475, 376, 233, 322, 48, 294, 28, 352, 244, 145, 128, 52, 300, 309, 11, 53, 190, 252, 66, 101, 94, 463, 34, 409, 156, 444, 7, 338, 129, 23, 331, 229, 319, 296, 141, 353, 394, 452, 460, 73, 343, 124, 368, 423, 441, 248, 317, 445, 256, 473, 184, 276, 82, 142, 427, 280, 201, 381, 249, 455, 59, 69, 303, 136, 272, 446, 266, 158, 25, 470, 426, 302, 168, 147, 449, 410, 430, 215, 282, 333, 70, 393, 88, 431, 140, 292, 135, 494, 183, 484, 160, 472, 267, 337, 159, 29, 198, 47, 495, 250, 369, 362, 433, 297, 391, 17, 171, 46, 397, 241, 498, 273, 406, 476, 500, 413, 127, 202, 67, 259, 420, 442, 85, 216, 102, 247, 222, 245, 432, 387, 447, 316, 402, 275]</t>
+  </si>
+  <si>
+    <t>[151, 144, 262, 452, 229, 430, 449, 159, 461, 469, 180, 335, 192, 353, 26, 52, 244, 221, 422, 211, 251, 428, 243, 471, 320, 279, 433, 362, 375, 118, 342, 410, 171, 3, 400, 41, 406, 440, 497, 172, 237, 369, 264, 47, 297, 214, 204, 147, 481, 478, 111, 8, 224, 85, 210, 298, 280, 129, 71, 21, 65, 93, 150, 73, 188, 274, 386, 154, 31, 138, 194, 248, 398, 60, 489, 282, 475, 283, 104, 340, 14, 447, 199, 466, 290, 51, 206, 317, 252, 412, 254, 137, 232, 96, 120, 208, 106, 301, 29, 397, 9, 161, 288, 467, 260, 66, 135, 105, 16, 486, 355, 462, 331, 213, 278, 230, 385, 163, 396, 205, 115, 492, 300, 453, 94, 293, 477, 222, 474, 38, 55, 277, 68, 392, 27, 33, 330, 349, 238, 125, 323, 124, 155, 22, 168, 54, 324, 368, 241, 484, 435, 367, 446, 59, 117, 49, 37, 407, 303, 74, 103, 381, 319, 354, 134, 153, 473, 36, 98, 351, 133, 267, 456, 480, 203, 457, 123, 89, 387, 455, 45, 258, 187, 191, 184, 39, 216, 495, 434, 173, 95, 286, 272, 498, 307, 196, 442, 235, 378, 90, 438, 242, 444, 233, 441, 476, 247, 364, 23, 77, 269, 250, 296, 423, 113, 231, 234, 321, 299, 202, 50, 219, 499, 24, 80, 370, 306, 46, 390, 166, 83, 145, 177, 389, 383, 496, 311, 425, 5, 470, 482, 318, 490, 287, 439, 6, 487, 239, 215, 261, 63, 86, 200, 116, 426, 42, 289, 165, 198, 236, 58, 339, 313, 69, 195, 281, 152, 246, 479, 176, 101, 391, 72, 100, 316, 463, 4, 417, 17, 347, 249, 459, 334, 374, 325, 309, 108, 170, 201, 102, 365, 57, 414, 500, 75, 99, 276, 186, 443, 491, 223, 399, 472, 164, 416, 189, 143, 314, 109, 136, 156, 336, 305, 84, 245, 432, 418, 465, 131, 312, 346, 228, 393, 257, 126, 182, 333, 291, 64, 76, 197, 315, 448, 413, 348, 240, 179, 56, 30, 436, 451, 356, 218, 420, 112, 148, 284, 415, 160, 256, 146, 78, 419, 28, 427, 253, 81, 360, 395, 468, 181, 424, 140, 209, 149, 332, 157, 34, 408, 122, 212, 380, 91, 394, 445, 366, 493, 263, 322, 308, 328, 361, 53, 178, 458, 494, 488, 12, 44, 379, 107, 464, 344, 114, 92, 337, 88, 421, 43, 295, 119, 285, 20, 271, 11, 327, 268, 401, 255, 273, 97, 128, 167, 450, 275, 190, 460, 225, 121, 62, 358, 67, 226, 302, 357, 158, 82, 139, 127, 175, 265, 429, 341, 266, 304, 162, 169, 485, 70, 405, 409, 338, 132, 19, 79, 220, 403, 431, 217, 343, 61, 270, 7, 404, 15, 18, 377, 48, 363, 193, 110, 326, 359, 35, 130, 350, 382, 483, 32, 259, 292, 2, 183, 310, 345, 87, 371, 40, 174, 454, 437, 1, 185, 352, 388, 372, 10, 13, 373, 141, 411, 402, 25, 329, 227, 294, 142, 207, 376, 384]</t>
+  </si>
+  <si>
+    <t>[148, 95, 300, 11, 37, 12, 177, 136, 288, 251, 411, 410, 473, 426, 329, 233, 53, 274, 485, 447, 52, 253, 406, 459, 423, 409, 296, 362, 160, 331, 471, 205, 70, 30, 370, 378, 489, 181, 34, 142, 157, 351, 130, 342, 93, 432, 332, 135, 368, 260, 61, 168, 429, 115, 395, 194, 29, 242, 196, 297, 403, 474, 481, 464, 494, 276, 84, 456, 313, 476, 484, 343, 320, 159, 249, 349, 2, 19, 141, 122, 339, 304, 416, 55, 239, 124, 317, 399, 127, 264, 7, 488, 210, 117, 269, 265, 167, 277, 59, 305, 140, 498, 356, 69, 118, 312, 267, 146, 443, 455, 75, 64, 389, 189, 311, 357, 369, 162, 51, 38, 318, 266, 23, 36, 107, 41, 453, 397, 147, 76, 353, 425, 462, 341, 327, 126, 282, 197, 212, 72, 88, 467, 310, 86, 405, 236, 128, 193, 280, 105, 186, 394, 278, 325, 379, 112, 344, 418, 460, 27, 25, 104, 85, 446, 65, 150, 190, 398, 275, 262, 80, 165, 255, 26, 179, 420, 132, 125, 5, 333, 178, 172, 202, 56, 247, 347, 303, 98, 158, 108, 227, 483, 284, 3, 428, 31, 208, 271, 110, 220, 390, 396, 97, 114, 234, 477, 82, 153, 387, 217, 109, 430, 223, 324, 33, 350, 121, 201, 182, 290, 413, 47, 188, 373, 482, 214, 404, 116, 407, 216, 475, 113, 466, 286, 321, 298, 382, 254, 340, 281, 309, 491, 328, 364, 415, 363, 58, 235, 287, 57, 213, 457, 381, 1, 133, 87, 391, 421, 224, 422, 21, 155, 232, 219, 18, 450, 291, 17, 40, 270, 375, 454, 164, 198, 500, 222, 173, 337, 452, 106, 229, 316, 359, 441, 230, 334, 273, 307, 79, 448, 77, 259, 444, 68, 15, 71, 449, 308, 401, 46, 131, 10, 352, 408, 345, 440, 499, 261, 302, 137, 43, 129, 183, 354, 138, 338, 90, 45, 283, 346, 256, 323, 185, 433, 465, 14, 139, 493, 479, 492, 257, 149, 226, 200, 497, 120, 134, 199, 315, 292, 445, 388, 435, 60, 215, 294, 380, 417, 50, 330, 96, 245, 63, 48, 480, 91, 360, 376, 94, 175, 211, 244, 143, 495, 246, 348, 427, 42, 44, 151, 54, 8, 225, 436, 152, 472, 279, 478, 145, 32, 154, 372, 289, 424, 237, 438, 306, 171, 468, 100, 24, 99, 102, 206, 434, 285, 252, 384, 358, 469, 243, 123, 383, 490, 336, 81, 371, 204, 62, 74, 402, 78, 28, 470, 6, 83, 20, 241, 240, 301, 4, 89, 209, 414, 156, 496, 49, 365, 374, 487, 442, 385, 66, 366, 174, 461, 9, 367, 67, 392, 463, 293, 431, 111, 221, 335, 207, 39, 419, 163, 299, 195, 191, 439, 437, 319, 169, 103, 203, 263, 295, 192, 166, 161, 228, 458, 22, 250, 144, 176, 73, 393, 326, 218, 184, 377, 486, 180, 322, 16, 248, 355, 92, 268, 238, 272, 314, 187, 451, 13, 386, 170, 231, 35, 400, 119, 412, 361, 101, 258]</t>
+  </si>
+  <si>
+    <t>[234, 24, 218, 129, 320, 230, 251, 333, 90, 464, 417, 427, 421, 195, 414, 331, 361, 336, 26, 73, 258, 215, 496, 447, 409, 430, 457, 432, 375, 493, 372, 425, 46, 126, 301, 106, 415, 478, 157, 16, 324, 142, 386, 25, 316, 185, 395, 145, 181, 449, 391, 344, 206, 194, 261, 86, 81, 379, 370, 199, 89, 149, 402, 241, 58, 224, 245, 272, 380, 300, 8, 328, 171, 459, 458, 190, 467, 466, 210, 278, 153, 305, 481, 263, 193, 349, 128, 98, 396, 422, 125, 200, 21, 225, 434, 248, 412, 183, 483, 63, 93, 495, 27, 357, 150, 355, 75, 329, 321, 53, 303, 244, 217, 389, 211, 30, 465, 34, 294, 14, 342, 132, 356, 219, 101, 382, 144, 322, 273, 437, 353, 265, 116, 377, 393, 473, 452, 148, 146, 306, 439, 498, 88, 286, 23, 83, 100, 54, 168, 249, 253, 175, 124, 161, 315, 281, 268, 411, 147, 276, 392, 354, 350, 77, 97, 369, 479, 82, 247, 284, 326, 426, 455, 454, 348, 71, 84, 462, 95, 440, 313, 323, 352, 470, 330, 463, 477, 141, 42, 236, 64, 453, 384, 203, 446, 487, 418, 15, 221, 151, 44, 429, 133, 351, 367, 70, 475, 327, 40, 381, 287, 270, 189, 444, 28, 105, 490, 238, 492, 406, 407, 6, 280, 274, 170, 497, 52, 2, 37, 31, 154, 197, 296, 36, 366, 226, 99, 438, 371, 419, 173, 302, 204, 152, 267, 428, 118, 103, 119, 186, 7, 456, 202, 143, 264, 188, 50, 196, 345, 400, 378, 246, 311, 92, 80, 282, 1, 19, 108, 32, 480, 293, 57, 364, 45, 233, 62, 47, 362, 111, 283, 130, 160, 484, 403, 335, 18, 390, 212, 410, 431, 12, 114, 231, 259, 136, 167, 228, 220, 121, 334, 448, 394, 115, 365, 176, 239, 38, 43, 442, 165, 489, 158, 174, 162, 460, 139, 191, 343, 59, 169, 387, 358, 385, 451, 485, 314, 79, 22, 269, 368, 232, 332, 91, 76, 11, 310, 266, 257, 298, 72, 237, 256, 242, 41, 399, 49, 9, 471, 341, 120, 216, 235, 205, 112, 304, 275, 35, 441, 243, 318, 87, 359, 500, 60, 469, 107, 413, 491, 319, 39, 61, 155, 436, 291, 55, 325, 488, 5, 163, 122, 262, 254, 159, 69, 201, 102, 404, 229, 134, 297, 94, 178, 180, 182, 156, 408, 433, 288, 312, 388, 135, 423, 252, 177, 292, 17, 401, 222, 67, 494, 405, 340, 309, 51, 476, 339, 373, 113, 360, 10, 227, 376, 187, 56, 499, 131, 450, 209, 110, 472, 208, 184, 474, 424, 461, 3, 213, 198, 127, 240, 123, 85, 109, 179, 164, 74, 416, 486, 66, 137, 420, 250, 78, 307, 172, 337, 290, 96, 277, 104, 374, 117, 363, 347, 445, 398, 482, 166, 383, 20, 68, 4, 255, 285, 65, 443, 192, 48, 346, 207, 338, 140, 279, 299, 33, 13, 223, 271, 317, 29, 260, 435, 308, 468, 289, 214, 295, 138, 397]</t>
+  </si>
+  <si>
+    <t>[338, 193, 458, 356, 451, 120, 177, 260, 180, 161, 307, 78, 98, 321, 218, 487, 284, 244, 333, 156, 255, 118, 79, 173, 246, 337, 238, 137, 467, 310, 483, 253, 71, 51, 150, 446, 325, 119, 86, 308, 208, 477, 402, 422, 292, 217, 485, 496, 163, 399, 400, 94, 350, 59, 182, 104, 171, 112, 371, 53, 257, 403, 490, 390, 47, 258, 277, 447, 123, 139, 93, 114, 323, 121, 1, 470, 293, 107, 339, 46, 4, 26, 181, 363, 224, 256, 463, 66, 11, 144, 20, 357, 96, 117, 189, 421, 229, 359, 389, 128, 228, 113, 166, 263, 197, 135, 294, 74, 92, 435, 285, 287, 129, 48, 202, 423, 497, 88, 261, 500, 227, 122, 176, 97, 81, 168, 290, 77, 89, 157, 366, 145, 84, 30, 315, 418, 169, 252, 450, 280, 268, 226, 480, 212, 431, 383, 64, 326, 278, 460, 474, 143, 243, 348, 385, 185, 140, 60, 395, 101, 31, 459, 439, 438, 205, 409, 295, 69, 305, 275, 72, 344, 58, 262, 300, 364, 407, 475, 172, 21, 3, 488, 354, 368, 334, 486, 230, 386, 240, 7, 192, 195, 425, 44, 367, 146, 267, 41, 479, 304, 456, 469, 272, 141, 404, 296, 436, 266, 282, 406, 391, 100, 377, 283, 335, 271, 276, 110, 216, 90, 39, 353, 102, 449, 198, 178, 219, 433, 316, 380, 151, 355, 254, 125, 482, 207, 489, 375, 437, 312, 311, 13, 153, 499, 365, 138, 379, 116, 61, 203, 63, 190, 361, 9, 412, 443, 453, 239, 160, 481, 411, 91, 36, 12, 401, 381, 162, 42, 164, 106, 468, 215, 245, 286, 54, 111, 420, 465, 291, 170, 165, 29, 484, 303, 65, 345, 387, 184, 175, 362, 396, 434, 464, 279, 214, 50, 388, 259, 324, 25, 158, 17, 34, 342, 426, 204, 249, 27, 473, 306, 5, 369, 6, 159, 370, 351, 133, 372, 273, 80, 85, 33, 302, 417, 131, 270, 373, 237, 201, 241, 200, 194, 327, 147, 393, 126, 493, 18, 392, 82, 309, 378, 174, 322, 223, 328, 187, 346, 183, 332, 55, 405, 70, 15, 38, 343, 83, 318, 299, 340, 235, 191, 8, 56, 349, 233, 247, 476, 108, 67, 211, 75, 124, 251, 462, 10, 269, 45, 196, 264, 130, 331, 444, 329, 248, 358, 222, 398, 234, 448, 347, 155, 136, 461, 105, 23, 87, 494, 466, 498, 427, 149, 452, 231, 188, 319, 384, 445, 99, 19, 16, 186, 288, 95, 397, 281, 40, 115, 49, 415, 142, 109, 341, 374, 57, 73, 274, 225, 213, 410, 455, 472, 242, 152, 491, 314, 352, 37, 394, 2, 154, 221, 376, 52, 413, 220, 24, 76, 132, 495, 43, 471, 148, 127, 68, 442, 424, 478, 408, 62, 454, 179, 432, 297, 360, 298, 289, 167, 430, 236, 320, 14, 22, 103, 419, 209, 35, 28, 301, 336, 199, 414, 210, 313, 206, 416, 134, 382, 32, 428, 330, 440, 492, 441, 265, 457, 429, 232, 250, 317]</t>
+  </si>
+  <si>
+    <t>[420, 107, 472, 313, 112, 20, 480, 496, 191, 270, 65, 462, 287, 163, 369, 40, 165, 220, 332, 250, 138, 413, 461, 28, 286, 254, 476, 70, 148, 229, 357, 342, 22, 402, 143, 242, 489, 56, 82, 122, 67, 388, 484, 257, 197, 335, 125, 114, 291, 439, 10, 158, 172, 307, 4, 3, 130, 142, 74, 400, 205, 41, 127, 15, 128, 228, 360, 91, 396, 430, 106, 379, 59, 156, 88, 395, 215, 361, 104, 409, 37, 289, 487, 46, 61, 49, 246, 457, 44, 243, 425, 392, 486, 196, 444, 449, 101, 241, 438, 281, 432, 277, 327, 446, 251, 161, 153, 349, 71, 213, 164, 398, 393, 39, 96, 119, 266, 27, 405, 159, 152, 428, 209, 235, 365, 118, 499, 325, 32, 285, 87, 447, 173, 31, 53, 297, 207, 45, 455, 21, 195, 464, 240, 95, 356, 330, 221, 468, 488, 120, 460, 187, 298, 247, 226, 200, 174, 465, 412, 494, 29, 381, 261, 377, 380, 216, 434, 375, 170, 11, 389, 366, 99, 424, 265, 219, 162, 453, 273, 93, 341, 340, 354, 54, 167, 146, 177, 374, 475, 68, 62, 288, 459, 147, 75, 239, 6, 295, 186, 382, 47, 201, 390, 206, 69, 269, 336, 431, 454, 490, 80, 222, 12, 451, 121, 427, 346, 290, 223, 433, 345, 110, 1, 456, 302, 363, 255, 140, 259, 303, 141, 124, 367, 309, 24, 258, 418, 333, 100, 208, 89, 218, 279, 264, 399, 385, 406, 193, 233, 408, 276, 145, 284, 129, 139, 500, 86, 50, 256, 231, 14, 271, 371, 132, 436, 267, 108, 249, 293, 157, 9, 278, 421, 262, 440, 225, 301, 353, 51, 25, 467, 387, 150, 194, 355, 493, 321, 474, 477, 43, 283, 429, 359, 175, 17, 483, 294, 78, 394, 85, 5, 391, 362, 214, 364, 212, 211, 192, 275, 492, 282, 426, 8, 383, 263, 184, 466, 79, 491, 407, 35, 234, 136, 237, 292, 312, 73, 57, 498, 437, 154, 272, 126, 245, 109, 322, 19, 315, 423, 16, 244, 416, 316, 305, 348, 90, 116, 227, 252, 268, 314, 232, 83, 441, 338, 58, 495, 458, 323, 319, 84, 417, 450, 97, 23, 274, 102, 324, 134, 337, 331, 189, 171, 178, 422, 304, 180, 299, 179, 13, 38, 469, 210, 224, 103, 77, 111, 123, 7, 479, 317, 347, 72, 115, 386, 181, 155, 485, 352, 160, 384, 98, 470, 92, 411, 280, 473, 183, 144, 370, 478, 230, 149, 26, 185, 199, 64, 137, 448, 328, 94, 204, 131, 397, 471, 217, 182, 443, 404, 463, 113, 36, 117, 300, 410, 248, 339, 320, 133, 334, 169, 30, 253, 202, 435, 318, 105, 166, 401, 63, 151, 310, 481, 368, 76, 373, 2, 135, 343, 445, 452, 48, 415, 497, 414, 260, 372, 188, 403, 176, 308, 236, 378, 329, 18, 238, 33, 66, 350, 60, 52, 482, 81, 296, 344, 419, 34, 55, 326, 311, 306, 168, 190, 198, 442, 376, 351, 203, 42, 358]</t>
+  </si>
+  <si>
+    <t>[35, 258, 56, 459, 259, 154, 241, 387, 424, 322, 157, 192, 139, 406, 308, 110, 211, 53, 332, 24, 105, 474, 212, 17, 90, 330, 47, 87, 283, 46, 8, 72, 335, 232, 253, 323, 201, 452, 51, 282, 58, 32, 431, 303, 405, 94, 280, 238, 413, 494, 307, 182, 117, 246, 189, 297, 34, 364, 78, 489, 95, 173, 205, 371, 16, 428, 240, 449, 492, 191, 311, 82, 37, 124, 106, 114, 190, 454, 355, 329, 315, 221, 137, 291, 251, 141, 193, 148, 401, 131, 108, 460, 159, 432, 85, 349, 86, 3, 76, 363, 1, 71, 203, 314, 393, 484, 60, 195, 497, 22, 187, 350, 409, 77, 80, 294, 36, 179, 164, 75, 98, 302, 298, 395, 206, 398, 299, 472, 153, 383, 498, 196, 126, 218, 304, 412, 14, 339, 262, 204, 93, 20, 81, 144, 411, 268, 418, 130, 340, 27, 487, 269, 132, 180, 422, 236, 451, 122, 115, 488, 321, 361, 66, 55, 379, 247, 167, 270, 7, 136, 92, 456, 284, 495, 309, 367, 145, 244, 389, 248, 423, 15, 65, 440, 448, 306, 465, 290, 42, 273, 272, 417, 276, 392, 324, 461, 111, 362, 491, 123, 25, 184, 194, 147, 287, 266, 277, 163, 84, 288, 416, 396, 88, 222, 103, 249, 305, 388, 316, 275, 478, 352, 369, 394, 402, 450, 260, 9, 425, 104, 41, 109, 198, 120, 334, 443, 175, 446, 264, 83, 407, 228, 202, 342, 171, 213, 295, 377, 464, 170, 420, 48, 338, 146, 265, 410, 445, 337, 149, 207, 438, 100, 286, 155, 433, 57, 274, 116, 481, 227, 348, 224, 430, 312, 142, 169, 245, 143, 347, 415, 237, 161, 365, 400, 261, 49, 296, 54, 4, 254, 113, 386, 453, 127, 210, 351, 226, 356, 28, 397, 255, 346, 89, 188, 176, 469, 473, 289, 172, 91, 256, 403, 252, 293, 479, 439, 140, 380, 21, 79, 471, 310, 320, 5, 219, 121, 69, 475, 150, 480, 468, 229, 10, 429, 45, 214, 64, 217, 23, 6, 336, 326, 390, 29, 271, 421, 197, 360, 477, 235, 370, 234, 325, 199, 279, 26, 30, 345, 499, 358, 467, 437, 118, 366, 341, 129, 382, 414, 152, 67, 73, 74, 313, 375, 183, 470, 52, 165, 278, 61, 230, 138, 166, 493, 162, 319, 457, 385, 300, 38, 215, 378, 200, 343, 135, 102, 318, 31, 486, 225, 133, 455, 357, 463, 462, 373, 327, 59, 482, 441, 384, 476, 239, 107, 208, 285, 444, 250, 496, 68, 62, 442, 292, 223, 178, 12, 408, 483, 40, 419, 96, 435, 263, 490, 391, 447, 267, 99, 209, 434, 344, 466, 436, 458, 372, 281, 331, 257, 50, 11, 243, 158, 374, 368, 13, 177, 33, 168, 134, 485, 181, 185, 44, 97, 404, 216, 376, 43, 242, 427, 18, 354, 2, 353, 160, 426, 19, 231, 399, 101, 70, 119, 328, 359, 128, 186, 63, 233, 125, 301, 381, 333, 220, 174, 317, 500, 156, 151, 39, 112]</t>
+  </si>
+  <si>
+    <t>[74, 388, 470, 320, 307, 293, 318, 299, 120, 444, 29, 437, 277, 377, 426, 239, 489, 24, 453, 151, 209, 112, 438, 395, 41, 244, 241, 478, 451, 222, 290, 203, 207, 447, 356, 374, 216, 312, 240, 250, 145, 223, 370, 339, 83, 412, 418, 269, 264, 149, 330, 68, 33, 25, 260, 192, 136, 350, 169, 326, 103, 55, 110, 379, 140, 479, 487, 342, 162, 265, 71, 47, 482, 201, 111, 50, 204, 179, 411, 28, 461, 237, 190, 481, 94, 433, 295, 386, 36, 468, 442, 70, 90, 194, 170, 60, 226, 56, 108, 135, 32, 139, 164, 490, 278, 372, 213, 276, 79, 439, 363, 3, 91, 76, 168, 107, 256, 46, 104, 58, 458, 11, 122, 495, 384, 142, 160, 394, 434, 113, 220, 405, 230, 7, 75, 424, 292, 87, 422, 309, 235, 84, 54, 183, 245, 43, 475, 138, 271, 66, 210, 343, 258, 349, 199, 429, 154, 144, 248, 8, 494, 233, 121, 335, 73, 353, 100, 483, 176, 266, 227, 316, 105, 153, 492, 257, 340, 463, 156, 282, 291, 158, 414, 196, 232, 155, 484, 187, 40, 333, 167, 465, 186, 428, 98, 53, 321, 440, 117, 373, 311, 202, 255, 13, 173, 21, 268, 114, 347, 17, 51, 417, 152, 20, 159, 376, 61, 116, 400, 352, 80, 407, 323, 435, 462, 310, 130, 86, 211, 270, 251, 42, 472, 195, 228, 234, 262, 399, 143, 259, 2, 403, 163, 5, 358, 285, 436, 457, 101, 306, 328, 380, 471, 455, 448, 147, 69, 89, 398, 197, 177, 324, 357, 315, 99, 27, 480, 348, 313, 16, 287, 115, 396, 132, 445, 221, 65, 345, 425, 298, 390, 303, 391, 217, 346, 236, 214, 337, 146, 95, 129, 362, 319, 432, 224, 497, 193, 97, 178, 85, 308, 254, 317, 39, 166, 397, 219, 385, 165, 249, 375, 157, 446, 67, 476, 9, 408, 382, 296, 406, 496, 119, 288, 161, 281, 267, 102, 327, 185, 218, 19, 302, 10, 191, 174, 297, 118, 354, 225, 206, 304, 14, 443, 81, 427, 469, 344, 49, 198, 252, 454, 109, 127, 131, 96, 467, 421, 82, 229, 301, 150, 404, 413, 243, 409, 371, 294, 184, 133, 23, 381, 368, 4, 499, 464, 78, 410, 274, 1, 253, 477, 378, 37, 359, 88, 137, 246, 63, 460, 231, 402, 341, 123, 365, 284, 52, 415, 18, 181, 171, 325, 106, 466, 473, 383, 366, 148, 263, 242, 351, 500, 334, 485, 175, 134, 430, 77, 416, 387, 305, 26, 441, 208, 493, 452, 300, 431, 393, 212, 6, 125, 12, 423, 392, 456, 189, 205, 261, 329, 283, 45, 332, 44, 180, 338, 491, 59, 486, 93, 172, 31, 215, 200, 247, 141, 331, 275, 419, 459, 289, 188, 64, 286, 62, 389, 38, 15, 361, 364, 124, 238, 369, 22, 182, 401, 367, 128, 57, 126, 474, 336, 498, 35, 355, 48, 92, 30, 488, 420, 273, 314, 449, 360, 72, 272, 280, 279, 450, 322, 34]</t>
+  </si>
+  <si>
+    <t>[120, 437, 388, 383, 17, 227, 284, 472, 232, 305, 457, 157, 416, 37, 148, 225, 269, 310, 454, 312, 334, 183, 190, 474, 98, 448, 294, 76, 27, 178, 300, 387, 355, 81, 322, 341, 495, 129, 302, 197, 239, 40, 441, 314, 398, 412, 19, 327, 45, 193, 9, 423, 324, 319, 103, 223, 403, 257, 455, 77, 376, 404, 297, 394, 108, 46, 170, 154, 296, 427, 168, 389, 174, 28, 91, 279, 4, 380, 486, 155, 149, 204, 7, 10, 263, 418, 321, 345, 400, 430, 442, 289, 124, 151, 224, 270, 132, 192, 315, 459, 480, 447, 491, 420, 360, 213, 342, 406, 69, 41, 364, 54, 381, 119, 497, 88, 261, 64, 467, 304, 47, 131, 169, 143, 385, 104, 490, 265, 446, 272, 392, 217, 139, 419, 477, 281, 433, 274, 164, 23, 323, 236, 253, 21, 285, 485, 48, 337, 458, 35, 463, 175, 439, 282, 487, 51, 111, 94, 167, 233, 158, 260, 5, 494, 338, 482, 247, 378, 481, 191, 86, 353, 52, 301, 357, 202, 358, 150, 466, 287, 395, 140, 252, 177, 426, 159, 198, 70, 205, 489, 475, 290, 43, 464, 429, 211, 422, 375, 411, 66, 313, 262, 49, 181, 61, 431, 99, 479, 123, 465, 212, 95, 413, 26, 152, 350, 456, 453, 101, 15, 354, 36, 468, 200, 435, 234, 100, 87, 405, 306, 171, 187, 417, 346, 31, 469, 240, 231, 173, 470, 206, 258, 186, 317, 329, 134, 39, 144, 18, 242, 63, 370, 333, 244, 373, 483, 24, 478, 460, 307, 436, 476, 351, 343, 293, 500, 42, 336, 268, 275, 348, 273, 118, 318, 276, 34, 462, 425, 249, 44, 106, 83, 245, 286, 71, 226, 397, 452, 50, 25, 6, 116, 115, 93, 32, 352, 62, 185, 283, 196, 473, 440, 238, 288, 153, 237, 180, 374, 311, 135, 137, 331, 58, 160, 55, 156, 443, 82, 203, 229, 332, 401, 219, 303, 386, 172, 450, 125, 20, 255, 85, 208, 84, 163, 361, 335, 407, 166, 259, 141, 30, 365, 445, 461, 22, 126, 215, 127, 68, 414, 73, 201, 60, 267, 218, 176, 493, 484, 199, 368, 145, 299, 230, 59, 182, 372, 421, 14, 80, 122, 498, 384, 408, 377, 29, 214, 316, 105, 499, 221, 74, 79, 117, 347, 320, 292, 241, 246, 330, 393, 251, 92, 235, 280, 67, 349, 128, 72, 366, 110, 391, 298, 138, 409, 194, 326, 162, 340, 438, 250, 492, 402, 97, 222, 325, 390, 277, 496, 161, 362, 382, 184, 121, 146, 243, 75, 356, 136, 8, 142, 309, 399, 216, 102, 12, 1, 471, 254, 210, 220, 424, 11, 432, 65, 369, 133, 371, 410, 207, 195, 379, 449, 89, 3, 396, 2, 130, 114, 415, 107, 113, 13, 112, 271, 451, 165, 444, 266, 109, 248, 56, 363, 308, 78, 90, 256, 188, 328, 147, 359, 33, 16, 295, 367, 53, 189, 428, 179, 344, 291, 96, 57, 209, 434, 488, 264, 228, 278, 339, 38]</t>
+  </si>
+  <si>
+    <t>[103, 231, 9, 42, 48, 378, 272, 469, 446, 471, 497, 33, 211, 459, 178, 355, 292, 180, 315, 236, 336, 234, 153, 197, 209, 379, 78, 102, 449, 92, 494, 2, 291, 472, 383, 323, 477, 104, 463, 367, 58, 394, 304, 72, 358, 298, 5, 283, 415, 79, 228, 140, 483, 123, 413, 254, 337, 455, 172, 423, 107, 27, 26, 226, 286, 68, 500, 424, 69, 297, 186, 453, 158, 302, 284, 89, 205, 221, 344, 63, 91, 345, 308, 451, 404, 326, 253, 411, 421, 193, 317, 452, 80, 20, 353, 470, 96, 329, 340, 216, 112, 427, 356, 111, 74, 128, 414, 362, 442, 7, 162, 45, 163, 81, 130, 485, 354, 349, 84, 392, 342, 87, 274, 409, 365, 434, 278, 240, 282, 346, 222, 419, 321, 41, 390, 257, 330, 318, 220, 348, 116, 301, 373, 202, 232, 267, 61, 175, 210, 167, 30, 34, 496, 407, 164, 3, 262, 157, 134, 384, 66, 224, 156, 320, 155, 447, 204, 173, 290, 245, 351, 493, 73, 187, 169, 402, 227, 332, 359, 76, 294, 31, 426, 327, 400, 436, 43, 289, 265, 117, 127, 215, 201, 94, 38, 360, 293, 428, 474, 331, 161, 229, 261, 495, 219, 484, 412, 198, 29, 35, 214, 208, 99, 44, 75, 339, 324, 106, 270, 143, 100, 83, 244, 319, 4, 408, 98, 464, 122, 223, 144, 418, 67, 299, 268, 387, 256, 28, 148, 174, 440, 6, 199, 139, 149, 150, 192, 393, 37, 456, 314, 481, 306, 252, 338, 388, 311, 109, 429, 391, 374, 239, 49, 170, 381, 40, 90, 296, 313, 307, 101, 200, 120, 19, 280, 86, 36, 341, 335, 454, 333, 417, 51, 11, 437, 300, 263, 475, 364, 264, 53, 357, 154, 64, 206, 171, 135, 8, 147, 399, 108, 71, 285, 203, 25, 406, 478, 316, 498, 410, 46, 176, 32, 13, 303, 368, 277, 487, 21, 462, 119, 190, 431, 376, 246, 160, 189, 17, 59, 396, 185, 492, 425, 468, 491, 310, 97, 145, 235, 82, 126, 124, 65, 191, 159, 137, 114, 295, 375, 136, 179, 350, 165, 138, 430, 121, 54, 70, 132, 405, 56, 247, 479, 88, 482, 398, 118, 361, 93, 322, 352, 255, 250, 115, 448, 439, 16, 131, 258, 465, 15, 433, 196, 450, 276, 225, 372, 489, 195, 188, 146, 480, 243, 435, 22, 183, 334, 305, 129, 133, 271, 266, 382, 251, 275, 249, 242, 466, 125, 473, 230, 1, 77, 57, 370, 490, 207, 152, 259, 371, 445, 460, 182, 269, 217, 432, 105, 403, 233, 369, 438, 110, 458, 476, 95, 312, 488, 113, 85, 288, 141, 50, 142, 194, 47, 168, 62, 443, 248, 441, 218, 325, 279, 60, 212, 457, 287, 14, 395, 273, 347, 389, 260, 23, 12, 52, 444, 10, 420, 486, 213, 461, 238, 177, 39, 55, 241, 386, 166, 467, 184, 377, 416, 18, 499, 281, 385, 181, 309, 401, 397, 151, 380, 363, 328, 366, 422, 343, 237, 24]</t>
+  </si>
+  <si>
+    <t>[100, 189, 81, 184, 481, 89, 36, 214, 465, 213, 4, 443, 403, 67, 196, 249, 381, 461, 363, 188, 488, 104, 329, 412, 372, 322, 243, 430, 27, 425, 68, 406, 16, 222, 86, 285, 211, 85, 106, 72, 293, 332, 121, 442, 439, 298, 269, 219, 174, 84, 127, 342, 353, 413, 441, 380, 273, 376, 235, 309, 38, 48, 96, 457, 470, 454, 277, 378, 192, 365, 358, 429, 289, 275, 15, 360, 297, 135, 250, 398, 404, 29, 95, 259, 22, 265, 78, 116, 493, 82, 286, 343, 165, 182, 225, 364, 383, 154, 335, 33, 53, 469, 6, 8, 487, 23, 345, 296, 75, 152, 435, 1, 108, 79, 193, 118, 41, 370, 57, 351, 167, 464, 91, 98, 176, 316, 408, 177, 420, 300, 339, 497, 138, 168, 110, 180, 252, 76, 239, 141, 307, 195, 446, 326, 337, 400, 264, 303, 101, 348, 32, 209, 45, 120, 199, 236, 272, 55, 132, 368, 334, 489, 191, 114, 318, 205, 387, 244, 131, 405, 208, 39, 181, 266, 25, 440, 452, 179, 377, 324, 26, 200, 153, 87, 280, 54, 426, 17, 418, 483, 74, 241, 401, 472, 223, 207, 312, 258, 341, 321, 356, 385, 308, 50, 262, 340, 288, 251, 105, 151, 499, 410, 279, 306, 140, 330, 227, 346, 11, 336, 379, 459, 299, 389, 238, 52, 447, 453, 281, 92, 344, 164, 136, 437, 287, 313, 359, 28, 242, 352, 415, 170, 146, 357, 417, 130, 185, 70, 142, 73, 226, 37, 88, 283, 69, 463, 12, 304, 382, 276, 157, 331, 64, 247, 421, 366, 102, 202, 139, 13, 397, 474, 391, 234, 218, 466, 40, 143, 433, 111, 268, 206, 498, 162, 18, 282, 494, 147, 94, 112, 491, 361, 35, 480, 327, 399, 42, 449, 31, 354, 107, 58, 198, 144, 328, 423, 21, 30, 166, 216, 455, 367, 9, 133, 362, 477, 56, 63, 212, 260, 240, 294, 80, 395, 230, 71, 186, 44, 428, 436, 149, 161, 292, 49, 61, 126, 109, 284, 402, 115, 305, 173, 204, 60, 51, 125, 333, 270, 217, 422, 190, 43, 407, 2, 350, 220, 129, 323, 373, 128, 103, 155, 83, 158, 419, 248, 228, 47, 256, 119, 124, 172, 325, 183, 271, 476, 290, 484, 117, 291, 320, 424, 338, 122, 163, 187, 237, 485, 90, 475, 24, 178, 231, 311, 386, 369, 384, 175, 301, 467, 203, 314, 460, 267, 62, 371, 444, 137, 257, 221, 315, 245, 10, 20, 347, 427, 14, 171, 390, 349, 19, 456, 448, 478, 394, 197, 210, 462, 7, 99, 411, 319, 201, 3, 432, 492, 479, 473, 438, 150, 59, 194, 388, 156, 495, 134, 278, 224, 414, 5, 451, 468, 409, 431, 159, 160, 392, 434, 148, 471, 145, 450, 253, 500, 486, 482, 255, 490, 393, 496, 233, 93, 77, 374, 458, 65, 355, 263, 261, 375, 310, 295, 97, 113, 302, 46, 396, 232, 445, 215, 123, 274, 229, 169, 34, 254, 317, 416, 66, 246]</t>
+  </si>
+  <si>
+    <t>[350, 364, 122, 211, 383, 112, 272, 13, 119, 286, 361, 53, 155, 330, 456, 233, 275, 346, 277, 61, 339, 52, 240, 108, 235, 313, 78, 375, 29, 283, 162, 242, 118, 435, 129, 404, 33, 264, 338, 413, 295, 273, 443, 472, 179, 81, 416, 372, 310, 39, 377, 352, 168, 392, 497, 98, 66, 457, 101, 415, 370, 59, 65, 54, 9, 300, 429, 74, 190, 356, 374, 293, 343, 198, 209, 8, 494, 130, 92, 79, 385, 31, 402, 389, 473, 138, 302, 406, 312, 431, 183, 238, 50, 34, 193, 254, 217, 487, 367, 500, 452, 458, 471, 173, 285, 430, 409, 437, 444, 362, 327, 166, 116, 291, 380, 232, 280, 234, 270, 201, 379, 69, 177, 464, 354, 331, 123, 230, 212, 187, 363, 407, 445, 434, 20, 243, 410, 373, 359, 281, 324, 438, 296, 192, 453, 214, 62, 467, 159, 365, 91, 386, 84, 47, 26, 378, 7, 241, 316, 479, 128, 420, 221, 459, 165, 149, 114, 46, 103, 111, 200, 203, 347, 448, 199, 304, 447, 163, 279, 469, 228, 109, 395, 425, 369, 439, 314, 382, 345, 36, 195, 474, 301, 256, 411, 224, 288, 175, 328, 265, 268, 476, 222, 174, 151, 206, 30, 321, 499, 231, 68, 139, 143, 465, 492, 178, 450, 436, 298, 3, 287, 42, 147, 24, 269, 142, 95, 260, 11, 357, 225, 161, 262, 236, 226, 82, 276, 355, 237, 189, 246, 387, 394, 38, 292, 85, 152, 105, 309, 71, 172, 408, 104, 15, 274, 368, 461, 340, 318, 449, 60, 390, 48, 167, 131, 213, 323, 180, 106, 282, 70, 384, 86, 311, 344, 290, 400, 127, 267, 477, 278, 360, 306, 4, 423, 332, 335, 421, 326, 16, 150, 485, 348, 25, 35, 422, 77, 40, 371, 294, 349, 460, 496, 251, 325, 329, 486, 412, 207, 250, 433, 197, 229, 67, 135, 284, 32, 320, 299, 483, 401, 403, 341, 399, 188, 93, 181, 495, 115, 305, 75, 428, 37, 466, 125, 463, 257, 23, 266, 107, 202, 110, 398, 427, 489, 376, 334, 76, 289, 10, 397, 446, 88, 14, 97, 170, 156, 132, 381, 418, 141, 145, 488, 432, 253, 157, 247, 64, 258, 475, 322, 417, 263, 319, 468, 63, 49, 41, 337, 58, 22, 405, 169, 164, 259, 184, 19, 366, 491, 204, 271, 426, 186, 482, 57, 44, 484, 51, 94, 196, 140, 6, 133, 239, 244, 100, 478, 227, 220, 191, 219, 27, 440, 45, 317, 154, 158, 194, 215, 223, 185, 113, 83, 442, 160, 124, 102, 146, 249, 55, 148, 252, 336, 2, 297, 18, 470, 208, 351, 353, 424, 462, 56, 490, 451, 136, 12, 43, 261, 96, 358, 388, 248, 171, 255, 182, 218, 117, 121, 99, 391, 480, 481, 307, 153, 308, 455, 498, 80, 1, 134, 126, 396, 137, 120, 315, 73, 493, 90, 210, 441, 333, 245, 414, 17, 342, 393, 419, 21, 205, 454, 28, 144, 87, 176, 5, 89, 216, 303, 72]</t>
+  </si>
+  <si>
+    <t>[231, 245, 450, 194, 271, 414, 24, 394, 449, 285, 340, 344, 422, 435, 111, 355, 120, 151, 431, 290, 88, 221, 436, 45, 174, 416, 487, 430, 164, 215, 172, 55, 71, 206, 220, 208, 393, 7, 5, 313, 244, 499, 189, 102, 334, 454, 10, 99, 441, 388, 445, 143, 474, 212, 331, 15, 266, 69, 417, 448, 158, 103, 23, 391, 251, 125, 97, 85, 53, 183, 169, 211, 420, 30, 127, 348, 352, 330, 117, 413, 224, 307, 286, 458, 423, 405, 14, 210, 60, 345, 469, 41, 258, 94, 360, 447, 452, 459, 77, 249, 376, 141, 193, 297, 195, 333, 357, 79, 225, 361, 284, 379, 179, 255, 317, 457, 418, 407, 67, 197, 196, 338, 463, 9, 166, 29, 465, 167, 243, 240, 482, 365, 184, 42, 453, 237, 480, 76, 126, 366, 242, 496, 35, 36, 86, 92, 159, 21, 181, 91, 113, 31, 432, 52, 477, 439, 48, 356, 139, 342, 160, 28, 64, 105, 490, 398, 337, 140, 78, 157, 259, 59, 38, 106, 18, 479, 428, 495, 427, 123, 302, 130, 13, 440, 377, 396, 320, 261, 115, 34, 57, 171, 308, 381, 409, 268, 200, 318, 144, 87, 346, 250, 185, 351, 56, 165, 275, 121, 332, 152, 133, 236, 33, 209, 238, 257, 178, 494, 260, 295, 100, 287, 406, 47, 421, 390, 3, 455, 456, 278, 305, 122, 51, 443, 229, 191, 155, 128, 425, 39, 353, 274, 63, 464, 363, 375, 372, 339, 392, 434, 262, 207, 279, 156, 400, 204, 267, 66, 146, 150, 491, 46, 478, 492, 247, 198, 476, 291, 68, 298, 451, 138, 299, 163, 61, 301, 256, 429, 293, 328, 129, 219, 437, 315, 252, 65, 433, 335, 254, 309, 321, 6, 101, 500, 411, 343, 84, 216, 186, 403, 424, 17, 273, 306, 227, 74, 228, 83, 378, 485, 281, 153, 148, 350, 16, 81, 104, 282, 395, 475, 201, 137, 374, 325, 116, 235, 131, 44, 190, 4, 12, 22, 442, 161, 467, 73, 292, 176, 324, 461, 336, 214, 241, 303, 1, 498, 192, 89, 385, 223, 177, 40, 347, 426, 205, 27, 272, 484, 404, 20, 136, 25, 483, 149, 182, 11, 43, 364, 311, 383, 239, 233, 248, 288, 2, 472, 316, 19, 232, 58, 341, 54, 470, 386, 107, 367, 322, 314, 283, 246, 323, 145, 359, 362, 95, 110, 384, 349, 473, 264, 410, 187, 93, 327, 312, 270, 497, 49, 175, 370, 294, 134, 173, 488, 326, 481, 371, 170, 124, 460, 80, 112, 276, 277, 310, 8, 408, 119, 296, 489, 369, 26, 466, 419, 253, 380, 37, 226, 217, 368, 82, 75, 263, 401, 234, 265, 397, 213, 358, 319, 444, 304, 32, 399, 96, 203, 289, 199, 109, 230, 162, 329, 471, 462, 154, 280, 108, 132, 412, 269, 72, 222, 90, 147, 62, 114, 382, 387, 142, 402, 438, 389, 486, 300, 50, 373, 188, 218, 135, 118, 468, 415, 168, 98, 354, 70, 446, 493, 180, 202]</t>
+  </si>
+  <si>
+    <t>[414, 120, 434, 462, 353, 7, 330, 439, 84, 27, 266, 57, 378, 444, 363, 287, 495, 385, 209, 210, 220, 313, 77, 50, 426, 25, 219, 389, 306, 470, 500, 275, 3, 334, 327, 499, 250, 194, 54, 482, 173, 91, 229, 419, 302, 149, 41, 153, 488, 457, 176, 430, 494, 387, 181, 4, 384, 364, 438, 486, 401, 55, 466, 130, 207, 354, 344, 96, 312, 205, 235, 299, 138, 346, 178, 60, 268, 15, 271, 155, 248, 132, 122, 227, 216, 367, 449, 404, 256, 21, 137, 433, 9, 290, 322, 230, 31, 332, 437, 375, 380, 187, 206, 40, 335, 12, 350, 249, 20, 323, 321, 218, 472, 381, 303, 242, 473, 150, 107, 39, 400, 129, 192, 159, 29, 157, 165, 376, 252, 405, 233, 471, 359, 52, 172, 28, 317, 8, 148, 349, 458, 100, 251, 297, 478, 412, 477, 119, 456, 315, 362, 68, 455, 270, 115, 496, 226, 298, 193, 402, 279, 239, 493, 79, 184, 80, 95, 272, 213, 64, 342, 435, 17, 369, 451, 185, 238, 301, 204, 113, 160, 417, 399, 245, 427, 289, 292, 352, 32, 200, 123, 234, 201, 454, 48, 26, 82, 126, 338, 67, 442, 373, 278, 452, 345, 273, 76, 212, 46, 448, 98, 174, 246, 164, 255, 386, 203, 236, 431, 134, 308, 440, 85, 188, 366, 70, 277, 102, 421, 214, 300, 468, 78, 320, 459, 469, 44, 328, 106, 24, 356, 146, 490, 171, 411, 365, 19, 498, 198, 415, 423, 261, 154, 163, 282, 453, 324, 447, 281, 237, 33, 223, 108, 295, 358, 257, 390, 264, 56, 93, 156, 224, 408, 443, 461, 480, 5, 475, 388, 307, 133, 1, 422, 398, 161, 51, 267, 329, 351, 225, 208, 13, 118, 49, 177, 370, 410, 228, 197, 232, 291, 211, 53, 357, 325, 89, 392, 97, 492, 169, 47, 409, 424, 283, 420, 83, 217, 371, 199, 294, 135, 2, 65, 491, 318, 383, 166, 167, 58, 61, 382, 260, 497, 183, 147, 393, 112, 391, 151, 142, 310, 117, 168, 231, 337, 143, 446, 374, 127, 340, 74, 69, 72, 479, 489, 276, 128, 343, 253, 111, 195, 10, 140, 326, 18, 355, 481, 280, 86, 396, 144, 73, 288, 30, 368, 331, 397, 243, 403, 247, 445, 11, 293, 22, 136, 43, 314, 348, 296, 110, 360, 347, 6, 262, 221, 116, 75, 182, 162, 170, 416, 460, 81, 99, 222, 152, 16, 87, 465, 92, 394, 484, 240, 485, 104, 94, 377, 487, 101, 341, 274, 265, 464, 428, 59, 66, 309, 34, 441, 139, 37, 467, 395, 63, 114, 105, 336, 413, 269, 14, 361, 125, 88, 450, 175, 436, 189, 202, 406, 258, 180, 71, 191, 103, 305, 432, 254, 179, 425, 316, 319, 476, 285, 36, 284, 45, 145, 483, 35, 429, 263, 244, 124, 379, 463, 311, 474, 418, 333, 90, 215, 372, 339, 304, 286, 158, 407, 109, 259, 241, 42, 121, 186, 190, 38, 141, 62, 131, 23, 196]</t>
+  </si>
+  <si>
+    <t>[364, 483, 112, 219, 251, 319, 164, 482, 87, 447, 134, 350, 365, 436, 184, 491, 183, 108, 200, 435, 58, 129, 18, 324, 340, 428, 498, 50, 128, 279, 291, 395, 465, 84, 167, 429, 79, 495, 386, 259, 273, 286, 252, 284, 14, 457, 191, 359, 334, 431, 394, 244, 74, 161, 249, 52, 355, 470, 450, 51, 218, 374, 57, 170, 363, 65, 37, 343, 21, 104, 403, 2, 136, 247, 193, 127, 140, 238, 299, 303, 497, 439, 342, 349, 480, 290, 239, 245, 493, 32, 372, 375, 392, 258, 241, 85, 243, 413, 270, 315, 296, 292, 44, 370, 187, 317, 46, 25, 448, 438, 169, 113, 213, 82, 109, 94, 73, 33, 485, 297, 207, 318, 7, 72, 106, 158, 437, 103, 384, 271, 157, 433, 196, 414, 253, 313, 410, 254, 460, 449, 71, 314, 423, 147, 137, 3, 172, 371, 289, 381, 325, 388, 224, 471, 415, 204, 203, 120, 210, 379, 337, 255, 377, 382, 466, 260, 151, 228, 347, 202, 345, 420, 92, 329, 269, 75, 332, 408, 130, 42, 146, 417, 398, 35, 250, 467, 148, 61, 400, 300, 12, 490, 152, 56, 182, 492, 15, 494, 453, 90, 487, 216, 459, 227, 416, 60, 440, 27, 462, 59, 176, 234, 88, 11, 419, 16, 4, 47, 390, 91, 154, 49, 155, 358, 19, 233, 444, 248, 168, 86, 246, 181, 452, 464, 411, 425, 174, 105, 222, 322, 126, 432, 441, 83, 475, 476, 138, 116, 48, 177, 262, 473, 195, 412, 293, 165, 278, 277, 266, 383, 446, 445, 455, 153, 121, 461, 93, 217, 468, 393, 211, 89, 118, 426, 421, 143, 22, 373, 215, 64, 321, 43, 122, 159, 275, 36, 320, 40, 66, 17, 285, 198, 26, 478, 209, 327, 230, 352, 294, 338, 469, 360, 34, 356, 310, 406, 272, 179, 489, 366, 427, 38, 481, 458, 404, 101, 236, 376, 397, 190, 30, 305, 454, 387, 132, 242, 396, 263, 23, 28, 405, 81, 474, 418, 281, 333, 100, 336, 311, 54, 237, 20, 430, 274, 111, 163, 287, 351, 369, 208, 472, 362, 206, 328, 401, 323, 119, 339, 95, 142, 346, 45, 171, 312, 115, 276, 31, 199, 301, 357, 156, 194, 344, 221, 180, 368, 367, 39, 192, 298, 24, 424, 348, 6, 402, 353, 8, 385, 235, 488, 288, 70, 135, 380, 240, 484, 125, 99, 232, 226, 149, 117, 110, 96, 257, 102, 53, 5, 41, 63, 186, 55, 378, 280, 139, 62, 268, 201, 10, 76, 265, 308, 477, 69, 302, 124, 205, 306, 391, 331, 361, 123, 282, 267, 407, 434, 304, 500, 225, 354, 214, 264, 67, 29, 499, 133, 1, 295, 479, 283, 223, 341, 399, 98, 316, 78, 68, 463, 178, 107, 173, 220, 422, 335, 166, 145, 326, 330, 114, 13, 144, 131, 231, 9, 451, 307, 162, 189, 309, 97, 150, 80, 185, 443, 188, 175, 77, 486, 141, 409, 456, 197, 442, 229, 261, 389, 496, 212, 160, 256]</t>
+  </si>
+  <si>
+    <t>[148, 165, 376, 361, 191, 366, 46, 500, 216, 349, 391, 89, 37, 111, 293, 394, 419, 304, 334, 115, 393, 444, 469, 446, 230, 339, 168, 197, 76, 83, 50, 172, 87, 384, 316, 2, 428, 447, 417, 91, 255, 379, 177, 435, 370, 434, 355, 297, 243, 3, 131, 351, 190, 32, 22, 408, 332, 460, 492, 303, 79, 141, 429, 360, 176, 281, 405, 271, 377, 452, 448, 496, 23, 359, 426, 282, 204, 235, 256, 53, 223, 479, 436, 109, 126, 116, 127, 147, 354, 476, 466, 279, 222, 162, 136, 93, 33, 461, 24, 315, 78, 224, 407, 110, 26, 242, 273, 382, 403, 331, 369, 56, 380, 80, 246, 274, 99, 381, 470, 478, 101, 128, 95, 424, 225, 77, 41, 117, 455, 341, 132, 475, 4, 308, 458, 134, 329, 480, 383, 31, 92, 471, 66, 306, 425, 406, 18, 48, 30, 206, 260, 200, 155, 122, 397, 64, 174, 390, 129, 347, 43, 326, 410, 158, 244, 238, 375, 7, 153, 16, 267, 157, 20, 324, 362, 414, 283, 189, 138, 292, 142, 463, 193, 400, 108, 489, 368, 490, 498, 28, 149, 202, 220, 272, 105, 350, 140, 143, 169, 356, 67, 305, 173, 450, 96, 167, 275, 60, 192, 319, 175, 318, 248, 152, 125, 396, 229, 364, 459, 68, 353, 443, 365, 166, 21, 287, 145, 213, 151, 214, 70, 320, 38, 420, 474, 493, 298, 73, 462, 363, 161, 265, 10, 433, 261, 187, 302, 57, 465, 84, 486, 205, 195, 240, 456, 217, 194, 482, 188, 266, 69, 497, 19, 130, 432, 97, 232, 42, 106, 107, 483, 103, 284, 85, 36, 227, 247, 201, 310, 63, 322, 228, 409, 327, 75, 154, 416, 294, 113, 295, 333, 291, 6, 212, 82, 12, 411, 387, 440, 268, 484, 9, 378, 321, 249, 264, 418, 392, 98, 389, 207, 413, 179, 59, 449, 442, 325, 11, 34, 401, 124, 160, 8, 182, 441, 196, 183, 346, 367, 226, 399, 445, 170, 342, 290, 412, 14, 181, 237, 485, 112, 184, 164, 234, 352, 371, 296, 337, 374, 219, 276, 118, 25, 209, 277, 431, 100, 236, 453, 451, 156, 146, 422, 81, 285, 404, 457, 286, 388, 477, 309, 139, 215, 499, 402, 233, 340, 421, 257, 269, 345, 314, 437, 199, 385, 386, 119, 491, 343, 495, 488, 395, 311, 27, 62, 289, 251, 373, 312, 163, 430, 415, 137, 114, 133, 210, 357, 338, 241, 335, 150, 288, 198, 473, 49, 178, 45, 185, 253, 135, 468, 245, 300, 423, 5, 72, 29, 438, 218, 464, 472, 258, 102, 123, 454, 211, 250, 439, 467, 74, 13, 336, 47, 372, 263, 120, 427, 90, 252, 317, 398, 270, 330, 481, 221, 280, 203, 61, 231, 299, 54, 55, 159, 307, 71, 328, 186, 65, 301, 15, 171, 208, 254, 313, 35, 1, 239, 180, 104, 344, 58, 51, 278, 144, 52, 39, 323, 348, 40, 358, 44, 94, 494, 487, 121, 86, 88, 17, 259, 262]</t>
+  </si>
+  <si>
+    <t>[164, 71, 8, 322, 7, 256, 396, 333, 369, 57, 233, 107, 386, 365, 189, 494, 419, 62, 306, 254, 496, 493, 259, 23, 469, 242, 105, 4, 362, 353, 370, 5, 331, 438, 72, 170, 40, 136, 417, 45, 380, 22, 131, 241, 473, 190, 96, 102, 202, 182, 90, 186, 269, 499, 125, 19, 450, 289, 3, 58, 326, 295, 163, 21, 114, 465, 372, 348, 432, 251, 175, 399, 129, 162, 492, 319, 2, 474, 28, 285, 205, 491, 77, 294, 284, 323, 337, 413, 466, 411, 161, 113, 463, 299, 50, 281, 286, 206, 497, 199, 361, 297, 25, 406, 35, 200, 324, 416, 345, 274, 168, 378, 252, 400, 224, 36, 81, 92, 144, 364, 387, 94, 347, 47, 153, 41, 462, 486, 267, 222, 246, 208, 485, 449, 204, 119, 139, 342, 180, 192, 481, 198, 24, 49, 447, 409, 429, 266, 138, 34, 142, 382, 148, 292, 214, 344, 64, 302, 277, 73, 250, 201, 418, 263, 112, 15, 13, 166, 249, 343, 11, 290, 328, 477, 310, 203, 318, 402, 79, 44, 377, 305, 381, 16, 155, 240, 106, 244, 279, 152, 66, 300, 165, 459, 358, 117, 398, 376, 121, 433, 146, 27, 1, 467, 98, 385, 404, 187, 461, 304, 197, 157, 225, 53, 296, 434, 476, 48, 110, 308, 80, 264, 340, 70, 415, 91, 280, 52, 301, 100, 360, 287, 213, 341, 500, 39, 356, 85, 316, 442, 156, 211, 154, 232, 397, 135, 237, 210, 231, 388, 283, 309, 59, 133, 430, 425, 349, 443, 444, 273, 495, 247, 137, 272, 357, 408, 307, 43, 123, 395, 69, 436, 38, 351, 172, 355, 65, 248, 209, 122, 228, 366, 111, 253, 183, 448, 421, 160, 339, 229, 99, 20, 42, 330, 470, 109, 10, 115, 414, 76, 116, 446, 207, 83, 173, 472, 314, 454, 338, 375, 490, 458, 127, 261, 67, 185, 103, 243, 455, 151, 489, 371, 167, 134, 54, 350, 435, 181, 230, 428, 128, 291, 401, 410, 238, 390, 303, 320, 275, 327, 329, 6, 394, 74, 484, 212, 407, 14, 383, 452, 422, 108, 488, 188, 373, 84, 30, 86, 216, 389, 221, 471, 260, 403, 29, 359, 150, 257, 145, 126, 227, 147, 235, 239, 171, 60, 193, 298, 12, 346, 352, 51, 437, 149, 262, 88, 420, 87, 311, 440, 226, 321, 178, 368, 475, 379, 194, 176, 445, 31, 293, 158, 46, 32, 270, 132, 143, 101, 26, 191, 392, 423, 17, 363, 195, 75, 159, 282, 245, 334, 312, 218, 478, 271, 120, 61, 223, 56, 268, 482, 412, 464, 177, 104, 453, 93, 278, 451, 220, 460, 141, 441, 219, 325, 118, 332, 184, 317, 288, 169, 33, 18, 374, 9, 424, 487, 63, 215, 258, 405, 391, 196, 313, 427, 315, 276, 498, 97, 179, 479, 174, 483, 130, 457, 265, 439, 426, 37, 82, 335, 234, 336, 431, 354, 217, 367, 89, 384, 480, 468, 68, 255, 393, 456, 140, 124, 78, 236, 95, 55]</t>
+  </si>
+  <si>
+    <t>[102, 217, 164, 289, 258, 411, 415, 159, 20, 485, 36, 110, 250, 179, 275, 31, 238, 446, 112, 307, 173, 296, 397, 418, 323, 405, 371, 294, 364, 385, 263, 500, 358, 342, 204, 401, 470, 292, 148, 283, 246, 195, 59, 151, 129, 382, 443, 230, 123, 26, 472, 304, 327, 162, 141, 229, 359, 261, 245, 279, 448, 319, 126, 209, 109, 33, 91, 477, 295, 127, 68, 392, 402, 199, 21, 273, 493, 458, 128, 301, 430, 437, 300, 251, 142, 6, 375, 298, 237, 303, 64, 389, 56, 288, 157, 236, 82, 440, 390, 223, 49, 197, 193, 177, 215, 143, 456, 442, 11, 203, 134, 227, 71, 100, 210, 407, 434, 343, 329, 194, 484, 325, 368, 488, 471, 346, 308, 117, 424, 122, 317, 116, 233, 341, 75, 266, 144, 234, 78, 332, 221, 65, 202, 9, 391, 27, 276, 386, 225, 205, 340, 409, 262, 192, 452, 131, 16, 108, 107, 96, 163, 324, 428, 81, 321, 388, 384, 422, 431, 403, 99, 353, 444, 12, 254, 239, 111, 345, 410, 190, 322, 86, 383, 333, 394, 24, 37, 58, 40, 475, 393, 362, 313, 155, 104, 63, 291, 387, 285, 408, 351, 331, 356, 52, 481, 365, 30, 105, 468, 318, 80, 46, 454, 467, 106, 180, 357, 299, 278, 474, 103, 240, 366, 72, 376, 115, 166, 54, 259, 198, 214, 450, 213, 249, 95, 118, 119, 451, 363, 200, 378, 146, 188, 334, 231, 222, 420, 349, 41, 137, 101, 242, 339, 185, 355, 147, 22, 39, 373, 398, 67, 372, 466, 138, 396, 265, 326, 416, 425, 253, 114, 92, 187, 165, 360, 282, 464, 69, 167, 219, 311, 496, 191, 255, 486, 8, 93, 406, 216, 274, 497, 53, 38, 218, 482, 286, 256, 489, 224, 176, 73, 374, 347, 312, 367, 352, 267, 178, 4, 344, 260, 120, 79, 23, 139, 293, 330, 369, 252, 462, 90, 417, 337, 427, 84, 60, 121, 136, 158, 478, 498, 55, 280, 433, 455, 483, 183, 189, 232, 174, 379, 43, 413, 62, 77, 89, 87, 47, 149, 85, 140, 160, 338, 5, 168, 380, 244, 461, 132, 310, 3, 354, 154, 491, 196, 45, 247, 35, 453, 208, 257, 135, 435, 18, 469, 320, 169, 32, 156, 125, 426, 206, 414, 34, 284, 170, 28, 13, 181, 130, 445, 499, 463, 492, 124, 150, 302, 473, 182, 171, 271, 429, 495, 161, 277, 74, 400, 421, 290, 315, 211, 212, 335, 201, 457, 42, 350, 459, 51, 490, 44, 145, 316, 336, 50, 70, 449, 172, 2, 243, 76, 1, 370, 153, 487, 175, 15, 184, 476, 29, 241, 113, 494, 419, 399, 377, 186, 309, 439, 66, 152, 48, 441, 220, 269, 328, 361, 235, 395, 438, 423, 248, 287, 270, 88, 348, 436, 479, 297, 14, 264, 465, 17, 19, 268, 226, 381, 228, 306, 83, 25, 57, 98, 305, 432, 272, 61, 133, 207, 404, 94, 314, 447, 7, 412, 480, 460, 281, 97, 10]</t>
+  </si>
+  <si>
+    <t>[315, 333, 453, 262, 422, 55, 32, 374, 87, 449, 321, 127, 220, 67, 381, 376, 223, 404, 159, 434, 498, 21, 314, 480, 143, 185, 442, 140, 129, 53, 269, 439, 318, 272, 40, 412, 23, 474, 469, 316, 261, 157, 9, 145, 24, 75, 71, 326, 368, 206, 39, 338, 384, 293, 121, 259, 268, 165, 409, 294, 156, 120, 465, 184, 44, 5, 320, 188, 136, 146, 274, 475, 56, 212, 239, 264, 78, 244, 251, 63, 180, 371, 271, 345, 400, 247, 340, 278, 119, 149, 386, 107, 327, 238, 281, 89, 8, 205, 112, 203, 393, 28, 471, 91, 226, 299, 47, 373, 109, 61, 30, 410, 500, 331, 224, 296, 468, 74, 388, 161, 151, 398, 207, 27, 493, 423, 346, 171, 484, 182, 248, 394, 265, 135, 111, 7, 245, 430, 12, 308, 290, 348, 403, 219, 273, 66, 69, 11, 228, 304, 199, 473, 369, 328, 234, 310, 26, 194, 419, 142, 175, 416, 98, 152, 450, 15, 59, 401, 51, 354, 218, 421, 230, 131, 229, 307, 168, 60, 243, 405, 440, 284, 313, 198, 406, 48, 377, 336, 138, 50, 490, 358, 359, 420, 441, 95, 397, 213, 20, 458, 343, 492, 147, 481, 2, 162, 22, 141, 36, 351, 438, 431, 210, 18, 37, 418, 160, 364, 298, 187, 217, 411, 105, 433, 29, 289, 383, 462, 424, 260, 103, 395, 70, 408, 319, 361, 1, 467, 110, 489, 311, 211, 164, 246, 324, 279, 375, 62, 99, 130, 252, 116, 349, 191, 417, 43, 35, 454, 58, 444, 342, 80, 487, 90, 275, 122, 106, 257, 446, 372, 463, 379, 10, 34, 215, 236, 470, 253, 115, 88, 378, 150, 202, 483, 154, 476, 54, 443, 392, 488, 114, 291, 482, 86, 486, 270, 353, 366, 178, 382, 42, 25, 139, 466, 237, 276, 83, 4, 133, 57, 38, 241, 221, 240, 370, 196, 344, 176, 360, 183, 134, 52, 117, 356, 352, 322, 334, 166, 33, 367, 335, 193, 390, 189, 297, 153, 216, 65, 209, 41, 173, 167, 457, 477, 339, 460, 132, 295, 357, 341, 79, 49, 387, 181, 303, 456, 169, 425, 125, 402, 350, 45, 113, 317, 432, 148, 197, 389, 496, 72, 242, 445, 494, 427, 97, 302, 84, 31, 249, 323, 347, 267, 250, 76, 14, 258, 144, 428, 309, 64, 77, 447, 282, 455, 81, 19, 300, 13, 85, 104, 429, 68, 452, 192, 92, 201, 288, 435, 464, 332, 232, 108, 155, 16, 385, 100, 163, 235, 263, 285, 256, 208, 283, 292, 128, 495, 337, 355, 118, 190, 102, 82, 301, 414, 287, 6, 170, 363, 225, 286, 126, 329, 255, 123, 362, 426, 485, 305, 101, 391, 46, 497, 277, 222, 330, 204, 93, 73, 280, 459, 137, 437, 448, 365, 266, 478, 499, 17, 174, 491, 451, 396, 195, 214, 399, 233, 3, 200, 325, 172, 415, 407, 306, 461, 186, 472, 227, 158, 312, 413, 177, 94, 380, 124, 231, 254, 96, 436, 479, 179]</t>
+  </si>
+  <si>
+    <t>[248, 419, 162, 331, 447, 13, 372, 44, 267, 297, 83, 164, 184, 398, 192, 308, 352, 30, 110, 480, 497, 282, 494, 355, 383, 478, 291, 215, 477, 310, 324, 186, 444, 72, 466, 317, 253, 406, 11, 467, 129, 316, 238, 203, 276, 257, 71, 245, 261, 481, 99, 443, 94, 380, 415, 416, 62, 35, 90, 359, 247, 100, 128, 485, 243, 31, 338, 381, 301, 21, 307, 423, 330, 328, 437, 22, 431, 493, 464, 322, 122, 53, 288, 279, 295, 2, 3, 120, 178, 353, 320, 425, 195, 269, 435, 465, 405, 228, 87, 265, 117, 103, 52, 260, 33, 303, 89, 199, 268, 148, 174, 343, 340, 10, 118, 360, 188, 227, 175, 239, 385, 111, 86, 109, 14, 38, 76, 102, 16, 361, 237, 270, 224, 133, 318, 394, 196, 309, 40, 191, 158, 78, 321, 445, 271, 48, 390, 459, 92, 231, 439, 74, 460, 472, 302, 8, 220, 304, 438, 204, 98, 362, 280, 254, 5, 407, 57, 46, 189, 32, 337, 64, 70, 36, 63, 241, 354, 283, 193, 249, 187, 168, 185, 127, 281, 314, 375, 299, 47, 154, 34, 142, 382, 255, 492, 344, 177, 183, 194, 274, 264, 153, 221, 190, 262, 143, 61, 85, 426, 325, 124, 169, 449, 121, 462, 225, 73, 173, 258, 67, 500, 369, 412, 490, 418, 315, 55, 495, 474, 147, 116, 106, 200, 408, 59, 273, 232, 277, 219, 119, 305, 105, 428, 294, 384, 399, 402, 201, 4, 329, 278, 409, 107, 1, 205, 144, 84, 422, 453, 335, 424, 136, 454, 51, 138, 366, 448, 146, 155, 341, 363, 336, 159, 259, 429, 326, 166, 152, 27, 496, 60, 392, 242, 113, 286, 263, 373, 149, 226, 23, 319, 123, 81, 461, 367, 287, 42, 357, 156, 18, 97, 364, 12, 395, 393, 75, 479, 234, 476, 290, 170, 167, 413, 427, 49, 491, 240, 356, 433, 275, 96, 108, 179, 58, 7, 6, 210, 292, 432, 182, 442, 397, 272, 434, 130, 358, 82, 347, 56, 172, 198, 312, 43, 135, 417, 137, 376, 403, 457, 311, 411, 134, 404, 306, 157, 256, 69, 339, 489, 475, 346, 374, 66, 206, 139, 471, 388, 222, 79, 349, 20, 211, 176, 365, 212, 484, 151, 289, 104, 132, 391, 452, 342, 208, 161, 463, 440, 446, 458, 387, 214, 91, 296, 24, 251, 313, 250, 93, 17, 163, 327, 207, 473, 216, 50, 80, 19, 39, 386, 25, 333, 498, 400, 284, 202, 420, 29, 180, 150, 450, 371, 332, 223, 470, 379, 252, 15, 468, 145, 235, 77, 486, 451, 114, 37, 246, 101, 171, 499, 378, 126, 181, 469, 455, 351, 396, 165, 140, 65, 441, 141, 230, 414, 487, 293, 213, 377, 88, 483, 233, 300, 348, 125, 334, 112, 54, 368, 370, 410, 285, 217, 68, 115, 430, 229, 244, 350, 95, 209, 131, 323, 41, 482, 389, 488, 456, 436, 28, 45, 401, 421, 345, 197, 9, 298, 266, 26, 218, 236, 160]</t>
+  </si>
+  <si>
+    <t>[154, 72, 126, 116, 364, 252, 369, 403, 71, 310, 80, 465, 256, 137, 483, 356, 26, 344, 285, 150, 325, 466, 135, 22, 248, 237, 393, 245, 238, 471, 365, 151, 383, 205, 110, 6, 288, 299, 424, 290, 313, 282, 323, 477, 170, 65, 308, 268, 158, 218, 91, 445, 38, 439, 378, 384, 95, 236, 472, 12, 86, 421, 138, 163, 133, 17, 243, 140, 92, 496, 182, 409, 146, 188, 363, 328, 73, 227, 298, 482, 276, 189, 427, 19, 234, 53, 281, 36, 120, 434, 362, 489, 258, 40, 202, 266, 210, 55, 453, 414, 231, 118, 316, 246, 293, 239, 455, 305, 196, 206, 329, 274, 48, 68, 372, 79, 174, 223, 259, 309, 109, 435, 186, 391, 249, 389, 122, 332, 5, 37, 278, 351, 190, 77, 408, 425, 63, 147, 376, 100, 459, 447, 139, 286, 90, 497, 66, 247, 440, 7, 457, 8, 50, 244, 242, 360, 10, 89, 56, 366, 233, 320, 14, 208, 444, 214, 123, 52, 166, 235, 346, 318, 387, 338, 78, 195, 124, 348, 215, 380, 45, 270, 198, 156, 144, 454, 398, 134, 340, 277, 20, 402, 493, 327, 102, 374, 32, 112, 390, 336, 197, 24, 59, 498, 292, 23, 98, 25, 355, 416, 475, 129, 1, 101, 224, 222, 301, 463, 240, 353, 442, 500, 441, 44, 201, 64, 93, 487, 27, 479, 211, 433, 449, 263, 358, 395, 468, 61, 232, 30, 119, 368, 261, 226, 255, 47, 34, 191, 3, 357, 145, 207, 162, 83, 478, 350, 462, 269, 306, 130, 168, 437, 307, 264, 97, 87, 31, 157, 212, 381, 155, 82, 142, 319, 287, 9, 315, 165, 476, 413, 103, 76, 302, 148, 321, 58, 230, 392, 11, 4, 379, 199, 213, 367, 337, 347, 173, 15, 111, 141, 450, 314, 260, 388, 96, 334, 361, 422, 446, 74, 458, 127, 29, 284, 499, 105, 267, 359, 333, 161, 438, 417, 228, 279, 474, 330, 241, 220, 171, 396, 470, 132, 251, 175, 28, 322, 331, 317, 152, 464, 51, 399, 291, 461, 183, 42, 377, 181, 88, 149, 35, 194, 397, 385, 167, 115, 343, 62, 412, 400, 221, 107, 386, 280, 143, 418, 296, 106, 289, 485, 304, 492, 426, 431, 16, 193, 229, 406, 373, 283, 257, 451, 405, 341, 46, 401, 407, 460, 60, 33, 262, 404, 39, 176, 57, 114, 121, 41, 219, 216, 160, 443, 49, 295, 312, 85, 43, 113, 488, 469, 410, 172, 99, 217, 70, 180, 2, 169, 128, 382, 452, 117, 448, 419, 275, 339, 75, 13, 108, 192, 271, 54, 200, 371, 456, 467, 18, 184, 187, 177, 428, 420, 69, 473, 297, 203, 21, 349, 84, 370, 335, 352, 429, 436, 311, 490, 375, 209, 484, 250, 67, 354, 294, 253, 225, 345, 481, 491, 178, 430, 432, 272, 131, 125, 486, 494, 254, 81, 153, 324, 273, 300, 104, 136, 342, 480, 179, 185, 326, 411, 303, 423, 159, 265, 94, 495, 394, 164, 204, 415]</t>
+  </si>
+  <si>
+    <t>[306, 121, 198, 318, 130, 136, 280, 442, 6, 298, 393, 415, 59, 19, 189, 361, 406, 95, 498, 223, 350, 124, 10, 494, 21, 154, 16, 14, 448, 163, 54, 407, 327, 148, 456, 116, 308, 217, 118, 65, 282, 147, 74, 186, 276, 102, 391, 43, 122, 245, 98, 78, 146, 230, 138, 281, 242, 272, 202, 277, 296, 261, 271, 440, 187, 208, 126, 381, 253, 480, 348, 314, 336, 301, 197, 58, 430, 395, 258, 364, 476, 383, 464, 400, 250, 481, 12, 459, 256, 326, 479, 274, 496, 127, 129, 84, 88, 462, 117, 421, 132, 219, 427, 203, 182, 251, 443, 153, 450, 425, 237, 220, 402, 248, 420, 291, 227, 107, 106, 167, 17, 434, 31, 149, 1, 313, 470, 48, 438, 183, 20, 412, 236, 73, 316, 497, 394, 158, 246, 235, 226, 42, 433, 339, 8, 323, 490, 315, 204, 357, 299, 362, 493, 170, 377, 110, 39, 225, 363, 64, 60, 240, 304, 244, 284, 70, 465, 38, 485, 32, 111, 457, 139, 371, 259, 89, 311, 302, 418, 53, 216, 429, 181, 365, 288, 62, 411, 103, 90, 11, 499, 273, 367, 24, 324, 375, 35, 50, 335, 294, 104, 63, 413, 93, 356, 47, 51, 461, 312, 36, 194, 477, 310, 243, 305, 206, 68, 155, 9, 29, 340, 18, 76, 385, 405, 423, 471, 382, 279, 292, 201, 417, 368, 2, 23, 275, 436, 92, 341, 249, 352, 492, 332, 193, 474, 392, 152, 455, 347, 349, 157, 500, 25, 458, 212, 41, 262, 166, 384, 345, 439, 238, 239, 270, 373, 338, 96, 482, 445, 141, 33, 355, 319, 309, 389, 144, 330, 79, 487, 386, 351, 75, 125, 120, 416, 453, 28, 320, 26, 72, 257, 241, 55, 34, 218, 119, 30, 81, 295, 215, 403, 342, 441, 297, 112, 15, 278, 109, 57, 354, 398, 156, 99, 133, 135, 151, 290, 86, 82, 4, 161, 179, 483, 370, 346, 169, 185, 287, 171, 7, 175, 255, 69, 446, 343, 303, 101, 49, 115, 113, 190, 211, 222, 140, 22, 426, 195, 409, 451, 180, 56, 123, 321, 199, 454, 165, 184, 478, 401, 192, 145, 252, 44, 105, 286, 300, 447, 337, 3, 460, 432, 214, 200, 428, 372, 45, 228, 210, 488, 83, 266, 254, 379, 128, 137, 390, 188, 221, 437, 387, 267, 61, 489, 94, 265, 77, 178, 268, 196, 37, 108, 452, 325, 414, 472, 307, 229, 160, 263, 207, 87, 143, 131, 293, 388, 71, 80, 378, 224, 285, 369, 164, 397, 410, 431, 353, 283, 269, 366, 463, 358, 468, 168, 333, 374, 40, 150, 231, 419, 380, 52, 475, 328, 422, 134, 404, 162, 473, 322, 233, 85, 360, 467, 484, 91, 213, 209, 177, 232, 5, 331, 408, 491, 469, 159, 176, 191, 424, 317, 359, 46, 449, 334, 486, 173, 100, 435, 205, 344, 495, 329, 174, 396, 264, 114, 376, 247, 260, 97, 13, 27, 466, 289, 66, 399, 172, 67, 444, 142, 234]</t>
+  </si>
+  <si>
+    <t>[376, 444, 22, 13, 154, 349, 438, 419, 420, 95, 466, 123, 403, 196, 333, 169, 235, 364, 384, 125, 215, 207, 377, 348, 423, 289, 355, 408, 388, 132, 416, 63, 203, 478, 107, 213, 6, 214, 484, 257, 47, 250, 83, 11, 449, 55, 5, 59, 85, 126, 17, 394, 461, 311, 2, 409, 30, 179, 296, 144, 375, 368, 273, 242, 465, 293, 4, 451, 386, 101, 23, 269, 361, 166, 103, 205, 243, 69, 428, 159, 432, 100, 181, 170, 290, 422, 96, 261, 167, 477, 183, 43, 194, 223, 397, 460, 31, 80, 161, 212, 227, 152, 352, 211, 7, 258, 245, 303, 162, 15, 439, 232, 383, 357, 496, 18, 190, 322, 332, 338, 62, 452, 140, 497, 231, 346, 251, 312, 142, 387, 464, 362, 160, 392, 277, 253, 483, 341, 359, 114, 378, 340, 350, 93, 238, 344, 266, 372, 3, 413, 98, 86, 276, 16, 218, 405, 391, 385, 347, 475, 130, 174, 494, 189, 233, 297, 374, 118, 280, 239, 294, 236, 370, 468, 490, 421, 307, 390, 185, 271, 133, 412, 445, 108, 482, 121, 379, 299, 105, 366, 10, 1, 228, 495, 319, 314, 254, 278, 26, 191, 66, 113, 78, 122, 453, 283, 262, 41, 441, 195, 396, 417, 324, 206, 310, 329, 279, 176, 330, 127, 184, 463, 301, 128, 360, 411, 339, 274, 124, 492, 345, 72, 88, 182, 136, 455, 180, 39, 358, 443, 471, 71, 14, 373, 281, 165, 343, 146, 285, 493, 331, 472, 284, 45, 321, 476, 172, 427, 37, 315, 208, 29, 381, 436, 168, 44, 431, 210, 437, 42, 450, 363, 260, 35, 224, 141, 325, 178, 309, 295, 479, 186, 9, 244, 117, 199, 317, 20, 469, 94, 489, 219, 75, 459, 351, 286, 429, 82, 84, 418, 79, 81, 143, 220, 252, 456, 234, 58, 402, 188, 46, 336, 25, 163, 12, 28, 177, 21, 272, 282, 217, 57, 73, 264, 313, 221, 157, 147, 401, 300, 230, 473, 433, 198, 467, 200, 48, 149, 447, 399, 77, 119, 320, 49, 89, 139, 60, 389, 342, 305, 70, 226, 145, 33, 246, 415, 458, 8, 380, 240, 40, 474, 425, 38, 153, 155, 485, 448, 138, 56, 395, 406, 367, 74, 304, 104, 131, 148, 499, 249, 27, 259, 193, 270, 52, 67, 316, 369, 393, 241, 129, 491, 150, 164, 54, 354, 201, 158, 298, 110, 327, 151, 462, 102, 192, 267, 97, 209, 225, 115, 426, 275, 292, 92, 323, 318, 470, 171, 326, 87, 64, 440, 256, 488, 335, 173, 382, 424, 36, 90, 237, 481, 197, 414, 263, 500, 287, 434, 430, 400, 247, 111, 404, 99, 222, 435, 51, 91, 53, 156, 204, 34, 308, 216, 268, 407, 229, 116, 19, 61, 356, 365, 120, 255, 175, 134, 68, 480, 112, 353, 288, 446, 410, 306, 65, 109, 265, 457, 135, 50, 291, 498, 76, 334, 24, 454, 187, 32, 371, 248, 328, 486, 442, 337, 487, 106, 137, 398, 202, 302]</t>
+  </si>
+  <si>
+    <t>[160, 467, 198, 275, 169, 199, 273, 386, 331, 230, 303, 228, 157, 357, 479, 263, 68, 149, 206, 154, 359, 37, 125, 249, 260, 440, 447, 164, 151, 404, 124, 347, 247, 3, 71, 54, 414, 382, 316, 328, 250, 407, 306, 269, 301, 420, 289, 469, 81, 24, 434, 446, 345, 59, 252, 102, 101, 255, 455, 277, 1, 187, 299, 44, 327, 36, 395, 362, 58, 430, 170, 296, 281, 56, 23, 186, 41, 97, 49, 200, 168, 490, 163, 25, 498, 478, 45, 474, 417, 493, 61, 323, 367, 137, 50, 46, 290, 333, 364, 62, 90, 215, 401, 372, 17, 320, 276, 173, 57, 220, 419, 422, 80, 121, 161, 286, 481, 175, 285, 65, 405, 135, 109, 236, 132, 297, 496, 18, 406, 234, 257, 488, 379, 374, 409, 468, 267, 295, 238, 53, 22, 82, 119, 30, 397, 98, 143, 499, 171, 248, 452, 128, 256, 421, 307, 412, 487, 309, 177, 55, 232, 38, 274, 145, 152, 432, 380, 358, 377, 423, 233, 75, 106, 216, 136, 210, 426, 60, 443, 134, 4, 99, 27, 150, 88, 278, 72, 6, 12, 242, 139, 411, 321, 388, 393, 280, 85, 86, 103, 464, 214, 69, 410, 344, 482, 456, 283, 449, 190, 205, 148, 108, 368, 126, 319, 87, 19, 239, 433, 336, 326, 305, 131, 246, 243, 64, 166, 147, 193, 89, 363, 373, 466, 189, 112, 33, 317, 354, 436, 458, 341, 194, 264, 8, 224, 486, 185, 463, 94, 117, 322, 351, 400, 383, 222, 325, 475, 123, 310, 472, 390, 349, 438, 179, 304, 311, 460, 162, 465, 473, 204, 195, 115, 492, 427, 408, 425, 7, 42, 495, 287, 453, 209, 392, 35, 376, 153, 288, 471, 120, 52, 497, 34, 485, 178, 241, 361, 350, 313, 439, 159, 203, 385, 28, 13, 462, 324, 338, 155, 118, 20, 73, 251, 457, 396, 312, 181, 343, 298, 435, 429, 302, 219, 293, 95, 284, 271, 29, 399, 83, 342, 74, 355, 114, 14, 110, 253, 418, 370, 261, 352, 484, 43, 270, 231, 158, 450, 212, 76, 180, 213, 245, 500, 365, 369, 51, 122, 329, 142, 15, 16, 217, 227, 223, 459, 21, 211, 40, 332, 279, 413, 337, 348, 63, 93, 282, 144, 258, 318, 11, 476, 196, 172, 78, 225, 451, 183, 31, 84, 218, 441, 416, 308, 188, 356, 402, 113, 444, 165, 398, 300, 491, 201, 91, 235, 480, 266, 202, 442, 167, 176, 445, 489, 192, 184, 207, 403, 259, 156, 315, 428, 9, 391, 146, 26, 130, 375, 292, 10, 5, 32, 208, 237, 92, 197, 381, 191, 77, 226, 335, 174, 346, 314, 138, 378, 339, 105, 431, 107, 39, 291, 111, 272, 268, 384, 47, 116, 2, 129, 254, 100, 437, 353, 334, 70, 229, 461, 221, 371, 104, 140, 79, 415, 262, 477, 244, 67, 454, 394, 182, 366, 330, 494, 340, 448, 127, 240, 389, 133, 96, 424, 141, 265, 483, 48, 294, 387, 360, 470, 66]</t>
+  </si>
+  <si>
+    <t>[139, 64, 434, 91, 327, 84, 306, 201, 373, 458, 331, 465, 20, 37, 227, 248, 398, 370, 143, 222, 368, 233, 321, 318, 89, 349, 420, 105, 336, 460, 304, 140, 462, 389, 216, 43, 229, 369, 487, 354, 98, 317, 315, 397, 289, 167, 11, 277, 68, 141, 114, 384, 210, 488, 340, 223, 291, 202, 126, 237, 31, 171, 422, 163, 280, 380, 103, 175, 26, 110, 344, 411, 449, 149, 268, 41, 457, 192, 123, 290, 44, 211, 73, 358, 435, 97, 480, 374, 188, 34, 265, 311, 443, 350, 205, 206, 32, 199, 25, 40, 360, 214, 423, 245, 417, 468, 444, 224, 312, 359, 440, 244, 28, 132, 461, 383, 221, 324, 418, 65, 492, 39, 23, 482, 36, 47, 250, 48, 155, 259, 475, 168, 109, 220, 484, 52, 464, 124, 137, 338, 189, 288, 127, 17, 215, 305, 152, 432, 57, 322, 156, 241, 319, 320, 448, 325, 381, 58, 243, 70, 357, 269, 270, 392, 83, 8, 406, 425, 106, 112, 284, 115, 230, 190, 377, 310, 412, 209, 76, 494, 133, 213, 367, 71, 130, 446, 77, 183, 15, 426, 96, 300, 159, 339, 371, 217, 166, 154, 459, 489, 118, 393, 254, 395, 131, 173, 12, 62, 179, 396, 378, 252, 379, 187, 135, 160, 236, 375, 226, 424, 128, 67, 177, 403, 414, 107, 476, 323, 299, 212, 478, 298, 18, 491, 363, 441, 174, 138, 72, 364, 330, 463, 29, 292, 240, 153, 10, 198, 436, 332, 281, 407, 408, 251, 61, 69, 24, 119, 258, 208, 297, 431, 38, 172, 145, 207, 267, 151, 146, 49, 483, 341, 53, 9, 113, 262, 104, 428, 273, 232, 162, 161, 147, 347, 144, 88, 294, 453, 60, 181, 30, 14, 204, 343, 445, 386, 481, 196, 35, 158, 303, 366, 385, 400, 59, 16, 287, 365, 63, 275, 387, 176, 283, 333, 466, 355, 228, 157, 429, 22, 419, 13, 382, 410, 75, 51, 427, 335, 56, 495, 85, 416, 356, 264, 409, 477, 302, 92, 493, 391, 90, 276, 239, 7, 285, 437, 308, 95, 191, 413, 348, 472, 345, 399, 122, 33, 257, 390, 372, 286, 225, 351, 433, 79, 401, 342, 186, 498, 263, 326, 353, 50, 260, 313, 218, 87, 301, 238, 329, 1, 74, 242, 439, 185, 99, 234, 278, 46, 490, 499, 296, 195, 101, 455, 235, 500, 272, 402, 27, 497, 82, 4, 246, 150, 256, 255, 134, 86, 485, 388, 249, 197, 479, 120, 486, 430, 295, 404, 78, 184, 362, 142, 111, 169, 328, 471, 394, 438, 55, 346, 447, 231, 279, 451, 3, 80, 405, 352, 100, 266, 200, 454, 496, 473, 442, 469, 45, 421, 180, 271, 450, 164, 467, 274, 129, 6, 117, 470, 456, 21, 121, 108, 93, 203, 474, 253, 136, 334, 148, 376, 5, 66, 361, 42, 337, 314, 94, 219, 261, 102, 309, 194, 307, 452, 247, 125, 170, 293, 19, 193, 165, 415, 116, 2, 316, 182, 81, 178, 282, 54]</t>
+  </si>
+  <si>
+    <t>[441, 247, 389, 448, 300, 410, 175, 149, 16, 6, 259, 348, 170, 485, 54, 388, 325, 122, 307, 120, 382, 328, 408, 472, 13, 221, 44, 67, 65, 127, 333, 249, 214, 351, 161, 310, 146, 171, 407, 322, 108, 167, 253, 402, 369, 114, 309, 144, 416, 386, 454, 266, 75, 313, 211, 379, 87, 42, 451, 28, 324, 288, 293, 233, 222, 142, 123, 437, 12, 212, 452, 162, 76, 185, 295, 9, 213, 306, 420, 329, 365, 27, 423, 417, 453, 117, 126, 468, 179, 281, 78, 94, 373, 152, 285, 377, 80, 61, 110, 226, 148, 395, 34, 81, 349, 181, 177, 53, 267, 496, 311, 279, 191, 332, 137, 469, 476, 209, 440, 208, 316, 482, 271, 380, 33, 398, 317, 92, 343, 250, 308, 35, 425, 450, 488, 367, 159, 124, 358, 260, 277, 462, 103, 391, 470, 403, 284, 334, 275, 158, 43, 135, 60, 327, 116, 224, 89, 72, 355, 29, 276, 356, 121, 353, 312, 106, 73, 463, 269, 449, 66, 90, 77, 303, 444, 20, 442, 86, 443, 433, 370, 286, 263, 283, 372, 357, 268, 157, 143, 383, 466, 304, 74, 399, 164, 68, 400, 438, 230, 384, 335, 132, 11, 431, 180, 151, 202, 418, 378, 347, 155, 489, 397, 421, 493, 91, 305, 374, 272, 173, 427, 477, 491, 387, 350, 375, 396, 401, 129, 234, 19, 393, 41, 112, 231, 88, 79, 169, 100, 319, 39, 96, 131, 153, 251, 273, 192, 102, 37, 160, 101, 297, 128, 198, 394, 336, 166, 119, 183, 4, 498, 216, 362, 261, 446, 345, 199, 182, 188, 422, 32, 64, 302, 301, 59, 445, 125, 280, 84, 140, 225, 10, 264, 194, 460, 238, 95, 291, 459, 435, 457, 405, 500, 232, 51, 415, 105, 154, 320, 340, 55, 210, 205, 228, 447, 31, 481, 390, 174, 290, 141, 50, 292, 17, 184, 150, 439, 195, 99, 354, 22, 392, 69, 243, 219, 242, 465, 168, 229, 237, 48, 70, 282, 218, 189, 315, 464, 45, 47, 296, 113, 360, 227, 254, 368, 245, 492, 178, 217, 111, 436, 323, 107, 381, 215, 14, 278, 265, 478, 207, 474, 235, 461, 257, 429, 85, 413, 428, 330, 495, 487, 71, 331, 361, 203, 455, 424, 138, 409, 258, 270, 145, 1, 480, 115, 58, 204, 26, 262, 98, 246, 186, 346, 321, 426, 406, 201, 163, 359, 236, 197, 471, 244, 363, 220, 40, 25, 338, 473, 176, 165, 299, 2, 430, 339, 5, 318, 21, 56, 62, 139, 475, 484, 82, 93, 193, 342, 3, 352, 414, 404, 364, 172, 36, 133, 326, 52, 366, 479, 314, 255, 38, 147, 419, 23, 490, 385, 83, 240, 252, 134, 434, 376, 344, 289, 118, 294, 49, 458, 136, 274, 412, 341, 223, 63, 239, 46, 18, 200, 206, 187, 104, 109, 298, 287, 248, 499, 256, 371, 190, 156, 30, 15, 337, 467, 494, 196, 130, 483, 486, 57, 97, 241, 24, 411, 456, 432, 497, 7, 8]</t>
+  </si>
+  <si>
+    <t>[391, 365, 92, 445, 308, 498, 27, 268, 240, 499, 30, 188, 449, 346, 80, 101, 109, 258, 113, 61, 316, 12, 425, 415, 321, 41, 322, 464, 491, 228, 253, 309, 86, 178, 168, 213, 337, 7, 315, 8, 472, 377, 126, 336, 274, 293, 207, 52, 310, 378, 246, 345, 360, 439, 130, 118, 467, 223, 401, 28, 23, 390, 433, 386, 159, 470, 299, 295, 394, 174, 100, 297, 43, 171, 196, 270, 444, 151, 16, 273, 33, 405, 87, 148, 417, 88, 363, 443, 379, 93, 214, 229, 399, 48, 197, 387, 421, 108, 170, 94, 256, 235, 435, 15, 134, 252, 119, 438, 155, 371, 412, 136, 406, 397, 120, 317, 29, 419, 288, 14, 91, 127, 220, 18, 211, 6, 451, 175, 431, 181, 78, 189, 493, 494, 456, 361, 485, 239, 463, 272, 375, 469, 66, 202, 4, 149, 259, 216, 448, 452, 351, 301, 353, 179, 250, 123, 370, 76, 244, 269, 167, 413, 457, 471, 275, 374, 199, 11, 243, 71, 192, 414, 416, 45, 20, 217, 234, 1, 64, 381, 153, 191, 354, 38, 26, 248, 483, 350, 53, 323, 314, 74, 402, 358, 487, 355, 241, 73, 106, 247, 335, 237, 103, 349, 479, 166, 410, 298, 138, 339, 215, 437, 302, 236, 242, 384, 54, 426, 25, 341, 63, 359, 330, 290, 225, 408, 145, 22, 180, 279, 70, 233, 81, 488, 187, 447, 190, 19, 441, 461, 58, 326, 65, 117, 318, 95, 5, 466, 10, 468, 169, 31, 352, 327, 46, 195, 56, 392, 292, 324, 282, 67, 460, 140, 44, 400, 49, 489, 21, 209, 325, 60, 383, 157, 420, 115, 333, 150, 393, 436, 40, 198, 389, 142, 423, 478, 162, 105, 340, 158, 144, 125, 110, 116, 68, 396, 62, 133, 152, 238, 291, 263, 446, 72, 104, 251, 75, 254, 486, 51, 185, 427, 183, 255, 440, 147, 343, 173, 481, 32, 364, 2, 367, 329, 418, 306, 35, 372, 164, 114, 102, 428, 287, 230, 121, 429, 311, 257, 182, 482, 296, 382, 474, 210, 129, 90, 366, 55, 122, 453, 97, 13, 172, 205, 278, 313, 404, 132, 111, 385, 388, 249, 261, 476, 201, 3, 260, 407, 107, 480, 124, 373, 226, 271, 264, 96, 332, 280, 135, 128, 160, 218, 24, 203, 221, 409, 146, 376, 161, 139, 77, 285, 79, 492, 69, 281, 348, 84, 262, 459, 303, 475, 177, 112, 131, 465, 328, 369, 411, 495, 312, 305, 9, 208, 331, 477, 176, 395, 284, 368, 286, 450, 347, 163, 34, 156, 497, 289, 206, 227, 245, 338, 39, 59, 432, 424, 334, 320, 265, 266, 200, 89, 454, 83, 442, 137, 99, 141, 398, 194, 98, 422, 165, 224, 342, 193, 42, 222, 319, 357, 473, 490, 277, 304, 356, 276, 462, 500, 267, 36, 455, 212, 496, 17, 37, 484, 204, 458, 300, 307, 219, 344, 184, 85, 186, 380, 362, 294, 231, 57, 154, 47, 82, 283, 403, 143, 50, 434, 232, 430]</t>
   </si>
 </sst>
 </file>
@@ -498,7 +798,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -807,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:AA119"/>
+  <dimension ref="A6:AA219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -818,7 +1128,7 @@
     <col min="3" max="3" width="3.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.5">
       <c r="Y6" t="s">
         <v>131</v>
       </c>
@@ -829,191 +1139,191 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.5">
       <c r="D7" s="2">
         <f>D8/MAX($B:$B)</f>
-        <v>7.3394495412844041E-2</v>
+        <v>7.1770334928229665E-2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:X7" si="0">E8/MAX($B:$B)</f>
-        <v>7.3394495412844041E-2</v>
+        <v>6.2200956937799042E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>6.4220183486238536E-2</v>
+        <v>6.6985645933014357E-2</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>8.2568807339449546E-2</v>
+        <v>9.569377990430622E-2</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.13761467889908258</v>
+        <v>8.6124401913875603E-2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>7.3394495412844041E-2</v>
+        <v>6.2200956937799042E-2</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>8.1339712918660281E-2</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>2.7522935779816515E-2</v>
+        <v>3.8277511961722487E-2</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>8.2568807339449546E-2</v>
+        <v>7.1770334928229665E-2</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>0.13761467889908258</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>5.5045871559633031E-2</v>
+        <v>6.2200956937799042E-2</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>6.4220183486238536E-2</v>
+        <v>6.6985645933014357E-2</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>7.3394495412844041E-2</v>
+        <v>7.1770334928229665E-2</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>0.11926605504587157</v>
+        <v>8.6124401913875603E-2</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>9.1743119266055051E-2</v>
+        <v>7.1770334928229665E-2</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>4.5871559633027525E-2</v>
+        <v>5.7416267942583733E-2</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>8.2568807339449546E-2</v>
+        <v>8.6124401913875603E-2</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>7.3394495412844041E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>0.11926605504587157</v>
+        <v>8.6124401913875603E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>0.14678899082568808</v>
+        <v>0.11004784688995216</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE(D7:X7)</f>
-        <v>8.6063783311489728E-2</v>
+        <v>7.6099339257234E-2</v>
       </c>
       <c r="Z7" s="4">
         <f>Y7*Y7</f>
-        <v>7.4069747978870578E-3</v>
+        <v>5.7911094353875958E-3</v>
       </c>
       <c r="AA7" s="5">
         <f>Y7*Y7*Y7</f>
-        <v>6.374722739990172E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.5">
+        <v>4.4069960159932951E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.5">
       <c r="D8">
         <f>COUNTIF(D$11:D1010,"&gt;=5500")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <f>COUNTIF(E$11:E1010,"&gt;=5500")</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <f>COUNTIF(F$11:F1010,"&gt;=5500")</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8">
         <f>COUNTIF(G$11:G1010,"&gt;=5500")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <f>COUNTIF(H$11:H1010,"&gt;=5500")</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <f>COUNTIF(I$11:I1010,"&gt;=5500")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <f>COUNTIF(J$11:J1010,"&gt;=5500")</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K8">
         <f>COUNTIF(K$11:K1010,"&gt;=5500")</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L8">
         <f>COUNTIF(L$11:L1010,"&gt;=5500")</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <f>COUNTIF(M$11:M1010,"&gt;=5500")</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <f>COUNTIF(N$11:N1010,"&gt;=5500")</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O8">
         <f>COUNTIF(O$11:O1010,"&gt;=5500")</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P8">
         <f>COUNTIF(P$11:P1010,"&gt;=5500")</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q8">
         <f>COUNTIF(Q$11:Q1010,"&gt;=5500")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R8">
         <f>COUNTIF(R$11:R1010,"&gt;=5500")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S8">
         <f>COUNTIF(S$11:S1010,"&gt;=5500")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8">
         <f>COUNTIF(T$11:T1010,"&gt;=5500")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="U8">
         <f>COUNTIF(U$11:U1010,"&gt;=5500")</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="V8">
         <f>COUNTIF(V$11:V1010,"&gt;=5500")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W8">
         <f>COUNTIF(W$11:W1010,"&gt;=5500")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="X8">
         <f>COUNTIF(X$11:X1010,"&gt;=5500")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.5">
       <c r="D10" s="1" t="s">
         <v>126</v>
       </c>
@@ -1078,7 +1388,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <f>COUNTIF(D11:X11,"&gt;=5500")</f>
+        <v>6</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
@@ -1149,7 +1463,11 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <f t="shared" ref="A12:A75" si="1">COUNTIF(D12:X12,"&gt;=5500")</f>
+        <v>1</v>
+      </c>
       <c r="B12">
         <v>2</v>
       </c>
@@ -1220,7 +1538,11 @@
         <v>5191</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="B13">
         <v>3</v>
       </c>
@@ -1291,7 +1613,11 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B14">
         <v>4</v>
       </c>
@@ -1362,7 +1688,11 @@
         <v>5089</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B15">
         <v>5</v>
       </c>
@@ -1433,7 +1763,11 @@
         <v>5216</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B16">
         <v>6</v>
       </c>
@@ -1504,7 +1838,11 @@
         <v>5244</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B17">
         <v>7</v>
       </c>
@@ -1575,7 +1913,11 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B18">
         <v>8</v>
       </c>
@@ -1646,7 +1988,11 @@
         <v>5089</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B19">
         <v>9</v>
       </c>
@@ -1717,7 +2063,11 @@
         <v>5249</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B20">
         <v>10</v>
       </c>
@@ -1788,7 +2138,11 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B21">
         <v>11</v>
       </c>
@@ -1859,7 +2213,11 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B22">
         <v>12</v>
       </c>
@@ -1930,7 +2288,11 @@
         <v>5194</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B23">
         <v>13</v>
       </c>
@@ -2001,7 +2363,11 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B24">
         <v>14</v>
       </c>
@@ -2072,7 +2438,11 @@
         <v>5367</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B25">
         <v>15</v>
       </c>
@@ -2143,7 +2513,11 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B26">
         <v>16</v>
       </c>
@@ -2214,7 +2588,11 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="B27">
         <v>17</v>
       </c>
@@ -2285,7 +2663,11 @@
         <v>5563</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B28">
         <v>18</v>
       </c>
@@ -2356,7 +2738,11 @@
         <v>5649</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B29">
         <v>19</v>
       </c>
@@ -2427,7 +2813,11 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="B30">
         <v>20</v>
       </c>
@@ -2498,7 +2888,11 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B31">
         <v>21</v>
       </c>
@@ -2569,7 +2963,11 @@
         <v>5069</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="B32">
         <v>22</v>
       </c>
@@ -2640,7 +3038,11 @@
         <v>5255</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="B33">
         <v>23</v>
       </c>
@@ -2711,7 +3113,11 @@
         <v>5369</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B34">
         <v>24</v>
       </c>
@@ -2782,7 +3188,11 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B35">
         <v>25</v>
       </c>
@@ -2853,7 +3263,11 @@
         <v>5254</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B36">
         <v>26</v>
       </c>
@@ -2924,7 +3338,11 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B37">
         <v>27</v>
       </c>
@@ -2995,7 +3413,11 @@
         <v>5210</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B38">
         <v>28</v>
       </c>
@@ -3066,7 +3488,11 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B39">
         <v>29</v>
       </c>
@@ -3137,7 +3563,11 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B40">
         <v>30</v>
       </c>
@@ -3208,7 +3638,11 @@
         <v>4974</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B41">
         <v>31</v>
       </c>
@@ -3279,7 +3713,11 @@
         <v>5189</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B42">
         <v>32</v>
       </c>
@@ -3350,7 +3788,11 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B43">
         <v>33</v>
       </c>
@@ -3421,7 +3863,11 @@
         <v>5431</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B44">
         <v>34</v>
       </c>
@@ -3492,7 +3938,11 @@
         <v>5166</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B45">
         <v>35</v>
       </c>
@@ -3563,7 +4013,11 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B46">
         <v>36</v>
       </c>
@@ -3634,7 +4088,11 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B47">
         <v>37</v>
       </c>
@@ -3705,7 +4163,11 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B48">
         <v>38</v>
       </c>
@@ -3776,7 +4238,11 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B49">
         <v>39</v>
       </c>
@@ -3847,7 +4313,11 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B50">
         <v>40</v>
       </c>
@@ -3918,7 +4388,11 @@
         <v>4851</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A51">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="B51">
         <v>41</v>
       </c>
@@ -3989,7 +4463,11 @@
         <v>5297</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A52">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="B52">
         <v>42</v>
       </c>
@@ -4060,7 +4538,11 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="B53">
         <v>43</v>
       </c>
@@ -4131,7 +4613,11 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B54">
         <v>44</v>
       </c>
@@ -4202,7 +4688,11 @@
         <v>5066</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B55">
         <v>45</v>
       </c>
@@ -4273,7 +4763,11 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B56">
         <v>46</v>
       </c>
@@ -4344,7 +4838,11 @@
         <v>5592</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B57">
         <v>47</v>
       </c>
@@ -4415,7 +4913,11 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="B58">
         <v>48</v>
       </c>
@@ -4486,7 +4988,11 @@
         <v>5072</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B59">
         <v>49</v>
       </c>
@@ -4557,7 +5063,11 @@
         <v>5496</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B60">
         <v>50</v>
       </c>
@@ -4628,7 +5138,11 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="B61">
         <v>51</v>
       </c>
@@ -4699,7 +5213,11 @@
         <v>5335</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B62">
         <v>52</v>
       </c>
@@ -4770,7 +5288,11 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B63">
         <v>53</v>
       </c>
@@ -4841,7 +5363,11 @@
         <v>5344</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B64">
         <v>54</v>
       </c>
@@ -4912,7 +5438,11 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="B65">
         <v>55</v>
       </c>
@@ -4983,7 +5513,11 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B66">
         <v>56</v>
       </c>
@@ -5054,7 +5588,11 @@
         <v>4984</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A67">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B67">
         <v>57</v>
       </c>
@@ -5125,7 +5663,11 @@
         <v>5521</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="B68">
         <v>58</v>
       </c>
@@ -5196,7 +5738,11 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B69">
         <v>59</v>
       </c>
@@ -5267,7 +5813,11 @@
         <v>5361</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B70">
         <v>60</v>
       </c>
@@ -5338,7 +5888,11 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B71">
         <v>61</v>
       </c>
@@ -5409,7 +5963,11 @@
         <v>5256</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B72">
         <v>62</v>
       </c>
@@ -5480,7 +6038,11 @@
         <v>5226</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="B73">
         <v>63</v>
       </c>
@@ -5551,7 +6113,11 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B74">
         <v>64</v>
       </c>
@@ -5622,7 +6188,11 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="B75">
         <v>65</v>
       </c>
@@ -5693,7 +6263,11 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A76">
+        <f t="shared" ref="A76:A139" si="2">COUNTIF(D76:X76,"&gt;=5500")</f>
+        <v>2</v>
+      </c>
       <c r="B76">
         <v>66</v>
       </c>
@@ -5764,7 +6338,11 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B77">
         <v>67</v>
       </c>
@@ -5835,7 +6413,11 @@
         <v>5379</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B78">
         <v>68</v>
       </c>
@@ -5906,7 +6488,11 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="B79">
         <v>69</v>
       </c>
@@ -5977,7 +6563,11 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B80">
         <v>70</v>
       </c>
@@ -6048,7 +6638,11 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B81">
         <v>71</v>
       </c>
@@ -6119,7 +6713,11 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B82">
         <v>72</v>
       </c>
@@ -6190,7 +6788,11 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B83">
         <v>73</v>
       </c>
@@ -6261,7 +6863,11 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="B84">
         <v>74</v>
       </c>
@@ -6332,7 +6938,11 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B85">
         <v>75</v>
       </c>
@@ -6403,7 +7013,11 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B86">
         <v>76</v>
       </c>
@@ -6474,7 +7088,11 @@
         <v>5110</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B87">
         <v>77</v>
       </c>
@@ -6545,7 +7163,11 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B88">
         <v>78</v>
       </c>
@@ -6616,7 +7238,11 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B89">
         <v>79</v>
       </c>
@@ -6687,7 +7313,11 @@
         <v>5059</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B90">
         <v>80</v>
       </c>
@@ -6758,7 +7388,11 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B91">
         <v>81</v>
       </c>
@@ -6829,7 +7463,11 @@
         <v>5185</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B92">
         <v>82</v>
       </c>
@@ -6900,7 +7538,11 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B93">
         <v>83</v>
       </c>
@@ -6971,7 +7613,11 @@
         <v>5144</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B94">
         <v>84</v>
       </c>
@@ -7042,7 +7688,11 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B95">
         <v>85</v>
       </c>
@@ -7113,7 +7763,11 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="B96">
         <v>86</v>
       </c>
@@ -7184,7 +7838,11 @@
         <v>5540</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="B97">
         <v>87</v>
       </c>
@@ -7255,7 +7913,11 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="B98">
         <v>88</v>
       </c>
@@ -7326,7 +7988,11 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="B99">
         <v>89</v>
       </c>
@@ -7397,7 +8063,11 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B100">
         <v>90</v>
       </c>
@@ -7468,7 +8138,11 @@
         <v>5284</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B101">
         <v>91</v>
       </c>
@@ -7539,7 +8213,11 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B102">
         <v>92</v>
       </c>
@@ -7610,7 +8288,11 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B103">
         <v>93</v>
       </c>
@@ -7681,7 +8363,11 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B104">
         <v>94</v>
       </c>
@@ -7752,7 +8438,11 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B105">
         <v>95</v>
       </c>
@@ -7823,7 +8513,11 @@
         <v>5114</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B106">
         <v>96</v>
       </c>
@@ -7894,7 +8588,11 @@
         <v>5359</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B107">
         <v>97</v>
       </c>
@@ -7965,7 +8663,11 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B108">
         <v>98</v>
       </c>
@@ -8036,7 +8738,11 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B109">
         <v>99</v>
       </c>
@@ -8107,7 +8813,11 @@
         <v>5289</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
       <c r="B110">
         <v>100</v>
       </c>
@@ -8178,7 +8888,11 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B111">
         <v>101</v>
       </c>
@@ -8249,7 +8963,11 @@
         <v>5106</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B112">
         <v>102</v>
       </c>
@@ -8320,7 +9038,11 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="B113">
         <v>103</v>
       </c>
@@ -8391,7 +9113,11 @@
         <v>5538</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B114">
         <v>104</v>
       </c>
@@ -8462,7 +9188,11 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B115">
         <v>105</v>
       </c>
@@ -8533,7 +9263,11 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="B116">
         <v>106</v>
       </c>
@@ -8604,7 +9338,11 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
       <c r="B117">
         <v>107</v>
       </c>
@@ -8675,7 +9413,11 @@
         <v>5530</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="B118">
         <v>108</v>
       </c>
@@ -8746,7 +9488,11 @@
         <v>5424</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
       <c r="B119">
         <v>109</v>
       </c>
@@ -8815,11 +9561,7516 @@
       </c>
       <c r="X119">
         <v>5589</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>110</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120">
+        <v>5067</v>
+      </c>
+      <c r="E120">
+        <v>5314</v>
+      </c>
+      <c r="F120">
+        <v>4942</v>
+      </c>
+      <c r="G120">
+        <v>5315</v>
+      </c>
+      <c r="H120">
+        <v>5042</v>
+      </c>
+      <c r="I120">
+        <v>5089</v>
+      </c>
+      <c r="J120">
+        <v>5316</v>
+      </c>
+      <c r="K120">
+        <v>5136</v>
+      </c>
+      <c r="L120">
+        <v>5182</v>
+      </c>
+      <c r="M120">
+        <v>5185</v>
+      </c>
+      <c r="N120">
+        <v>5092</v>
+      </c>
+      <c r="O120">
+        <v>5401</v>
+      </c>
+      <c r="P120">
+        <v>5317</v>
+      </c>
+      <c r="Q120">
+        <v>5258</v>
+      </c>
+      <c r="R120">
+        <v>5091</v>
+      </c>
+      <c r="S120">
+        <v>5182</v>
+      </c>
+      <c r="T120">
+        <v>5399</v>
+      </c>
+      <c r="U120">
+        <v>5201</v>
+      </c>
+      <c r="V120">
+        <v>5104</v>
+      </c>
+      <c r="W120">
+        <v>5091</v>
+      </c>
+      <c r="X120">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>111</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121">
+        <v>5306</v>
+      </c>
+      <c r="E121">
+        <v>5307</v>
+      </c>
+      <c r="F121">
+        <v>5556</v>
+      </c>
+      <c r="G121">
+        <v>5215</v>
+      </c>
+      <c r="H121">
+        <v>5241</v>
+      </c>
+      <c r="I121">
+        <v>5216</v>
+      </c>
+      <c r="J121">
+        <v>5308</v>
+      </c>
+      <c r="K121">
+        <v>5314</v>
+      </c>
+      <c r="L121">
+        <v>5218</v>
+      </c>
+      <c r="M121">
+        <v>5373</v>
+      </c>
+      <c r="N121">
+        <v>5042</v>
+      </c>
+      <c r="O121">
+        <v>5301</v>
+      </c>
+      <c r="P121">
+        <v>5213</v>
+      </c>
+      <c r="Q121">
+        <v>5298</v>
+      </c>
+      <c r="R121">
+        <v>5214</v>
+      </c>
+      <c r="S121">
+        <v>5315</v>
+      </c>
+      <c r="T121">
+        <v>5372</v>
+      </c>
+      <c r="U121">
+        <v>5302</v>
+      </c>
+      <c r="V121">
+        <v>5126</v>
+      </c>
+      <c r="W121">
+        <v>5216</v>
+      </c>
+      <c r="X121">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>112</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122">
+        <v>5126</v>
+      </c>
+      <c r="E122">
+        <v>5076</v>
+      </c>
+      <c r="F122">
+        <v>5320</v>
+      </c>
+      <c r="G122">
+        <v>5073</v>
+      </c>
+      <c r="H122">
+        <v>5078</v>
+      </c>
+      <c r="I122">
+        <v>5079</v>
+      </c>
+      <c r="J122">
+        <v>5077</v>
+      </c>
+      <c r="K122">
+        <v>5320</v>
+      </c>
+      <c r="L122">
+        <v>5076</v>
+      </c>
+      <c r="M122">
+        <v>5379</v>
+      </c>
+      <c r="N122">
+        <v>5080</v>
+      </c>
+      <c r="O122">
+        <v>4984</v>
+      </c>
+      <c r="P122">
+        <v>5071</v>
+      </c>
+      <c r="Q122">
+        <v>4982</v>
+      </c>
+      <c r="R122">
+        <v>5077</v>
+      </c>
+      <c r="S122">
+        <v>5075</v>
+      </c>
+      <c r="T122">
+        <v>4987</v>
+      </c>
+      <c r="U122">
+        <v>5081</v>
+      </c>
+      <c r="V122">
+        <v>4988</v>
+      </c>
+      <c r="W122">
+        <v>5079</v>
+      </c>
+      <c r="X122">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>113</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123">
+        <v>4825</v>
+      </c>
+      <c r="E123">
+        <v>4928</v>
+      </c>
+      <c r="F123">
+        <v>4860</v>
+      </c>
+      <c r="G123">
+        <v>5242</v>
+      </c>
+      <c r="H123">
+        <v>5333</v>
+      </c>
+      <c r="I123">
+        <v>5155</v>
+      </c>
+      <c r="J123">
+        <v>4928</v>
+      </c>
+      <c r="K123">
+        <v>4858</v>
+      </c>
+      <c r="L123">
+        <v>5242</v>
+      </c>
+      <c r="M123">
+        <v>5607</v>
+      </c>
+      <c r="N123">
+        <v>5155</v>
+      </c>
+      <c r="O123">
+        <v>5275</v>
+      </c>
+      <c r="P123">
+        <v>5243</v>
+      </c>
+      <c r="Q123">
+        <v>5057</v>
+      </c>
+      <c r="R123">
+        <v>5228</v>
+      </c>
+      <c r="S123">
+        <v>4831</v>
+      </c>
+      <c r="T123">
+        <v>5394</v>
+      </c>
+      <c r="U123">
+        <v>5230</v>
+      </c>
+      <c r="V123">
+        <v>5243</v>
+      </c>
+      <c r="W123">
+        <v>5228</v>
+      </c>
+      <c r="X123">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>114</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124">
+        <v>5014</v>
+      </c>
+      <c r="E124">
+        <v>5209</v>
+      </c>
+      <c r="F124">
+        <v>5019</v>
+      </c>
+      <c r="G124">
+        <v>5329</v>
+      </c>
+      <c r="H124">
+        <v>5019</v>
+      </c>
+      <c r="I124">
+        <v>4982</v>
+      </c>
+      <c r="J124">
+        <v>5211</v>
+      </c>
+      <c r="K124">
+        <v>5465</v>
+      </c>
+      <c r="L124">
+        <v>5208</v>
+      </c>
+      <c r="M124">
+        <v>5465</v>
+      </c>
+      <c r="N124">
+        <v>5212</v>
+      </c>
+      <c r="O124">
+        <v>5022</v>
+      </c>
+      <c r="P124">
+        <v>5329</v>
+      </c>
+      <c r="Q124">
+        <v>5022</v>
+      </c>
+      <c r="R124">
+        <v>5210</v>
+      </c>
+      <c r="S124">
+        <v>5211</v>
+      </c>
+      <c r="T124">
+        <v>5466</v>
+      </c>
+      <c r="U124">
+        <v>5513</v>
+      </c>
+      <c r="V124">
+        <v>5399</v>
+      </c>
+      <c r="W124">
+        <v>5210</v>
+      </c>
+      <c r="X124">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>115</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125">
+        <v>5192</v>
+      </c>
+      <c r="E125">
+        <v>5217</v>
+      </c>
+      <c r="F125">
+        <v>4949</v>
+      </c>
+      <c r="G125">
+        <v>5015</v>
+      </c>
+      <c r="H125">
+        <v>5052</v>
+      </c>
+      <c r="I125">
+        <v>5137</v>
+      </c>
+      <c r="J125">
+        <v>5219</v>
+      </c>
+      <c r="K125">
+        <v>5474</v>
+      </c>
+      <c r="L125">
+        <v>5017</v>
+      </c>
+      <c r="M125">
+        <v>5371</v>
+      </c>
+      <c r="N125">
+        <v>5366</v>
+      </c>
+      <c r="O125">
+        <v>4953</v>
+      </c>
+      <c r="P125">
+        <v>5015</v>
+      </c>
+      <c r="Q125">
+        <v>5053</v>
+      </c>
+      <c r="R125">
+        <v>5136</v>
+      </c>
+      <c r="S125">
+        <v>5089</v>
+      </c>
+      <c r="T125">
+        <v>5238</v>
+      </c>
+      <c r="U125">
+        <v>5136</v>
+      </c>
+      <c r="V125">
+        <v>5106</v>
+      </c>
+      <c r="W125">
+        <v>5134</v>
+      </c>
+      <c r="X125">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>116</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126">
+        <v>5295</v>
+      </c>
+      <c r="E126">
+        <v>5296</v>
+      </c>
+      <c r="F126">
+        <v>5158</v>
+      </c>
+      <c r="G126">
+        <v>5133</v>
+      </c>
+      <c r="H126">
+        <v>5160</v>
+      </c>
+      <c r="I126">
+        <v>5358</v>
+      </c>
+      <c r="J126">
+        <v>5298</v>
+      </c>
+      <c r="K126">
+        <v>5295</v>
+      </c>
+      <c r="L126">
+        <v>5027</v>
+      </c>
+      <c r="M126">
+        <v>5298</v>
+      </c>
+      <c r="N126">
+        <v>5366</v>
+      </c>
+      <c r="O126">
+        <v>5296</v>
+      </c>
+      <c r="P126">
+        <v>5135</v>
+      </c>
+      <c r="Q126">
+        <v>5149</v>
+      </c>
+      <c r="R126">
+        <v>5116</v>
+      </c>
+      <c r="S126">
+        <v>5027</v>
+      </c>
+      <c r="T126">
+        <v>5095</v>
+      </c>
+      <c r="U126">
+        <v>5030</v>
+      </c>
+      <c r="V126">
+        <v>4933</v>
+      </c>
+      <c r="W126">
+        <v>5117</v>
+      </c>
+      <c r="X126">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>117</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127">
+        <v>4964</v>
+      </c>
+      <c r="E127">
+        <v>5157</v>
+      </c>
+      <c r="F127">
+        <v>4964</v>
+      </c>
+      <c r="G127">
+        <v>5537</v>
+      </c>
+      <c r="H127">
+        <v>4964</v>
+      </c>
+      <c r="I127">
+        <v>5168</v>
+      </c>
+      <c r="J127">
+        <v>5157</v>
+      </c>
+      <c r="K127">
+        <v>5554</v>
+      </c>
+      <c r="L127">
+        <v>5380</v>
+      </c>
+      <c r="M127">
+        <v>5249</v>
+      </c>
+      <c r="N127">
+        <v>5510</v>
+      </c>
+      <c r="O127">
+        <v>4864</v>
+      </c>
+      <c r="P127">
+        <v>5538</v>
+      </c>
+      <c r="Q127">
+        <v>4864</v>
+      </c>
+      <c r="R127">
+        <v>5170</v>
+      </c>
+      <c r="S127">
+        <v>5510</v>
+      </c>
+      <c r="T127">
+        <v>5249</v>
+      </c>
+      <c r="U127">
+        <v>5511</v>
+      </c>
+      <c r="V127">
+        <v>5287</v>
+      </c>
+      <c r="W127">
+        <v>5170</v>
+      </c>
+      <c r="X127">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>118</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128">
+        <v>5122</v>
+      </c>
+      <c r="E128">
+        <v>5121</v>
+      </c>
+      <c r="F128">
+        <v>5457</v>
+      </c>
+      <c r="G128">
+        <v>5362</v>
+      </c>
+      <c r="H128">
+        <v>5031</v>
+      </c>
+      <c r="I128">
+        <v>5457</v>
+      </c>
+      <c r="J128">
+        <v>5121</v>
+      </c>
+      <c r="K128">
+        <v>5457</v>
+      </c>
+      <c r="L128">
+        <v>5364</v>
+      </c>
+      <c r="M128">
+        <v>5457</v>
+      </c>
+      <c r="N128">
+        <v>5459</v>
+      </c>
+      <c r="O128">
+        <v>5075</v>
+      </c>
+      <c r="P128">
+        <v>5363</v>
+      </c>
+      <c r="Q128">
+        <v>5076</v>
+      </c>
+      <c r="R128">
+        <v>5457</v>
+      </c>
+      <c r="S128">
+        <v>5277</v>
+      </c>
+      <c r="T128">
+        <v>5456</v>
+      </c>
+      <c r="U128">
+        <v>5452</v>
+      </c>
+      <c r="V128">
+        <v>5205</v>
+      </c>
+      <c r="W128">
+        <v>5458</v>
+      </c>
+      <c r="X128">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>119</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129">
+        <v>4971</v>
+      </c>
+      <c r="E129">
+        <v>5467</v>
+      </c>
+      <c r="F129">
+        <v>5259</v>
+      </c>
+      <c r="G129">
+        <v>5125</v>
+      </c>
+      <c r="H129">
+        <v>5259</v>
+      </c>
+      <c r="I129">
+        <v>5466</v>
+      </c>
+      <c r="J129">
+        <v>5468</v>
+      </c>
+      <c r="K129">
+        <v>5446</v>
+      </c>
+      <c r="L129">
+        <v>5125</v>
+      </c>
+      <c r="M129">
+        <v>5468</v>
+      </c>
+      <c r="N129">
+        <v>5274</v>
+      </c>
+      <c r="O129">
+        <v>5102</v>
+      </c>
+      <c r="P129">
+        <v>5125</v>
+      </c>
+      <c r="Q129">
+        <v>4963</v>
+      </c>
+      <c r="R129">
+        <v>5274</v>
+      </c>
+      <c r="S129">
+        <v>5128</v>
+      </c>
+      <c r="T129">
+        <v>5102</v>
+      </c>
+      <c r="U129">
+        <v>5277</v>
+      </c>
+      <c r="V129">
+        <v>5284</v>
+      </c>
+      <c r="W129">
+        <v>5274</v>
+      </c>
+      <c r="X129">
+        <v>5077</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>120</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130">
+        <v>5459</v>
+      </c>
+      <c r="E130">
+        <v>5068</v>
+      </c>
+      <c r="F130">
+        <v>5460</v>
+      </c>
+      <c r="G130">
+        <v>5017</v>
+      </c>
+      <c r="H130">
+        <v>5364</v>
+      </c>
+      <c r="I130">
+        <v>5021</v>
+      </c>
+      <c r="J130">
+        <v>5071</v>
+      </c>
+      <c r="K130">
+        <v>5091</v>
+      </c>
+      <c r="L130">
+        <v>5019</v>
+      </c>
+      <c r="M130">
+        <v>5362</v>
+      </c>
+      <c r="N130">
+        <v>5024</v>
+      </c>
+      <c r="O130">
+        <v>5423</v>
+      </c>
+      <c r="P130">
+        <v>5017</v>
+      </c>
+      <c r="Q130">
+        <v>5261</v>
+      </c>
+      <c r="R130">
+        <v>5022</v>
+      </c>
+      <c r="S130">
+        <v>4866</v>
+      </c>
+      <c r="T130">
+        <v>5065</v>
+      </c>
+      <c r="U130">
+        <v>5554</v>
+      </c>
+      <c r="V130">
+        <v>5321</v>
+      </c>
+      <c r="W130">
+        <v>5021</v>
+      </c>
+      <c r="X130">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>121</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131">
+        <v>5296</v>
+      </c>
+      <c r="E131">
+        <v>5296</v>
+      </c>
+      <c r="F131">
+        <v>5406</v>
+      </c>
+      <c r="G131">
+        <v>4951</v>
+      </c>
+      <c r="H131">
+        <v>5101</v>
+      </c>
+      <c r="I131">
+        <v>4951</v>
+      </c>
+      <c r="J131">
+        <v>5300</v>
+      </c>
+      <c r="K131">
+        <v>5141</v>
+      </c>
+      <c r="L131">
+        <v>5573</v>
+      </c>
+      <c r="M131">
+        <v>4916</v>
+      </c>
+      <c r="N131">
+        <v>5247</v>
+      </c>
+      <c r="O131">
+        <v>4961</v>
+      </c>
+      <c r="P131">
+        <v>4951</v>
+      </c>
+      <c r="Q131">
+        <v>5388</v>
+      </c>
+      <c r="R131">
+        <v>5363</v>
+      </c>
+      <c r="S131">
+        <v>4956</v>
+      </c>
+      <c r="T131">
+        <v>5329</v>
+      </c>
+      <c r="U131">
+        <v>5249</v>
+      </c>
+      <c r="V131">
+        <v>5192</v>
+      </c>
+      <c r="W131">
+        <v>5365</v>
+      </c>
+      <c r="X131">
+        <v>4947</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>122</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132">
+        <v>5470</v>
+      </c>
+      <c r="E132">
+        <v>5229</v>
+      </c>
+      <c r="F132">
+        <v>5469</v>
+      </c>
+      <c r="G132">
+        <v>5666</v>
+      </c>
+      <c r="H132">
+        <v>5560</v>
+      </c>
+      <c r="I132">
+        <v>5312</v>
+      </c>
+      <c r="J132">
+        <v>5229</v>
+      </c>
+      <c r="K132">
+        <v>5301</v>
+      </c>
+      <c r="L132">
+        <v>5668</v>
+      </c>
+      <c r="M132">
+        <v>5199</v>
+      </c>
+      <c r="N132">
+        <v>5311</v>
+      </c>
+      <c r="O132">
+        <v>5103</v>
+      </c>
+      <c r="P132">
+        <v>5667</v>
+      </c>
+      <c r="Q132">
+        <v>5422</v>
+      </c>
+      <c r="R132">
+        <v>5311</v>
+      </c>
+      <c r="S132">
+        <v>5459</v>
+      </c>
+      <c r="T132">
+        <v>5518</v>
+      </c>
+      <c r="U132">
+        <v>5181</v>
+      </c>
+      <c r="V132">
+        <v>5238</v>
+      </c>
+      <c r="W132">
+        <v>5309</v>
+      </c>
+      <c r="X132">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>123</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133">
+        <v>5534</v>
+      </c>
+      <c r="E133">
+        <v>5105</v>
+      </c>
+      <c r="F133">
+        <v>5319</v>
+      </c>
+      <c r="G133">
+        <v>5331</v>
+      </c>
+      <c r="H133">
+        <v>5399</v>
+      </c>
+      <c r="I133">
+        <v>5380</v>
+      </c>
+      <c r="J133">
+        <v>5107</v>
+      </c>
+      <c r="K133">
+        <v>5204</v>
+      </c>
+      <c r="L133">
+        <v>5334</v>
+      </c>
+      <c r="M133">
+        <v>5286</v>
+      </c>
+      <c r="N133">
+        <v>5208</v>
+      </c>
+      <c r="O133">
+        <v>5354</v>
+      </c>
+      <c r="P133">
+        <v>5329</v>
+      </c>
+      <c r="Q133">
+        <v>5356</v>
+      </c>
+      <c r="R133">
+        <v>5378</v>
+      </c>
+      <c r="S133">
+        <v>5110</v>
+      </c>
+      <c r="T133">
+        <v>5205</v>
+      </c>
+      <c r="U133">
+        <v>5246</v>
+      </c>
+      <c r="V133">
+        <v>4999</v>
+      </c>
+      <c r="W133">
+        <v>5380</v>
+      </c>
+      <c r="X133">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B134">
+        <v>124</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134">
+        <v>5082</v>
+      </c>
+      <c r="E134">
+        <v>5277</v>
+      </c>
+      <c r="F134">
+        <v>5192</v>
+      </c>
+      <c r="G134">
+        <v>5268</v>
+      </c>
+      <c r="H134">
+        <v>5367</v>
+      </c>
+      <c r="I134">
+        <v>5049</v>
+      </c>
+      <c r="J134">
+        <v>5281</v>
+      </c>
+      <c r="K134">
+        <v>5509</v>
+      </c>
+      <c r="L134">
+        <v>5272</v>
+      </c>
+      <c r="M134">
+        <v>5273</v>
+      </c>
+      <c r="N134">
+        <v>5052</v>
+      </c>
+      <c r="O134">
+        <v>5314</v>
+      </c>
+      <c r="P134">
+        <v>5270</v>
+      </c>
+      <c r="Q134">
+        <v>4955</v>
+      </c>
+      <c r="R134">
+        <v>5294</v>
+      </c>
+      <c r="S134">
+        <v>5275</v>
+      </c>
+      <c r="T134">
+        <v>5130</v>
+      </c>
+      <c r="U134">
+        <v>5523</v>
+      </c>
+      <c r="V134">
+        <v>4961</v>
+      </c>
+      <c r="W134">
+        <v>5295</v>
+      </c>
+      <c r="X134">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B135">
+        <v>125</v>
+      </c>
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135">
+        <v>5377</v>
+      </c>
+      <c r="E135">
+        <v>5171</v>
+      </c>
+      <c r="F135">
+        <v>5607</v>
+      </c>
+      <c r="G135">
+        <v>5491</v>
+      </c>
+      <c r="H135">
+        <v>5608</v>
+      </c>
+      <c r="I135">
+        <v>5203</v>
+      </c>
+      <c r="J135">
+        <v>5173</v>
+      </c>
+      <c r="K135">
+        <v>5047</v>
+      </c>
+      <c r="L135">
+        <v>4893</v>
+      </c>
+      <c r="M135">
+        <v>5339</v>
+      </c>
+      <c r="N135">
+        <v>5170</v>
+      </c>
+      <c r="O135">
+        <v>4997</v>
+      </c>
+      <c r="P135">
+        <v>5493</v>
+      </c>
+      <c r="Q135">
+        <v>5406</v>
+      </c>
+      <c r="R135">
+        <v>5205</v>
+      </c>
+      <c r="S135">
+        <v>4895</v>
+      </c>
+      <c r="T135">
+        <v>5257</v>
+      </c>
+      <c r="U135">
+        <v>5171</v>
+      </c>
+      <c r="V135">
+        <v>5000</v>
+      </c>
+      <c r="W135">
+        <v>5205</v>
+      </c>
+      <c r="X135">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>126</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136">
+        <v>5044</v>
+      </c>
+      <c r="E136">
+        <v>5484</v>
+      </c>
+      <c r="F136">
+        <v>5399</v>
+      </c>
+      <c r="G136">
+        <v>5362</v>
+      </c>
+      <c r="H136">
+        <v>5619</v>
+      </c>
+      <c r="I136">
+        <v>5329</v>
+      </c>
+      <c r="J136">
+        <v>5485</v>
+      </c>
+      <c r="K136">
+        <v>5092</v>
+      </c>
+      <c r="L136">
+        <v>5159</v>
+      </c>
+      <c r="M136">
+        <v>4960</v>
+      </c>
+      <c r="N136">
+        <v>5197</v>
+      </c>
+      <c r="O136">
+        <v>5402</v>
+      </c>
+      <c r="P136">
+        <v>5360</v>
+      </c>
+      <c r="Q136">
+        <v>5468</v>
+      </c>
+      <c r="R136">
+        <v>5021</v>
+      </c>
+      <c r="S136">
+        <v>5326</v>
+      </c>
+      <c r="T136">
+        <v>5394</v>
+      </c>
+      <c r="U136">
+        <v>5484</v>
+      </c>
+      <c r="V136">
+        <v>5397</v>
+      </c>
+      <c r="W136">
+        <v>5021</v>
+      </c>
+      <c r="X136">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>127</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137">
+        <v>5068</v>
+      </c>
+      <c r="E137">
+        <v>5334</v>
+      </c>
+      <c r="F137">
+        <v>5406</v>
+      </c>
+      <c r="G137">
+        <v>5197</v>
+      </c>
+      <c r="H137">
+        <v>5145</v>
+      </c>
+      <c r="I137">
+        <v>5141</v>
+      </c>
+      <c r="J137">
+        <v>5335</v>
+      </c>
+      <c r="K137">
+        <v>5380</v>
+      </c>
+      <c r="L137">
+        <v>5311</v>
+      </c>
+      <c r="M137">
+        <v>5003</v>
+      </c>
+      <c r="N137">
+        <v>5313</v>
+      </c>
+      <c r="O137">
+        <v>5403</v>
+      </c>
+      <c r="P137">
+        <v>5197</v>
+      </c>
+      <c r="Q137">
+        <v>5406</v>
+      </c>
+      <c r="R137">
+        <v>5141</v>
+      </c>
+      <c r="S137">
+        <v>5311</v>
+      </c>
+      <c r="T137">
+        <v>5402</v>
+      </c>
+      <c r="U137">
+        <v>5313</v>
+      </c>
+      <c r="V137">
+        <v>5408</v>
+      </c>
+      <c r="W137">
+        <v>5141</v>
+      </c>
+      <c r="X137">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>128</v>
+      </c>
+      <c r="C138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138">
+        <v>5210</v>
+      </c>
+      <c r="E138">
+        <v>5248</v>
+      </c>
+      <c r="F138">
+        <v>5176</v>
+      </c>
+      <c r="G138">
+        <v>5220</v>
+      </c>
+      <c r="H138">
+        <v>4956</v>
+      </c>
+      <c r="I138">
+        <v>5542</v>
+      </c>
+      <c r="J138">
+        <v>5252</v>
+      </c>
+      <c r="K138">
+        <v>5212</v>
+      </c>
+      <c r="L138">
+        <v>5223</v>
+      </c>
+      <c r="M138">
+        <v>5235</v>
+      </c>
+      <c r="N138">
+        <v>5544</v>
+      </c>
+      <c r="O138">
+        <v>4937</v>
+      </c>
+      <c r="P138">
+        <v>5219</v>
+      </c>
+      <c r="Q138">
+        <v>5214</v>
+      </c>
+      <c r="R138">
+        <v>5540</v>
+      </c>
+      <c r="S138">
+        <v>4965</v>
+      </c>
+      <c r="T138">
+        <v>5213</v>
+      </c>
+      <c r="U138">
+        <v>5263</v>
+      </c>
+      <c r="V138">
+        <v>5150</v>
+      </c>
+      <c r="W138">
+        <v>5542</v>
+      </c>
+      <c r="X138">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>129</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139">
+        <v>5283</v>
+      </c>
+      <c r="E139">
+        <v>5252</v>
+      </c>
+      <c r="F139">
+        <v>5343</v>
+      </c>
+      <c r="G139">
+        <v>5446</v>
+      </c>
+      <c r="H139">
+        <v>5286</v>
+      </c>
+      <c r="I139">
+        <v>5227</v>
+      </c>
+      <c r="J139">
+        <v>5253</v>
+      </c>
+      <c r="K139">
+        <v>5376</v>
+      </c>
+      <c r="L139">
+        <v>5447</v>
+      </c>
+      <c r="M139">
+        <v>5243</v>
+      </c>
+      <c r="N139">
+        <v>5055</v>
+      </c>
+      <c r="O139">
+        <v>5520</v>
+      </c>
+      <c r="P139">
+        <v>5444</v>
+      </c>
+      <c r="Q139">
+        <v>4935</v>
+      </c>
+      <c r="R139">
+        <v>5226</v>
+      </c>
+      <c r="S139">
+        <v>5450</v>
+      </c>
+      <c r="T139">
+        <v>5006</v>
+      </c>
+      <c r="U139">
+        <v>5256</v>
+      </c>
+      <c r="V139">
+        <v>5144</v>
+      </c>
+      <c r="W139">
+        <v>5225</v>
+      </c>
+      <c r="X139">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A140">
+        <f t="shared" ref="A140:A203" si="3">COUNTIF(D140:X140,"&gt;=5500")</f>
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>130</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140">
+        <v>5541</v>
+      </c>
+      <c r="E140">
+        <v>5256</v>
+      </c>
+      <c r="F140">
+        <v>5541</v>
+      </c>
+      <c r="G140">
+        <v>5406</v>
+      </c>
+      <c r="H140">
+        <v>5233</v>
+      </c>
+      <c r="I140">
+        <v>5060</v>
+      </c>
+      <c r="J140">
+        <v>5259</v>
+      </c>
+      <c r="K140">
+        <v>5540</v>
+      </c>
+      <c r="L140">
+        <v>5408</v>
+      </c>
+      <c r="M140">
+        <v>5243</v>
+      </c>
+      <c r="N140">
+        <v>5542</v>
+      </c>
+      <c r="O140">
+        <v>5000</v>
+      </c>
+      <c r="P140">
+        <v>5406</v>
+      </c>
+      <c r="Q140">
+        <v>5394</v>
+      </c>
+      <c r="R140">
+        <v>5060</v>
+      </c>
+      <c r="S140">
+        <v>5546</v>
+      </c>
+      <c r="T140">
+        <v>5022</v>
+      </c>
+      <c r="U140">
+        <v>5035</v>
+      </c>
+      <c r="V140">
+        <v>5354</v>
+      </c>
+      <c r="W140">
+        <v>5062</v>
+      </c>
+      <c r="X140">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A141">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>131</v>
+      </c>
+      <c r="C141" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141">
+        <v>5419</v>
+      </c>
+      <c r="E141">
+        <v>5214</v>
+      </c>
+      <c r="F141">
+        <v>5676</v>
+      </c>
+      <c r="G141">
+        <v>5011</v>
+      </c>
+      <c r="H141">
+        <v>5202</v>
+      </c>
+      <c r="I141">
+        <v>5287</v>
+      </c>
+      <c r="J141">
+        <v>5215</v>
+      </c>
+      <c r="K141">
+        <v>5423</v>
+      </c>
+      <c r="L141">
+        <v>5248</v>
+      </c>
+      <c r="M141">
+        <v>5370</v>
+      </c>
+      <c r="N141">
+        <v>5252</v>
+      </c>
+      <c r="O141">
+        <v>5188</v>
+      </c>
+      <c r="P141">
+        <v>5011</v>
+      </c>
+      <c r="Q141">
+        <v>5492</v>
+      </c>
+      <c r="R141">
+        <v>5013</v>
+      </c>
+      <c r="S141">
+        <v>5014</v>
+      </c>
+      <c r="T141">
+        <v>5486</v>
+      </c>
+      <c r="U141">
+        <v>5249</v>
+      </c>
+      <c r="V141">
+        <v>5148</v>
+      </c>
+      <c r="W141">
+        <v>5014</v>
+      </c>
+      <c r="X141">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A142">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B142">
+        <v>132</v>
+      </c>
+      <c r="C142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D142">
+        <v>4917</v>
+      </c>
+      <c r="E142">
+        <v>4917</v>
+      </c>
+      <c r="F142">
+        <v>5241</v>
+      </c>
+      <c r="G142">
+        <v>5097</v>
+      </c>
+      <c r="H142">
+        <v>5121</v>
+      </c>
+      <c r="I142">
+        <v>5427</v>
+      </c>
+      <c r="J142">
+        <v>4919</v>
+      </c>
+      <c r="K142">
+        <v>5531</v>
+      </c>
+      <c r="L142">
+        <v>5101</v>
+      </c>
+      <c r="M142">
+        <v>5531</v>
+      </c>
+      <c r="N142">
+        <v>5391</v>
+      </c>
+      <c r="O142">
+        <v>5038</v>
+      </c>
+      <c r="P142">
+        <v>5098</v>
+      </c>
+      <c r="Q142">
+        <v>5038</v>
+      </c>
+      <c r="R142">
+        <v>5390</v>
+      </c>
+      <c r="S142">
+        <v>5101</v>
+      </c>
+      <c r="T142">
+        <v>5037</v>
+      </c>
+      <c r="U142">
+        <v>5393</v>
+      </c>
+      <c r="V142">
+        <v>5212</v>
+      </c>
+      <c r="W142">
+        <v>5388</v>
+      </c>
+      <c r="X142">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A143">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>133</v>
+      </c>
+      <c r="C143" t="s">
+        <v>156</v>
+      </c>
+      <c r="D143">
+        <v>5457</v>
+      </c>
+      <c r="E143">
+        <v>5134</v>
+      </c>
+      <c r="F143">
+        <v>5163</v>
+      </c>
+      <c r="G143">
+        <v>5402</v>
+      </c>
+      <c r="H143">
+        <v>5159</v>
+      </c>
+      <c r="I143">
+        <v>5136</v>
+      </c>
+      <c r="J143">
+        <v>5135</v>
+      </c>
+      <c r="K143">
+        <v>5458</v>
+      </c>
+      <c r="L143">
+        <v>5139</v>
+      </c>
+      <c r="M143">
+        <v>5160</v>
+      </c>
+      <c r="N143">
+        <v>5140</v>
+      </c>
+      <c r="O143">
+        <v>5117</v>
+      </c>
+      <c r="P143">
+        <v>5400</v>
+      </c>
+      <c r="Q143">
+        <v>5173</v>
+      </c>
+      <c r="R143">
+        <v>5136</v>
+      </c>
+      <c r="S143">
+        <v>5404</v>
+      </c>
+      <c r="T143">
+        <v>5146</v>
+      </c>
+      <c r="U143">
+        <v>5492</v>
+      </c>
+      <c r="V143">
+        <v>4998</v>
+      </c>
+      <c r="W143">
+        <v>5136</v>
+      </c>
+      <c r="X143">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A144">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B144">
+        <v>134</v>
+      </c>
+      <c r="C144" t="s">
+        <v>157</v>
+      </c>
+      <c r="D144">
+        <v>5291</v>
+      </c>
+      <c r="E144">
+        <v>5581</v>
+      </c>
+      <c r="F144">
+        <v>5290</v>
+      </c>
+      <c r="G144">
+        <v>5014</v>
+      </c>
+      <c r="H144">
+        <v>5577</v>
+      </c>
+      <c r="I144">
+        <v>5410</v>
+      </c>
+      <c r="J144">
+        <v>5581</v>
+      </c>
+      <c r="K144">
+        <v>5171</v>
+      </c>
+      <c r="L144">
+        <v>5015</v>
+      </c>
+      <c r="M144">
+        <v>5173</v>
+      </c>
+      <c r="N144">
+        <v>5410</v>
+      </c>
+      <c r="O144">
+        <v>5422</v>
+      </c>
+      <c r="P144">
+        <v>5012</v>
+      </c>
+      <c r="Q144">
+        <v>5422</v>
+      </c>
+      <c r="R144">
+        <v>5408</v>
+      </c>
+      <c r="S144">
+        <v>5020</v>
+      </c>
+      <c r="T144">
+        <v>5065</v>
+      </c>
+      <c r="U144">
+        <v>5019</v>
+      </c>
+      <c r="V144">
+        <v>5123</v>
+      </c>
+      <c r="W144">
+        <v>5408</v>
+      </c>
+      <c r="X144">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A145">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B145">
+        <v>135</v>
+      </c>
+      <c r="C145" t="s">
+        <v>158</v>
+      </c>
+      <c r="D145">
+        <v>5339</v>
+      </c>
+      <c r="E145">
+        <v>5608</v>
+      </c>
+      <c r="F145">
+        <v>5257</v>
+      </c>
+      <c r="G145">
+        <v>5371</v>
+      </c>
+      <c r="H145">
+        <v>5040</v>
+      </c>
+      <c r="I145">
+        <v>5202</v>
+      </c>
+      <c r="J145">
+        <v>5610</v>
+      </c>
+      <c r="K145">
+        <v>4991</v>
+      </c>
+      <c r="L145">
+        <v>5147</v>
+      </c>
+      <c r="M145">
+        <v>4991</v>
+      </c>
+      <c r="N145">
+        <v>5146</v>
+      </c>
+      <c r="O145">
+        <v>5316</v>
+      </c>
+      <c r="P145">
+        <v>5373</v>
+      </c>
+      <c r="Q145">
+        <v>5282</v>
+      </c>
+      <c r="R145">
+        <v>5204</v>
+      </c>
+      <c r="S145">
+        <v>5148</v>
+      </c>
+      <c r="T145">
+        <v>5614</v>
+      </c>
+      <c r="U145">
+        <v>4923</v>
+      </c>
+      <c r="V145">
+        <v>5452</v>
+      </c>
+      <c r="W145">
+        <v>5205</v>
+      </c>
+      <c r="X145">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A146">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>136</v>
+      </c>
+      <c r="C146" t="s">
+        <v>159</v>
+      </c>
+      <c r="D146">
+        <v>4990</v>
+      </c>
+      <c r="E146">
+        <v>5008</v>
+      </c>
+      <c r="F146">
+        <v>5519</v>
+      </c>
+      <c r="G146">
+        <v>5064</v>
+      </c>
+      <c r="H146">
+        <v>5519</v>
+      </c>
+      <c r="I146">
+        <v>4982</v>
+      </c>
+      <c r="J146">
+        <v>5010</v>
+      </c>
+      <c r="K146">
+        <v>5038</v>
+      </c>
+      <c r="L146">
+        <v>5066</v>
+      </c>
+      <c r="M146">
+        <v>4992</v>
+      </c>
+      <c r="N146">
+        <v>4952</v>
+      </c>
+      <c r="O146">
+        <v>5521</v>
+      </c>
+      <c r="P146">
+        <v>5064</v>
+      </c>
+      <c r="Q146">
+        <v>5521</v>
+      </c>
+      <c r="R146">
+        <v>5255</v>
+      </c>
+      <c r="S146">
+        <v>4993</v>
+      </c>
+      <c r="T146">
+        <v>5139</v>
+      </c>
+      <c r="U146">
+        <v>5006</v>
+      </c>
+      <c r="V146">
+        <v>5412</v>
+      </c>
+      <c r="W146">
+        <v>5255</v>
+      </c>
+      <c r="X146">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A147">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>137</v>
+      </c>
+      <c r="C147" t="s">
+        <v>160</v>
+      </c>
+      <c r="D147">
+        <v>4933</v>
+      </c>
+      <c r="E147">
+        <v>5044</v>
+      </c>
+      <c r="F147">
+        <v>5043</v>
+      </c>
+      <c r="G147">
+        <v>5239</v>
+      </c>
+      <c r="H147">
+        <v>5186</v>
+      </c>
+      <c r="I147">
+        <v>5242</v>
+      </c>
+      <c r="J147">
+        <v>5046</v>
+      </c>
+      <c r="K147">
+        <v>5265</v>
+      </c>
+      <c r="L147">
+        <v>5243</v>
+      </c>
+      <c r="M147">
+        <v>5141</v>
+      </c>
+      <c r="N147">
+        <v>5245</v>
+      </c>
+      <c r="O147">
+        <v>5045</v>
+      </c>
+      <c r="P147">
+        <v>5240</v>
+      </c>
+      <c r="Q147">
+        <v>5035</v>
+      </c>
+      <c r="R147">
+        <v>5243</v>
+      </c>
+      <c r="S147">
+        <v>5243</v>
+      </c>
+      <c r="T147">
+        <v>5240</v>
+      </c>
+      <c r="U147">
+        <v>5246</v>
+      </c>
+      <c r="V147">
+        <v>5279</v>
+      </c>
+      <c r="W147">
+        <v>5241</v>
+      </c>
+      <c r="X147">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A148">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>138</v>
+      </c>
+      <c r="C148" t="s">
+        <v>161</v>
+      </c>
+      <c r="D148">
+        <v>5145</v>
+      </c>
+      <c r="E148">
+        <v>4959</v>
+      </c>
+      <c r="F148">
+        <v>5037</v>
+      </c>
+      <c r="G148">
+        <v>5436</v>
+      </c>
+      <c r="H148">
+        <v>4978</v>
+      </c>
+      <c r="I148">
+        <v>5034</v>
+      </c>
+      <c r="J148">
+        <v>4963</v>
+      </c>
+      <c r="K148">
+        <v>5215</v>
+      </c>
+      <c r="L148">
+        <v>5438</v>
+      </c>
+      <c r="M148">
+        <v>5479</v>
+      </c>
+      <c r="N148">
+        <v>5039</v>
+      </c>
+      <c r="O148">
+        <v>5168</v>
+      </c>
+      <c r="P148">
+        <v>5436</v>
+      </c>
+      <c r="Q148">
+        <v>5333</v>
+      </c>
+      <c r="R148">
+        <v>5472</v>
+      </c>
+      <c r="S148">
+        <v>5443</v>
+      </c>
+      <c r="T148">
+        <v>5256</v>
+      </c>
+      <c r="U148">
+        <v>5252</v>
+      </c>
+      <c r="V148">
+        <v>5200</v>
+      </c>
+      <c r="W148">
+        <v>5472</v>
+      </c>
+      <c r="X148">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A149">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>139</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149">
+        <v>5404</v>
+      </c>
+      <c r="E149">
+        <v>5339</v>
+      </c>
+      <c r="F149">
+        <v>5451</v>
+      </c>
+      <c r="G149">
+        <v>5304</v>
+      </c>
+      <c r="H149">
+        <v>5360</v>
+      </c>
+      <c r="I149">
+        <v>5385</v>
+      </c>
+      <c r="J149">
+        <v>5342</v>
+      </c>
+      <c r="K149">
+        <v>5026</v>
+      </c>
+      <c r="L149">
+        <v>5388</v>
+      </c>
+      <c r="M149">
+        <v>5359</v>
+      </c>
+      <c r="N149">
+        <v>4825</v>
+      </c>
+      <c r="O149">
+        <v>5454</v>
+      </c>
+      <c r="P149">
+        <v>5303</v>
+      </c>
+      <c r="Q149">
+        <v>5116</v>
+      </c>
+      <c r="R149">
+        <v>5385</v>
+      </c>
+      <c r="S149">
+        <v>4823</v>
+      </c>
+      <c r="T149">
+        <v>5103</v>
+      </c>
+      <c r="U149">
+        <v>4825</v>
+      </c>
+      <c r="V149">
+        <v>5309</v>
+      </c>
+      <c r="W149">
+        <v>5385</v>
+      </c>
+      <c r="X149">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>140</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150">
+        <v>5034</v>
+      </c>
+      <c r="E150">
+        <v>5034</v>
+      </c>
+      <c r="F150">
+        <v>5407</v>
+      </c>
+      <c r="G150">
+        <v>5109</v>
+      </c>
+      <c r="H150">
+        <v>5246</v>
+      </c>
+      <c r="I150">
+        <v>5037</v>
+      </c>
+      <c r="J150">
+        <v>5036</v>
+      </c>
+      <c r="K150">
+        <v>4986</v>
+      </c>
+      <c r="L150">
+        <v>5111</v>
+      </c>
+      <c r="M150">
+        <v>5231</v>
+      </c>
+      <c r="N150">
+        <v>5039</v>
+      </c>
+      <c r="O150">
+        <v>5652</v>
+      </c>
+      <c r="P150">
+        <v>5111</v>
+      </c>
+      <c r="Q150">
+        <v>5092</v>
+      </c>
+      <c r="R150">
+        <v>5038</v>
+      </c>
+      <c r="S150">
+        <v>5114</v>
+      </c>
+      <c r="T150">
+        <v>4986</v>
+      </c>
+      <c r="U150">
+        <v>5081</v>
+      </c>
+      <c r="V150">
+        <v>4989</v>
+      </c>
+      <c r="W150">
+        <v>5036</v>
+      </c>
+      <c r="X150">
+        <v>5043</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A151">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>141</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151">
+        <v>5182</v>
+      </c>
+      <c r="E151">
+        <v>5289</v>
+      </c>
+      <c r="F151">
+        <v>5100</v>
+      </c>
+      <c r="G151">
+        <v>5157</v>
+      </c>
+      <c r="H151">
+        <v>5108</v>
+      </c>
+      <c r="I151">
+        <v>5161</v>
+      </c>
+      <c r="J151">
+        <v>5289</v>
+      </c>
+      <c r="K151">
+        <v>5150</v>
+      </c>
+      <c r="L151">
+        <v>5157</v>
+      </c>
+      <c r="M151">
+        <v>5293</v>
+      </c>
+      <c r="N151">
+        <v>5160</v>
+      </c>
+      <c r="O151">
+        <v>4979</v>
+      </c>
+      <c r="P151">
+        <v>5158</v>
+      </c>
+      <c r="Q151">
+        <v>5110</v>
+      </c>
+      <c r="R151">
+        <v>5331</v>
+      </c>
+      <c r="S151">
+        <v>5294</v>
+      </c>
+      <c r="T151">
+        <v>5168</v>
+      </c>
+      <c r="U151">
+        <v>5332</v>
+      </c>
+      <c r="V151">
+        <v>4865</v>
+      </c>
+      <c r="W151">
+        <v>5329</v>
+      </c>
+      <c r="X151">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A152">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>142</v>
+      </c>
+      <c r="C152" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152">
+        <v>5087</v>
+      </c>
+      <c r="E152">
+        <v>5555</v>
+      </c>
+      <c r="F152">
+        <v>5347</v>
+      </c>
+      <c r="G152">
+        <v>5394</v>
+      </c>
+      <c r="H152">
+        <v>5037</v>
+      </c>
+      <c r="I152">
+        <v>5458</v>
+      </c>
+      <c r="J152">
+        <v>5556</v>
+      </c>
+      <c r="K152">
+        <v>5165</v>
+      </c>
+      <c r="L152">
+        <v>5396</v>
+      </c>
+      <c r="M152">
+        <v>5159</v>
+      </c>
+      <c r="N152">
+        <v>5459</v>
+      </c>
+      <c r="O152">
+        <v>5138</v>
+      </c>
+      <c r="P152">
+        <v>5395</v>
+      </c>
+      <c r="Q152">
+        <v>4853</v>
+      </c>
+      <c r="R152">
+        <v>5458</v>
+      </c>
+      <c r="S152">
+        <v>5398</v>
+      </c>
+      <c r="T152">
+        <v>5588</v>
+      </c>
+      <c r="U152">
+        <v>5433</v>
+      </c>
+      <c r="V152">
+        <v>5591</v>
+      </c>
+      <c r="W152">
+        <v>5459</v>
+      </c>
+      <c r="X152">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A153">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>143</v>
+      </c>
+      <c r="C153" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153">
+        <v>5072</v>
+      </c>
+      <c r="E153">
+        <v>5073</v>
+      </c>
+      <c r="F153">
+        <v>5208</v>
+      </c>
+      <c r="G153">
+        <v>5247</v>
+      </c>
+      <c r="H153">
+        <v>5496</v>
+      </c>
+      <c r="I153">
+        <v>5251</v>
+      </c>
+      <c r="J153">
+        <v>5075</v>
+      </c>
+      <c r="K153">
+        <v>5144</v>
+      </c>
+      <c r="L153">
+        <v>5249</v>
+      </c>
+      <c r="M153">
+        <v>5146</v>
+      </c>
+      <c r="N153">
+        <v>5253</v>
+      </c>
+      <c r="O153">
+        <v>5487</v>
+      </c>
+      <c r="P153">
+        <v>5249</v>
+      </c>
+      <c r="Q153">
+        <v>5483</v>
+      </c>
+      <c r="R153">
+        <v>5252</v>
+      </c>
+      <c r="S153">
+        <v>5253</v>
+      </c>
+      <c r="T153">
+        <v>5210</v>
+      </c>
+      <c r="U153">
+        <v>5377</v>
+      </c>
+      <c r="V153">
+        <v>5131</v>
+      </c>
+      <c r="W153">
+        <v>5250</v>
+      </c>
+      <c r="X153">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A154">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>144</v>
+      </c>
+      <c r="C154" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154">
+        <v>5361</v>
+      </c>
+      <c r="E154">
+        <v>5200</v>
+      </c>
+      <c r="F154">
+        <v>5264</v>
+      </c>
+      <c r="G154">
+        <v>5061</v>
+      </c>
+      <c r="H154">
+        <v>5011</v>
+      </c>
+      <c r="I154">
+        <v>5060</v>
+      </c>
+      <c r="J154">
+        <v>5201</v>
+      </c>
+      <c r="K154">
+        <v>5263</v>
+      </c>
+      <c r="L154">
+        <v>5064</v>
+      </c>
+      <c r="M154">
+        <v>5213</v>
+      </c>
+      <c r="N154">
+        <v>5022</v>
+      </c>
+      <c r="O154">
+        <v>5345</v>
+      </c>
+      <c r="P154">
+        <v>5059</v>
+      </c>
+      <c r="Q154">
+        <v>4955</v>
+      </c>
+      <c r="R154">
+        <v>5058</v>
+      </c>
+      <c r="S154">
+        <v>5063</v>
+      </c>
+      <c r="T154">
+        <v>5193</v>
+      </c>
+      <c r="U154">
+        <v>5062</v>
+      </c>
+      <c r="V154">
+        <v>5261</v>
+      </c>
+      <c r="W154">
+        <v>5060</v>
+      </c>
+      <c r="X154">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A155">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>145</v>
+      </c>
+      <c r="C155" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155">
+        <v>5332</v>
+      </c>
+      <c r="E155">
+        <v>5329</v>
+      </c>
+      <c r="F155">
+        <v>4936</v>
+      </c>
+      <c r="G155">
+        <v>5332</v>
+      </c>
+      <c r="H155">
+        <v>5231</v>
+      </c>
+      <c r="I155">
+        <v>5114</v>
+      </c>
+      <c r="J155">
+        <v>5331</v>
+      </c>
+      <c r="K155">
+        <v>4935</v>
+      </c>
+      <c r="L155">
+        <v>5343</v>
+      </c>
+      <c r="M155">
+        <v>5074</v>
+      </c>
+      <c r="N155">
+        <v>5117</v>
+      </c>
+      <c r="O155">
+        <v>5285</v>
+      </c>
+      <c r="P155">
+        <v>5334</v>
+      </c>
+      <c r="Q155">
+        <v>5283</v>
+      </c>
+      <c r="R155">
+        <v>5116</v>
+      </c>
+      <c r="S155">
+        <v>4935</v>
+      </c>
+      <c r="T155">
+        <v>5074</v>
+      </c>
+      <c r="U155">
+        <v>5332</v>
+      </c>
+      <c r="V155">
+        <v>5330</v>
+      </c>
+      <c r="W155">
+        <v>5116</v>
+      </c>
+      <c r="X155">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A156">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>146</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156">
+        <v>5033</v>
+      </c>
+      <c r="E156">
+        <v>5044</v>
+      </c>
+      <c r="F156">
+        <v>5033</v>
+      </c>
+      <c r="G156">
+        <v>5093</v>
+      </c>
+      <c r="H156">
+        <v>5034</v>
+      </c>
+      <c r="I156">
+        <v>5240</v>
+      </c>
+      <c r="J156">
+        <v>5044</v>
+      </c>
+      <c r="K156">
+        <v>5405</v>
+      </c>
+      <c r="L156">
+        <v>5094</v>
+      </c>
+      <c r="M156">
+        <v>5142</v>
+      </c>
+      <c r="N156">
+        <v>5242</v>
+      </c>
+      <c r="O156">
+        <v>5234</v>
+      </c>
+      <c r="P156">
+        <v>5091</v>
+      </c>
+      <c r="Q156">
+        <v>4986</v>
+      </c>
+      <c r="R156">
+        <v>5239</v>
+      </c>
+      <c r="S156">
+        <v>5097</v>
+      </c>
+      <c r="T156">
+        <v>5404</v>
+      </c>
+      <c r="U156">
+        <v>5018</v>
+      </c>
+      <c r="V156">
+        <v>5300</v>
+      </c>
+      <c r="W156">
+        <v>5238</v>
+      </c>
+      <c r="X156">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A157">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>147</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157">
+        <v>5455</v>
+      </c>
+      <c r="E157">
+        <v>5104</v>
+      </c>
+      <c r="F157">
+        <v>5653</v>
+      </c>
+      <c r="G157">
+        <v>5191</v>
+      </c>
+      <c r="H157">
+        <v>5401</v>
+      </c>
+      <c r="I157">
+        <v>5324</v>
+      </c>
+      <c r="J157">
+        <v>5104</v>
+      </c>
+      <c r="K157">
+        <v>5185</v>
+      </c>
+      <c r="L157">
+        <v>5191</v>
+      </c>
+      <c r="M157">
+        <v>5185</v>
+      </c>
+      <c r="N157">
+        <v>5191</v>
+      </c>
+      <c r="O157">
+        <v>5360</v>
+      </c>
+      <c r="P157">
+        <v>5191</v>
+      </c>
+      <c r="Q157">
+        <v>5340</v>
+      </c>
+      <c r="R157">
+        <v>5324</v>
+      </c>
+      <c r="S157">
+        <v>5195</v>
+      </c>
+      <c r="T157">
+        <v>5425</v>
+      </c>
+      <c r="U157">
+        <v>5407</v>
+      </c>
+      <c r="V157">
+        <v>5480</v>
+      </c>
+      <c r="W157">
+        <v>5324</v>
+      </c>
+      <c r="X157">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A158">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>148</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158">
+        <v>4896</v>
+      </c>
+      <c r="E158">
+        <v>5115</v>
+      </c>
+      <c r="F158">
+        <v>5156</v>
+      </c>
+      <c r="G158">
+        <v>4981</v>
+      </c>
+      <c r="H158">
+        <v>5272</v>
+      </c>
+      <c r="I158">
+        <v>5441</v>
+      </c>
+      <c r="J158">
+        <v>5117</v>
+      </c>
+      <c r="K158">
+        <v>5478</v>
+      </c>
+      <c r="L158">
+        <v>4984</v>
+      </c>
+      <c r="M158">
+        <v>4973</v>
+      </c>
+      <c r="N158">
+        <v>5358</v>
+      </c>
+      <c r="O158">
+        <v>4825</v>
+      </c>
+      <c r="P158">
+        <v>4979</v>
+      </c>
+      <c r="Q158">
+        <v>4993</v>
+      </c>
+      <c r="R158">
+        <v>5439</v>
+      </c>
+      <c r="S158">
+        <v>4986</v>
+      </c>
+      <c r="T158">
+        <v>4822</v>
+      </c>
+      <c r="U158">
+        <v>5447</v>
+      </c>
+      <c r="V158">
+        <v>5189</v>
+      </c>
+      <c r="W158">
+        <v>5441</v>
+      </c>
+      <c r="X158">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A159">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>149</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D159">
+        <v>5316</v>
+      </c>
+      <c r="E159">
+        <v>5425</v>
+      </c>
+      <c r="F159">
+        <v>5249</v>
+      </c>
+      <c r="G159">
+        <v>5489</v>
+      </c>
+      <c r="H159">
+        <v>5375</v>
+      </c>
+      <c r="I159">
+        <v>5306</v>
+      </c>
+      <c r="J159">
+        <v>5427</v>
+      </c>
+      <c r="K159">
+        <v>5315</v>
+      </c>
+      <c r="L159">
+        <v>5466</v>
+      </c>
+      <c r="M159">
+        <v>5249</v>
+      </c>
+      <c r="N159">
+        <v>5418</v>
+      </c>
+      <c r="O159">
+        <v>5169</v>
+      </c>
+      <c r="P159">
+        <v>5489</v>
+      </c>
+      <c r="Q159">
+        <v>5171</v>
+      </c>
+      <c r="R159">
+        <v>5305</v>
+      </c>
+      <c r="S159">
+        <v>4856</v>
+      </c>
+      <c r="T159">
+        <v>5061</v>
+      </c>
+      <c r="U159">
+        <v>5256</v>
+      </c>
+      <c r="V159">
+        <v>5388</v>
+      </c>
+      <c r="W159">
+        <v>5303</v>
+      </c>
+      <c r="X159">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A160">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>150</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160">
+        <v>5353</v>
+      </c>
+      <c r="E160">
+        <v>5301</v>
+      </c>
+      <c r="F160">
+        <v>5351</v>
+      </c>
+      <c r="G160">
+        <v>5347</v>
+      </c>
+      <c r="H160">
+        <v>5425</v>
+      </c>
+      <c r="I160">
+        <v>5288</v>
+      </c>
+      <c r="J160">
+        <v>5305</v>
+      </c>
+      <c r="K160">
+        <v>4938</v>
+      </c>
+      <c r="L160">
+        <v>5351</v>
+      </c>
+      <c r="M160">
+        <v>5368</v>
+      </c>
+      <c r="N160">
+        <v>5292</v>
+      </c>
+      <c r="O160">
+        <v>5202</v>
+      </c>
+      <c r="P160">
+        <v>5349</v>
+      </c>
+      <c r="Q160">
+        <v>5280</v>
+      </c>
+      <c r="R160">
+        <v>5290</v>
+      </c>
+      <c r="S160">
+        <v>5060</v>
+      </c>
+      <c r="T160">
+        <v>4975</v>
+      </c>
+      <c r="U160">
+        <v>5361</v>
+      </c>
+      <c r="V160">
+        <v>5287</v>
+      </c>
+      <c r="W160">
+        <v>5290</v>
+      </c>
+      <c r="X160">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A161">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B161">
+        <v>151</v>
+      </c>
+      <c r="C161" t="s">
+        <v>174</v>
+      </c>
+      <c r="D161">
+        <v>5353</v>
+      </c>
+      <c r="E161">
+        <v>5017</v>
+      </c>
+      <c r="F161">
+        <v>5355</v>
+      </c>
+      <c r="G161">
+        <v>5564</v>
+      </c>
+      <c r="H161">
+        <v>5121</v>
+      </c>
+      <c r="I161">
+        <v>4852</v>
+      </c>
+      <c r="J161">
+        <v>5018</v>
+      </c>
+      <c r="K161">
+        <v>5293</v>
+      </c>
+      <c r="L161">
+        <v>5566</v>
+      </c>
+      <c r="M161">
+        <v>5283</v>
+      </c>
+      <c r="N161">
+        <v>4853</v>
+      </c>
+      <c r="O161">
+        <v>5356</v>
+      </c>
+      <c r="P161">
+        <v>5565</v>
+      </c>
+      <c r="Q161">
+        <v>4995</v>
+      </c>
+      <c r="R161">
+        <v>5683</v>
+      </c>
+      <c r="S161">
+        <v>5570</v>
+      </c>
+      <c r="T161">
+        <v>5121</v>
+      </c>
+      <c r="U161">
+        <v>5688</v>
+      </c>
+      <c r="V161">
+        <v>5294</v>
+      </c>
+      <c r="W161">
+        <v>5681</v>
+      </c>
+      <c r="X161">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A162">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B162">
+        <v>152</v>
+      </c>
+      <c r="C162" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162">
+        <v>5526</v>
+      </c>
+      <c r="E162">
+        <v>4838</v>
+      </c>
+      <c r="F162">
+        <v>4957</v>
+      </c>
+      <c r="G162">
+        <v>4842</v>
+      </c>
+      <c r="H162">
+        <v>5402</v>
+      </c>
+      <c r="I162">
+        <v>4890</v>
+      </c>
+      <c r="J162">
+        <v>4840</v>
+      </c>
+      <c r="K162">
+        <v>5440</v>
+      </c>
+      <c r="L162">
+        <v>4844</v>
+      </c>
+      <c r="M162">
+        <v>5581</v>
+      </c>
+      <c r="N162">
+        <v>4893</v>
+      </c>
+      <c r="O162">
+        <v>5257</v>
+      </c>
+      <c r="P162">
+        <v>4844</v>
+      </c>
+      <c r="Q162">
+        <v>5422</v>
+      </c>
+      <c r="R162">
+        <v>4891</v>
+      </c>
+      <c r="S162">
+        <v>4848</v>
+      </c>
+      <c r="T162">
+        <v>5438</v>
+      </c>
+      <c r="U162">
+        <v>4982</v>
+      </c>
+      <c r="V162">
+        <v>5484</v>
+      </c>
+      <c r="W162">
+        <v>4889</v>
+      </c>
+      <c r="X162">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A163">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>153</v>
+      </c>
+      <c r="C163" t="s">
+        <v>176</v>
+      </c>
+      <c r="D163">
+        <v>5250</v>
+      </c>
+      <c r="E163">
+        <v>5407</v>
+      </c>
+      <c r="F163">
+        <v>5154</v>
+      </c>
+      <c r="G163">
+        <v>4992</v>
+      </c>
+      <c r="H163">
+        <v>5408</v>
+      </c>
+      <c r="I163">
+        <v>4956</v>
+      </c>
+      <c r="J163">
+        <v>5409</v>
+      </c>
+      <c r="K163">
+        <v>5391</v>
+      </c>
+      <c r="L163">
+        <v>4995</v>
+      </c>
+      <c r="M163">
+        <v>5411</v>
+      </c>
+      <c r="N163">
+        <v>5155</v>
+      </c>
+      <c r="O163">
+        <v>5382</v>
+      </c>
+      <c r="P163">
+        <v>4990</v>
+      </c>
+      <c r="Q163">
+        <v>5543</v>
+      </c>
+      <c r="R163">
+        <v>4956</v>
+      </c>
+      <c r="S163">
+        <v>4996</v>
+      </c>
+      <c r="T163">
+        <v>5294</v>
+      </c>
+      <c r="U163">
+        <v>4962</v>
+      </c>
+      <c r="V163">
+        <v>5176</v>
+      </c>
+      <c r="W163">
+        <v>4956</v>
+      </c>
+      <c r="X163">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A164">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>154</v>
+      </c>
+      <c r="C164" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164">
+        <v>5044</v>
+      </c>
+      <c r="E164">
+        <v>5044</v>
+      </c>
+      <c r="F164">
+        <v>5045</v>
+      </c>
+      <c r="G164">
+        <v>5047</v>
+      </c>
+      <c r="H164">
+        <v>5322</v>
+      </c>
+      <c r="I164">
+        <v>5083</v>
+      </c>
+      <c r="J164">
+        <v>5046</v>
+      </c>
+      <c r="K164">
+        <v>5046</v>
+      </c>
+      <c r="L164">
+        <v>5050</v>
+      </c>
+      <c r="M164">
+        <v>4804</v>
+      </c>
+      <c r="N164">
+        <v>5010</v>
+      </c>
+      <c r="O164">
+        <v>5054</v>
+      </c>
+      <c r="P164">
+        <v>5045</v>
+      </c>
+      <c r="Q164">
+        <v>4906</v>
+      </c>
+      <c r="R164">
+        <v>5044</v>
+      </c>
+      <c r="S164">
+        <v>5049</v>
+      </c>
+      <c r="T164">
+        <v>5232</v>
+      </c>
+      <c r="U164">
+        <v>5049</v>
+      </c>
+      <c r="V164">
+        <v>5189</v>
+      </c>
+      <c r="W164">
+        <v>5044</v>
+      </c>
+      <c r="X164">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A165">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165">
+        <v>5371</v>
+      </c>
+      <c r="E165">
+        <v>5186</v>
+      </c>
+      <c r="F165">
+        <v>5189</v>
+      </c>
+      <c r="G165">
+        <v>5187</v>
+      </c>
+      <c r="H165">
+        <v>4955</v>
+      </c>
+      <c r="I165">
+        <v>5186</v>
+      </c>
+      <c r="J165">
+        <v>5187</v>
+      </c>
+      <c r="K165">
+        <v>4955</v>
+      </c>
+      <c r="L165">
+        <v>5374</v>
+      </c>
+      <c r="M165">
+        <v>4956</v>
+      </c>
+      <c r="N165">
+        <v>5269</v>
+      </c>
+      <c r="O165">
+        <v>5288</v>
+      </c>
+      <c r="P165">
+        <v>5185</v>
+      </c>
+      <c r="Q165">
+        <v>5289</v>
+      </c>
+      <c r="R165">
+        <v>5372</v>
+      </c>
+      <c r="S165">
+        <v>5187</v>
+      </c>
+      <c r="T165">
+        <v>5465</v>
+      </c>
+      <c r="U165">
+        <v>5376</v>
+      </c>
+      <c r="V165">
+        <v>5450</v>
+      </c>
+      <c r="W165">
+        <v>5372</v>
+      </c>
+      <c r="X165">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A166">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>156</v>
+      </c>
+      <c r="C166" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166">
+        <v>5463</v>
+      </c>
+      <c r="E166">
+        <v>5464</v>
+      </c>
+      <c r="F166">
+        <v>5028</v>
+      </c>
+      <c r="G166">
+        <v>5292</v>
+      </c>
+      <c r="H166">
+        <v>5029</v>
+      </c>
+      <c r="I166">
+        <v>5293</v>
+      </c>
+      <c r="J166">
+        <v>5465</v>
+      </c>
+      <c r="K166">
+        <v>5463</v>
+      </c>
+      <c r="L166">
+        <v>5294</v>
+      </c>
+      <c r="M166">
+        <v>4978</v>
+      </c>
+      <c r="N166">
+        <v>5294</v>
+      </c>
+      <c r="O166">
+        <v>5323</v>
+      </c>
+      <c r="P166">
+        <v>5293</v>
+      </c>
+      <c r="Q166">
+        <v>5074</v>
+      </c>
+      <c r="R166">
+        <v>5327</v>
+      </c>
+      <c r="S166">
+        <v>5297</v>
+      </c>
+      <c r="T166">
+        <v>4993</v>
+      </c>
+      <c r="U166">
+        <v>4945</v>
+      </c>
+      <c r="V166">
+        <v>5070</v>
+      </c>
+      <c r="W166">
+        <v>5325</v>
+      </c>
+      <c r="X166">
+        <v>5558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A167">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>157</v>
+      </c>
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167">
+        <v>4942</v>
+      </c>
+      <c r="E167">
+        <v>5198</v>
+      </c>
+      <c r="F167">
+        <v>5415</v>
+      </c>
+      <c r="G167">
+        <v>5197</v>
+      </c>
+      <c r="H167">
+        <v>5499</v>
+      </c>
+      <c r="I167">
+        <v>5197</v>
+      </c>
+      <c r="J167">
+        <v>5201</v>
+      </c>
+      <c r="K167">
+        <v>5496</v>
+      </c>
+      <c r="L167">
+        <v>4943</v>
+      </c>
+      <c r="M167">
+        <v>5496</v>
+      </c>
+      <c r="N167">
+        <v>4943</v>
+      </c>
+      <c r="O167">
+        <v>5188</v>
+      </c>
+      <c r="P167">
+        <v>5199</v>
+      </c>
+      <c r="Q167">
+        <v>5177</v>
+      </c>
+      <c r="R167">
+        <v>5199</v>
+      </c>
+      <c r="S167">
+        <v>5201</v>
+      </c>
+      <c r="T167">
+        <v>5497</v>
+      </c>
+      <c r="U167">
+        <v>5201</v>
+      </c>
+      <c r="V167">
+        <v>5353</v>
+      </c>
+      <c r="W167">
+        <v>5199</v>
+      </c>
+      <c r="X167">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A168">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>158</v>
+      </c>
+      <c r="C168" t="s">
+        <v>181</v>
+      </c>
+      <c r="D168">
+        <v>5381</v>
+      </c>
+      <c r="E168">
+        <v>5134</v>
+      </c>
+      <c r="F168">
+        <v>5205</v>
+      </c>
+      <c r="G168">
+        <v>5135</v>
+      </c>
+      <c r="H168">
+        <v>5345</v>
+      </c>
+      <c r="I168">
+        <v>5137</v>
+      </c>
+      <c r="J168">
+        <v>5138</v>
+      </c>
+      <c r="K168">
+        <v>5101</v>
+      </c>
+      <c r="L168">
+        <v>5139</v>
+      </c>
+      <c r="M168">
+        <v>5102</v>
+      </c>
+      <c r="N168">
+        <v>5098</v>
+      </c>
+      <c r="O168">
+        <v>5106</v>
+      </c>
+      <c r="P168">
+        <v>5135</v>
+      </c>
+      <c r="Q168">
+        <v>5347</v>
+      </c>
+      <c r="R168">
+        <v>5138</v>
+      </c>
+      <c r="S168">
+        <v>5141</v>
+      </c>
+      <c r="T168">
+        <v>5103</v>
+      </c>
+      <c r="U168">
+        <v>5144</v>
+      </c>
+      <c r="V168">
+        <v>5125</v>
+      </c>
+      <c r="W168">
+        <v>5137</v>
+      </c>
+      <c r="X168">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A169">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B169">
+        <v>159</v>
+      </c>
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169">
+        <v>5285</v>
+      </c>
+      <c r="E169">
+        <v>5119</v>
+      </c>
+      <c r="F169">
+        <v>5378</v>
+      </c>
+      <c r="G169">
+        <v>5216</v>
+      </c>
+      <c r="H169">
+        <v>5166</v>
+      </c>
+      <c r="I169">
+        <v>5568</v>
+      </c>
+      <c r="J169">
+        <v>5120</v>
+      </c>
+      <c r="K169">
+        <v>5392</v>
+      </c>
+      <c r="L169">
+        <v>5217</v>
+      </c>
+      <c r="M169">
+        <v>5268</v>
+      </c>
+      <c r="N169">
+        <v>5341</v>
+      </c>
+      <c r="O169">
+        <v>5270</v>
+      </c>
+      <c r="P169">
+        <v>5214</v>
+      </c>
+      <c r="Q169">
+        <v>5274</v>
+      </c>
+      <c r="R169">
+        <v>5568</v>
+      </c>
+      <c r="S169">
+        <v>5339</v>
+      </c>
+      <c r="T169">
+        <v>5267</v>
+      </c>
+      <c r="U169">
+        <v>5116</v>
+      </c>
+      <c r="V169">
+        <v>5139</v>
+      </c>
+      <c r="W169">
+        <v>5568</v>
+      </c>
+      <c r="X169">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A170">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>160</v>
+      </c>
+      <c r="C170" t="s">
+        <v>183</v>
+      </c>
+      <c r="D170">
+        <v>5169</v>
+      </c>
+      <c r="E170">
+        <v>5169</v>
+      </c>
+      <c r="F170">
+        <v>5168</v>
+      </c>
+      <c r="G170">
+        <v>5225</v>
+      </c>
+      <c r="H170">
+        <v>5298</v>
+      </c>
+      <c r="I170">
+        <v>5298</v>
+      </c>
+      <c r="J170">
+        <v>5169</v>
+      </c>
+      <c r="K170">
+        <v>5169</v>
+      </c>
+      <c r="L170">
+        <v>5225</v>
+      </c>
+      <c r="M170">
+        <v>5030</v>
+      </c>
+      <c r="N170">
+        <v>5344</v>
+      </c>
+      <c r="O170">
+        <v>5079</v>
+      </c>
+      <c r="P170">
+        <v>5226</v>
+      </c>
+      <c r="Q170">
+        <v>4831</v>
+      </c>
+      <c r="R170">
+        <v>5347</v>
+      </c>
+      <c r="S170">
+        <v>5390</v>
+      </c>
+      <c r="T170">
+        <v>4970</v>
+      </c>
+      <c r="U170">
+        <v>5348</v>
+      </c>
+      <c r="V170">
+        <v>5026</v>
+      </c>
+      <c r="W170">
+        <v>5347</v>
+      </c>
+      <c r="X170">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A171">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>161</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171">
+        <v>5246</v>
+      </c>
+      <c r="E171">
+        <v>5317</v>
+      </c>
+      <c r="F171">
+        <v>5243</v>
+      </c>
+      <c r="G171">
+        <v>4870</v>
+      </c>
+      <c r="H171">
+        <v>5437</v>
+      </c>
+      <c r="I171">
+        <v>5147</v>
+      </c>
+      <c r="J171">
+        <v>5319</v>
+      </c>
+      <c r="K171">
+        <v>5312</v>
+      </c>
+      <c r="L171">
+        <v>4870</v>
+      </c>
+      <c r="M171">
+        <v>5207</v>
+      </c>
+      <c r="N171">
+        <v>5149</v>
+      </c>
+      <c r="O171">
+        <v>5621</v>
+      </c>
+      <c r="P171">
+        <v>4870</v>
+      </c>
+      <c r="Q171">
+        <v>5227</v>
+      </c>
+      <c r="R171">
+        <v>5339</v>
+      </c>
+      <c r="S171">
+        <v>5152</v>
+      </c>
+      <c r="T171">
+        <v>5393</v>
+      </c>
+      <c r="U171">
+        <v>5153</v>
+      </c>
+      <c r="V171">
+        <v>5131</v>
+      </c>
+      <c r="W171">
+        <v>5339</v>
+      </c>
+      <c r="X171">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A172">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>162</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172">
+        <v>4979</v>
+      </c>
+      <c r="E172">
+        <v>5477</v>
+      </c>
+      <c r="F172">
+        <v>5010</v>
+      </c>
+      <c r="G172">
+        <v>5479</v>
+      </c>
+      <c r="H172">
+        <v>5212</v>
+      </c>
+      <c r="I172">
+        <v>5464</v>
+      </c>
+      <c r="J172">
+        <v>5480</v>
+      </c>
+      <c r="K172">
+        <v>5010</v>
+      </c>
+      <c r="L172">
+        <v>5465</v>
+      </c>
+      <c r="M172">
+        <v>5211</v>
+      </c>
+      <c r="N172">
+        <v>5213</v>
+      </c>
+      <c r="O172">
+        <v>5251</v>
+      </c>
+      <c r="P172">
+        <v>5478</v>
+      </c>
+      <c r="Q172">
+        <v>5023</v>
+      </c>
+      <c r="R172">
+        <v>5462</v>
+      </c>
+      <c r="S172">
+        <v>5483</v>
+      </c>
+      <c r="T172">
+        <v>5010</v>
+      </c>
+      <c r="U172">
+        <v>5463</v>
+      </c>
+      <c r="V172">
+        <v>5215</v>
+      </c>
+      <c r="W172">
+        <v>5464</v>
+      </c>
+      <c r="X172">
+        <v>5467</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A173">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B173">
+        <v>163</v>
+      </c>
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173">
+        <v>5458</v>
+      </c>
+      <c r="E173">
+        <v>5393</v>
+      </c>
+      <c r="F173">
+        <v>5548</v>
+      </c>
+      <c r="G173">
+        <v>5134</v>
+      </c>
+      <c r="H173">
+        <v>4983</v>
+      </c>
+      <c r="I173">
+        <v>5309</v>
+      </c>
+      <c r="J173">
+        <v>5396</v>
+      </c>
+      <c r="K173">
+        <v>5113</v>
+      </c>
+      <c r="L173">
+        <v>5310</v>
+      </c>
+      <c r="M173">
+        <v>5235</v>
+      </c>
+      <c r="N173">
+        <v>5313</v>
+      </c>
+      <c r="O173">
+        <v>5513</v>
+      </c>
+      <c r="P173">
+        <v>5136</v>
+      </c>
+      <c r="Q173">
+        <v>5332</v>
+      </c>
+      <c r="R173">
+        <v>5310</v>
+      </c>
+      <c r="S173">
+        <v>5240</v>
+      </c>
+      <c r="T173">
+        <v>5060</v>
+      </c>
+      <c r="U173">
+        <v>5148</v>
+      </c>
+      <c r="V173">
+        <v>4985</v>
+      </c>
+      <c r="W173">
+        <v>5308</v>
+      </c>
+      <c r="X173">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A174">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>164</v>
+      </c>
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174">
+        <v>5531</v>
+      </c>
+      <c r="E174">
+        <v>5467</v>
+      </c>
+      <c r="F174">
+        <v>5534</v>
+      </c>
+      <c r="G174">
+        <v>5465</v>
+      </c>
+      <c r="H174">
+        <v>5537</v>
+      </c>
+      <c r="I174">
+        <v>5076</v>
+      </c>
+      <c r="J174">
+        <v>5469</v>
+      </c>
+      <c r="K174">
+        <v>5532</v>
+      </c>
+      <c r="L174">
+        <v>5467</v>
+      </c>
+      <c r="M174">
+        <v>5385</v>
+      </c>
+      <c r="N174">
+        <v>5078</v>
+      </c>
+      <c r="O174">
+        <v>5472</v>
+      </c>
+      <c r="P174">
+        <v>5465</v>
+      </c>
+      <c r="Q174">
+        <v>5475</v>
+      </c>
+      <c r="R174">
+        <v>5076</v>
+      </c>
+      <c r="S174">
+        <v>5469</v>
+      </c>
+      <c r="T174">
+        <v>5351</v>
+      </c>
+      <c r="U174">
+        <v>5080</v>
+      </c>
+      <c r="V174">
+        <v>5062</v>
+      </c>
+      <c r="W174">
+        <v>5076</v>
+      </c>
+      <c r="X174">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A175">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B175">
+        <v>165</v>
+      </c>
+      <c r="C175" t="s">
+        <v>188</v>
+      </c>
+      <c r="D175">
+        <v>5164</v>
+      </c>
+      <c r="E175">
+        <v>5196</v>
+      </c>
+      <c r="F175">
+        <v>5342</v>
+      </c>
+      <c r="G175">
+        <v>5592</v>
+      </c>
+      <c r="H175">
+        <v>5345</v>
+      </c>
+      <c r="I175">
+        <v>5286</v>
+      </c>
+      <c r="J175">
+        <v>5200</v>
+      </c>
+      <c r="K175">
+        <v>5043</v>
+      </c>
+      <c r="L175">
+        <v>5596</v>
+      </c>
+      <c r="M175">
+        <v>5291</v>
+      </c>
+      <c r="N175">
+        <v>5078</v>
+      </c>
+      <c r="O175">
+        <v>5374</v>
+      </c>
+      <c r="P175">
+        <v>5594</v>
+      </c>
+      <c r="Q175">
+        <v>5388</v>
+      </c>
+      <c r="R175">
+        <v>5288</v>
+      </c>
+      <c r="S175">
+        <v>5490</v>
+      </c>
+      <c r="T175">
+        <v>5448</v>
+      </c>
+      <c r="U175">
+        <v>5543</v>
+      </c>
+      <c r="V175">
+        <v>5230</v>
+      </c>
+      <c r="W175">
+        <v>5289</v>
+      </c>
+      <c r="X175">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A176">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>166</v>
+      </c>
+      <c r="C176" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176">
+        <v>5230</v>
+      </c>
+      <c r="E176">
+        <v>5231</v>
+      </c>
+      <c r="F176">
+        <v>4857</v>
+      </c>
+      <c r="G176">
+        <v>5179</v>
+      </c>
+      <c r="H176">
+        <v>5326</v>
+      </c>
+      <c r="I176">
+        <v>5176</v>
+      </c>
+      <c r="J176">
+        <v>5234</v>
+      </c>
+      <c r="K176">
+        <v>5323</v>
+      </c>
+      <c r="L176">
+        <v>5236</v>
+      </c>
+      <c r="M176">
+        <v>5323</v>
+      </c>
+      <c r="N176">
+        <v>5183</v>
+      </c>
+      <c r="O176">
+        <v>5296</v>
+      </c>
+      <c r="P176">
+        <v>5178</v>
+      </c>
+      <c r="Q176">
+        <v>5036</v>
+      </c>
+      <c r="R176">
+        <v>5176</v>
+      </c>
+      <c r="S176">
+        <v>5182</v>
+      </c>
+      <c r="T176">
+        <v>5289</v>
+      </c>
+      <c r="U176">
+        <v>5180</v>
+      </c>
+      <c r="V176">
+        <v>5367</v>
+      </c>
+      <c r="W176">
+        <v>5176</v>
+      </c>
+      <c r="X176">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A177">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>167</v>
+      </c>
+      <c r="C177" t="s">
+        <v>190</v>
+      </c>
+      <c r="D177">
+        <v>5170</v>
+      </c>
+      <c r="E177">
+        <v>5197</v>
+      </c>
+      <c r="F177">
+        <v>5347</v>
+      </c>
+      <c r="G177">
+        <v>5027</v>
+      </c>
+      <c r="H177">
+        <v>5174</v>
+      </c>
+      <c r="I177">
+        <v>5408</v>
+      </c>
+      <c r="J177">
+        <v>5199</v>
+      </c>
+      <c r="K177">
+        <v>5313</v>
+      </c>
+      <c r="L177">
+        <v>5029</v>
+      </c>
+      <c r="M177">
+        <v>5478</v>
+      </c>
+      <c r="N177">
+        <v>5410</v>
+      </c>
+      <c r="O177">
+        <v>5040</v>
+      </c>
+      <c r="P177">
+        <v>5027</v>
+      </c>
+      <c r="Q177">
+        <v>4982</v>
+      </c>
+      <c r="R177">
+        <v>5026</v>
+      </c>
+      <c r="S177">
+        <v>5030</v>
+      </c>
+      <c r="T177">
+        <v>5350</v>
+      </c>
+      <c r="U177">
+        <v>5030</v>
+      </c>
+      <c r="V177">
+        <v>5197</v>
+      </c>
+      <c r="W177">
+        <v>5026</v>
+      </c>
+      <c r="X177">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A178">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B178">
+        <v>168</v>
+      </c>
+      <c r="C178" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178">
+        <v>5526</v>
+      </c>
+      <c r="E178">
+        <v>5411</v>
+      </c>
+      <c r="F178">
+        <v>5521</v>
+      </c>
+      <c r="G178">
+        <v>5324</v>
+      </c>
+      <c r="H178">
+        <v>5520</v>
+      </c>
+      <c r="I178">
+        <v>5412</v>
+      </c>
+      <c r="J178">
+        <v>5413</v>
+      </c>
+      <c r="K178">
+        <v>4945</v>
+      </c>
+      <c r="L178">
+        <v>5326</v>
+      </c>
+      <c r="M178">
+        <v>5164</v>
+      </c>
+      <c r="N178">
+        <v>5414</v>
+      </c>
+      <c r="O178">
+        <v>5239</v>
+      </c>
+      <c r="P178">
+        <v>5326</v>
+      </c>
+      <c r="Q178">
+        <v>5548</v>
+      </c>
+      <c r="R178">
+        <v>5412</v>
+      </c>
+      <c r="S178">
+        <v>5328</v>
+      </c>
+      <c r="T178">
+        <v>5133</v>
+      </c>
+      <c r="U178">
+        <v>5416</v>
+      </c>
+      <c r="V178">
+        <v>5621</v>
+      </c>
+      <c r="W178">
+        <v>5413</v>
+      </c>
+      <c r="X178">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A179">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B179">
+        <v>169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179">
+        <v>5305</v>
+      </c>
+      <c r="E179">
+        <v>5307</v>
+      </c>
+      <c r="F179">
+        <v>5306</v>
+      </c>
+      <c r="G179">
+        <v>5299</v>
+      </c>
+      <c r="H179">
+        <v>5344</v>
+      </c>
+      <c r="I179">
+        <v>5292</v>
+      </c>
+      <c r="J179">
+        <v>5308</v>
+      </c>
+      <c r="K179">
+        <v>5609</v>
+      </c>
+      <c r="L179">
+        <v>5302</v>
+      </c>
+      <c r="M179">
+        <v>5607</v>
+      </c>
+      <c r="N179">
+        <v>5290</v>
+      </c>
+      <c r="O179">
+        <v>5260</v>
+      </c>
+      <c r="P179">
+        <v>5297</v>
+      </c>
+      <c r="Q179">
+        <v>5159</v>
+      </c>
+      <c r="R179">
+        <v>5290</v>
+      </c>
+      <c r="S179">
+        <v>5301</v>
+      </c>
+      <c r="T179">
+        <v>5265</v>
+      </c>
+      <c r="U179">
+        <v>5294</v>
+      </c>
+      <c r="V179">
+        <v>5099</v>
+      </c>
+      <c r="W179">
+        <v>5292</v>
+      </c>
+      <c r="X179">
+        <v>5443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A180">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B180">
+        <v>170</v>
+      </c>
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+      <c r="D180">
+        <v>5187</v>
+      </c>
+      <c r="E180">
+        <v>5262</v>
+      </c>
+      <c r="F180">
+        <v>5183</v>
+      </c>
+      <c r="G180">
+        <v>5565</v>
+      </c>
+      <c r="H180">
+        <v>5177</v>
+      </c>
+      <c r="I180">
+        <v>5483</v>
+      </c>
+      <c r="J180">
+        <v>5265</v>
+      </c>
+      <c r="K180">
+        <v>5314</v>
+      </c>
+      <c r="L180">
+        <v>5476</v>
+      </c>
+      <c r="M180">
+        <v>5005</v>
+      </c>
+      <c r="N180">
+        <v>5571</v>
+      </c>
+      <c r="O180">
+        <v>5319</v>
+      </c>
+      <c r="P180">
+        <v>5567</v>
+      </c>
+      <c r="Q180">
+        <v>5461</v>
+      </c>
+      <c r="R180">
+        <v>5483</v>
+      </c>
+      <c r="S180">
+        <v>5569</v>
+      </c>
+      <c r="T180">
+        <v>5184</v>
+      </c>
+      <c r="U180">
+        <v>5487</v>
+      </c>
+      <c r="V180">
+        <v>5005</v>
+      </c>
+      <c r="W180">
+        <v>5484</v>
+      </c>
+      <c r="X180">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A181">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B181">
+        <v>171</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181">
+        <v>5390</v>
+      </c>
+      <c r="E181">
+        <v>5230</v>
+      </c>
+      <c r="F181">
+        <v>4937</v>
+      </c>
+      <c r="G181">
+        <v>5391</v>
+      </c>
+      <c r="H181">
+        <v>5523</v>
+      </c>
+      <c r="I181">
+        <v>5340</v>
+      </c>
+      <c r="J181">
+        <v>5232</v>
+      </c>
+      <c r="K181">
+        <v>5393</v>
+      </c>
+      <c r="L181">
+        <v>5343</v>
+      </c>
+      <c r="M181">
+        <v>5394</v>
+      </c>
+      <c r="N181">
+        <v>5341</v>
+      </c>
+      <c r="O181">
+        <v>5431</v>
+      </c>
+      <c r="P181">
+        <v>5391</v>
+      </c>
+      <c r="Q181">
+        <v>5524</v>
+      </c>
+      <c r="R181">
+        <v>5340</v>
+      </c>
+      <c r="S181">
+        <v>5394</v>
+      </c>
+      <c r="T181">
+        <v>5394</v>
+      </c>
+      <c r="U181">
+        <v>5343</v>
+      </c>
+      <c r="V181">
+        <v>5411</v>
+      </c>
+      <c r="W181">
+        <v>5340</v>
+      </c>
+      <c r="X181">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A182">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B182">
+        <v>172</v>
+      </c>
+      <c r="C182" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182">
+        <v>5286</v>
+      </c>
+      <c r="E182">
+        <v>5289</v>
+      </c>
+      <c r="F182">
+        <v>5531</v>
+      </c>
+      <c r="G182">
+        <v>5291</v>
+      </c>
+      <c r="H182">
+        <v>5410</v>
+      </c>
+      <c r="I182">
+        <v>5081</v>
+      </c>
+      <c r="J182">
+        <v>5291</v>
+      </c>
+      <c r="K182">
+        <v>5503</v>
+      </c>
+      <c r="L182">
+        <v>5075</v>
+      </c>
+      <c r="M182">
+        <v>5200</v>
+      </c>
+      <c r="N182">
+        <v>5075</v>
+      </c>
+      <c r="O182">
+        <v>5231</v>
+      </c>
+      <c r="P182">
+        <v>5292</v>
+      </c>
+      <c r="Q182">
+        <v>5412</v>
+      </c>
+      <c r="R182">
+        <v>5072</v>
+      </c>
+      <c r="S182">
+        <v>5295</v>
+      </c>
+      <c r="T182">
+        <v>5396</v>
+      </c>
+      <c r="U182">
+        <v>5075</v>
+      </c>
+      <c r="V182">
+        <v>5141</v>
+      </c>
+      <c r="W182">
+        <v>5072</v>
+      </c>
+      <c r="X182">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A183">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>173</v>
+      </c>
+      <c r="C183" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183">
+        <v>5122</v>
+      </c>
+      <c r="E183">
+        <v>5501</v>
+      </c>
+      <c r="F183">
+        <v>5323</v>
+      </c>
+      <c r="G183">
+        <v>5289</v>
+      </c>
+      <c r="H183">
+        <v>5049</v>
+      </c>
+      <c r="I183">
+        <v>5300</v>
+      </c>
+      <c r="J183">
+        <v>5501</v>
+      </c>
+      <c r="K183">
+        <v>4740</v>
+      </c>
+      <c r="L183">
+        <v>5289</v>
+      </c>
+      <c r="M183">
+        <v>4741</v>
+      </c>
+      <c r="N183">
+        <v>4960</v>
+      </c>
+      <c r="O183">
+        <v>5276</v>
+      </c>
+      <c r="P183">
+        <v>5290</v>
+      </c>
+      <c r="Q183">
+        <v>5152</v>
+      </c>
+      <c r="R183">
+        <v>5300</v>
+      </c>
+      <c r="S183">
+        <v>5292</v>
+      </c>
+      <c r="T183">
+        <v>4744</v>
+      </c>
+      <c r="U183">
+        <v>4964</v>
+      </c>
+      <c r="V183">
+        <v>5133</v>
+      </c>
+      <c r="W183">
+        <v>5301</v>
+      </c>
+      <c r="X183">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A184">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>174</v>
+      </c>
+      <c r="C184" t="s">
+        <v>197</v>
+      </c>
+      <c r="D184">
+        <v>5127</v>
+      </c>
+      <c r="E184">
+        <v>5107</v>
+      </c>
+      <c r="F184">
+        <v>5443</v>
+      </c>
+      <c r="G184">
+        <v>5263</v>
+      </c>
+      <c r="H184">
+        <v>5123</v>
+      </c>
+      <c r="I184">
+        <v>5368</v>
+      </c>
+      <c r="J184">
+        <v>5109</v>
+      </c>
+      <c r="K184">
+        <v>5443</v>
+      </c>
+      <c r="L184">
+        <v>5264</v>
+      </c>
+      <c r="M184">
+        <v>5124</v>
+      </c>
+      <c r="N184">
+        <v>5264</v>
+      </c>
+      <c r="O184">
+        <v>4981</v>
+      </c>
+      <c r="P184">
+        <v>5262</v>
+      </c>
+      <c r="Q184">
+        <v>4981</v>
+      </c>
+      <c r="R184">
+        <v>5262</v>
+      </c>
+      <c r="S184">
+        <v>5112</v>
+      </c>
+      <c r="T184">
+        <v>5445</v>
+      </c>
+      <c r="U184">
+        <v>5266</v>
+      </c>
+      <c r="V184">
+        <v>5206</v>
+      </c>
+      <c r="W184">
+        <v>5264</v>
+      </c>
+      <c r="X184">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A185">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>175</v>
+      </c>
+      <c r="C185" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185">
+        <v>5607</v>
+      </c>
+      <c r="E185">
+        <v>5023</v>
+      </c>
+      <c r="F185">
+        <v>5142</v>
+      </c>
+      <c r="G185">
+        <v>5025</v>
+      </c>
+      <c r="H185">
+        <v>5125</v>
+      </c>
+      <c r="I185">
+        <v>5168</v>
+      </c>
+      <c r="J185">
+        <v>5025</v>
+      </c>
+      <c r="K185">
+        <v>5403</v>
+      </c>
+      <c r="L185">
+        <v>5027</v>
+      </c>
+      <c r="M185">
+        <v>5524</v>
+      </c>
+      <c r="N185">
+        <v>5170</v>
+      </c>
+      <c r="O185">
+        <v>5499</v>
+      </c>
+      <c r="P185">
+        <v>5027</v>
+      </c>
+      <c r="Q185">
+        <v>5523</v>
+      </c>
+      <c r="R185">
+        <v>5169</v>
+      </c>
+      <c r="S185">
+        <v>5030</v>
+      </c>
+      <c r="T185">
+        <v>5500</v>
+      </c>
+      <c r="U185">
+        <v>5171</v>
+      </c>
+      <c r="V185">
+        <v>5230</v>
+      </c>
+      <c r="W185">
+        <v>5167</v>
+      </c>
+      <c r="X185">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A186">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>176</v>
+      </c>
+      <c r="C186" t="s">
+        <v>199</v>
+      </c>
+      <c r="D186">
+        <v>5272</v>
+      </c>
+      <c r="E186">
+        <v>5229</v>
+      </c>
+      <c r="F186">
+        <v>5274</v>
+      </c>
+      <c r="G186">
+        <v>5236</v>
+      </c>
+      <c r="H186">
+        <v>4915</v>
+      </c>
+      <c r="I186">
+        <v>5319</v>
+      </c>
+      <c r="J186">
+        <v>5233</v>
+      </c>
+      <c r="K186">
+        <v>5227</v>
+      </c>
+      <c r="L186">
+        <v>5239</v>
+      </c>
+      <c r="M186">
+        <v>4912</v>
+      </c>
+      <c r="N186">
+        <v>5323</v>
+      </c>
+      <c r="O186">
+        <v>5231</v>
+      </c>
+      <c r="P186">
+        <v>5235</v>
+      </c>
+      <c r="Q186">
+        <v>5188</v>
+      </c>
+      <c r="R186">
+        <v>5319</v>
+      </c>
+      <c r="S186">
+        <v>5241</v>
+      </c>
+      <c r="T186">
+        <v>4913</v>
+      </c>
+      <c r="U186">
+        <v>5325</v>
+      </c>
+      <c r="V186">
+        <v>5470</v>
+      </c>
+      <c r="W186">
+        <v>5319</v>
+      </c>
+      <c r="X186">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A187">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>177</v>
+      </c>
+      <c r="C187" t="s">
+        <v>200</v>
+      </c>
+      <c r="D187">
+        <v>5495</v>
+      </c>
+      <c r="E187">
+        <v>5360</v>
+      </c>
+      <c r="F187">
+        <v>5495</v>
+      </c>
+      <c r="G187">
+        <v>5256</v>
+      </c>
+      <c r="H187">
+        <v>5496</v>
+      </c>
+      <c r="I187">
+        <v>5258</v>
+      </c>
+      <c r="J187">
+        <v>5362</v>
+      </c>
+      <c r="K187">
+        <v>5372</v>
+      </c>
+      <c r="L187">
+        <v>5258</v>
+      </c>
+      <c r="M187">
+        <v>4976</v>
+      </c>
+      <c r="N187">
+        <v>5259</v>
+      </c>
+      <c r="O187">
+        <v>4944</v>
+      </c>
+      <c r="P187">
+        <v>5256</v>
+      </c>
+      <c r="Q187">
+        <v>4946</v>
+      </c>
+      <c r="R187">
+        <v>5259</v>
+      </c>
+      <c r="S187">
+        <v>5183</v>
+      </c>
+      <c r="T187">
+        <v>5509</v>
+      </c>
+      <c r="U187">
+        <v>5191</v>
+      </c>
+      <c r="V187">
+        <v>5461</v>
+      </c>
+      <c r="W187">
+        <v>5258</v>
+      </c>
+      <c r="X187">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A188">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>178</v>
+      </c>
+      <c r="C188" t="s">
+        <v>201</v>
+      </c>
+      <c r="D188">
+        <v>5255</v>
+      </c>
+      <c r="E188">
+        <v>5300</v>
+      </c>
+      <c r="F188">
+        <v>5303</v>
+      </c>
+      <c r="G188">
+        <v>5432</v>
+      </c>
+      <c r="H188">
+        <v>5256</v>
+      </c>
+      <c r="I188">
+        <v>5249</v>
+      </c>
+      <c r="J188">
+        <v>5302</v>
+      </c>
+      <c r="K188">
+        <v>5300</v>
+      </c>
+      <c r="L188">
+        <v>5434</v>
+      </c>
+      <c r="M188">
+        <v>5271</v>
+      </c>
+      <c r="N188">
+        <v>5251</v>
+      </c>
+      <c r="O188">
+        <v>5167</v>
+      </c>
+      <c r="P188">
+        <v>5434</v>
+      </c>
+      <c r="Q188">
+        <v>5467</v>
+      </c>
+      <c r="R188">
+        <v>5251</v>
+      </c>
+      <c r="S188">
+        <v>5350</v>
+      </c>
+      <c r="T188">
+        <v>5163</v>
+      </c>
+      <c r="U188">
+        <v>5301</v>
+      </c>
+      <c r="V188">
+        <v>5101</v>
+      </c>
+      <c r="W188">
+        <v>5251</v>
+      </c>
+      <c r="X188">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A189">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>179</v>
+      </c>
+      <c r="C189" t="s">
+        <v>202</v>
+      </c>
+      <c r="D189">
+        <v>5295</v>
+      </c>
+      <c r="E189">
+        <v>4998</v>
+      </c>
+      <c r="F189">
+        <v>5079</v>
+      </c>
+      <c r="G189">
+        <v>4953</v>
+      </c>
+      <c r="H189">
+        <v>5210</v>
+      </c>
+      <c r="I189">
+        <v>5086</v>
+      </c>
+      <c r="J189">
+        <v>5000</v>
+      </c>
+      <c r="K189">
+        <v>5345</v>
+      </c>
+      <c r="L189">
+        <v>5007</v>
+      </c>
+      <c r="M189">
+        <v>5091</v>
+      </c>
+      <c r="N189">
+        <v>5008</v>
+      </c>
+      <c r="O189">
+        <v>5486</v>
+      </c>
+      <c r="P189">
+        <v>4953</v>
+      </c>
+      <c r="Q189">
+        <v>5067</v>
+      </c>
+      <c r="R189">
+        <v>5086</v>
+      </c>
+      <c r="S189">
+        <v>4956</v>
+      </c>
+      <c r="T189">
+        <v>5402</v>
+      </c>
+      <c r="U189">
+        <v>5089</v>
+      </c>
+      <c r="V189">
+        <v>5076</v>
+      </c>
+      <c r="W189">
+        <v>5086</v>
+      </c>
+      <c r="X189">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A190">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>180</v>
+      </c>
+      <c r="C190" t="s">
+        <v>203</v>
+      </c>
+      <c r="D190">
+        <v>5355</v>
+      </c>
+      <c r="E190">
+        <v>5342</v>
+      </c>
+      <c r="F190">
+        <v>5356</v>
+      </c>
+      <c r="G190">
+        <v>5191</v>
+      </c>
+      <c r="H190">
+        <v>4882</v>
+      </c>
+      <c r="I190">
+        <v>5345</v>
+      </c>
+      <c r="J190">
+        <v>5344</v>
+      </c>
+      <c r="K190">
+        <v>5357</v>
+      </c>
+      <c r="L190">
+        <v>5193</v>
+      </c>
+      <c r="M190">
+        <v>5088</v>
+      </c>
+      <c r="N190">
+        <v>5347</v>
+      </c>
+      <c r="O190">
+        <v>5235</v>
+      </c>
+      <c r="P190">
+        <v>5191</v>
+      </c>
+      <c r="Q190">
+        <v>5141</v>
+      </c>
+      <c r="R190">
+        <v>5345</v>
+      </c>
+      <c r="S190">
+        <v>5195</v>
+      </c>
+      <c r="T190">
+        <v>5108</v>
+      </c>
+      <c r="U190">
+        <v>4884</v>
+      </c>
+      <c r="V190">
+        <v>5225</v>
+      </c>
+      <c r="W190">
+        <v>5345</v>
+      </c>
+      <c r="X190">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>181</v>
+      </c>
+      <c r="C191" t="s">
+        <v>204</v>
+      </c>
+      <c r="D191">
+        <v>4961</v>
+      </c>
+      <c r="E191">
+        <v>5236</v>
+      </c>
+      <c r="F191">
+        <v>4960</v>
+      </c>
+      <c r="G191">
+        <v>5223</v>
+      </c>
+      <c r="H191">
+        <v>5120</v>
+      </c>
+      <c r="I191">
+        <v>5269</v>
+      </c>
+      <c r="J191">
+        <v>5236</v>
+      </c>
+      <c r="K191">
+        <v>5119</v>
+      </c>
+      <c r="L191">
+        <v>5106</v>
+      </c>
+      <c r="M191">
+        <v>5244</v>
+      </c>
+      <c r="N191">
+        <v>5268</v>
+      </c>
+      <c r="O191">
+        <v>5122</v>
+      </c>
+      <c r="P191">
+        <v>5224</v>
+      </c>
+      <c r="Q191">
+        <v>5123</v>
+      </c>
+      <c r="R191">
+        <v>5318</v>
+      </c>
+      <c r="S191">
+        <v>5109</v>
+      </c>
+      <c r="T191">
+        <v>5392</v>
+      </c>
+      <c r="U191">
+        <v>5083</v>
+      </c>
+      <c r="V191">
+        <v>5120</v>
+      </c>
+      <c r="W191">
+        <v>5316</v>
+      </c>
+      <c r="X191">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A192">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>182</v>
+      </c>
+      <c r="C192" t="s">
+        <v>205</v>
+      </c>
+      <c r="D192">
+        <v>5371</v>
+      </c>
+      <c r="E192">
+        <v>5091</v>
+      </c>
+      <c r="F192">
+        <v>5371</v>
+      </c>
+      <c r="G192">
+        <v>5045</v>
+      </c>
+      <c r="H192">
+        <v>5371</v>
+      </c>
+      <c r="I192">
+        <v>5050</v>
+      </c>
+      <c r="J192">
+        <v>5091</v>
+      </c>
+      <c r="K192">
+        <v>5375</v>
+      </c>
+      <c r="L192">
+        <v>5047</v>
+      </c>
+      <c r="M192">
+        <v>5377</v>
+      </c>
+      <c r="N192">
+        <v>5050</v>
+      </c>
+      <c r="O192">
+        <v>5372</v>
+      </c>
+      <c r="P192">
+        <v>5046</v>
+      </c>
+      <c r="Q192">
+        <v>5374</v>
+      </c>
+      <c r="R192">
+        <v>5330</v>
+      </c>
+      <c r="S192">
+        <v>5051</v>
+      </c>
+      <c r="T192">
+        <v>5289</v>
+      </c>
+      <c r="U192">
+        <v>5438</v>
+      </c>
+      <c r="V192">
+        <v>5371</v>
+      </c>
+      <c r="W192">
+        <v>5328</v>
+      </c>
+      <c r="X192">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A193">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B193">
+        <v>183</v>
+      </c>
+      <c r="C193" t="s">
+        <v>206</v>
+      </c>
+      <c r="D193">
+        <v>5274</v>
+      </c>
+      <c r="E193">
+        <v>5173</v>
+      </c>
+      <c r="F193">
+        <v>5303</v>
+      </c>
+      <c r="G193">
+        <v>5625</v>
+      </c>
+      <c r="H193">
+        <v>5473</v>
+      </c>
+      <c r="I193">
+        <v>5286</v>
+      </c>
+      <c r="J193">
+        <v>5175</v>
+      </c>
+      <c r="K193">
+        <v>5274</v>
+      </c>
+      <c r="L193">
+        <v>5627</v>
+      </c>
+      <c r="M193">
+        <v>5293</v>
+      </c>
+      <c r="N193">
+        <v>5413</v>
+      </c>
+      <c r="O193">
+        <v>5483</v>
+      </c>
+      <c r="P193">
+        <v>5627</v>
+      </c>
+      <c r="Q193">
+        <v>5062</v>
+      </c>
+      <c r="R193">
+        <v>5286</v>
+      </c>
+      <c r="S193">
+        <v>5630</v>
+      </c>
+      <c r="T193">
+        <v>5062</v>
+      </c>
+      <c r="U193">
+        <v>5290</v>
+      </c>
+      <c r="V193">
+        <v>5477</v>
+      </c>
+      <c r="W193">
+        <v>5287</v>
+      </c>
+      <c r="X193">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A194">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>184</v>
+      </c>
+      <c r="C194" t="s">
+        <v>207</v>
+      </c>
+      <c r="D194">
+        <v>5376</v>
+      </c>
+      <c r="E194">
+        <v>5173</v>
+      </c>
+      <c r="F194">
+        <v>5020</v>
+      </c>
+      <c r="G194">
+        <v>4857</v>
+      </c>
+      <c r="H194">
+        <v>5230</v>
+      </c>
+      <c r="I194">
+        <v>5420</v>
+      </c>
+      <c r="J194">
+        <v>5175</v>
+      </c>
+      <c r="K194">
+        <v>5213</v>
+      </c>
+      <c r="L194">
+        <v>4859</v>
+      </c>
+      <c r="M194">
+        <v>5238</v>
+      </c>
+      <c r="N194">
+        <v>5407</v>
+      </c>
+      <c r="O194">
+        <v>5037</v>
+      </c>
+      <c r="P194">
+        <v>4859</v>
+      </c>
+      <c r="Q194">
+        <v>5383</v>
+      </c>
+      <c r="R194">
+        <v>5422</v>
+      </c>
+      <c r="S194">
+        <v>5378</v>
+      </c>
+      <c r="T194">
+        <v>5355</v>
+      </c>
+      <c r="U194">
+        <v>5431</v>
+      </c>
+      <c r="V194">
+        <v>5383</v>
+      </c>
+      <c r="W194">
+        <v>5422</v>
+      </c>
+      <c r="X194">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A195">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B195">
+        <v>185</v>
+      </c>
+      <c r="C195" t="s">
+        <v>208</v>
+      </c>
+      <c r="D195">
+        <v>5587</v>
+      </c>
+      <c r="E195">
+        <v>5587</v>
+      </c>
+      <c r="F195">
+        <v>5213</v>
+      </c>
+      <c r="G195">
+        <v>5074</v>
+      </c>
+      <c r="H195">
+        <v>5368</v>
+      </c>
+      <c r="I195">
+        <v>5406</v>
+      </c>
+      <c r="J195">
+        <v>5590</v>
+      </c>
+      <c r="K195">
+        <v>5206</v>
+      </c>
+      <c r="L195">
+        <v>5076</v>
+      </c>
+      <c r="M195">
+        <v>5304</v>
+      </c>
+      <c r="N195">
+        <v>5201</v>
+      </c>
+      <c r="O195">
+        <v>5164</v>
+      </c>
+      <c r="P195">
+        <v>5074</v>
+      </c>
+      <c r="Q195">
+        <v>5280</v>
+      </c>
+      <c r="R195">
+        <v>5406</v>
+      </c>
+      <c r="S195">
+        <v>5080</v>
+      </c>
+      <c r="T195">
+        <v>5311</v>
+      </c>
+      <c r="U195">
+        <v>5203</v>
+      </c>
+      <c r="V195">
+        <v>5308</v>
+      </c>
+      <c r="W195">
+        <v>5408</v>
+      </c>
+      <c r="X195">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>186</v>
+      </c>
+      <c r="C196" t="s">
+        <v>209</v>
+      </c>
+      <c r="D196">
+        <v>5322</v>
+      </c>
+      <c r="E196">
+        <v>5181</v>
+      </c>
+      <c r="F196">
+        <v>5668</v>
+      </c>
+      <c r="G196">
+        <v>4914</v>
+      </c>
+      <c r="H196">
+        <v>5100</v>
+      </c>
+      <c r="I196">
+        <v>4913</v>
+      </c>
+      <c r="J196">
+        <v>5185</v>
+      </c>
+      <c r="K196">
+        <v>5321</v>
+      </c>
+      <c r="L196">
+        <v>4916</v>
+      </c>
+      <c r="M196">
+        <v>5322</v>
+      </c>
+      <c r="N196">
+        <v>4918</v>
+      </c>
+      <c r="O196">
+        <v>4913</v>
+      </c>
+      <c r="P196">
+        <v>4914</v>
+      </c>
+      <c r="Q196">
+        <v>5303</v>
+      </c>
+      <c r="R196">
+        <v>5124</v>
+      </c>
+      <c r="S196">
+        <v>5184</v>
+      </c>
+      <c r="T196">
+        <v>5321</v>
+      </c>
+      <c r="U196">
+        <v>5184</v>
+      </c>
+      <c r="V196">
+        <v>5193</v>
+      </c>
+      <c r="W196">
+        <v>5124</v>
+      </c>
+      <c r="X196">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>187</v>
+      </c>
+      <c r="C197" t="s">
+        <v>210</v>
+      </c>
+      <c r="D197">
+        <v>5023</v>
+      </c>
+      <c r="E197">
+        <v>5177</v>
+      </c>
+      <c r="F197">
+        <v>5020</v>
+      </c>
+      <c r="G197">
+        <v>5414</v>
+      </c>
+      <c r="H197">
+        <v>5127</v>
+      </c>
+      <c r="I197">
+        <v>5256</v>
+      </c>
+      <c r="J197">
+        <v>5177</v>
+      </c>
+      <c r="K197">
+        <v>5409</v>
+      </c>
+      <c r="L197">
+        <v>5414</v>
+      </c>
+      <c r="M197">
+        <v>5039</v>
+      </c>
+      <c r="N197">
+        <v>5256</v>
+      </c>
+      <c r="O197">
+        <v>5024</v>
+      </c>
+      <c r="P197">
+        <v>5414</v>
+      </c>
+      <c r="Q197">
+        <v>5609</v>
+      </c>
+      <c r="R197">
+        <v>5256</v>
+      </c>
+      <c r="S197">
+        <v>5104</v>
+      </c>
+      <c r="T197">
+        <v>5087</v>
+      </c>
+      <c r="U197">
+        <v>5260</v>
+      </c>
+      <c r="V197">
+        <v>5166</v>
+      </c>
+      <c r="W197">
+        <v>5256</v>
+      </c>
+      <c r="X197">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>188</v>
+      </c>
+      <c r="C198" t="s">
+        <v>211</v>
+      </c>
+      <c r="D198">
+        <v>5114</v>
+      </c>
+      <c r="E198">
+        <v>5115</v>
+      </c>
+      <c r="F198">
+        <v>5397</v>
+      </c>
+      <c r="G198">
+        <v>4955</v>
+      </c>
+      <c r="H198">
+        <v>5345</v>
+      </c>
+      <c r="I198">
+        <v>5496</v>
+      </c>
+      <c r="J198">
+        <v>5115</v>
+      </c>
+      <c r="K198">
+        <v>5194</v>
+      </c>
+      <c r="L198">
+        <v>5094</v>
+      </c>
+      <c r="M198">
+        <v>5133</v>
+      </c>
+      <c r="N198">
+        <v>5340</v>
+      </c>
+      <c r="O198">
+        <v>5398</v>
+      </c>
+      <c r="P198">
+        <v>4956</v>
+      </c>
+      <c r="Q198">
+        <v>5334</v>
+      </c>
+      <c r="R198">
+        <v>5495</v>
+      </c>
+      <c r="S198">
+        <v>5095</v>
+      </c>
+      <c r="T198">
+        <v>5337</v>
+      </c>
+      <c r="U198">
+        <v>5519</v>
+      </c>
+      <c r="V198">
+        <v>5124</v>
+      </c>
+      <c r="W198">
+        <v>5493</v>
+      </c>
+      <c r="X198">
+        <v>4962</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B199">
+        <v>189</v>
+      </c>
+      <c r="C199" t="s">
+        <v>212</v>
+      </c>
+      <c r="D199">
+        <v>5340</v>
+      </c>
+      <c r="E199">
+        <v>5316</v>
+      </c>
+      <c r="F199">
+        <v>5288</v>
+      </c>
+      <c r="G199">
+        <v>5479</v>
+      </c>
+      <c r="H199">
+        <v>5619</v>
+      </c>
+      <c r="I199">
+        <v>5076</v>
+      </c>
+      <c r="J199">
+        <v>5318</v>
+      </c>
+      <c r="K199">
+        <v>5340</v>
+      </c>
+      <c r="L199">
+        <v>4878</v>
+      </c>
+      <c r="M199">
+        <v>5181</v>
+      </c>
+      <c r="N199">
+        <v>5268</v>
+      </c>
+      <c r="O199">
+        <v>4919</v>
+      </c>
+      <c r="P199">
+        <v>5481</v>
+      </c>
+      <c r="Q199">
+        <v>5411</v>
+      </c>
+      <c r="R199">
+        <v>5076</v>
+      </c>
+      <c r="S199">
+        <v>5079</v>
+      </c>
+      <c r="T199">
+        <v>5245</v>
+      </c>
+      <c r="U199">
+        <v>4880</v>
+      </c>
+      <c r="V199">
+        <v>5625</v>
+      </c>
+      <c r="W199">
+        <v>5077</v>
+      </c>
+      <c r="X199">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>190</v>
+      </c>
+      <c r="C200" t="s">
+        <v>213</v>
+      </c>
+      <c r="D200">
+        <v>5327</v>
+      </c>
+      <c r="E200">
+        <v>5462</v>
+      </c>
+      <c r="F200">
+        <v>5127</v>
+      </c>
+      <c r="G200">
+        <v>5216</v>
+      </c>
+      <c r="H200">
+        <v>5411</v>
+      </c>
+      <c r="I200">
+        <v>5362</v>
+      </c>
+      <c r="J200">
+        <v>5464</v>
+      </c>
+      <c r="K200">
+        <v>5326</v>
+      </c>
+      <c r="L200">
+        <v>5472</v>
+      </c>
+      <c r="M200">
+        <v>5404</v>
+      </c>
+      <c r="N200">
+        <v>5114</v>
+      </c>
+      <c r="O200">
+        <v>5591</v>
+      </c>
+      <c r="P200">
+        <v>5217</v>
+      </c>
+      <c r="Q200">
+        <v>5124</v>
+      </c>
+      <c r="R200">
+        <v>5339</v>
+      </c>
+      <c r="S200">
+        <v>5342</v>
+      </c>
+      <c r="T200">
+        <v>5329</v>
+      </c>
+      <c r="U200">
+        <v>5342</v>
+      </c>
+      <c r="V200">
+        <v>5440</v>
+      </c>
+      <c r="W200">
+        <v>5337</v>
+      </c>
+      <c r="X200">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>191</v>
+      </c>
+      <c r="C201" t="s">
+        <v>214</v>
+      </c>
+      <c r="D201">
+        <v>4947</v>
+      </c>
+      <c r="E201">
+        <v>5226</v>
+      </c>
+      <c r="F201">
+        <v>5020</v>
+      </c>
+      <c r="G201">
+        <v>5230</v>
+      </c>
+      <c r="H201">
+        <v>5453</v>
+      </c>
+      <c r="I201">
+        <v>5254</v>
+      </c>
+      <c r="J201">
+        <v>5226</v>
+      </c>
+      <c r="K201">
+        <v>5227</v>
+      </c>
+      <c r="L201">
+        <v>5232</v>
+      </c>
+      <c r="M201">
+        <v>4892</v>
+      </c>
+      <c r="N201">
+        <v>5450</v>
+      </c>
+      <c r="O201">
+        <v>5120</v>
+      </c>
+      <c r="P201">
+        <v>5231</v>
+      </c>
+      <c r="Q201">
+        <v>5056</v>
+      </c>
+      <c r="R201">
+        <v>5449</v>
+      </c>
+      <c r="S201">
+        <v>5129</v>
+      </c>
+      <c r="T201">
+        <v>5547</v>
+      </c>
+      <c r="U201">
+        <v>5083</v>
+      </c>
+      <c r="V201">
+        <v>5429</v>
+      </c>
+      <c r="W201">
+        <v>5449</v>
+      </c>
+      <c r="X201">
+        <v>5454</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>192</v>
+      </c>
+      <c r="C202" t="s">
+        <v>215</v>
+      </c>
+      <c r="D202">
+        <v>5067</v>
+      </c>
+      <c r="E202">
+        <v>5068</v>
+      </c>
+      <c r="F202">
+        <v>5226</v>
+      </c>
+      <c r="G202">
+        <v>5104</v>
+      </c>
+      <c r="H202">
+        <v>5070</v>
+      </c>
+      <c r="I202">
+        <v>5257</v>
+      </c>
+      <c r="J202">
+        <v>5070</v>
+      </c>
+      <c r="K202">
+        <v>5305</v>
+      </c>
+      <c r="L202">
+        <v>5326</v>
+      </c>
+      <c r="M202">
+        <v>5169</v>
+      </c>
+      <c r="N202">
+        <v>5508</v>
+      </c>
+      <c r="O202">
+        <v>5596</v>
+      </c>
+      <c r="P202">
+        <v>5104</v>
+      </c>
+      <c r="Q202">
+        <v>5226</v>
+      </c>
+      <c r="R202">
+        <v>5256</v>
+      </c>
+      <c r="S202">
+        <v>5258</v>
+      </c>
+      <c r="T202">
+        <v>5224</v>
+      </c>
+      <c r="U202">
+        <v>5259</v>
+      </c>
+      <c r="V202">
+        <v>5066</v>
+      </c>
+      <c r="W202">
+        <v>5254</v>
+      </c>
+      <c r="X202">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>193</v>
+      </c>
+      <c r="C203" t="s">
+        <v>216</v>
+      </c>
+      <c r="D203">
+        <v>5105</v>
+      </c>
+      <c r="E203">
+        <v>5342</v>
+      </c>
+      <c r="F203">
+        <v>5338</v>
+      </c>
+      <c r="G203">
+        <v>5305</v>
+      </c>
+      <c r="H203">
+        <v>5338</v>
+      </c>
+      <c r="I203">
+        <v>5118</v>
+      </c>
+      <c r="J203">
+        <v>5343</v>
+      </c>
+      <c r="K203">
+        <v>5340</v>
+      </c>
+      <c r="L203">
+        <v>5257</v>
+      </c>
+      <c r="M203">
+        <v>5106</v>
+      </c>
+      <c r="N203">
+        <v>5342</v>
+      </c>
+      <c r="O203">
+        <v>5398</v>
+      </c>
+      <c r="P203">
+        <v>5303</v>
+      </c>
+      <c r="Q203">
+        <v>5315</v>
+      </c>
+      <c r="R203">
+        <v>5116</v>
+      </c>
+      <c r="S203">
+        <v>5258</v>
+      </c>
+      <c r="T203">
+        <v>5401</v>
+      </c>
+      <c r="U203">
+        <v>5017</v>
+      </c>
+      <c r="V203">
+        <v>5295</v>
+      </c>
+      <c r="W203">
+        <v>5118</v>
+      </c>
+      <c r="X203">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A204">
+        <f t="shared" ref="A204:A219" si="4">COUNTIF(D204:X204,"&gt;=5500")</f>
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>194</v>
+      </c>
+      <c r="C204" t="s">
+        <v>217</v>
+      </c>
+      <c r="D204">
+        <v>4904</v>
+      </c>
+      <c r="E204">
+        <v>5445</v>
+      </c>
+      <c r="F204">
+        <v>5550</v>
+      </c>
+      <c r="G204">
+        <v>5141</v>
+      </c>
+      <c r="H204">
+        <v>5585</v>
+      </c>
+      <c r="I204">
+        <v>5393</v>
+      </c>
+      <c r="J204">
+        <v>5446</v>
+      </c>
+      <c r="K204">
+        <v>5193</v>
+      </c>
+      <c r="L204">
+        <v>5144</v>
+      </c>
+      <c r="M204">
+        <v>5212</v>
+      </c>
+      <c r="N204">
+        <v>5363</v>
+      </c>
+      <c r="O204">
+        <v>5452</v>
+      </c>
+      <c r="P204">
+        <v>5139</v>
+      </c>
+      <c r="Q204">
+        <v>5452</v>
+      </c>
+      <c r="R204">
+        <v>5391</v>
+      </c>
+      <c r="S204">
+        <v>5355</v>
+      </c>
+      <c r="T204">
+        <v>5364</v>
+      </c>
+      <c r="U204">
+        <v>5280</v>
+      </c>
+      <c r="V204">
+        <v>4894</v>
+      </c>
+      <c r="W204">
+        <v>5393</v>
+      </c>
+      <c r="X204">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>195</v>
+      </c>
+      <c r="C205" t="s">
+        <v>218</v>
+      </c>
+      <c r="D205">
+        <v>5165</v>
+      </c>
+      <c r="E205">
+        <v>5166</v>
+      </c>
+      <c r="F205">
+        <v>5325</v>
+      </c>
+      <c r="G205">
+        <v>5070</v>
+      </c>
+      <c r="H205">
+        <v>5323</v>
+      </c>
+      <c r="I205">
+        <v>5341</v>
+      </c>
+      <c r="J205">
+        <v>5168</v>
+      </c>
+      <c r="K205">
+        <v>5340</v>
+      </c>
+      <c r="L205">
+        <v>5072</v>
+      </c>
+      <c r="M205">
+        <v>5322</v>
+      </c>
+      <c r="N205">
+        <v>5343</v>
+      </c>
+      <c r="O205">
+        <v>5327</v>
+      </c>
+      <c r="P205">
+        <v>5070</v>
+      </c>
+      <c r="Q205">
+        <v>5325</v>
+      </c>
+      <c r="R205">
+        <v>5341</v>
+      </c>
+      <c r="S205">
+        <v>5239</v>
+      </c>
+      <c r="T205">
+        <v>5020</v>
+      </c>
+      <c r="U205">
+        <v>5344</v>
+      </c>
+      <c r="V205">
+        <v>5326</v>
+      </c>
+      <c r="W205">
+        <v>5341</v>
+      </c>
+      <c r="X205">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A206">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B206">
+        <v>196</v>
+      </c>
+      <c r="C206" t="s">
+        <v>219</v>
+      </c>
+      <c r="D206">
+        <v>5000</v>
+      </c>
+      <c r="E206">
+        <v>5079</v>
+      </c>
+      <c r="F206">
+        <v>5239</v>
+      </c>
+      <c r="G206">
+        <v>5670</v>
+      </c>
+      <c r="H206">
+        <v>5194</v>
+      </c>
+      <c r="I206">
+        <v>5673</v>
+      </c>
+      <c r="J206">
+        <v>5079</v>
+      </c>
+      <c r="K206">
+        <v>5099</v>
+      </c>
+      <c r="L206">
+        <v>5148</v>
+      </c>
+      <c r="M206">
+        <v>4977</v>
+      </c>
+      <c r="N206">
+        <v>5670</v>
+      </c>
+      <c r="O206">
+        <v>5127</v>
+      </c>
+      <c r="P206">
+        <v>5671</v>
+      </c>
+      <c r="Q206">
+        <v>4802</v>
+      </c>
+      <c r="R206">
+        <v>5672</v>
+      </c>
+      <c r="S206">
+        <v>5290</v>
+      </c>
+      <c r="T206">
+        <v>5305</v>
+      </c>
+      <c r="U206">
+        <v>5677</v>
+      </c>
+      <c r="V206">
+        <v>5077</v>
+      </c>
+      <c r="W206">
+        <v>5670</v>
+      </c>
+      <c r="X206">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A207">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>197</v>
+      </c>
+      <c r="C207" t="s">
+        <v>220</v>
+      </c>
+      <c r="D207">
+        <v>5341</v>
+      </c>
+      <c r="E207">
+        <v>5102</v>
+      </c>
+      <c r="F207">
+        <v>5106</v>
+      </c>
+      <c r="G207">
+        <v>5104</v>
+      </c>
+      <c r="H207">
+        <v>5421</v>
+      </c>
+      <c r="I207">
+        <v>5242</v>
+      </c>
+      <c r="J207">
+        <v>5104</v>
+      </c>
+      <c r="K207">
+        <v>4926</v>
+      </c>
+      <c r="L207">
+        <v>5106</v>
+      </c>
+      <c r="M207">
+        <v>5005</v>
+      </c>
+      <c r="N207">
+        <v>5244</v>
+      </c>
+      <c r="O207">
+        <v>4992</v>
+      </c>
+      <c r="P207">
+        <v>5104</v>
+      </c>
+      <c r="Q207">
+        <v>5384</v>
+      </c>
+      <c r="R207">
+        <v>5241</v>
+      </c>
+      <c r="S207">
+        <v>5108</v>
+      </c>
+      <c r="T207">
+        <v>5311</v>
+      </c>
+      <c r="U207">
+        <v>5382</v>
+      </c>
+      <c r="V207">
+        <v>5154</v>
+      </c>
+      <c r="W207">
+        <v>5239</v>
+      </c>
+      <c r="X207">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A208">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>198</v>
+      </c>
+      <c r="C208" t="s">
+        <v>221</v>
+      </c>
+      <c r="D208">
+        <v>5419</v>
+      </c>
+      <c r="E208">
+        <v>5419</v>
+      </c>
+      <c r="F208">
+        <v>5420</v>
+      </c>
+      <c r="G208">
+        <v>5283</v>
+      </c>
+      <c r="H208">
+        <v>4932</v>
+      </c>
+      <c r="I208">
+        <v>5140</v>
+      </c>
+      <c r="J208">
+        <v>5420</v>
+      </c>
+      <c r="K208">
+        <v>5023</v>
+      </c>
+      <c r="L208">
+        <v>5283</v>
+      </c>
+      <c r="M208">
+        <v>4932</v>
+      </c>
+      <c r="N208">
+        <v>5315</v>
+      </c>
+      <c r="O208">
+        <v>5150</v>
+      </c>
+      <c r="P208">
+        <v>5283</v>
+      </c>
+      <c r="Q208">
+        <v>5418</v>
+      </c>
+      <c r="R208">
+        <v>5312</v>
+      </c>
+      <c r="S208">
+        <v>5029</v>
+      </c>
+      <c r="T208">
+        <v>5168</v>
+      </c>
+      <c r="U208">
+        <v>5118</v>
+      </c>
+      <c r="V208">
+        <v>5400</v>
+      </c>
+      <c r="W208">
+        <v>5313</v>
+      </c>
+      <c r="X208">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A209">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>199</v>
+      </c>
+      <c r="C209" t="s">
+        <v>222</v>
+      </c>
+      <c r="D209">
+        <v>5153</v>
+      </c>
+      <c r="E209">
+        <v>5151</v>
+      </c>
+      <c r="F209">
+        <v>5099</v>
+      </c>
+      <c r="G209">
+        <v>5314</v>
+      </c>
+      <c r="H209">
+        <v>5189</v>
+      </c>
+      <c r="I209">
+        <v>5323</v>
+      </c>
+      <c r="J209">
+        <v>5153</v>
+      </c>
+      <c r="K209">
+        <v>5303</v>
+      </c>
+      <c r="L209">
+        <v>5314</v>
+      </c>
+      <c r="M209">
+        <v>5409</v>
+      </c>
+      <c r="N209">
+        <v>5279</v>
+      </c>
+      <c r="O209">
+        <v>5127</v>
+      </c>
+      <c r="P209">
+        <v>5314</v>
+      </c>
+      <c r="Q209">
+        <v>5127</v>
+      </c>
+      <c r="R209">
+        <v>5325</v>
+      </c>
+      <c r="S209">
+        <v>4923</v>
+      </c>
+      <c r="T209">
+        <v>5373</v>
+      </c>
+      <c r="U209">
+        <v>5330</v>
+      </c>
+      <c r="V209">
+        <v>5141</v>
+      </c>
+      <c r="W209">
+        <v>5325</v>
+      </c>
+      <c r="X209">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A210">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>200</v>
+      </c>
+      <c r="C210" t="s">
+        <v>223</v>
+      </c>
+      <c r="D210">
+        <v>4860</v>
+      </c>
+      <c r="E210">
+        <v>5218</v>
+      </c>
+      <c r="F210">
+        <v>5168</v>
+      </c>
+      <c r="G210">
+        <v>5032</v>
+      </c>
+      <c r="H210">
+        <v>5170</v>
+      </c>
+      <c r="I210">
+        <v>5183</v>
+      </c>
+      <c r="J210">
+        <v>5218</v>
+      </c>
+      <c r="K210">
+        <v>5420</v>
+      </c>
+      <c r="L210">
+        <v>5033</v>
+      </c>
+      <c r="M210">
+        <v>5266</v>
+      </c>
+      <c r="N210">
+        <v>5183</v>
+      </c>
+      <c r="O210">
+        <v>5179</v>
+      </c>
+      <c r="P210">
+        <v>5030</v>
+      </c>
+      <c r="Q210">
+        <v>5193</v>
+      </c>
+      <c r="R210">
+        <v>5181</v>
+      </c>
+      <c r="S210">
+        <v>5035</v>
+      </c>
+      <c r="T210">
+        <v>5265</v>
+      </c>
+      <c r="U210">
+        <v>5185</v>
+      </c>
+      <c r="V210">
+        <v>5173</v>
+      </c>
+      <c r="W210">
+        <v>5181</v>
+      </c>
+      <c r="X210">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A211">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>201</v>
+      </c>
+      <c r="C211" t="s">
+        <v>224</v>
+      </c>
+      <c r="D211">
+        <v>5255</v>
+      </c>
+      <c r="E211">
+        <v>5199</v>
+      </c>
+      <c r="F211">
+        <v>5172</v>
+      </c>
+      <c r="G211">
+        <v>5397</v>
+      </c>
+      <c r="H211">
+        <v>5205</v>
+      </c>
+      <c r="I211">
+        <v>5124</v>
+      </c>
+      <c r="J211">
+        <v>5201</v>
+      </c>
+      <c r="K211">
+        <v>5270</v>
+      </c>
+      <c r="L211">
+        <v>5399</v>
+      </c>
+      <c r="M211">
+        <v>4910</v>
+      </c>
+      <c r="N211">
+        <v>5257</v>
+      </c>
+      <c r="O211">
+        <v>5259</v>
+      </c>
+      <c r="P211">
+        <v>5397</v>
+      </c>
+      <c r="Q211">
+        <v>5091</v>
+      </c>
+      <c r="R211">
+        <v>5124</v>
+      </c>
+      <c r="S211">
+        <v>5400</v>
+      </c>
+      <c r="T211">
+        <v>5336</v>
+      </c>
+      <c r="U211">
+        <v>5344</v>
+      </c>
+      <c r="V211">
+        <v>5270</v>
+      </c>
+      <c r="W211">
+        <v>5124</v>
+      </c>
+      <c r="X211">
+        <v>5379</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A212">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>202</v>
+      </c>
+      <c r="C212" t="s">
+        <v>225</v>
+      </c>
+      <c r="D212">
+        <v>5115</v>
+      </c>
+      <c r="E212">
+        <v>5220</v>
+      </c>
+      <c r="F212">
+        <v>5251</v>
+      </c>
+      <c r="G212">
+        <v>5325</v>
+      </c>
+      <c r="H212">
+        <v>5252</v>
+      </c>
+      <c r="I212">
+        <v>5224</v>
+      </c>
+      <c r="J212">
+        <v>5221</v>
+      </c>
+      <c r="K212">
+        <v>5119</v>
+      </c>
+      <c r="L212">
+        <v>5274</v>
+      </c>
+      <c r="M212">
+        <v>5468</v>
+      </c>
+      <c r="N212">
+        <v>4886</v>
+      </c>
+      <c r="O212">
+        <v>5029</v>
+      </c>
+      <c r="P212">
+        <v>5323</v>
+      </c>
+      <c r="Q212">
+        <v>5030</v>
+      </c>
+      <c r="R212">
+        <v>5222</v>
+      </c>
+      <c r="S212">
+        <v>5365</v>
+      </c>
+      <c r="T212">
+        <v>5254</v>
+      </c>
+      <c r="U212">
+        <v>5326</v>
+      </c>
+      <c r="V212">
+        <v>5258</v>
+      </c>
+      <c r="W212">
+        <v>5224</v>
+      </c>
+      <c r="X212">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A213">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>203</v>
+      </c>
+      <c r="C213" t="s">
+        <v>226</v>
+      </c>
+      <c r="D213">
+        <v>5397</v>
+      </c>
+      <c r="E213">
+        <v>5425</v>
+      </c>
+      <c r="F213">
+        <v>5084</v>
+      </c>
+      <c r="G213">
+        <v>5396</v>
+      </c>
+      <c r="H213">
+        <v>4985</v>
+      </c>
+      <c r="I213">
+        <v>5397</v>
+      </c>
+      <c r="J213">
+        <v>5429</v>
+      </c>
+      <c r="K213">
+        <v>5328</v>
+      </c>
+      <c r="L213">
+        <v>5400</v>
+      </c>
+      <c r="M213">
+        <v>5327</v>
+      </c>
+      <c r="N213">
+        <v>5401</v>
+      </c>
+      <c r="O213">
+        <v>4929</v>
+      </c>
+      <c r="P213">
+        <v>5398</v>
+      </c>
+      <c r="Q213">
+        <v>5158</v>
+      </c>
+      <c r="R213">
+        <v>5399</v>
+      </c>
+      <c r="S213">
+        <v>5318</v>
+      </c>
+      <c r="T213">
+        <v>4915</v>
+      </c>
+      <c r="U213">
+        <v>5403</v>
+      </c>
+      <c r="V213">
+        <v>5050</v>
+      </c>
+      <c r="W213">
+        <v>5399</v>
+      </c>
+      <c r="X213">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A214">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>204</v>
+      </c>
+      <c r="C214" t="s">
+        <v>227</v>
+      </c>
+      <c r="D214">
+        <v>5070</v>
+      </c>
+      <c r="E214">
+        <v>5361</v>
+      </c>
+      <c r="F214">
+        <v>5213</v>
+      </c>
+      <c r="G214">
+        <v>5297</v>
+      </c>
+      <c r="H214">
+        <v>5134</v>
+      </c>
+      <c r="I214">
+        <v>4989</v>
+      </c>
+      <c r="J214">
+        <v>5363</v>
+      </c>
+      <c r="K214">
+        <v>5315</v>
+      </c>
+      <c r="L214">
+        <v>5295</v>
+      </c>
+      <c r="M214">
+        <v>5133</v>
+      </c>
+      <c r="N214">
+        <v>5172</v>
+      </c>
+      <c r="O214">
+        <v>5217</v>
+      </c>
+      <c r="P214">
+        <v>5297</v>
+      </c>
+      <c r="Q214">
+        <v>5170</v>
+      </c>
+      <c r="R214">
+        <v>5069</v>
+      </c>
+      <c r="S214">
+        <v>5299</v>
+      </c>
+      <c r="T214">
+        <v>5317</v>
+      </c>
+      <c r="U214">
+        <v>5341</v>
+      </c>
+      <c r="V214">
+        <v>5142</v>
+      </c>
+      <c r="W214">
+        <v>5069</v>
+      </c>
+      <c r="X214">
+        <v>4957</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A215">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>205</v>
+      </c>
+      <c r="C215" t="s">
+        <v>228</v>
+      </c>
+      <c r="D215">
+        <v>5447</v>
+      </c>
+      <c r="E215">
+        <v>5125</v>
+      </c>
+      <c r="F215">
+        <v>5447</v>
+      </c>
+      <c r="G215">
+        <v>5394</v>
+      </c>
+      <c r="H215">
+        <v>5616</v>
+      </c>
+      <c r="I215">
+        <v>4944</v>
+      </c>
+      <c r="J215">
+        <v>5127</v>
+      </c>
+      <c r="K215">
+        <v>5198</v>
+      </c>
+      <c r="L215">
+        <v>5396</v>
+      </c>
+      <c r="M215">
+        <v>5495</v>
+      </c>
+      <c r="N215">
+        <v>4947</v>
+      </c>
+      <c r="O215">
+        <v>5228</v>
+      </c>
+      <c r="P215">
+        <v>5394</v>
+      </c>
+      <c r="Q215">
+        <v>5331</v>
+      </c>
+      <c r="R215">
+        <v>4944</v>
+      </c>
+      <c r="S215">
+        <v>5396</v>
+      </c>
+      <c r="T215">
+        <v>5197</v>
+      </c>
+      <c r="U215">
+        <v>4947</v>
+      </c>
+      <c r="V215">
+        <v>5153</v>
+      </c>
+      <c r="W215">
+        <v>4944</v>
+      </c>
+      <c r="X215">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A216">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>206</v>
+      </c>
+      <c r="C216" t="s">
+        <v>229</v>
+      </c>
+      <c r="D216">
+        <v>5311</v>
+      </c>
+      <c r="E216">
+        <v>5444</v>
+      </c>
+      <c r="F216">
+        <v>5309</v>
+      </c>
+      <c r="G216">
+        <v>5346</v>
+      </c>
+      <c r="H216">
+        <v>5059</v>
+      </c>
+      <c r="I216">
+        <v>5227</v>
+      </c>
+      <c r="J216">
+        <v>5444</v>
+      </c>
+      <c r="K216">
+        <v>5193</v>
+      </c>
+      <c r="L216">
+        <v>5346</v>
+      </c>
+      <c r="M216">
+        <v>5133</v>
+      </c>
+      <c r="N216">
+        <v>5226</v>
+      </c>
+      <c r="O216">
+        <v>5311</v>
+      </c>
+      <c r="P216">
+        <v>5346</v>
+      </c>
+      <c r="Q216">
+        <v>5387</v>
+      </c>
+      <c r="R216">
+        <v>5227</v>
+      </c>
+      <c r="S216">
+        <v>5350</v>
+      </c>
+      <c r="T216">
+        <v>4981</v>
+      </c>
+      <c r="U216">
+        <v>5231</v>
+      </c>
+      <c r="V216">
+        <v>5141</v>
+      </c>
+      <c r="W216">
+        <v>5227</v>
+      </c>
+      <c r="X216">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A217">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>207</v>
+      </c>
+      <c r="C217" t="s">
+        <v>230</v>
+      </c>
+      <c r="D217">
+        <v>4930</v>
+      </c>
+      <c r="E217">
+        <v>5461</v>
+      </c>
+      <c r="F217">
+        <v>5028</v>
+      </c>
+      <c r="G217">
+        <v>5168</v>
+      </c>
+      <c r="H217">
+        <v>5164</v>
+      </c>
+      <c r="I217">
+        <v>5018</v>
+      </c>
+      <c r="J217">
+        <v>5463</v>
+      </c>
+      <c r="K217">
+        <v>5222</v>
+      </c>
+      <c r="L217">
+        <v>5466</v>
+      </c>
+      <c r="M217">
+        <v>5238</v>
+      </c>
+      <c r="N217">
+        <v>5021</v>
+      </c>
+      <c r="O217">
+        <v>5206</v>
+      </c>
+      <c r="P217">
+        <v>5170</v>
+      </c>
+      <c r="Q217">
+        <v>5555</v>
+      </c>
+      <c r="R217">
+        <v>5020</v>
+      </c>
+      <c r="S217">
+        <v>5252</v>
+      </c>
+      <c r="T217">
+        <v>5224</v>
+      </c>
+      <c r="U217">
+        <v>5336</v>
+      </c>
+      <c r="V217">
+        <v>4992</v>
+      </c>
+      <c r="W217">
+        <v>5020</v>
+      </c>
+      <c r="X217">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A218">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>208</v>
+      </c>
+      <c r="C218" t="s">
+        <v>231</v>
+      </c>
+      <c r="D218">
+        <v>5289</v>
+      </c>
+      <c r="E218">
+        <v>5241</v>
+      </c>
+      <c r="F218">
+        <v>5287</v>
+      </c>
+      <c r="G218">
+        <v>5386</v>
+      </c>
+      <c r="H218">
+        <v>5206</v>
+      </c>
+      <c r="I218">
+        <v>5258</v>
+      </c>
+      <c r="J218">
+        <v>5245</v>
+      </c>
+      <c r="K218">
+        <v>5220</v>
+      </c>
+      <c r="L218">
+        <v>5390</v>
+      </c>
+      <c r="M218">
+        <v>5361</v>
+      </c>
+      <c r="N218">
+        <v>5262</v>
+      </c>
+      <c r="O218">
+        <v>5286</v>
+      </c>
+      <c r="P218">
+        <v>5388</v>
+      </c>
+      <c r="Q218">
+        <v>5365</v>
+      </c>
+      <c r="R218">
+        <v>5260</v>
+      </c>
+      <c r="S218">
+        <v>5226</v>
+      </c>
+      <c r="T218">
+        <v>5351</v>
+      </c>
+      <c r="U218">
+        <v>5226</v>
+      </c>
+      <c r="V218">
+        <v>5408</v>
+      </c>
+      <c r="W218">
+        <v>5260</v>
+      </c>
+      <c r="X218">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.5">
+      <c r="A219">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>209</v>
+      </c>
+      <c r="C219" t="s">
+        <v>232</v>
+      </c>
+      <c r="D219">
+        <v>5227</v>
+      </c>
+      <c r="E219">
+        <v>5091</v>
+      </c>
+      <c r="F219">
+        <v>5091</v>
+      </c>
+      <c r="G219">
+        <v>5326</v>
+      </c>
+      <c r="H219">
+        <v>5342</v>
+      </c>
+      <c r="I219">
+        <v>5186</v>
+      </c>
+      <c r="J219">
+        <v>5094</v>
+      </c>
+      <c r="K219">
+        <v>5227</v>
+      </c>
+      <c r="L219">
+        <v>5327</v>
+      </c>
+      <c r="M219">
+        <v>5547</v>
+      </c>
+      <c r="N219">
+        <v>5526</v>
+      </c>
+      <c r="O219">
+        <v>5094</v>
+      </c>
+      <c r="P219">
+        <v>5325</v>
+      </c>
+      <c r="Q219">
+        <v>5374</v>
+      </c>
+      <c r="R219">
+        <v>5523</v>
+      </c>
+      <c r="S219">
+        <v>5379</v>
+      </c>
+      <c r="T219">
+        <v>5519</v>
+      </c>
+      <c r="U219">
+        <v>5521</v>
+      </c>
+      <c r="V219">
+        <v>5059</v>
+      </c>
+      <c r="W219">
+        <v>5525</v>
+      </c>
+      <c r="X219">
+        <v>5218</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D11:X119">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>5499</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120:X219">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>5499</formula>
     </cfRule>

--- a/pilas/mapa_parejas_acumulado.xlsx
+++ b/pilas/mapa_parejas_acumulado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E22FEE4-5C9D-9F4D-B799-3D588F8B6982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8362B39-FC10-4D4C-81BD-27D515639B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="343">
   <si>
     <t>[403, 185, 148, 467, 213, 260, 497, 198, 215, 478, 332, 188, 477, 122, 307, 284, 243, 133, 210, 63, 236, 1, 286, 80, 79, 290, 4, 373, 29, 326, 154, 149, 134, 47, 410, 192, 486, 333, 341, 64, 494, 411, 294, 350, 381, 451, 105, 226, 305, 83, 176, 293, 264, 455, 404, 461, 292, 287, 201, 248, 318, 76, 48, 285, 349, 480, 496, 70, 255, 73, 491, 412, 357, 13, 336, 152, 394, 363, 484, 311, 306, 88, 46, 11, 327, 263, 177, 240, 151, 34, 367, 162, 202, 14, 130, 457, 89, 140, 303, 474, 17, 387, 170, 230, 238, 124, 492, 23, 15, 112, 55, 456, 41, 430, 182, 200, 12, 157, 272, 490, 57, 108, 228, 100, 121, 24, 324, 131, 391, 344, 67, 110, 42, 5, 301, 313, 446, 295, 126, 2, 266, 483, 417, 85, 335, 399, 30, 288, 214, 168, 99, 96, 414, 253, 278, 141, 366, 321, 346, 343, 86, 65, 153, 328, 347, 234, 137, 72, 50, 211, 308, 468, 138, 187, 207, 406, 374, 244, 377, 107, 413, 454, 227, 442, 111, 10, 135, 407, 420, 25, 195, 180, 289, 18, 174, 171, 393, 265, 245, 159, 340, 81, 235, 448, 173, 239, 21, 376, 416, 460, 423, 184, 178, 354, 206, 476, 358, 267, 431, 466, 383, 94, 304, 225, 425, 452, 370, 405, 445, 380, 252, 433, 269, 339, 386, 66, 459, 183, 487, 385, 49, 246, 20, 172, 369, 249, 75, 164, 322, 93, 158, 160, 302, 256, 118, 444, 331, 91, 128, 143, 348, 60, 16, 38, 258, 359, 166, 362, 262, 314, 495, 78, 283, 196, 428, 251, 102, 427, 229, 45, 378, 139, 58, 106, 129, 92, 127, 175, 9, 488, 232, 61, 470, 219, 310, 39, 3, 297, 395, 271, 439, 365, 422, 485, 443, 223, 95, 274, 101, 31, 400, 179, 415, 209, 27, 84, 82, 401, 315, 479, 489, 398, 247, 500, 197, 355, 69, 205, 163, 220, 298, 250, 281, 345, 216, 408, 421, 212, 43, 447, 259, 193, 337, 435, 317, 382, 53, 117, 33, 296, 40, 465, 279, 37, 54, 254, 98, 145, 475, 309, 473, 44, 218, 299, 19, 120, 51, 424, 462, 116, 449, 300, 74, 8, 97, 62, 147, 275, 368, 330, 257, 123, 481, 437, 150, 68, 104, 392, 132, 432, 190, 419, 181, 379, 231, 155, 119, 7, 499, 372, 291, 342, 353, 472, 463, 390, 352, 351, 273, 87, 450, 436, 35, 493, 222, 375, 270, 6, 56, 438, 109, 217, 199, 338, 189, 409, 36, 434, 316, 169, 312, 113, 441, 22, 389, 268, 261, 453, 418, 319, 77, 458, 224, 426, 323, 71, 115, 191, 356, 125, 440, 334, 282, 237, 320, 397, 203, 32, 396, 329, 280, 156, 186, 371, 167, 136, 194, 165, 103, 114, 384, 26, 498, 233, 471, 221, 325, 276, 429, 59, 364, 90, 146, 142, 402, 52, 361, 208, 469, 204, 388, 161, 277, 464, 144, 482, 242, 360, 241, 28]</t>
   </si>
@@ -1032,6 +1032,36 @@
   </si>
   <si>
     <t>Pareja_21</t>
+  </si>
+  <si>
+    <t>[49, 485, 484, 442, 308, 317, 143, 185, 333, 291, 427, 165, 461, 469, 195, 101, 247, 268, 171, 305, 410, 189, 288, 274, 322, 38, 363, 76, 227, 231, 367, 55, 438, 280, 395, 294, 131, 50, 261, 270, 82, 349, 161, 245, 184, 151, 297, 299, 353, 215, 70, 48, 186, 43, 124, 7, 92, 330, 458, 188, 403, 216, 52, 420, 169, 389, 397, 181, 356, 13, 298, 358, 314, 495, 310, 140, 153, 77, 467, 258, 269, 156, 126, 53, 117, 385, 277, 58, 320, 318, 398, 462, 450, 65, 336, 372, 3, 208, 31, 89, 375, 292, 197, 388, 362, 482, 446, 408, 236, 321, 439, 365, 152, 348, 61, 213, 64, 28, 39, 494, 240, 481, 229, 354, 194, 429, 62, 123, 230, 25, 383, 91, 203, 477, 284, 281, 476, 381, 190, 340, 384, 224, 105, 480, 134, 343, 10, 219, 256, 170, 443, 36, 249, 483, 162, 150, 99, 14, 347, 32, 369, 173, 265, 167, 468, 84, 200, 415, 419, 424, 394, 110, 323, 74, 400, 276, 176, 436, 163, 80, 168, 279, 141, 373, 402, 15, 26, 404, 142, 460, 9, 457, 139, 407, 206, 278, 172, 211, 128, 234, 273, 138, 223, 260, 342, 33, 180, 246, 290, 37, 466, 379, 214, 344, 448, 329, 360, 135, 16, 63, 79, 445, 488, 418, 12, 444, 430, 368, 374, 286, 155, 417, 287, 478, 220, 500, 20, 57, 193, 327, 472, 98, 302, 474, 411, 136, 464, 158, 413, 301, 35, 454, 129, 96, 30, 241, 159, 339, 319, 423, 312, 390, 183, 455, 42, 87, 148, 334, 316, 41, 452, 255, 473, 441, 377, 225, 386, 250, 8, 177, 489, 496, 72, 470, 497, 422, 440, 127, 166, 335, 145, 271, 66, 253, 304, 239, 307, 94, 371, 202, 433, 54, 498, 412, 391, 378, 164, 282, 380, 289, 315, 205, 471, 125, 78, 414, 431, 120, 88, 68, 22, 324, 67, 115, 71, 392, 463, 146, 2, 264, 425, 34, 332, 144, 486, 56, 263, 238, 204, 221, 311, 47, 174, 179, 114, 1, 4, 252, 44, 178, 272, 491, 325, 201, 456, 401, 182, 97, 147, 160, 285, 113, 5, 116, 187, 366, 345, 222, 328, 459, 210, 303, 355, 217, 112, 232, 266, 447, 421, 95, 387, 242, 370, 198, 248, 475, 86, 451, 228, 103, 416, 432, 338, 6, 326, 207, 275, 465, 449, 46, 399, 267, 23, 100, 121, 17, 499, 29, 337, 487, 85, 75, 109, 352, 283, 191, 453, 196, 293, 306, 409, 122, 435, 149, 45, 111, 406, 104, 295, 199, 309, 81, 137, 19, 118, 313, 243, 157, 154, 244, 259, 218, 107, 133, 175, 393, 132, 493, 254, 361, 226, 119, 351, 357, 73, 233, 11, 341, 350, 262, 492, 396, 51, 90, 108, 93, 59, 235, 331, 83, 106, 18, 346, 405, 359, 24, 209, 212, 21, 296, 192, 300, 102, 434, 251, 364, 40, 428, 376, 257, 382, 426, 27, 479, 69, 60, 130, 490, 437, 237]</t>
+  </si>
+  <si>
+    <t>[435, 178, 284, 216, 259, 197, 156, 400, 357, 149, 96, 272, 306, 298, 455, 452, 117, 78, 462, 437, 270, 236, 85, 322, 373, 366, 420, 260, 28, 426, 138, 320, 34, 378, 349, 305, 318, 194, 307, 13, 23, 198, 380, 233, 186, 97, 275, 466, 438, 174, 60, 184, 141, 386, 464, 171, 220, 359, 88, 255, 193, 351, 162, 222, 257, 132, 53, 304, 360, 163, 43, 367, 95, 448, 451, 72, 211, 243, 279, 370, 261, 19, 231, 269, 381, 67, 105, 413, 213, 245, 219, 321, 212, 303, 44, 482, 308, 169, 253, 396, 150, 494, 398, 453, 246, 199, 472, 86, 423, 365, 407, 491, 80, 239, 71, 268, 173, 106, 32, 7, 346, 478, 125, 99, 234, 121, 195, 442, 25, 240, 384, 18, 131, 299, 10, 483, 475, 115, 160, 90, 309, 250, 249, 157, 489, 404, 374, 109, 40, 469, 45, 294, 394, 358, 390, 107, 450, 54, 430, 218, 324, 262, 176, 436, 128, 210, 389, 338, 405, 317, 55, 188, 242, 424, 182, 52, 3, 68, 484, 38, 129, 185, 180, 344, 497, 119, 418, 410, 421, 136, 325, 341, 382, 113, 29, 411, 397, 77, 352, 310, 258, 64, 347, 142, 391, 355, 401, 15, 289, 133, 8, 48, 69, 474, 295, 145, 16, 61, 22, 419, 476, 207, 225, 293, 224, 465, 168, 41, 335, 471, 151, 319, 230, 431, 65, 165, 265, 153, 50, 402, 223, 348, 323, 422, 454, 73, 490, 368, 84, 406, 98, 314, 473, 51, 49, 94, 446, 57, 254, 412, 111, 354, 17, 285, 339, 480, 228, 81, 87, 459, 139, 440, 227, 288, 313, 364, 414, 383, 434, 92, 204, 6, 164, 408, 112, 312, 58, 387, 104, 332, 251, 409, 154, 122, 217, 26, 102, 499, 221, 62, 215, 372, 326, 196, 281, 91, 11, 183, 30, 340, 39, 458, 369, 264, 417, 403, 333, 447, 134, 101, 267, 334, 123, 159, 428, 152, 46, 189, 393, 350, 181, 376, 155, 208, 460, 292, 467, 443, 248, 42, 485, 126, 479, 75, 74, 353, 463, 192, 363, 205, 114, 237, 498, 70, 302, 395, 4, 392, 118, 296, 342, 36, 371, 35, 89, 277, 37, 399, 441, 439, 415, 356, 266, 201, 1, 461, 200, 147, 488, 5, 273, 148, 59, 143, 329, 470, 256, 331, 301, 330, 206, 315, 190, 290, 20, 283, 12, 425, 9, 83, 14, 311, 433, 110, 124, 247, 487, 24, 66, 252, 477, 280, 144, 327, 316, 179, 63, 238, 93, 481, 385, 76, 191, 432, 82, 263, 47, 362, 137, 116, 170, 337, 282, 241, 416, 343, 429, 388, 166, 297, 161, 486, 79, 2, 495, 229, 444, 276, 31, 468, 21, 127, 278, 172, 427, 300, 33, 445, 167, 244, 226, 177, 375, 500, 345, 492, 379, 135, 377, 457, 328, 146, 140, 361, 158, 496, 187, 209, 235, 336, 56, 103, 120, 274, 286, 130, 108, 27, 291, 449, 100, 287, 203, 493, 175, 202, 214, 271, 456, 232]</t>
+  </si>
+  <si>
+    <t>[212, 174, 7, 256, 132, 430, 320, 63, 451, 408, 180, 388, 411, 380, 270, 310, 393, 489, 184, 441, 285, 348, 107, 31, 58, 66, 428, 323, 301, 27, 36, 205, 455, 154, 337, 456, 395, 444, 233, 344, 87, 247, 463, 461, 480, 235, 465, 86, 440, 69, 372, 40, 378, 488, 384, 471, 159, 168, 4, 391, 57, 204, 262, 231, 314, 433, 39, 275, 282, 93, 417, 365, 253, 496, 321, 137, 196, 55, 276, 206, 91, 476, 34, 221, 300, 92, 234, 355, 158, 24, 43, 53, 30, 125, 341, 303, 366, 124, 334, 172, 475, 176, 484, 156, 101, 120, 208, 302, 166, 487, 130, 117, 73, 113, 203, 59, 155, 356, 369, 121, 190, 381, 284, 467, 313, 13, 345, 178, 483, 139, 398, 181, 306, 361, 22, 134, 390, 439, 236, 202, 38, 431, 8, 228, 227, 278, 122, 312, 394, 386, 263, 217, 409, 374, 71, 115, 21, 331, 402, 383, 240, 118, 195, 110, 85, 443, 88, 251, 308, 410, 392, 340, 404, 25, 416, 96, 44, 368, 352, 446, 294, 497, 435, 90, 453, 70, 219, 419, 499, 266, 112, 189, 241, 449, 151, 271, 194, 260, 78, 248, 343, 84, 459, 214, 254, 479, 297, 342, 109, 336, 211, 223, 332, 149, 335, 382, 481, 222, 111, 494, 377, 472, 437, 187, 462, 491, 364, 23, 309, 50, 62, 26, 167, 131, 229, 261, 135, 179, 315, 434, 280, 316, 425, 157, 317, 119, 89, 98, 269, 379, 387, 173, 287, 273, 215, 327, 12, 14, 17, 152, 477, 396, 145, 354, 64, 230, 360, 80, 295, 265, 147, 286, 162, 140, 5, 267, 163, 127, 225, 307, 478, 1, 51, 457, 54, 37, 257, 250, 445, 305, 94, 328, 485, 350, 193, 232, 325, 349, 177, 65, 142, 357, 3, 397, 424, 326, 201, 442, 298, 281, 466, 188, 143, 447, 252, 274, 18, 83, 258, 100, 116, 450, 192, 146, 153, 185, 199, 48, 482, 16, 200, 470, 242, 210, 407, 245, 161, 186, 473, 311, 498, 376, 52, 171, 290, 20, 427, 500, 150, 375, 415, 353, 338, 29, 72, 438, 175, 77, 79, 373, 299, 224, 324, 75, 292, 351, 452, 422, 15, 56, 45, 46, 136, 346, 406, 35, 102, 432, 468, 60, 339, 106, 333, 363, 474, 243, 268, 399, 492, 246, 128, 169, 436, 279, 401, 191, 239, 237, 81, 49, 385, 160, 97, 220, 104, 42, 469, 371, 47, 255, 244, 198, 82, 318, 412, 264, 347, 362, 6, 389, 61, 358, 493, 329, 133, 74, 105, 403, 486, 495, 454, 33, 216, 144, 148, 67, 330, 108, 359, 238, 277, 413, 414, 95, 170, 141, 259, 283, 226, 126, 288, 99, 272, 218, 76, 114, 418, 249, 2, 183, 19, 400, 291, 10, 164, 405, 426, 458, 165, 423, 304, 490, 289, 420, 207, 129, 138, 448, 213, 209, 370, 296, 197, 182, 11, 464, 32, 421, 123, 103, 367, 68, 293, 28, 429, 9, 319, 41, 322, 460]</t>
+  </si>
+  <si>
+    <t>[58, 27, 105, 396, 335, 248, 162, 478, 346, 40, 265, 425, 16, 361, 181, 30, 236, 267, 439, 310, 50, 441, 180, 75, 472, 282, 28, 140, 299, 130, 412, 49, 55, 175, 70, 99, 250, 249, 118, 186, 150, 274, 113, 117, 109, 11, 434, 315, 369, 260, 446, 453, 169, 380, 67, 367, 272, 91, 463, 462, 470, 415, 71, 82, 435, 400, 447, 393, 217, 268, 348, 172, 395, 481, 345, 259, 21, 211, 111, 373, 240, 334, 330, 242, 475, 131, 424, 342, 491, 171, 93, 385, 51, 4, 307, 207, 500, 247, 438, 245, 408, 152, 375, 46, 372, 200, 151, 493, 407, 298, 15, 54, 88, 455, 460, 209, 218, 484, 311, 262, 353, 79, 325, 94, 332, 391, 445, 302, 390, 147, 377, 26, 157, 69, 360, 45, 31, 364, 287, 112, 153, 399, 235, 196, 107, 206, 331, 359, 19, 269, 477, 18, 139, 179, 87, 244, 3, 281, 44, 254, 100, 452, 403, 339, 368, 257, 358, 347, 233, 177, 12, 423, 341, 126, 471, 192, 142, 344, 301, 253, 14, 52, 405, 261, 1, 489, 74, 252, 290, 440, 487, 202, 402, 134, 418, 178, 336, 479, 232, 476, 271, 20, 488, 24, 419, 37, 33, 322, 163, 263, 411, 468, 35, 256, 238, 148, 154, 464, 304, 349, 355, 379, 158, 317, 78, 409, 136, 448, 312, 56, 288, 420, 132, 465, 155, 167, 23, 283, 387, 469, 414, 300, 474, 65, 234, 426, 165, 319, 363, 343, 318, 289, 214, 176, 467, 416, 128, 32, 443, 293, 381, 417, 320, 83, 204, 229, 255, 492, 352, 296, 461, 198, 149, 496, 77, 428, 333, 323, 228, 197, 278, 63, 199, 29, 303, 13, 499, 314, 47, 183, 284, 189, 103, 201, 60, 398, 351, 9, 392, 48, 291, 421, 122, 383, 280, 276, 59, 473, 354, 382, 456, 294, 193, 123, 143, 490, 306, 374, 357, 436, 36, 227, 328, 144, 404, 316, 450, 95, 22, 195, 270, 413, 184, 292, 226, 108, 313, 457, 340, 430, 2, 85, 264, 350, 329, 173, 97, 241, 81, 119, 161, 66, 89, 216, 164, 297, 208, 92, 145, 96, 251, 7, 258, 388, 146, 279, 433, 483, 356, 384, 230, 124, 213, 68, 210, 116, 168, 459, 444, 221, 84, 185, 138, 431, 376, 166, 371, 309, 223, 231, 39, 61, 401, 286, 497, 429, 205, 76, 121, 246, 449, 237, 115, 114, 397, 182, 10, 495, 337, 362, 389, 321, 480, 442, 273, 219, 427, 243, 277, 266, 191, 72, 187, 53, 190, 451, 102, 104, 42, 203, 220, 156, 62, 386, 90, 57, 17, 410, 305, 170, 498, 485, 6, 466, 8, 454, 129, 80, 188, 308, 159, 406, 215, 224, 338, 5, 194, 110, 43, 285, 141, 326, 38, 120, 458, 41, 394, 432, 225, 437, 324, 98, 365, 327, 370, 486, 86, 295, 378, 135, 64, 239, 482, 222, 127, 34, 212, 275, 137, 25, 106, 366, 174, 133, 101, 125, 422, 494, 73, 160]</t>
+  </si>
+  <si>
+    <t>[209, 432, 327, 252, 449, 313, 7, 438, 290, 169, 144, 234, 123, 145, 337, 225, 193, 198, 241, 383, 206, 425, 310, 471, 329, 390, 346, 196, 47, 253, 34, 56, 367, 46, 2, 105, 28, 267, 137, 466, 48, 316, 352, 245, 260, 70, 496, 485, 355, 54, 120, 498, 217, 414, 495, 472, 35, 210, 67, 240, 190, 91, 92, 464, 239, 280, 413, 31, 341, 154, 435, 266, 368, 311, 238, 187, 440, 347, 180, 497, 18, 299, 386, 152, 278, 397, 344, 285, 12, 274, 246, 343, 204, 382, 83, 231, 300, 353, 146, 273, 286, 173, 276, 477, 324, 188, 356, 84, 212, 469, 94, 170, 378, 201, 111, 59, 275, 76, 103, 416, 309, 158, 199, 332, 371, 98, 483, 409, 272, 288, 82, 232, 13, 379, 71, 436, 69, 372, 138, 14, 334, 283, 256, 157, 289, 102, 87, 244, 141, 322, 301, 215, 248, 255, 474, 336, 448, 164, 45, 133, 388, 411, 233, 96, 475, 442, 264, 95, 175, 439, 491, 434, 354, 156, 480, 484, 319, 476, 243, 420, 431, 348, 142, 330, 395, 140, 22, 430, 24, 492, 176, 345, 42, 184, 121, 182, 326, 359, 338, 295, 293, 361, 486, 52, 376, 227, 66, 331, 428, 26, 406, 49, 335, 473, 207, 132, 407, 220, 297, 62, 277, 17, 104, 40, 478, 443, 177, 89, 458, 63, 445, 375, 467, 306, 488, 23, 350, 493, 417, 155, 457, 51, 393, 219, 119, 185, 418, 221, 113, 122, 399, 214, 192, 100, 373, 453, 136, 43, 179, 21, 270, 459, 110, 191, 259, 8, 296, 421, 304, 44, 298, 462, 305, 302, 461, 181, 447, 342, 203, 183, 117, 339, 33, 369, 172, 19, 37, 6, 408, 205, 226, 50, 86, 456, 107, 114, 55, 284, 340, 11, 90, 403, 148, 405, 400, 318, 364, 127, 163, 101, 451, 487, 80, 153, 115, 53, 321, 377, 228, 75, 294, 189, 79, 77, 129, 222, 108, 419, 258, 323, 85, 3, 197, 454, 358, 396, 125, 452, 360, 151, 81, 257, 437, 58, 402, 394, 489, 30, 268, 97, 161, 39, 398, 195, 27, 223, 287, 147, 479, 401, 303, 387, 194, 314, 426, 308, 20, 424, 247, 5, 271, 112, 265, 384, 73, 4, 351, 500, 317, 135, 385, 143, 320, 250, 36, 281, 333, 29, 494, 249, 224, 362, 72, 78, 32, 251, 166, 363, 213, 423, 116, 391, 57, 404, 106, 118, 463, 465, 236, 444, 446, 139, 167, 134, 349, 307, 150, 202, 126, 499, 109, 171, 230, 15, 131, 211, 229, 460, 235, 412, 200, 392, 291, 292, 149, 366, 74, 481, 64, 218, 470, 128, 160, 237, 65, 450, 263, 365, 159, 254, 374, 282, 93, 162, 16, 490, 165, 422, 328, 357, 174, 61, 380, 269, 88, 312, 325, 370, 60, 9, 468, 168, 381, 427, 38, 186, 68, 1, 482, 415, 262, 410, 178, 429, 433, 441, 261, 10, 130, 455, 41, 242, 216, 25, 389, 124, 208, 279, 315, 99]</t>
+  </si>
+  <si>
+    <t>[227, 420, 21, 182, 275, 47, 145, 410, 214, 318, 286, 311, 79, 43, 247, 58, 375, 75, 372, 99, 417, 342, 380, 240, 446, 64, 416, 144, 26, 486, 443, 169, 322, 463, 397, 196, 206, 66, 173, 392, 449, 188, 363, 23, 306, 174, 488, 279, 283, 5, 444, 254, 351, 330, 472, 369, 200, 36, 432, 96, 404, 329, 124, 181, 68, 107, 422, 205, 45, 31, 101, 349, 33, 385, 202, 242, 40, 367, 236, 54, 411, 106, 467, 104, 108, 374, 414, 264, 229, 387, 48, 56, 379, 130, 115, 60, 256, 391, 105, 497, 61, 364, 166, 464, 224, 225, 388, 498, 465, 134, 319, 428, 7, 324, 133, 14, 223, 95, 180, 253, 231, 52, 161, 35, 447, 151, 396, 441, 170, 94, 102, 209, 427, 15, 12, 197, 296, 62, 59, 17, 338, 270, 347, 409, 282, 400, 217, 360, 121, 336, 10, 122, 164, 460, 316, 221, 389, 28, 77, 215, 255, 438, 303, 139, 327, 46, 273, 269, 295, 341, 334, 84, 368, 476, 462, 80, 383, 237, 285, 313, 266, 168, 246, 148, 20, 421, 162, 158, 220, 487, 167, 386, 248, 394, 244, 199, 344, 132, 328, 53, 117, 457, 114, 2, 120, 339, 413, 263, 241, 8, 235, 154, 352, 230, 453, 210, 234, 136, 490, 399, 3, 194, 74, 228, 478, 86, 159, 152, 439, 1, 258, 294, 149, 353, 382, 403, 402, 141, 4, 123, 305, 366, 355, 30, 42, 16, 185, 350, 243, 485, 395, 126, 274, 281, 431, 50, 320, 356, 459, 419, 89, 314, 82, 111, 143, 362, 211, 55, 128, 76, 445, 87, 83, 456, 412, 277, 321, 268, 398, 24, 495, 461, 354, 98, 289, 371, 135, 212, 178, 165, 18, 442, 450, 63, 424, 471, 390, 29, 189, 155, 207, 326, 302, 109, 137, 118, 198, 183, 67, 226, 261, 179, 249, 157, 213, 190, 267, 276, 6, 470, 401, 310, 9, 429, 458, 187, 373, 57, 348, 499, 186, 359, 278, 250, 475, 147, 455, 280, 482, 32, 27, 496, 140, 434, 233, 195, 252, 71, 315, 90, 216, 300, 116, 299, 72, 70, 317, 22, 343, 125, 65, 291, 418, 325, 171, 312, 477, 91, 304, 239, 44, 160, 452, 193, 308, 175, 78, 201, 491, 204, 440, 131, 298, 346, 19, 41, 184, 365, 112, 297, 340, 284, 468, 97, 85, 481, 479, 262, 492, 473, 426, 290, 287, 292, 163, 332, 142, 25, 265, 222, 238, 113, 466, 381, 437, 93, 11, 430, 377, 260, 448, 406, 73, 37, 13, 451, 177, 176, 407, 146, 435, 301, 484, 423, 127, 69, 251, 92, 110, 361, 156, 39, 259, 436, 454, 335, 88, 307, 49, 51, 191, 370, 345, 494, 489, 358, 138, 208, 129, 293, 500, 38, 493, 34, 119, 103, 245, 257, 425, 376, 192, 150, 172, 203, 331, 483, 153, 378, 408, 474, 405, 288, 433, 272, 81, 219, 218, 333, 232, 480, 415, 100, 393, 337, 271, 323, 309, 469, 384, 357]</t>
+  </si>
+  <si>
+    <t>[318, 433, 225, 146, 488, 129, 477, 462, 440, 327, 296, 28, 233, 37, 390, 493, 60, 97, 257, 418, 22, 387, 144, 81, 438, 322, 384, 105, 427, 423, 334, 262, 381, 214, 71, 281, 473, 209, 199, 464, 298, 274, 51, 222, 494, 151, 373, 77, 102, 328, 87, 357, 285, 202, 19, 425, 40, 459, 111, 217, 58, 235, 118, 136, 11, 186, 93, 195, 113, 246, 258, 385, 400, 194, 316, 63, 470, 12, 289, 232, 138, 308, 84, 445, 206, 447, 336, 103, 448, 267, 184, 143, 135, 460, 272, 13, 391, 319, 244, 449, 360, 253, 96, 432, 177, 419, 191, 417, 169, 304, 132, 221, 442, 320, 256, 252, 399, 160, 333, 371, 451, 363, 402, 467, 340, 412, 458, 368, 350, 26, 36, 426, 88, 1, 395, 364, 57, 213, 366, 120, 39, 441, 189, 45, 430, 372, 224, 291, 480, 150, 115, 134, 266, 409, 374, 159, 286, 309, 229, 72, 155, 455, 312, 389, 240, 164, 211, 7, 394, 471, 165, 497, 313, 137, 474, 342, 489, 108, 52, 168, 434, 35, 405, 92, 20, 461, 133, 382, 101, 411, 362, 79, 197, 145, 99, 437, 161, 178, 428, 139, 70, 130, 314, 315, 76, 182, 323, 124, 359, 475, 14, 173, 283, 294, 271, 100, 23, 484, 158, 180, 367, 9, 185, 279, 311, 351, 170, 205, 128, 264, 492, 239, 154, 215, 236, 356, 413, 32, 260, 429, 397, 107, 301, 307, 44, 254, 255, 183, 5, 439, 73, 280, 376, 481, 156, 410, 495, 329, 181, 114, 219, 231, 83, 476, 369, 50, 75, 6, 94, 377, 10, 338, 193, 90, 487, 463, 123, 61, 396, 4, 27, 380, 163, 346, 41, 126, 361, 490, 345, 248, 241, 42, 444, 383, 106, 56, 424, 358, 82, 303, 403, 420, 166, 188, 201, 141, 127, 269, 148, 321, 261, 275, 469, 171, 499, 398, 297, 436, 116, 176, 131, 457, 335, 446, 306, 8, 62, 247, 354, 414, 282, 24, 326, 67, 192, 478, 109, 284, 435, 378, 18, 416, 392, 175, 110, 245, 472, 33, 250, 491, 454, 299, 95, 15, 162, 34, 122, 210, 86, 302, 228, 104, 47, 249, 98, 268, 218, 30, 153, 353, 465, 259, 355, 203, 207, 142, 485, 112, 347, 453, 227, 38, 290, 53, 456, 216, 31, 172, 270, 78, 370, 276, 242, 2, 479, 190, 277, 483, 237, 498, 348, 25, 375, 265, 149, 288, 220, 388, 415, 80, 65, 152, 157, 407, 496, 200, 404, 238, 69, 421, 422, 344, 300, 349, 91, 406, 85, 196, 352, 408, 330, 365, 482, 54, 468, 46, 121, 167, 317, 295, 66, 466, 204, 212, 443, 386, 125, 16, 17, 339, 263, 49, 243, 337, 64, 310, 187, 431, 179, 234, 74, 68, 379, 119, 208, 332, 198, 273, 393, 3, 117, 55, 331, 89, 226, 486, 251, 343, 147, 500, 174, 450, 305, 401, 223, 29, 324, 325, 452, 43, 59, 278, 287, 341, 230, 140, 48, 292, 21, 293]</t>
+  </si>
+  <si>
+    <t>[163, 43, 103, 122, 160, 356, 71, 330, 312, 74, 272, 209, 28, 310, 131, 35, 242, 347, 390, 477, 123, 77, 146, 340, 436, 107, 168, 425, 200, 304, 13, 73, 169, 319, 130, 407, 394, 37, 343, 270, 165, 61, 331, 31, 259, 321, 418, 307, 25, 22, 187, 41, 66, 271, 1, 60, 231, 247, 487, 285, 408, 388, 176, 150, 256, 280, 399, 354, 326, 261, 34, 219, 486, 5, 12, 128, 70, 228, 6, 238, 175, 78, 264, 211, 166, 63, 24, 352, 9, 446, 248, 47, 126, 451, 20, 254, 114, 429, 69, 27, 279, 488, 161, 226, 249, 372, 132, 93, 127, 323, 222, 472, 378, 253, 377, 92, 32, 143, 227, 190, 133, 297, 181, 237, 18, 483, 364, 443, 267, 479, 194, 149, 375, 492, 263, 196, 374, 86, 96, 45, 39, 159, 109, 499, 284, 94, 434, 218, 455, 276, 244, 430, 396, 465, 474, 423, 315, 38, 398, 232, 136, 141, 380, 84, 241, 445, 265, 295, 204, 490, 363, 275, 496, 493, 202, 322, 145, 158, 53, 410, 461, 105, 397, 450, 156, 134, 335, 495, 217, 49, 478, 116, 91, 21, 199, 214, 185, 17, 52, 198, 273, 365, 489, 48, 402, 349, 457, 296, 129, 155, 203, 206, 413, 55, 119, 95, 164, 464, 441, 182, 338, 26, 111, 389, 50, 308, 405, 221, 395, 118, 426, 325, 162, 135, 239, 414, 167, 317, 309, 10, 359, 383, 195, 281, 332, 353, 416, 348, 314, 344, 152, 192, 485, 36, 58, 379, 108, 440, 341, 97, 458, 2, 120, 497, 137, 14, 215, 384, 44, 449, 46, 193, 463, 287, 282, 367, 223, 371, 491, 500, 448, 110, 345, 151, 320, 240, 269, 230, 333, 255, 233, 72, 291, 3, 33, 313, 174, 298, 234, 184, 208, 274, 420, 386, 404, 115, 266, 83, 88, 288, 306, 482, 301, 403, 87, 442, 421, 456, 64, 140, 102, 342, 316, 180, 357, 57, 147, 469, 100, 481, 392, 51, 139, 171, 138, 400, 366, 148, 303, 76, 437, 224, 124, 117, 334, 336, 351, 453, 183, 460, 358, 427, 454, 412, 292, 98, 289, 4, 433, 201, 229, 387, 438, 447, 467, 235, 411, 56, 360, 406, 125, 68, 90, 294, 65, 480, 210, 54, 417, 157, 170, 329, 189, 419, 268, 81, 369, 355, 431, 142, 245, 466, 385, 484, 361, 216, 278, 283, 179, 424, 112, 7, 11, 381, 250, 212, 470, 67, 188, 422, 494, 339, 85, 302, 473, 243, 23, 220, 432, 101, 8, 79, 324, 459, 186, 391, 350, 293, 144, 370, 59, 121, 177, 191, 80, 318, 305, 40, 30, 277, 99, 205, 257, 16, 213, 89, 19, 409, 258, 62, 393, 471, 173, 328, 435, 262, 476, 300, 428, 468, 462, 252, 337, 153, 207, 29, 299, 444, 82, 311, 236, 439, 106, 382, 251, 113, 246, 452, 42, 327, 290, 172, 15, 260, 415, 225, 154, 75, 104, 373, 368, 346, 362, 197, 498, 376, 286, 178, 401, 475]</t>
+  </si>
+  <si>
+    <t>[79, 27, 379, 183, 201, 245, 354, 373, 116, 462, 444, 208, 99, 409, 129, 250, 196, 421, 412, 29, 189, 77, 132, 163, 128, 251, 355, 364, 486, 52, 393, 124, 265, 66, 156, 320, 92, 237, 172, 312, 348, 389, 335, 32, 126, 62, 398, 96, 390, 38, 145, 213, 326, 71, 242, 291, 120, 416, 248, 499, 235, 223, 9, 54, 173, 313, 371, 358, 397, 252, 413, 345, 118, 255, 195, 472, 108, 414, 85, 157, 331, 60, 146, 227, 127, 372, 264, 78, 7, 82, 31, 6, 16, 210, 69, 142, 479, 37, 168, 290, 101, 436, 89, 483, 463, 467, 394, 488, 97, 299, 318, 239, 40, 439, 152, 324, 10, 48, 441, 361, 487, 178, 35, 359, 144, 229, 86, 222, 366, 75, 384, 490, 352, 340, 411, 322, 202, 119, 253, 431, 448, 11, 226, 493, 22, 47, 315, 306, 295, 478, 55, 310, 285, 293, 353, 388, 457, 8, 153, 442, 192, 112, 216, 188, 381, 217, 434, 13, 446, 53, 319, 427, 154, 244, 443, 139, 474, 419, 254, 138, 14, 2, 231, 205, 269, 259, 365, 460, 125, 328, 211, 177, 347, 113, 39, 356, 468, 267, 46, 218, 497, 482, 68, 83, 130, 90, 17, 95, 426, 380, 104, 282, 20, 131, 94, 481, 246, 405, 296, 249, 234, 367, 33, 209, 74, 370, 179, 321, 164, 1, 268, 228, 151, 141, 155, 190, 363, 257, 185, 123, 121, 440, 150, 105, 26, 378, 396, 469, 159, 43, 225, 470, 12, 135, 400, 429, 392, 308, 61, 65, 476, 98, 404, 307, 114, 240, 162, 461, 342, 58, 148, 100, 284, 4, 303, 220, 277, 279, 338, 149, 433, 215, 174, 425, 23, 341, 80, 30, 3, 484, 111, 76, 333, 182, 466, 424, 447, 160, 451, 495, 81, 383, 93, 175, 169, 247, 369, 428, 339, 350, 305, 42, 204, 294, 45, 260, 200, 41, 256, 238, 84, 403, 236, 270, 385, 63, 161, 170, 115, 286, 309, 187, 5, 337, 407, 287, 304, 91, 232, 243, 117, 498, 430, 408, 51, 258, 415, 465, 471, 349, 327, 241, 301, 143, 219, 360, 316, 280, 500, 184, 422, 34, 288, 401, 28, 275, 194, 387, 166, 344, 492, 450, 438, 261, 276, 107, 420, 332, 311, 24, 15, 19, 346, 395, 50, 374, 435, 73, 452, 289, 171, 274, 351, 375, 134, 423, 298, 302, 191, 103, 382, 329, 325, 362, 357, 480, 67, 330, 376, 167, 273, 399, 453, 165, 417, 133, 391, 459, 230, 475, 262, 25, 109, 377, 64, 368, 88, 207, 137, 292, 496, 203, 271, 494, 489, 437, 406, 278, 102, 297, 485, 181, 445, 473, 272, 464, 314, 44, 432, 336, 458, 300, 87, 36, 449, 72, 59, 281, 456, 386, 176, 106, 214, 136, 410, 491, 283, 402, 147, 334, 140, 454, 266, 21, 198, 343, 233, 206, 418, 57, 49, 212, 263, 70, 455, 221, 323, 224, 477, 110, 186, 193, 317, 158, 180, 197, 122, 18, 199, 56]</t>
+  </si>
+  <si>
+    <t>[41, 416, 86, 276, 206, 253, 219, 264, 330, 488, 439, 247, 475, 387, 420, 496, 115, 63, 154, 161, 34, 417, 275, 365, 255, 431, 477, 487, 471, 292, 293, 307, 46, 290, 156, 314, 204, 295, 135, 421, 152, 122, 427, 55, 369, 222, 76, 321, 494, 127, 377, 199, 495, 190, 2, 40, 137, 260, 398, 320, 363, 409, 13, 432, 486, 362, 404, 415, 395, 353, 95, 286, 478, 380, 426, 11, 28, 215, 188, 485, 282, 77, 309, 141, 104, 24, 459, 407, 87, 47, 112, 57, 140, 334, 455, 69, 200, 412, 311, 249, 374, 110, 158, 419, 111, 21, 14, 166, 357, 333, 134, 225, 186, 381, 462, 397, 418, 81, 378, 479, 254, 227, 315, 367, 271, 433, 347, 489, 170, 328, 456, 372, 388, 90, 83, 248, 1, 483, 148, 450, 183, 92, 337, 467, 244, 304, 67, 379, 19, 27, 48, 386, 145, 12, 173, 263, 316, 180, 302, 245, 281, 499, 342, 261, 447, 75, 72, 350, 56, 399, 440, 124, 331, 344, 201, 226, 142, 472, 213, 284, 294, 164, 39, 187, 383, 117, 243, 246, 474, 288, 163, 107, 429, 239, 234, 103, 31, 242, 266, 18, 84, 211, 453, 469, 298, 338, 100, 325, 373, 481, 4, 400, 52, 461, 332, 301, 9, 20, 208, 228, 256, 66, 221, 480, 306, 22, 120, 217, 51, 312, 174, 99, 220, 108, 341, 299, 71, 352, 150, 497, 345, 392, 498, 366, 93, 354, 393, 10, 6, 272, 80, 410, 172, 178, 74, 237, 319, 436, 177, 402, 184, 385, 82, 116, 36, 438, 101, 60, 3, 458, 89, 98, 62, 339, 449, 123, 324, 160, 376, 5, 405, 44, 238, 273, 384, 35, 132, 265, 231, 493, 451, 413, 175, 279, 61, 8, 375, 464, 128, 30, 91, 425, 452, 233, 403, 119, 26, 280, 236, 182, 360, 33, 133, 297, 138, 240, 16, 230, 114, 348, 267, 147, 500, 94, 396, 167, 223, 259, 411, 202, 364, 131, 251, 445, 484, 7, 197, 155, 262, 448, 121, 406, 151, 139, 490, 193, 371, 136, 70, 109, 162, 38, 355, 195, 278, 444, 389, 268, 252, 300, 149, 143, 216, 414, 322, 189, 394, 171, 257, 408, 460, 196, 482, 23, 53, 382, 15, 203, 356, 235, 113, 169, 185, 198, 335, 194, 361, 329, 283, 207, 359, 270, 78, 287, 291, 118, 168, 218, 232, 45, 64, 349, 49, 130, 463, 368, 443, 205, 165, 274, 318, 313, 25, 153, 346, 209, 179, 224, 454, 401, 491, 317, 96, 102, 435, 430, 192, 289, 422, 73, 125, 214, 336, 269, 97, 176, 105, 29, 212, 457, 351, 68, 326, 126, 146, 42, 159, 65, 296, 343, 210, 32, 340, 327, 85, 37, 129, 492, 58, 441, 358, 473, 323, 470, 88, 442, 423, 54, 144, 181, 391, 79, 446, 466, 43, 157, 310, 424, 277, 303, 465, 437, 434, 285, 17, 390, 50, 468, 250, 308, 241, 258, 370, 305, 428, 191, 229, 59, 476, 106]</t>
   </si>
 </sst>
 </file>
@@ -1417,9 +1447,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:AA319"/>
+  <dimension ref="A6:AA329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1442,99 +1472,99 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D7" s="2">
         <f>D8/MAX($B:$B)</f>
-        <v>6.7961165048543687E-2</v>
+        <v>6.5830721003134793E-2</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:X7" si="0">E8/MAX($B:$B)</f>
-        <v>5.5016181229773461E-2</v>
+        <v>5.329153605015674E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>8.4142394822006472E-2</v>
+        <v>8.4639498432601878E-2</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>7.4433656957928807E-2</v>
+        <v>7.5235109717868343E-2</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>8.0906148867313912E-2</v>
+        <v>7.8369905956112859E-2</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>8.0906148867313912E-2</v>
+        <v>7.8369905956112859E-2</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>5.5016181229773461E-2</v>
+        <v>5.329153605015674E-2</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
-        <v>8.0906148867313912E-2</v>
+        <v>8.1504702194357362E-2</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>6.1488673139158574E-2</v>
+        <v>6.2695924764890276E-2</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>6.7961165048543687E-2</v>
+        <v>6.5830721003134793E-2</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="0"/>
-        <v>9.0614886731391592E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>5.8252427184466021E-2</v>
+        <v>5.9561128526645767E-2</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>7.4433656957928807E-2</v>
+        <v>7.5235109717868343E-2</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>7.1197411003236247E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="0"/>
-        <v>9.0614886731391592E-2</v>
+        <v>8.7774294670846395E-2</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="0"/>
-        <v>8.0906148867313912E-2</v>
+        <v>8.1504702194357362E-2</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="0"/>
-        <v>6.1488673139158574E-2</v>
+        <v>5.9561128526645767E-2</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>8.7378640776699032E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="0"/>
-        <v>5.8252427184466021E-2</v>
+        <v>5.9561128526645767E-2</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="0"/>
-        <v>9.0614886731391592E-2</v>
+        <v>8.7774294670846395E-2</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="0"/>
-        <v>0.11326860841423948</v>
+        <v>0.109717868338558</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE(D7:X7)</f>
-        <v>7.5512405609493002E-2</v>
+        <v>7.4787281683833404E-2</v>
       </c>
       <c r="Z7" s="4">
         <f>Y7*Y7</f>
-        <v>5.70212340093259E-3</v>
+        <v>5.5931375016570429E-3</v>
       </c>
       <c r="AA7" s="5">
         <f>Y7*Y7*Y7</f>
-        <v>4.3058105508660344E-4</v>
+        <v>4.1829554983283747E-4</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
@@ -1548,11 +1578,11 @@
       </c>
       <c r="F8">
         <f>COUNTIF(F$11:F1010,"&gt;=5500")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <f>COUNTIF(G$11:G1010,"&gt;=5500")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <f>COUNTIF(H$11:H1010,"&gt;=5500")</f>
@@ -1568,11 +1598,11 @@
       </c>
       <c r="K8">
         <f>COUNTIF(K$11:K1010,"&gt;=5500")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <f>COUNTIF(L$11:L1010,"&gt;=5500")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8">
         <f>COUNTIF(M$11:M1010,"&gt;=5500")</f>
@@ -1580,15 +1610,15 @@
       </c>
       <c r="N8">
         <f>COUNTIF(N$11:N1010,"&gt;=5500")</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O8">
         <f>COUNTIF(O$11:O1010,"&gt;=5500")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P8">
         <f>COUNTIF(P$11:P1010,"&gt;=5500")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q8">
         <f>COUNTIF(Q$11:Q1010,"&gt;=5500")</f>
@@ -1600,7 +1630,7 @@
       </c>
       <c r="S8">
         <f>COUNTIF(S$11:S1010,"&gt;=5500")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T8">
         <f>COUNTIF(T$11:T1010,"&gt;=5500")</f>
@@ -1608,11 +1638,11 @@
       </c>
       <c r="U8">
         <f>COUNTIF(U$11:U1010,"&gt;=5500")</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V8">
         <f>COUNTIF(V$11:V1010,"&gt;=5500")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W8">
         <f>COUNTIF(W$11:W1010,"&gt;=5500")</f>
@@ -20965,7 +20995,7 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268">
-        <f t="shared" ref="A268:A319" si="5">COUNTIF(D268:X268,"&gt;=5500")</f>
+        <f t="shared" ref="A268:A329" si="5">COUNTIF(D268:X268,"&gt;=5500")</f>
         <v>0</v>
       </c>
       <c r="B268">
@@ -24861,6 +24891,756 @@
       </c>
       <c r="X319">
         <v>5396</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B320">
+        <v>310</v>
+      </c>
+      <c r="C320" t="s">
+        <v>333</v>
+      </c>
+      <c r="D320">
+        <v>5356</v>
+      </c>
+      <c r="E320">
+        <v>5002</v>
+      </c>
+      <c r="F320">
+        <v>5302</v>
+      </c>
+      <c r="G320">
+        <v>5005</v>
+      </c>
+      <c r="H320">
+        <v>5302</v>
+      </c>
+      <c r="I320">
+        <v>5322</v>
+      </c>
+      <c r="J320">
+        <v>5005</v>
+      </c>
+      <c r="K320">
+        <v>5137</v>
+      </c>
+      <c r="L320">
+        <v>5008</v>
+      </c>
+      <c r="M320">
+        <v>5137</v>
+      </c>
+      <c r="N320">
+        <v>5420</v>
+      </c>
+      <c r="O320">
+        <v>5521</v>
+      </c>
+      <c r="P320">
+        <v>5004</v>
+      </c>
+      <c r="Q320">
+        <v>5071</v>
+      </c>
+      <c r="R320">
+        <v>5419</v>
+      </c>
+      <c r="S320">
+        <v>5422</v>
+      </c>
+      <c r="T320">
+        <v>4889</v>
+      </c>
+      <c r="U320">
+        <v>4986</v>
+      </c>
+      <c r="V320">
+        <v>5570</v>
+      </c>
+      <c r="W320">
+        <v>5418</v>
+      </c>
+      <c r="X320">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>311</v>
+      </c>
+      <c r="C321" t="s">
+        <v>334</v>
+      </c>
+      <c r="D321">
+        <v>5001</v>
+      </c>
+      <c r="E321">
+        <v>5004</v>
+      </c>
+      <c r="F321">
+        <v>5283</v>
+      </c>
+      <c r="G321">
+        <v>5059</v>
+      </c>
+      <c r="H321">
+        <v>5260</v>
+      </c>
+      <c r="I321">
+        <v>5175</v>
+      </c>
+      <c r="J321">
+        <v>5005</v>
+      </c>
+      <c r="K321">
+        <v>5002</v>
+      </c>
+      <c r="L321">
+        <v>5061</v>
+      </c>
+      <c r="M321">
+        <v>5384</v>
+      </c>
+      <c r="N321">
+        <v>5032</v>
+      </c>
+      <c r="O321">
+        <v>5263</v>
+      </c>
+      <c r="P321">
+        <v>5060</v>
+      </c>
+      <c r="Q321">
+        <v>5264</v>
+      </c>
+      <c r="R321">
+        <v>5175</v>
+      </c>
+      <c r="S321">
+        <v>5178</v>
+      </c>
+      <c r="T321">
+        <v>5261</v>
+      </c>
+      <c r="U321">
+        <v>5032</v>
+      </c>
+      <c r="V321">
+        <v>5143</v>
+      </c>
+      <c r="W321">
+        <v>5176</v>
+      </c>
+      <c r="X321">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>312</v>
+      </c>
+      <c r="C322" t="s">
+        <v>335</v>
+      </c>
+      <c r="D322">
+        <v>5313</v>
+      </c>
+      <c r="E322">
+        <v>4932</v>
+      </c>
+      <c r="F322">
+        <v>5314</v>
+      </c>
+      <c r="G322">
+        <v>5417</v>
+      </c>
+      <c r="H322">
+        <v>5183</v>
+      </c>
+      <c r="I322">
+        <v>5166</v>
+      </c>
+      <c r="J322">
+        <v>4935</v>
+      </c>
+      <c r="K322">
+        <v>5313</v>
+      </c>
+      <c r="L322">
+        <v>5399</v>
+      </c>
+      <c r="M322">
+        <v>5262</v>
+      </c>
+      <c r="N322">
+        <v>5343</v>
+      </c>
+      <c r="O322">
+        <v>5332</v>
+      </c>
+      <c r="P322">
+        <v>5419</v>
+      </c>
+      <c r="Q322">
+        <v>5236</v>
+      </c>
+      <c r="R322">
+        <v>5166</v>
+      </c>
+      <c r="S322">
+        <v>5459</v>
+      </c>
+      <c r="T322">
+        <v>5183</v>
+      </c>
+      <c r="U322">
+        <v>5185</v>
+      </c>
+      <c r="V322">
+        <v>5221</v>
+      </c>
+      <c r="W322">
+        <v>5167</v>
+      </c>
+      <c r="X322">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B323">
+        <v>313</v>
+      </c>
+      <c r="C323" t="s">
+        <v>336</v>
+      </c>
+      <c r="D323">
+        <v>5474</v>
+      </c>
+      <c r="E323">
+        <v>5149</v>
+      </c>
+      <c r="F323">
+        <v>5329</v>
+      </c>
+      <c r="G323">
+        <v>5102</v>
+      </c>
+      <c r="H323">
+        <v>5270</v>
+      </c>
+      <c r="I323">
+        <v>5061</v>
+      </c>
+      <c r="J323">
+        <v>5151</v>
+      </c>
+      <c r="K323">
+        <v>5562</v>
+      </c>
+      <c r="L323">
+        <v>5403</v>
+      </c>
+      <c r="M323">
+        <v>5329</v>
+      </c>
+      <c r="N323">
+        <v>5502</v>
+      </c>
+      <c r="O323">
+        <v>5159</v>
+      </c>
+      <c r="P323">
+        <v>5104</v>
+      </c>
+      <c r="Q323">
+        <v>5178</v>
+      </c>
+      <c r="R323">
+        <v>5061</v>
+      </c>
+      <c r="S323">
+        <v>5405</v>
+      </c>
+      <c r="T323">
+        <v>5357</v>
+      </c>
+      <c r="U323">
+        <v>5065</v>
+      </c>
+      <c r="V323">
+        <v>5320</v>
+      </c>
+      <c r="W323">
+        <v>5062</v>
+      </c>
+      <c r="X323">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>314</v>
+      </c>
+      <c r="C324" t="s">
+        <v>337</v>
+      </c>
+      <c r="D324">
+        <v>5278</v>
+      </c>
+      <c r="E324">
+        <v>5281</v>
+      </c>
+      <c r="F324">
+        <v>5273</v>
+      </c>
+      <c r="G324">
+        <v>5107</v>
+      </c>
+      <c r="H324">
+        <v>5273</v>
+      </c>
+      <c r="I324">
+        <v>5329</v>
+      </c>
+      <c r="J324">
+        <v>5281</v>
+      </c>
+      <c r="K324">
+        <v>5279</v>
+      </c>
+      <c r="L324">
+        <v>5109</v>
+      </c>
+      <c r="M324">
+        <v>5280</v>
+      </c>
+      <c r="N324">
+        <v>4960</v>
+      </c>
+      <c r="O324">
+        <v>5183</v>
+      </c>
+      <c r="P324">
+        <v>5108</v>
+      </c>
+      <c r="Q324">
+        <v>5183</v>
+      </c>
+      <c r="R324">
+        <v>5331</v>
+      </c>
+      <c r="S324">
+        <v>5249</v>
+      </c>
+      <c r="T324">
+        <v>5279</v>
+      </c>
+      <c r="U324">
+        <v>5056</v>
+      </c>
+      <c r="V324">
+        <v>5013</v>
+      </c>
+      <c r="W324">
+        <v>5331</v>
+      </c>
+      <c r="X324">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>315</v>
+      </c>
+      <c r="C325" t="s">
+        <v>338</v>
+      </c>
+      <c r="D325">
+        <v>5267</v>
+      </c>
+      <c r="E325">
+        <v>5267</v>
+      </c>
+      <c r="F325">
+        <v>5483</v>
+      </c>
+      <c r="G325">
+        <v>5701</v>
+      </c>
+      <c r="H325">
+        <v>5343</v>
+      </c>
+      <c r="I325">
+        <v>5327</v>
+      </c>
+      <c r="J325">
+        <v>5271</v>
+      </c>
+      <c r="K325">
+        <v>5337</v>
+      </c>
+      <c r="L325">
+        <v>5704</v>
+      </c>
+      <c r="M325">
+        <v>5051</v>
+      </c>
+      <c r="N325">
+        <v>5328</v>
+      </c>
+      <c r="O325">
+        <v>5337</v>
+      </c>
+      <c r="P325">
+        <v>5700</v>
+      </c>
+      <c r="Q325">
+        <v>5341</v>
+      </c>
+      <c r="R325">
+        <v>5129</v>
+      </c>
+      <c r="S325">
+        <v>5277</v>
+      </c>
+      <c r="T325">
+        <v>5339</v>
+      </c>
+      <c r="U325">
+        <v>5134</v>
+      </c>
+      <c r="V325">
+        <v>5173</v>
+      </c>
+      <c r="W325">
+        <v>5128</v>
+      </c>
+      <c r="X325">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>316</v>
+      </c>
+      <c r="C326" t="s">
+        <v>339</v>
+      </c>
+      <c r="D326">
+        <v>5290</v>
+      </c>
+      <c r="E326">
+        <v>5291</v>
+      </c>
+      <c r="F326">
+        <v>5292</v>
+      </c>
+      <c r="G326">
+        <v>5295</v>
+      </c>
+      <c r="H326">
+        <v>5292</v>
+      </c>
+      <c r="I326">
+        <v>5459</v>
+      </c>
+      <c r="J326">
+        <v>5293</v>
+      </c>
+      <c r="K326">
+        <v>5435</v>
+      </c>
+      <c r="L326">
+        <v>5297</v>
+      </c>
+      <c r="M326">
+        <v>5435</v>
+      </c>
+      <c r="N326">
+        <v>5461</v>
+      </c>
+      <c r="O326">
+        <v>4988</v>
+      </c>
+      <c r="P326">
+        <v>5295</v>
+      </c>
+      <c r="Q326">
+        <v>4988</v>
+      </c>
+      <c r="R326">
+        <v>5458</v>
+      </c>
+      <c r="S326">
+        <v>5298</v>
+      </c>
+      <c r="T326">
+        <v>5394</v>
+      </c>
+      <c r="U326">
+        <v>5460</v>
+      </c>
+      <c r="V326">
+        <v>5338</v>
+      </c>
+      <c r="W326">
+        <v>5456</v>
+      </c>
+      <c r="X326">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B327">
+        <v>317</v>
+      </c>
+      <c r="C327" t="s">
+        <v>340</v>
+      </c>
+      <c r="D327">
+        <v>5134</v>
+      </c>
+      <c r="E327">
+        <v>5436</v>
+      </c>
+      <c r="F327">
+        <v>5582</v>
+      </c>
+      <c r="G327">
+        <v>5449</v>
+      </c>
+      <c r="H327">
+        <v>5137</v>
+      </c>
+      <c r="I327">
+        <v>5258</v>
+      </c>
+      <c r="J327">
+        <v>5440</v>
+      </c>
+      <c r="K327">
+        <v>5211</v>
+      </c>
+      <c r="L327">
+        <v>5453</v>
+      </c>
+      <c r="M327">
+        <v>5120</v>
+      </c>
+      <c r="N327">
+        <v>5262</v>
+      </c>
+      <c r="O327">
+        <v>5439</v>
+      </c>
+      <c r="P327">
+        <v>5451</v>
+      </c>
+      <c r="Q327">
+        <v>5279</v>
+      </c>
+      <c r="R327">
+        <v>5260</v>
+      </c>
+      <c r="S327">
+        <v>5410</v>
+      </c>
+      <c r="T327">
+        <v>5470</v>
+      </c>
+      <c r="U327">
+        <v>5376</v>
+      </c>
+      <c r="V327">
+        <v>5430</v>
+      </c>
+      <c r="W327">
+        <v>5260</v>
+      </c>
+      <c r="X327">
+        <v>5461</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="B328">
+        <v>318</v>
+      </c>
+      <c r="C328" t="s">
+        <v>341</v>
+      </c>
+      <c r="D328">
+        <v>5371</v>
+      </c>
+      <c r="E328">
+        <v>5464</v>
+      </c>
+      <c r="F328">
+        <v>5185</v>
+      </c>
+      <c r="G328">
+        <v>5469</v>
+      </c>
+      <c r="H328">
+        <v>5411</v>
+      </c>
+      <c r="I328">
+        <v>5323</v>
+      </c>
+      <c r="J328">
+        <v>5464</v>
+      </c>
+      <c r="K328">
+        <v>5372</v>
+      </c>
+      <c r="L328">
+        <v>5471</v>
+      </c>
+      <c r="M328">
+        <v>5096</v>
+      </c>
+      <c r="N328">
+        <v>5323</v>
+      </c>
+      <c r="O328">
+        <v>5417</v>
+      </c>
+      <c r="P328">
+        <v>5470</v>
+      </c>
+      <c r="Q328">
+        <v>4910</v>
+      </c>
+      <c r="R328">
+        <v>5164</v>
+      </c>
+      <c r="S328">
+        <v>5526</v>
+      </c>
+      <c r="T328">
+        <v>4962</v>
+      </c>
+      <c r="U328">
+        <v>5657</v>
+      </c>
+      <c r="V328">
+        <v>5052</v>
+      </c>
+      <c r="W328">
+        <v>5162</v>
+      </c>
+      <c r="X328">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="B329">
+        <v>319</v>
+      </c>
+      <c r="C329" t="s">
+        <v>342</v>
+      </c>
+      <c r="D329">
+        <v>5490</v>
+      </c>
+      <c r="E329">
+        <v>5493</v>
+      </c>
+      <c r="F329">
+        <v>5457</v>
+      </c>
+      <c r="G329">
+        <v>5262</v>
+      </c>
+      <c r="H329">
+        <v>5458</v>
+      </c>
+      <c r="I329">
+        <v>5116</v>
+      </c>
+      <c r="J329">
+        <v>5495</v>
+      </c>
+      <c r="K329">
+        <v>5215</v>
+      </c>
+      <c r="L329">
+        <v>5262</v>
+      </c>
+      <c r="M329">
+        <v>5214</v>
+      </c>
+      <c r="N329">
+        <v>5498</v>
+      </c>
+      <c r="O329">
+        <v>5387</v>
+      </c>
+      <c r="P329">
+        <v>5262</v>
+      </c>
+      <c r="Q329">
+        <v>5488</v>
+      </c>
+      <c r="R329">
+        <v>5118</v>
+      </c>
+      <c r="S329">
+        <v>5499</v>
+      </c>
+      <c r="T329">
+        <v>5487</v>
+      </c>
+      <c r="U329">
+        <v>5500</v>
+      </c>
+      <c r="V329">
+        <v>4999</v>
+      </c>
+      <c r="W329">
+        <v>5118</v>
+      </c>
+      <c r="X329">
+        <v>5288</v>
       </c>
     </row>
   </sheetData>
@@ -24870,7 +25650,7 @@
       <formula>5499</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120:X319">
+  <conditionalFormatting sqref="D120:X329">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>5499</formula>
     </cfRule>
